--- a/Results/Baseline/Lifetime/Results_region_base_life_Min.xlsx
+++ b/Results/Baseline/Lifetime/Results_region_base_life_Min.xlsx
@@ -691,16 +691,16 @@
         <v>1059.16700008873</v>
       </c>
       <c r="E2">
-        <v>1384.321047470046</v>
+        <v>1384.321047470047</v>
       </c>
       <c r="F2">
-        <v>1382.867415040481</v>
+        <v>1382.867415040482</v>
       </c>
       <c r="G2">
         <v>1313.314961111314</v>
       </c>
       <c r="H2">
-        <v>1766.73067213986</v>
+        <v>1766.730672139861</v>
       </c>
       <c r="I2">
         <v>1270.983641943783</v>
@@ -709,10 +709,10 @@
         <v>2310.239045221783</v>
       </c>
       <c r="K2">
-        <v>2295.742623720377</v>
+        <v>2295.742623720378</v>
       </c>
       <c r="L2">
-        <v>2042.355215610372</v>
+        <v>2042.355215610373</v>
       </c>
       <c r="M2">
         <v>1884.352939832432</v>
@@ -721,22 +721,22 @@
         <v>4051.838911890242</v>
       </c>
       <c r="O2">
-        <v>2473.822451049324</v>
+        <v>2473.822451049326</v>
       </c>
       <c r="P2">
-        <v>4957.619693478243</v>
+        <v>4957.619693478245</v>
       </c>
       <c r="Q2">
         <v>5337.873546272888</v>
       </c>
       <c r="R2">
-        <v>5708.134405824954</v>
+        <v>5708.134405824955</v>
       </c>
       <c r="S2">
         <v>12491.5573865759</v>
       </c>
       <c r="T2">
-        <v>13404.32787303561</v>
+        <v>13404.32787303562</v>
       </c>
       <c r="U2">
         <v>14332.67277638825</v>
@@ -748,25 +748,25 @@
         <v>16262.88135644603</v>
       </c>
       <c r="X2">
-        <v>16373.92966080883</v>
+        <v>16373.92966080884</v>
       </c>
       <c r="Y2">
-        <v>17296.45818212532</v>
+        <v>17296.45818212533</v>
       </c>
       <c r="Z2">
         <v>18234.38816897757</v>
       </c>
       <c r="AA2">
-        <v>19141.32703374816</v>
+        <v>19141.32703374817</v>
       </c>
       <c r="AB2">
         <v>20098.14415010271</v>
       </c>
       <c r="AC2">
-        <v>9638.686420042046</v>
+        <v>9638.68642004205</v>
       </c>
       <c r="AD2">
-        <v>9966.597145998992</v>
+        <v>9966.597145998994</v>
       </c>
       <c r="AE2">
         <v>10348.66483911339</v>
@@ -775,19 +775,19 @@
         <v>10613.68897392215</v>
       </c>
       <c r="AG2">
-        <v>10949.41495155503</v>
+        <v>10949.41495155504</v>
       </c>
       <c r="AH2">
-        <v>7487.992889556042</v>
+        <v>7487.992889556045</v>
       </c>
       <c r="AI2">
-        <v>8106.424752389348</v>
+        <v>8106.424752389349</v>
       </c>
       <c r="AJ2">
-        <v>8720.230283046332</v>
+        <v>8720.230283046334</v>
       </c>
       <c r="AK2">
-        <v>9772.196714359721</v>
+        <v>9772.196714359723</v>
       </c>
       <c r="AL2">
         <v>11175.50206001594</v>
@@ -796,10 +796,10 @@
         <v>15023.01082631636</v>
       </c>
       <c r="AN2">
-        <v>17487.21423148279</v>
+        <v>17487.2142314828</v>
       </c>
       <c r="AO2">
-        <v>19028.52703288172</v>
+        <v>19028.52703288173</v>
       </c>
       <c r="AP2">
         <v>20013.05302690344</v>
@@ -808,154 +808,154 @@
         <v>20876.37656386966</v>
       </c>
       <c r="AR2">
-        <v>24869.60985892607</v>
+        <v>24869.60985892608</v>
       </c>
       <c r="AS2">
-        <v>25566.16125333503</v>
+        <v>25566.16125333505</v>
       </c>
       <c r="AT2">
-        <v>26266.19727343477</v>
+        <v>26266.19727343479</v>
       </c>
       <c r="AU2">
-        <v>26625.53016282488</v>
+        <v>26625.53016282489</v>
       </c>
       <c r="AV2">
-        <v>26041.12166026727</v>
+        <v>26041.12166026728</v>
       </c>
       <c r="AW2">
-        <v>24650.6906160989</v>
+        <v>24650.69061609892</v>
       </c>
       <c r="AX2">
-        <v>21981.53806794424</v>
+        <v>21981.53806794426</v>
       </c>
       <c r="AY2">
-        <v>21163.76206367405</v>
+        <v>21163.76206367406</v>
       </c>
       <c r="AZ2">
-        <v>21269.74634920722</v>
+        <v>21269.74634920723</v>
       </c>
       <c r="BA2">
-        <v>21122.80244915046</v>
+        <v>21122.80244915047</v>
       </c>
       <c r="BB2">
         <v>19654.90160352098</v>
       </c>
       <c r="BC2">
-        <v>19093.36005267021</v>
+        <v>19093.36005267022</v>
       </c>
       <c r="BD2">
-        <v>19463.68605144693</v>
+        <v>19463.68605144694</v>
       </c>
       <c r="BE2">
-        <v>20543.04443554573</v>
+        <v>20543.04443554574</v>
       </c>
       <c r="BF2">
-        <v>22153.51183117205</v>
+        <v>22153.51183117206</v>
       </c>
       <c r="BG2">
-        <v>23716.46888568701</v>
+        <v>23716.46888568702</v>
       </c>
       <c r="BH2">
-        <v>26208.20957711595</v>
+        <v>26208.20957711596</v>
       </c>
       <c r="BI2">
-        <v>28265.08332643339</v>
+        <v>28265.0833264334</v>
       </c>
       <c r="BJ2">
-        <v>29823.33785074564</v>
+        <v>29823.33785074565</v>
       </c>
       <c r="BK2">
-        <v>31302.9796285818</v>
+        <v>31302.97962858182</v>
       </c>
       <c r="BL2">
-        <v>32687.69083087832</v>
+        <v>32687.69083087834</v>
       </c>
       <c r="BM2">
-        <v>34447.27107773619</v>
+        <v>34447.2710777362</v>
       </c>
       <c r="BN2">
-        <v>35458.14840039135</v>
+        <v>35458.14840039136</v>
       </c>
       <c r="BO2">
-        <v>35835.71986160775</v>
+        <v>35835.71986160777</v>
       </c>
       <c r="BP2">
-        <v>35642.95155992131</v>
+        <v>35642.95155992133</v>
       </c>
       <c r="BQ2">
-        <v>34578.21398342753</v>
+        <v>34578.21398342754</v>
       </c>
       <c r="BR2">
-        <v>33247.41634231711</v>
+        <v>33247.41634231713</v>
       </c>
       <c r="BS2">
-        <v>32056.52018722874</v>
+        <v>32056.52018722876</v>
       </c>
       <c r="BT2">
-        <v>31510.08419138741</v>
+        <v>31510.08419138743</v>
       </c>
       <c r="BU2">
-        <v>31278.99679828349</v>
+        <v>31278.9967982835</v>
       </c>
       <c r="BV2">
-        <v>30664.24643146215</v>
+        <v>30664.24643146217</v>
       </c>
       <c r="BW2">
-        <v>30257.36556790506</v>
+        <v>30257.36556790508</v>
       </c>
       <c r="BX2">
         <v>30387.60303777118</v>
       </c>
       <c r="BY2">
-        <v>31213.88517450489</v>
+        <v>31213.8851745049</v>
       </c>
       <c r="BZ2">
-        <v>32574.28066351124</v>
+        <v>32574.28066351125</v>
       </c>
       <c r="CA2">
-        <v>34074.80146446299</v>
+        <v>34074.80146446301</v>
       </c>
       <c r="CB2">
-        <v>35995.82051576613</v>
+        <v>35995.82051576615</v>
       </c>
       <c r="CC2">
-        <v>37995.45291089956</v>
+        <v>37995.45291089958</v>
       </c>
       <c r="CD2">
-        <v>39800.99128769825</v>
+        <v>39800.99128769827</v>
       </c>
       <c r="CE2">
-        <v>41385.75845224733</v>
+        <v>41385.75845224736</v>
       </c>
       <c r="CF2">
-        <v>42613.8769857724</v>
+        <v>42613.87698577243</v>
       </c>
       <c r="CG2">
-        <v>44007.33589433064</v>
+        <v>44007.33589433067</v>
       </c>
       <c r="CH2">
-        <v>45142.33593948295</v>
+        <v>45142.33593948297</v>
       </c>
       <c r="CI2">
-        <v>45740.6071651134</v>
+        <v>45740.60716511343</v>
       </c>
       <c r="CJ2">
-        <v>45729.19547875434</v>
+        <v>45729.19547875437</v>
       </c>
       <c r="CK2">
-        <v>44768.51786033872</v>
+        <v>44768.51786033875</v>
       </c>
       <c r="CL2">
-        <v>43827.86931963937</v>
+        <v>43827.86931963939</v>
       </c>
       <c r="CM2">
-        <v>42849.72808174076</v>
+        <v>42849.72808174079</v>
       </c>
       <c r="CN2">
-        <v>42114.93697152328</v>
+        <v>42114.9369715233</v>
       </c>
       <c r="CO2">
-        <v>41678.51002645047</v>
+        <v>41678.51002645049</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -965,22 +965,22 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24710370075029</v>
+        <v>70.24710370075032</v>
       </c>
       <c r="E3">
-        <v>92.03901988247199</v>
+        <v>92.03901988247205</v>
       </c>
       <c r="F3">
-        <v>91.84677746588326</v>
+        <v>91.84677746588331</v>
       </c>
       <c r="G3">
-        <v>87.1744907992141</v>
+        <v>87.17449079921414</v>
       </c>
       <c r="H3">
         <v>117.7060313861666</v>
       </c>
       <c r="I3">
-        <v>84.4003027112705</v>
+        <v>84.40030271127054</v>
       </c>
       <c r="J3">
         <v>154.1108115978373</v>
@@ -992,7 +992,7 @@
         <v>136.0349579150538</v>
       </c>
       <c r="M3">
-        <v>125.3672899267813</v>
+        <v>125.3672899267814</v>
       </c>
       <c r="N3">
         <v>270.8812095288322</v>
@@ -1013,10 +1013,10 @@
         <v>837.5918264039457</v>
       </c>
       <c r="T3">
-        <v>898.8896525309194</v>
+        <v>898.8896525309196</v>
       </c>
       <c r="U3">
-        <v>961.2370868698541</v>
+        <v>961.2370868698544</v>
       </c>
       <c r="V3">
         <v>1025.4343338879</v>
@@ -1040,7 +1040,7 @@
         <v>1348.796041223901</v>
       </c>
       <c r="AC3">
-        <v>646.3637088433968</v>
+        <v>646.3637088433969</v>
       </c>
       <c r="AD3">
         <v>668.2922738015117</v>
@@ -1049,19 +1049,19 @@
         <v>694.0073755834591</v>
       </c>
       <c r="AF3">
-        <v>711.9221740311151</v>
+        <v>711.9221740311152</v>
       </c>
       <c r="AG3">
-        <v>734.4365154648121</v>
+        <v>734.4365154648123</v>
       </c>
       <c r="AH3">
-        <v>502.1404423362859</v>
+        <v>502.1404423362858</v>
       </c>
       <c r="AI3">
         <v>543.9167666207499</v>
       </c>
       <c r="AJ3">
-        <v>585.5838517667598</v>
+        <v>585.5838517667601</v>
       </c>
       <c r="AK3">
         <v>656.9294984495359</v>
@@ -1088,7 +1088,7 @@
         <v>1676.896646890173</v>
       </c>
       <c r="AS3">
-        <v>1724.136390635323</v>
+        <v>1724.136390635324</v>
       </c>
       <c r="AT3">
         <v>1772.34871468398</v>
@@ -1097,16 +1097,16 @@
         <v>1798.216984383374</v>
       </c>
       <c r="AV3">
-        <v>1757.727777867706</v>
+        <v>1757.727777867707</v>
       </c>
       <c r="AW3">
-        <v>1661.392688058788</v>
+        <v>1661.392688058789</v>
       </c>
       <c r="AX3">
         <v>1478.754204034418</v>
       </c>
       <c r="AY3">
-        <v>1422.537994800592</v>
+        <v>1422.537994800593</v>
       </c>
       <c r="AZ3">
         <v>1429.301383789992</v>
@@ -1115,7 +1115,7 @@
         <v>1418.980538086262</v>
       </c>
       <c r="BB3">
-        <v>1319.912082459737</v>
+        <v>1319.912082459738</v>
       </c>
       <c r="BC3">
         <v>1281.90248436059</v>
@@ -1130,13 +1130,13 @@
         <v>1490.154650796598</v>
       </c>
       <c r="BG3">
-        <v>1596.958155719573</v>
+        <v>1596.958155719574</v>
       </c>
       <c r="BH3">
         <v>1766.365161461886</v>
       </c>
       <c r="BI3">
-        <v>1906.242069437998</v>
+        <v>1906.242069437999</v>
       </c>
       <c r="BJ3">
         <v>2012.310317053831</v>
@@ -1148,28 +1148,28 @@
         <v>2209.09042862748</v>
       </c>
       <c r="BM3">
-        <v>2329.029475506062</v>
+        <v>2329.029475506063</v>
       </c>
       <c r="BN3">
         <v>2396.524254028689</v>
       </c>
       <c r="BO3">
-        <v>2420.590965776098</v>
+        <v>2420.590965776099</v>
       </c>
       <c r="BP3">
         <v>2405.753483300623</v>
       </c>
       <c r="BQ3">
-        <v>2331.639060067496</v>
+        <v>2331.639060067497</v>
       </c>
       <c r="BR3">
-        <v>2239.418120011591</v>
+        <v>2239.418120011592</v>
       </c>
       <c r="BS3">
-        <v>2157.307713145362</v>
+        <v>2157.307713145363</v>
       </c>
       <c r="BT3">
-        <v>2119.620082877919</v>
+        <v>2119.62008287792</v>
       </c>
       <c r="BU3">
         <v>2103.767770028396</v>
@@ -1187,7 +1187,7 @@
         <v>2100.460528419314</v>
       </c>
       <c r="BZ3">
-        <v>2193.51293351555</v>
+        <v>2193.512933515551</v>
       </c>
       <c r="CA3">
         <v>2296.582568357083</v>
@@ -1205,10 +1205,10 @@
         <v>2798.219495315951</v>
       </c>
       <c r="CF3">
-        <v>2880.713618930506</v>
+        <v>2880.713618930507</v>
       </c>
       <c r="CG3">
-        <v>2973.815617242016</v>
+        <v>2973.815617242017</v>
       </c>
       <c r="CH3">
         <v>3049.031623778621</v>
@@ -1217,22 +1217,22 @@
         <v>3087.551443967921</v>
       </c>
       <c r="CJ3">
-        <v>3084.76847640378</v>
+        <v>3084.768476403781</v>
       </c>
       <c r="CK3">
-        <v>3018.207293168489</v>
+        <v>3018.20729316849</v>
       </c>
       <c r="CL3">
-        <v>2953.129024084136</v>
+        <v>2953.129024084137</v>
       </c>
       <c r="CM3">
-        <v>2885.866659339317</v>
+        <v>2885.866659339318</v>
       </c>
       <c r="CN3">
-        <v>2835.501730389286</v>
+        <v>2835.501730389287</v>
       </c>
       <c r="CO3">
-        <v>2805.75912672375</v>
+        <v>2805.759126723751</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1245,25 +1245,25 @@
         <v>379421.6337229096</v>
       </c>
       <c r="E4">
-        <v>375664.3848463616</v>
+        <v>375664.3848463615</v>
       </c>
       <c r="F4">
-        <v>462143.8863234155</v>
+        <v>462143.8863234154</v>
       </c>
       <c r="G4">
         <v>519203.0794044498</v>
       </c>
       <c r="H4">
-        <v>686364.510875633</v>
+        <v>686364.5108756328</v>
       </c>
       <c r="I4">
         <v>644711.1494503022</v>
       </c>
       <c r="J4">
-        <v>752140.7766719613</v>
+        <v>752140.7766719615</v>
       </c>
       <c r="K4">
-        <v>672895.2368316308</v>
+        <v>672895.2368316309</v>
       </c>
       <c r="L4">
         <v>564799.5491173709</v>
@@ -1278,238 +1278,238 @@
         <v>892314.0370555097</v>
       </c>
       <c r="P4">
-        <v>3265253.339649979</v>
+        <v>3265253.33964998</v>
       </c>
       <c r="Q4">
-        <v>3279888.486966781</v>
+        <v>3279888.486966783</v>
       </c>
       <c r="R4">
         <v>3296918.7422346</v>
       </c>
       <c r="S4">
-        <v>9546455.123650469</v>
+        <v>9546455.123650471</v>
       </c>
       <c r="T4">
-        <v>9583151.233150046</v>
+        <v>9583151.233150048</v>
       </c>
       <c r="U4">
-        <v>9626461.346458165</v>
+        <v>9626461.346458167</v>
       </c>
       <c r="V4">
-        <v>9678240.249035353</v>
+        <v>9678240.249035357</v>
       </c>
       <c r="W4">
-        <v>9735185.989207203</v>
+        <v>9735185.989207206</v>
       </c>
       <c r="X4">
-        <v>9367285.881767446</v>
+        <v>9367285.881767448</v>
       </c>
       <c r="Y4">
-        <v>9416994.195214361</v>
+        <v>9416994.195214365</v>
       </c>
       <c r="Z4">
         <v>9468278.584776616</v>
       </c>
       <c r="AA4">
-        <v>9534271.584877148</v>
+        <v>9534271.584877152</v>
       </c>
       <c r="AB4">
-        <v>9619847.63541472</v>
+        <v>9619847.635414723</v>
       </c>
       <c r="AC4">
-        <v>1990453.396260184</v>
+        <v>1990453.396260185</v>
       </c>
       <c r="AD4">
-        <v>2034751.700936416</v>
+        <v>2034751.700936417</v>
       </c>
       <c r="AE4">
         <v>2120335.248555962</v>
       </c>
       <c r="AF4">
-        <v>2264746.063697668</v>
+        <v>2264746.063697669</v>
       </c>
       <c r="AG4">
-        <v>2460000.782911652</v>
+        <v>2460000.782911653</v>
       </c>
       <c r="AH4">
-        <v>194047.3545932772</v>
+        <v>194047.3545932775</v>
       </c>
       <c r="AI4">
-        <v>393380.9353443795</v>
+        <v>393380.9353443801</v>
       </c>
       <c r="AJ4">
-        <v>690530.7451911928</v>
+        <v>690530.7451911937</v>
       </c>
       <c r="AK4">
-        <v>1089484.085270045</v>
+        <v>1089484.085270046</v>
       </c>
       <c r="AL4">
-        <v>1485897.825497567</v>
+        <v>1485897.825497568</v>
       </c>
       <c r="AM4">
-        <v>2169603.582904974</v>
+        <v>2169603.582904975</v>
       </c>
       <c r="AN4">
-        <v>2656433.235812166</v>
+        <v>2656433.235812167</v>
       </c>
       <c r="AO4">
-        <v>2975603.851561051</v>
+        <v>2975603.851561053</v>
       </c>
       <c r="AP4">
-        <v>3181745.348019811</v>
+        <v>3181745.348019813</v>
       </c>
       <c r="AQ4">
-        <v>3331654.733181119</v>
+        <v>3331654.733181121</v>
       </c>
       <c r="AR4">
-        <v>4522627.051062277</v>
+        <v>4522627.051062279</v>
       </c>
       <c r="AS4">
-        <v>4530590.642948318</v>
+        <v>4530590.642948319</v>
       </c>
       <c r="AT4">
-        <v>4500360.062839014</v>
+        <v>4500360.062839016</v>
       </c>
       <c r="AU4">
-        <v>4390874.337368749</v>
+        <v>4390874.337368751</v>
       </c>
       <c r="AV4">
-        <v>4124146.104652455</v>
+        <v>4124146.104652457</v>
       </c>
       <c r="AW4">
-        <v>3783697.703400203</v>
+        <v>3783697.703400205</v>
       </c>
       <c r="AX4">
-        <v>3228178.622372612</v>
+        <v>3228178.622372616</v>
       </c>
       <c r="AY4">
-        <v>2910513.744120087</v>
+        <v>2910513.744120089</v>
       </c>
       <c r="AZ4">
-        <v>2738072.156901514</v>
+        <v>2738072.156901516</v>
       </c>
       <c r="BA4">
-        <v>2581041.807072343</v>
+        <v>2581041.807072345</v>
       </c>
       <c r="BB4">
-        <v>2201422.951039439</v>
+        <v>2201422.95103944</v>
       </c>
       <c r="BC4">
-        <v>2071984.986698876</v>
+        <v>2071984.986698877</v>
       </c>
       <c r="BD4">
-        <v>2081332.211959164</v>
+        <v>2081332.211959166</v>
       </c>
       <c r="BE4">
         <v>2221365.405293921</v>
       </c>
       <c r="BF4">
-        <v>2445527.005577926</v>
+        <v>2445527.005577927</v>
       </c>
       <c r="BG4">
-        <v>2565873.609761171</v>
+        <v>2565873.609761172</v>
       </c>
       <c r="BH4">
-        <v>2874746.437012063</v>
+        <v>2874746.437012065</v>
       </c>
       <c r="BI4">
-        <v>3147825.27892229</v>
+        <v>3147825.278922291</v>
       </c>
       <c r="BJ4">
-        <v>3354624.241688473</v>
+        <v>3354624.241688475</v>
       </c>
       <c r="BK4">
-        <v>3526725.104257607</v>
+        <v>3526725.104257608</v>
       </c>
       <c r="BL4">
-        <v>3576038.308268378</v>
+        <v>3576038.30826838</v>
       </c>
       <c r="BM4">
-        <v>3721909.765263501</v>
+        <v>3721909.765263502</v>
       </c>
       <c r="BN4">
-        <v>3777459.831063738</v>
+        <v>3777459.831063739</v>
       </c>
       <c r="BO4">
-        <v>3751684.521315628</v>
+        <v>3751684.52131563</v>
       </c>
       <c r="BP4">
-        <v>3638049.667736984</v>
+        <v>3638049.667736986</v>
       </c>
       <c r="BQ4">
-        <v>3361875.764191139</v>
+        <v>3361875.764191141</v>
       </c>
       <c r="BR4">
-        <v>3079899.416428221</v>
+        <v>3079899.416428224</v>
       </c>
       <c r="BS4">
-        <v>2827035.700487602</v>
+        <v>2827035.700487603</v>
       </c>
       <c r="BT4">
-        <v>2717187.130116489</v>
+        <v>2717187.130116491</v>
       </c>
       <c r="BU4">
-        <v>2643107.340929641</v>
+        <v>2643107.340929644</v>
       </c>
       <c r="BV4">
-        <v>2493522.695132949</v>
+        <v>2493522.69513295</v>
       </c>
       <c r="BW4">
-        <v>2404615.183206767</v>
+        <v>2404615.18320677</v>
       </c>
       <c r="BX4">
-        <v>2320923.891754733</v>
+        <v>2320923.891754736</v>
       </c>
       <c r="BY4">
-        <v>2354244.468562454</v>
+        <v>2354244.468562455</v>
       </c>
       <c r="BZ4">
-        <v>2478473.053783549</v>
+        <v>2478473.05378355</v>
       </c>
       <c r="CA4">
-        <v>2609413.674247602</v>
+        <v>2609413.674247604</v>
       </c>
       <c r="CB4">
-        <v>2789823.533087319</v>
+        <v>2789823.533087322</v>
       </c>
       <c r="CC4">
-        <v>2966305.515967289</v>
+        <v>2966305.51596729</v>
       </c>
       <c r="CD4">
-        <v>3112100.396215607</v>
+        <v>3112100.396215609</v>
       </c>
       <c r="CE4">
-        <v>3220416.517465078</v>
+        <v>3220416.51746508</v>
       </c>
       <c r="CF4">
-        <v>3287473.97163482</v>
+        <v>3287473.971634821</v>
       </c>
       <c r="CG4">
-        <v>3351868.999619702</v>
+        <v>3351868.999619703</v>
       </c>
       <c r="CH4">
-        <v>3382340.709122614</v>
+        <v>3382340.709122615</v>
       </c>
       <c r="CI4">
-        <v>3355047.271492011</v>
+        <v>3355047.271492013</v>
       </c>
       <c r="CJ4">
-        <v>3261887.79624819</v>
+        <v>3261887.796248191</v>
       </c>
       <c r="CK4">
-        <v>3093258.978520075</v>
+        <v>3093258.978520077</v>
       </c>
       <c r="CL4">
-        <v>2899471.366303346</v>
+        <v>2899471.366303348</v>
       </c>
       <c r="CM4">
-        <v>2714713.439440106</v>
+        <v>2714713.439440108</v>
       </c>
       <c r="CN4">
-        <v>2706361.107314215</v>
+        <v>2706361.107314217</v>
       </c>
       <c r="CO4">
-        <v>2681379.647972005</v>
+        <v>2681379.647972007</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724677.179362033</v>
+        <v>1724677.179362034</v>
       </c>
       <c r="E5">
         <v>1168911.270550145</v>
       </c>
       <c r="F5">
-        <v>1140422.964449006</v>
+        <v>1140422.964449007</v>
       </c>
       <c r="G5">
         <v>1093656.946811642</v>
@@ -1540,7 +1540,7 @@
         <v>1552045.662609379</v>
       </c>
       <c r="K5">
-        <v>1326771.485940921</v>
+        <v>1326771.485940922</v>
       </c>
       <c r="L5">
         <v>1183701.314548401</v>
@@ -1552,10 +1552,10 @@
         <v>1429828.6884502</v>
       </c>
       <c r="O5">
-        <v>1892962.847902501</v>
+        <v>1892962.847902502</v>
       </c>
       <c r="P5">
-        <v>13824668.56974586</v>
+        <v>13824668.56974587</v>
       </c>
       <c r="Q5">
         <v>13861831.64779243</v>
@@ -1564,28 +1564,28 @@
         <v>13907104.90687419</v>
       </c>
       <c r="S5">
-        <v>46046290.28643087</v>
+        <v>46046290.28643088</v>
       </c>
       <c r="T5">
-        <v>46110716.65029761</v>
+        <v>46110716.65029762</v>
       </c>
       <c r="U5">
-        <v>46186959.26804134</v>
+        <v>46186959.26804135</v>
       </c>
       <c r="V5">
-        <v>46278084.88911847</v>
+        <v>46278084.88911848</v>
       </c>
       <c r="W5">
         <v>46389407.57666808</v>
       </c>
       <c r="X5">
-        <v>48687388.64088406</v>
+        <v>48687388.64088407</v>
       </c>
       <c r="Y5">
-        <v>48868449.23131563</v>
+        <v>48868449.23131564</v>
       </c>
       <c r="Z5">
-        <v>49107914.65715974</v>
+        <v>49107914.65715975</v>
       </c>
       <c r="AA5">
         <v>49428719.24506731</v>
@@ -1612,7 +1612,7 @@
         <v>9227701.241806116</v>
       </c>
       <c r="AI5">
-        <v>11495223.26745299</v>
+        <v>11495223.26745298</v>
       </c>
       <c r="AJ5">
         <v>14101688.0163633</v>
@@ -1624,7 +1624,7 @@
         <v>20134283.66855064</v>
       </c>
       <c r="AM5">
-        <v>28102142.66350135</v>
+        <v>28102142.66350136</v>
       </c>
       <c r="AN5">
         <v>31326722.08505711</v>
@@ -1642,16 +1642,16 @@
         <v>47661686.6800503</v>
       </c>
       <c r="AS5">
-        <v>48538963.69368594</v>
+        <v>48538963.69368595</v>
       </c>
       <c r="AT5">
         <v>48682519.68977801</v>
       </c>
       <c r="AU5">
-        <v>48123373.39725519</v>
+        <v>48123373.39725518</v>
       </c>
       <c r="AV5">
-        <v>46948064.68031061</v>
+        <v>46948064.6803106</v>
       </c>
       <c r="AW5">
         <v>47225517.11616352</v>
@@ -1663,13 +1663,13 @@
         <v>43143547.5553823</v>
       </c>
       <c r="AZ5">
-        <v>41095763.52329587</v>
+        <v>41095763.52329586</v>
       </c>
       <c r="BA5">
         <v>39287259.62820368</v>
       </c>
       <c r="BB5">
-        <v>36710006.06862989</v>
+        <v>36710006.06862988</v>
       </c>
       <c r="BC5">
         <v>35814184.04063226</v>
@@ -1684,10 +1684,10 @@
         <v>36701643.3600164</v>
       </c>
       <c r="BG5">
-        <v>37442817.71690576</v>
+        <v>37442817.71690575</v>
       </c>
       <c r="BH5">
-        <v>39244217.8057617</v>
+        <v>39244217.80576169</v>
       </c>
       <c r="BI5">
         <v>41326173.05266362</v>
@@ -1699,7 +1699,7 @@
         <v>45806285.3595968</v>
       </c>
       <c r="BL5">
-        <v>47833476.24845852</v>
+        <v>47833476.24845851</v>
       </c>
       <c r="BM5">
         <v>49773469.25351521</v>
@@ -1717,19 +1717,19 @@
         <v>54215007.97107038</v>
       </c>
       <c r="BR5">
-        <v>54426883.24366497</v>
+        <v>54426883.24366496</v>
       </c>
       <c r="BS5">
-        <v>54344868.43823527</v>
+        <v>54344868.43823526</v>
       </c>
       <c r="BT5">
-        <v>54038026.66101401</v>
+        <v>54038026.661014</v>
       </c>
       <c r="BU5">
         <v>53587467.74773848</v>
       </c>
       <c r="BV5">
-        <v>52884821.86631859</v>
+        <v>52884821.86631858</v>
       </c>
       <c r="BW5">
         <v>52404522.49231344</v>
@@ -1738,7 +1738,7 @@
         <v>52028320.65880664</v>
       </c>
       <c r="BY5">
-        <v>51819149.0306394</v>
+        <v>51819149.03063939</v>
       </c>
       <c r="BZ5">
         <v>51822409.38690586</v>
@@ -1747,10 +1747,10 @@
         <v>51745274.42449816</v>
       </c>
       <c r="CB5">
-        <v>52230107.91542266</v>
+        <v>52230107.91542265</v>
       </c>
       <c r="CC5">
-        <v>52944529.14960467</v>
+        <v>52944529.14960466</v>
       </c>
       <c r="CD5">
         <v>53857831.1141194</v>
@@ -1759,10 +1759,10 @@
         <v>54926133.48501258</v>
       </c>
       <c r="CF5">
-        <v>55562829.99408395</v>
+        <v>55562829.99408394</v>
       </c>
       <c r="CG5">
-        <v>56779745.78698792</v>
+        <v>56779745.7869879</v>
       </c>
       <c r="CH5">
         <v>57987406.84220318</v>
@@ -1771,22 +1771,22 @@
         <v>59135574.70799045</v>
       </c>
       <c r="CJ5">
-        <v>60182499.4233639</v>
+        <v>60182499.42336389</v>
       </c>
       <c r="CK5">
-        <v>60262852.66520023</v>
+        <v>60262852.66520022</v>
       </c>
       <c r="CL5">
-        <v>61026911.9145367</v>
+        <v>61026911.91453669</v>
       </c>
       <c r="CM5">
-        <v>61634134.96077553</v>
+        <v>61634134.96077552</v>
       </c>
       <c r="CN5">
-        <v>62090461.70280562</v>
+        <v>62090461.70280561</v>
       </c>
       <c r="CO5">
-        <v>62412351.94043734</v>
+        <v>62412351.94043733</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -1800,16 +1800,16 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465606491950592</v>
+        <v>0.8465606491950595</v>
       </c>
       <c r="E6">
-        <v>0.8595215301868663</v>
+        <v>0.8595215301868664</v>
       </c>
       <c r="F6">
-        <v>0.9079260377790513</v>
+        <v>0.9079260377790516</v>
       </c>
       <c r="G6">
-        <v>0.9150921320909524</v>
+        <v>0.9150921320909525</v>
       </c>
       <c r="H6">
         <v>0.8888812113845964</v>
@@ -1842,10 +1842,10 @@
         <v>1.177166555175266</v>
       </c>
       <c r="R6">
-        <v>1.205300979643577</v>
+        <v>1.205300979643578</v>
       </c>
       <c r="S6">
-        <v>1.315651231320531</v>
+        <v>1.315651231320532</v>
       </c>
       <c r="T6">
         <v>1.349629941838763</v>
@@ -1863,7 +1863,7 @@
         <v>1.484189440111739</v>
       </c>
       <c r="Y6">
-        <v>1.516910271882289</v>
+        <v>1.51691027188229</v>
       </c>
       <c r="Z6">
         <v>1.549649885554998</v>
@@ -1878,7 +1878,7 @@
         <v>1.562156895260306</v>
       </c>
       <c r="AD6">
-        <v>1.595940436300615</v>
+        <v>1.595940436300616</v>
       </c>
       <c r="AE6">
         <v>1.630238021675115</v>
@@ -1899,7 +1899,7 @@
         <v>1.788998639286812</v>
       </c>
       <c r="AK6">
-        <v>1.831161537241165</v>
+        <v>1.831161537241166</v>
       </c>
       <c r="AL6">
         <v>1.874471404101176</v>
@@ -1914,7 +1914,7 @@
         <v>2.020877653904497</v>
       </c>
       <c r="AP6">
-        <v>2.05932284528441</v>
+        <v>2.059322845284411</v>
       </c>
       <c r="AQ6">
         <v>2.096473976961437</v>
@@ -1947,10 +1947,10 @@
         <v>2.399829981032017</v>
       </c>
       <c r="BA6">
-        <v>2.433664708619117</v>
+        <v>2.433664708619118</v>
       </c>
       <c r="BB6">
-        <v>2.467096729612135</v>
+        <v>2.467096729612136</v>
       </c>
       <c r="BC6">
         <v>2.50501710865554</v>
@@ -1959,7 +1959,7 @@
         <v>2.546155519471205</v>
       </c>
       <c r="BE6">
-        <v>2.590568618655049</v>
+        <v>2.59056861865505</v>
       </c>
       <c r="BF6">
         <v>2.637688291051047</v>
@@ -1977,7 +1977,7 @@
         <v>2.842216200550739</v>
       </c>
       <c r="BK6">
-        <v>2.890484341340237</v>
+        <v>2.890484341340238</v>
       </c>
       <c r="BL6">
         <v>2.940119306355844</v>
@@ -1986,7 +1986,7 @@
         <v>2.989939284020059</v>
       </c>
       <c r="BN6">
-        <v>3.03749918841937</v>
+        <v>3.037499188419369</v>
       </c>
       <c r="BO6">
         <v>3.083020893444465</v>
@@ -1998,7 +1998,7 @@
         <v>3.17056836098362</v>
       </c>
       <c r="BR6">
-        <v>3.213406684133712</v>
+        <v>3.213406684133713</v>
       </c>
       <c r="BS6">
         <v>3.256777390980719</v>
@@ -2022,22 +2022,22 @@
         <v>3.552287698066987</v>
       </c>
       <c r="BZ6">
-        <v>3.607802004063813</v>
+        <v>3.607802004063814</v>
       </c>
       <c r="CA6">
         <v>3.666983969290096</v>
       </c>
       <c r="CB6">
-        <v>3.727683625005764</v>
+        <v>3.727683625005765</v>
       </c>
       <c r="CC6">
-        <v>3.788253229133933</v>
+        <v>3.788253229133934</v>
       </c>
       <c r="CD6">
-        <v>3.847671768560356</v>
+        <v>3.847671768560355</v>
       </c>
       <c r="CE6">
-        <v>3.90582159101421</v>
+        <v>3.905821591014212</v>
       </c>
       <c r="CF6">
         <v>3.965431636632103</v>
@@ -2052,19 +2052,19 @@
         <v>4.143086239102058</v>
       </c>
       <c r="CJ6">
-        <v>4.199459384303746</v>
+        <v>4.199459384303747</v>
       </c>
       <c r="CK6">
         <v>4.255754865555609</v>
       </c>
       <c r="CL6">
-        <v>4.312809977877043</v>
+        <v>4.312809977877044</v>
       </c>
       <c r="CM6">
         <v>4.370019328791416</v>
       </c>
       <c r="CN6">
-        <v>4.429381583388149</v>
+        <v>4.42938158338815</v>
       </c>
       <c r="CO6">
         <v>4.489307842023709</v>
@@ -2080,118 +2080,118 @@
         <v>0.0425716104902962</v>
       </c>
       <c r="E7">
-        <v>0.04268942694256615</v>
+        <v>0.04268942694256614</v>
       </c>
       <c r="F7">
-        <v>0.04442438202076933</v>
+        <v>0.04442438202076932</v>
       </c>
       <c r="G7">
-        <v>0.04489262736085219</v>
+        <v>0.04489262736085218</v>
       </c>
       <c r="H7">
         <v>0.044381965257838</v>
       </c>
       <c r="I7">
-        <v>0.04369991601241422</v>
+        <v>0.04369991601241421</v>
       </c>
       <c r="J7">
-        <v>0.04501525108717569</v>
+        <v>0.04501525108717568</v>
       </c>
       <c r="K7">
-        <v>0.04943922848955571</v>
+        <v>0.0494392284895557</v>
       </c>
       <c r="L7">
-        <v>0.05083632175202397</v>
+        <v>0.05083632175202395</v>
       </c>
       <c r="M7">
         <v>0.05435043357422688</v>
       </c>
       <c r="N7">
-        <v>0.05777982839803716</v>
+        <v>0.05777982839803714</v>
       </c>
       <c r="O7">
-        <v>0.05284298246810506</v>
+        <v>0.05284298246810505</v>
       </c>
       <c r="P7">
-        <v>0.05686170088108036</v>
+        <v>0.05686170088108034</v>
       </c>
       <c r="Q7">
-        <v>0.05828119761737829</v>
+        <v>0.05828119761737827</v>
       </c>
       <c r="R7">
-        <v>0.05970504589242218</v>
+        <v>0.05970504589242216</v>
       </c>
       <c r="S7">
         <v>0.06465962849980311</v>
       </c>
       <c r="T7">
-        <v>0.06635372554568443</v>
+        <v>0.06635372554568442</v>
       </c>
       <c r="U7">
-        <v>0.06805125964780041</v>
+        <v>0.06805125964780039</v>
       </c>
       <c r="V7">
-        <v>0.06975225795295109</v>
+        <v>0.06975225795295106</v>
       </c>
       <c r="W7">
-        <v>0.07145211180988113</v>
+        <v>0.07145211180988112</v>
       </c>
       <c r="X7">
-        <v>0.07301581478499067</v>
+        <v>0.07301581478499064</v>
       </c>
       <c r="Y7">
-        <v>0.07464250299825526</v>
+        <v>0.07464250299825521</v>
       </c>
       <c r="Z7">
-        <v>0.07626922139340969</v>
+        <v>0.07626922139340965</v>
       </c>
       <c r="AA7">
         <v>0.07789905643947763</v>
       </c>
       <c r="AB7">
-        <v>0.0795540301427511</v>
+        <v>0.07955403014275107</v>
       </c>
       <c r="AC7">
-        <v>0.07746385484216563</v>
+        <v>0.07746385484216561</v>
       </c>
       <c r="AD7">
-        <v>0.07913209851253568</v>
+        <v>0.07913209851253565</v>
       </c>
       <c r="AE7">
-        <v>0.08082254862492916</v>
+        <v>0.08082254862492912</v>
       </c>
       <c r="AF7">
-        <v>0.08255153505356251</v>
+        <v>0.08255153505356248</v>
       </c>
       <c r="AG7">
-        <v>0.08432461874704814</v>
+        <v>0.08432461874704812</v>
       </c>
       <c r="AH7">
-        <v>0.08497449700870453</v>
+        <v>0.08497449700870452</v>
       </c>
       <c r="AI7">
-        <v>0.08682209955017528</v>
+        <v>0.08682209955017525</v>
       </c>
       <c r="AJ7">
-        <v>0.08875298860641689</v>
+        <v>0.08875298860641687</v>
       </c>
       <c r="AK7">
         <v>0.09079467538935954</v>
       </c>
       <c r="AL7">
-        <v>0.09288817813972861</v>
+        <v>0.09288817813972856</v>
       </c>
       <c r="AM7">
-        <v>0.09561067413364134</v>
+        <v>0.09561067413364133</v>
       </c>
       <c r="AN7">
-        <v>0.09787006406008886</v>
+        <v>0.09787006406008883</v>
       </c>
       <c r="AO7">
-        <v>0.09988496258346895</v>
+        <v>0.09988496258346891</v>
       </c>
       <c r="AP7">
-        <v>0.1017460011746476</v>
+        <v>0.1017460011746475</v>
       </c>
       <c r="AQ7">
         <v>0.1035508334266896</v>
@@ -2215,7 +2215,7 @@
         <v>0.1140018902969254</v>
       </c>
       <c r="AX7">
-        <v>0.1152668887913592</v>
+        <v>0.1152668887913591</v>
       </c>
       <c r="AY7">
         <v>0.116801728189393</v>
@@ -2236,46 +2236,46 @@
         <v>0.1257745147081845</v>
       </c>
       <c r="BE7">
-        <v>0.1279490516701873</v>
+        <v>0.1279490516701872</v>
       </c>
       <c r="BF7">
-        <v>0.1302457215153765</v>
+        <v>0.1302457215153764</v>
       </c>
       <c r="BG7">
         <v>0.1326834755453968</v>
       </c>
       <c r="BH7">
-        <v>0.1352647733716196</v>
+        <v>0.1352647733716195</v>
       </c>
       <c r="BI7">
         <v>0.1377682855085798</v>
       </c>
       <c r="BJ7">
-        <v>0.1401570076397328</v>
+        <v>0.1401570076397327</v>
       </c>
       <c r="BK7">
-        <v>0.1424913244005789</v>
+        <v>0.1424913244005788</v>
       </c>
       <c r="BL7">
-        <v>0.1448897941023735</v>
+        <v>0.1448897941023734</v>
       </c>
       <c r="BM7">
-        <v>0.147298855218614</v>
+        <v>0.1472988552186139</v>
       </c>
       <c r="BN7">
-        <v>0.1496037839907601</v>
+        <v>0.14960378399076</v>
       </c>
       <c r="BO7">
         <v>0.1518157809759649</v>
       </c>
       <c r="BP7">
-        <v>0.1539326366242498</v>
+        <v>0.1539326366242497</v>
       </c>
       <c r="BQ7">
-        <v>0.1560859406513549</v>
+        <v>0.1560859406513548</v>
       </c>
       <c r="BR7">
-        <v>0.158183579528179</v>
+        <v>0.1581835795281789</v>
       </c>
       <c r="BS7">
         <v>0.1603106750664574</v>
@@ -2296,7 +2296,7 @@
         <v>0.172194121893063</v>
       </c>
       <c r="BY7">
-        <v>0.1747847648821521</v>
+        <v>0.174784764882152</v>
       </c>
       <c r="BZ7">
         <v>0.1774904918882081</v>
@@ -2314,16 +2314,16 @@
         <v>0.1891386015617796</v>
       </c>
       <c r="CE7">
-        <v>0.1919568627599644</v>
+        <v>0.1919568627599643</v>
       </c>
       <c r="CF7">
-        <v>0.1948500772941673</v>
+        <v>0.1948500772941672</v>
       </c>
       <c r="CG7">
-        <v>0.1977662363347653</v>
+        <v>0.1977662363347652</v>
       </c>
       <c r="CH7">
-        <v>0.2006424719484311</v>
+        <v>0.200642471948431</v>
       </c>
       <c r="CI7">
         <v>0.2034509050895003</v>
@@ -2332,16 +2332,16 @@
         <v>0.2061838427013557</v>
       </c>
       <c r="CK7">
-        <v>0.2089263920115592</v>
+        <v>0.2089263920115591</v>
       </c>
       <c r="CL7">
-        <v>0.2116956411194581</v>
+        <v>0.211695641119458</v>
       </c>
       <c r="CM7">
-        <v>0.2144743154503068</v>
+        <v>0.2144743154503067</v>
       </c>
       <c r="CN7">
-        <v>0.2173587665984689</v>
+        <v>0.2173587665984688</v>
       </c>
       <c r="CO7">
         <v>0.2202717380183369</v>
@@ -2354,274 +2354,274 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804846.9438147569</v>
+        <v>804846.9438147575</v>
       </c>
       <c r="E8">
-        <v>568218.8790477207</v>
+        <v>568218.8790477208</v>
       </c>
       <c r="F8">
-        <v>363130.0514967852</v>
+        <v>363130.0514967854</v>
       </c>
       <c r="G8">
-        <v>301769.6728524324</v>
+        <v>301769.6728524325</v>
       </c>
       <c r="H8">
-        <v>323954.5484751888</v>
+        <v>323954.5484751889</v>
       </c>
       <c r="I8">
-        <v>256198.5985127603</v>
+        <v>256198.5985127604</v>
       </c>
       <c r="J8">
-        <v>290234.1582587258</v>
+        <v>290234.1582587259</v>
       </c>
       <c r="K8">
         <v>254751.1343861211</v>
       </c>
       <c r="L8">
-        <v>307824.859057007</v>
+        <v>307824.8590570072</v>
       </c>
       <c r="M8">
-        <v>280428.122258069</v>
+        <v>280428.1222580691</v>
       </c>
       <c r="N8">
-        <v>337033.2641703911</v>
+        <v>337033.2641703913</v>
       </c>
       <c r="O8">
-        <v>454273.833563531</v>
+        <v>454273.8335635311</v>
       </c>
       <c r="P8">
-        <v>1789574.958974567</v>
+        <v>1789574.958974568</v>
       </c>
       <c r="Q8">
-        <v>1797475.806358564</v>
+        <v>1797475.806358565</v>
       </c>
       <c r="R8">
-        <v>1809424.112178562</v>
+        <v>1809424.112178563</v>
       </c>
       <c r="S8">
-        <v>5758221.289781478</v>
+        <v>5758221.28978148</v>
       </c>
       <c r="T8">
-        <v>5783951.802029637</v>
+        <v>5783951.80202964</v>
       </c>
       <c r="U8">
-        <v>5809973.285376367</v>
+        <v>5809973.28537637</v>
       </c>
       <c r="V8">
-        <v>5837975.521017671</v>
+        <v>5837975.521017673</v>
       </c>
       <c r="W8">
-        <v>5867311.129813525</v>
+        <v>5867311.129813529</v>
       </c>
       <c r="X8">
-        <v>5573215.746357028</v>
+        <v>5573215.746357031</v>
       </c>
       <c r="Y8">
-        <v>5600640.53986035</v>
+        <v>5600640.539860354</v>
       </c>
       <c r="Z8">
-        <v>5631849.176951276</v>
+        <v>5631849.17695128</v>
       </c>
       <c r="AA8">
-        <v>5663883.712274415</v>
+        <v>5663883.712274419</v>
       </c>
       <c r="AB8">
-        <v>5703051.072494872</v>
+        <v>5703051.072494876</v>
       </c>
       <c r="AC8">
-        <v>1212058.819836371</v>
+        <v>1212058.819836372</v>
       </c>
       <c r="AD8">
-        <v>1251707.028097821</v>
+        <v>1251707.028097823</v>
       </c>
       <c r="AE8">
-        <v>1301524.979906228</v>
+        <v>1301524.979906229</v>
       </c>
       <c r="AF8">
-        <v>1365524.3230429</v>
+        <v>1365524.323042901</v>
       </c>
       <c r="AG8">
-        <v>1456202.809661431</v>
+        <v>1456202.809661432</v>
       </c>
       <c r="AH8">
-        <v>179251.6658341218</v>
+        <v>179251.6658341222</v>
       </c>
       <c r="AI8">
-        <v>287310.2815135771</v>
+        <v>287310.2815135776</v>
       </c>
       <c r="AJ8">
-        <v>458705.5191886234</v>
+        <v>458705.5191886241</v>
       </c>
       <c r="AK8">
-        <v>684164.677155601</v>
+        <v>684164.6771556018</v>
       </c>
       <c r="AL8">
-        <v>950564.6227426952</v>
+        <v>950564.6227426962</v>
       </c>
       <c r="AM8">
-        <v>2105981.51500668</v>
+        <v>2105981.515006682</v>
       </c>
       <c r="AN8">
-        <v>2467092.44637107</v>
+        <v>2467092.446371072</v>
       </c>
       <c r="AO8">
-        <v>2701576.084148978</v>
+        <v>2701576.084148981</v>
       </c>
       <c r="AP8">
-        <v>2850080.168819148</v>
+        <v>2850080.16881915</v>
       </c>
       <c r="AQ8">
-        <v>2957841.89571474</v>
+        <v>2957841.895714744</v>
       </c>
       <c r="AR8">
-        <v>3475900.705873118</v>
+        <v>3475900.705873122</v>
       </c>
       <c r="AS8">
-        <v>3486813.932859759</v>
+        <v>3486813.932859763</v>
       </c>
       <c r="AT8">
-        <v>3462920.381059914</v>
+        <v>3462920.381059917</v>
       </c>
       <c r="AU8">
-        <v>3385072.283256957</v>
+        <v>3385072.28325696</v>
       </c>
       <c r="AV8">
-        <v>3219970.78825859</v>
+        <v>3219970.788258593</v>
       </c>
       <c r="AW8">
-        <v>3116899.595541693</v>
+        <v>3116899.595541697</v>
       </c>
       <c r="AX8">
-        <v>2802284.779721429</v>
+        <v>2802284.779721431</v>
       </c>
       <c r="AY8">
-        <v>2597693.567822651</v>
+        <v>2597693.567822653</v>
       </c>
       <c r="AZ8">
-        <v>2457693.629218472</v>
+        <v>2457693.629218474</v>
       </c>
       <c r="BA8">
-        <v>2327697.473424845</v>
+        <v>2327697.473424848</v>
       </c>
       <c r="BB8">
-        <v>2121251.94698335</v>
+        <v>2121251.946983352</v>
       </c>
       <c r="BC8">
-        <v>2045373.224273578</v>
+        <v>2045373.22427358</v>
       </c>
       <c r="BD8">
-        <v>2036927.353917137</v>
+        <v>2036927.353917139</v>
       </c>
       <c r="BE8">
-        <v>2114840.60055846</v>
+        <v>2114840.600558462</v>
       </c>
       <c r="BF8">
-        <v>2267482.415477594</v>
+        <v>2267482.415477597</v>
       </c>
       <c r="BG8">
-        <v>2406436.423252149</v>
+        <v>2406436.423252151</v>
       </c>
       <c r="BH8">
-        <v>2670367.837449775</v>
+        <v>2670367.837449778</v>
       </c>
       <c r="BI8">
-        <v>2896774.075606866</v>
+        <v>2896774.075606869</v>
       </c>
       <c r="BJ8">
-        <v>3062694.267461066</v>
+        <v>3062694.267461068</v>
       </c>
       <c r="BK8">
-        <v>3192790.393811737</v>
+        <v>3192790.39381174</v>
       </c>
       <c r="BL8">
-        <v>3243132.397850031</v>
+        <v>3243132.397850033</v>
       </c>
       <c r="BM8">
-        <v>3338098.974738416</v>
+        <v>3338098.974738419</v>
       </c>
       <c r="BN8">
-        <v>3391523.450634156</v>
+        <v>3391523.450634159</v>
       </c>
       <c r="BO8">
-        <v>3401678.711750062</v>
+        <v>3401678.711750066</v>
       </c>
       <c r="BP8">
-        <v>3360975.944458441</v>
+        <v>3360975.944458445</v>
       </c>
       <c r="BQ8">
-        <v>3217670.428536423</v>
+        <v>3217670.428536426</v>
       </c>
       <c r="BR8">
-        <v>3081856.135688069</v>
+        <v>3081856.135688072</v>
       </c>
       <c r="BS8">
-        <v>2951074.905717973</v>
+        <v>2951074.905717975</v>
       </c>
       <c r="BT8">
-        <v>2880243.863605949</v>
+        <v>2880243.863605951</v>
       </c>
       <c r="BU8">
-        <v>2839219.619212689</v>
+        <v>2839219.619212692</v>
       </c>
       <c r="BV8">
-        <v>2749287.603958416</v>
+        <v>2749287.603958419</v>
       </c>
       <c r="BW8">
-        <v>2700530.814454275</v>
+        <v>2700530.814454278</v>
       </c>
       <c r="BX8">
-        <v>2658090.557704094</v>
+        <v>2658090.557704096</v>
       </c>
       <c r="BY8">
-        <v>2636934.887585955</v>
+        <v>2636934.887585958</v>
       </c>
       <c r="BZ8">
-        <v>2716466.058095836</v>
+        <v>2716466.058095838</v>
       </c>
       <c r="CA8">
-        <v>2791283.972910334</v>
+        <v>2791283.972910337</v>
       </c>
       <c r="CB8">
-        <v>2939578.536251992</v>
+        <v>2939578.536251995</v>
       </c>
       <c r="CC8">
-        <v>3085968.694049496</v>
+        <v>3085968.694049499</v>
       </c>
       <c r="CD8">
-        <v>3202950.866568614</v>
+        <v>3202950.866568618</v>
       </c>
       <c r="CE8">
-        <v>3286396.280795747</v>
+        <v>3286396.280795751</v>
       </c>
       <c r="CF8">
-        <v>3294041.247171041</v>
+        <v>3294041.247171044</v>
       </c>
       <c r="CG8">
-        <v>3343532.985270933</v>
+        <v>3343532.985270935</v>
       </c>
       <c r="CH8">
-        <v>3377602.340482486</v>
+        <v>3377602.340482489</v>
       </c>
       <c r="CI8">
-        <v>3386281.937287737</v>
+        <v>3386281.93728774</v>
       </c>
       <c r="CJ8">
-        <v>3363050.154507287</v>
+        <v>3363050.154507289</v>
       </c>
       <c r="CK8">
-        <v>3231607.681397029</v>
+        <v>3231607.681397032</v>
       </c>
       <c r="CL8">
-        <v>3152126.373883249</v>
+        <v>3152126.373883252</v>
       </c>
       <c r="CM8">
-        <v>3082012.494194105</v>
+        <v>3082012.494194109</v>
       </c>
       <c r="CN8">
-        <v>3099743.786473038</v>
+        <v>3099743.786473041</v>
       </c>
       <c r="CO8">
-        <v>3097049.375239849</v>
+        <v>3097049.375239852</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2631,274 +2631,274 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>163715.3845150303</v>
+        <v>163715.3845150304</v>
       </c>
       <c r="E9">
-        <v>104510.0472679767</v>
+        <v>104510.0472679768</v>
       </c>
       <c r="F9">
-        <v>79644.2132022546</v>
+        <v>79644.21320225453</v>
       </c>
       <c r="G9">
-        <v>79379.78408547184</v>
+        <v>79379.78408547177</v>
       </c>
       <c r="H9">
-        <v>73278.53637852984</v>
+        <v>73278.53637852975</v>
       </c>
       <c r="I9">
-        <v>70549.7273873813</v>
+        <v>70549.72738738119</v>
       </c>
       <c r="J9">
-        <v>65038.59622978229</v>
+        <v>65038.5962297822</v>
       </c>
       <c r="K9">
-        <v>68478.03238314961</v>
+        <v>68478.03238314952</v>
       </c>
       <c r="L9">
-        <v>83087.90281245443</v>
+        <v>83087.90281245434</v>
       </c>
       <c r="M9">
-        <v>84169.66867966154</v>
+        <v>84169.66867966144</v>
       </c>
       <c r="N9">
-        <v>90809.36586482156</v>
+        <v>90809.36586482148</v>
       </c>
       <c r="O9">
-        <v>104565.1100657298</v>
+        <v>104565.1100657297</v>
       </c>
       <c r="P9">
-        <v>982231.7865724942</v>
+        <v>982231.786572493</v>
       </c>
       <c r="Q9">
-        <v>985421.7520814369</v>
+        <v>985421.7520814358</v>
       </c>
       <c r="R9">
-        <v>989212.8239835656</v>
+        <v>989212.8239835646</v>
       </c>
       <c r="S9">
-        <v>3192417.270013963</v>
+        <v>3192417.270013959</v>
       </c>
       <c r="T9">
-        <v>3197496.596182812</v>
+        <v>3197496.596182808</v>
       </c>
       <c r="U9">
-        <v>3203294.385439392</v>
+        <v>3203294.385439389</v>
       </c>
       <c r="V9">
-        <v>3209958.326786592</v>
+        <v>3209958.326786588</v>
       </c>
       <c r="W9">
-        <v>3217789.839435025</v>
+        <v>3217789.83943502</v>
       </c>
       <c r="X9">
-        <v>3473352.289842475</v>
+        <v>3473352.28984247</v>
       </c>
       <c r="Y9">
-        <v>3485389.016944044</v>
+        <v>3485389.016944039</v>
       </c>
       <c r="Z9">
-        <v>3501125.736035957</v>
+        <v>3501125.736035953</v>
       </c>
       <c r="AA9">
-        <v>3522183.254093655</v>
+        <v>3522183.25409365</v>
       </c>
       <c r="AB9">
-        <v>3550657.437056405</v>
+        <v>3550657.4370564</v>
       </c>
       <c r="AC9">
-        <v>1192517.93305208</v>
+        <v>1192517.933052078</v>
       </c>
       <c r="AD9">
-        <v>1243946.464435529</v>
+        <v>1243946.464435527</v>
       </c>
       <c r="AE9">
-        <v>1311580.940181424</v>
+        <v>1311580.940181422</v>
       </c>
       <c r="AF9">
-        <v>1398648.49541799</v>
+        <v>1398648.495417988</v>
       </c>
       <c r="AG9">
-        <v>1508009.653519678</v>
+        <v>1508009.653519676</v>
       </c>
       <c r="AH9">
-        <v>797893.6455662105</v>
+        <v>797893.645566209</v>
       </c>
       <c r="AI9">
-        <v>956844.5314849954</v>
+        <v>956844.5314849936</v>
       </c>
       <c r="AJ9">
-        <v>1140189.336464264</v>
+        <v>1140189.336464262</v>
       </c>
       <c r="AK9">
-        <v>1345048.457107579</v>
+        <v>1345048.457107577</v>
       </c>
       <c r="AL9">
-        <v>1566247.289925058</v>
+        <v>1566247.289925056</v>
       </c>
       <c r="AM9">
-        <v>2250769.737619565</v>
+        <v>2250769.737619562</v>
       </c>
       <c r="AN9">
-        <v>2480164.726182014</v>
+        <v>2480164.726182009</v>
       </c>
       <c r="AO9">
-        <v>2697974.587612408</v>
+        <v>2697974.587612404</v>
       </c>
       <c r="AP9">
-        <v>2892816.131026905</v>
+        <v>2892816.131026901</v>
       </c>
       <c r="AQ9">
-        <v>3054011.046099102</v>
+        <v>3054011.046099097</v>
       </c>
       <c r="AR9">
-        <v>3714603.432773516</v>
+        <v>3714603.43277351</v>
       </c>
       <c r="AS9">
-        <v>3785251.495784845</v>
+        <v>3785251.495784839</v>
       </c>
       <c r="AT9">
-        <v>3805735.115418404</v>
+        <v>3805735.115418397</v>
       </c>
       <c r="AU9">
-        <v>3778050.763972265</v>
+        <v>3778050.763972258</v>
       </c>
       <c r="AV9">
-        <v>3708002.917943647</v>
+        <v>3708002.917943641</v>
       </c>
       <c r="AW9">
-        <v>3782705.053206866</v>
+        <v>3782705.05320686</v>
       </c>
       <c r="AX9">
-        <v>3657337.130020414</v>
+        <v>3657337.130020407</v>
       </c>
       <c r="AY9">
-        <v>3522781.267060093</v>
+        <v>3522781.267060087</v>
       </c>
       <c r="AZ9">
-        <v>3392245.277723241</v>
+        <v>3392245.277723236</v>
       </c>
       <c r="BA9">
-        <v>3278381.782301242</v>
+        <v>3278381.782301237</v>
       </c>
       <c r="BB9">
-        <v>3103124.477575007</v>
+        <v>3103124.477575001</v>
       </c>
       <c r="BC9">
-        <v>3053478.597912124</v>
+        <v>3053478.597912119</v>
       </c>
       <c r="BD9">
-        <v>3045673.891859692</v>
+        <v>3045673.891859687</v>
       </c>
       <c r="BE9">
-        <v>3081485.18773252</v>
+        <v>3081485.187732515</v>
       </c>
       <c r="BF9">
-        <v>3159092.835189168</v>
+        <v>3159092.835189162</v>
       </c>
       <c r="BG9">
-        <v>3229206.73135145</v>
+        <v>3229206.731351444</v>
       </c>
       <c r="BH9">
-        <v>3373274.026228468</v>
+        <v>3373274.026228463</v>
       </c>
       <c r="BI9">
-        <v>3538189.641609842</v>
+        <v>3538189.641609836</v>
       </c>
       <c r="BJ9">
-        <v>3714541.780636942</v>
+        <v>3714541.780636935</v>
       </c>
       <c r="BK9">
-        <v>3892935.179268855</v>
+        <v>3892935.179268848</v>
       </c>
       <c r="BL9">
-        <v>4070162.379758558</v>
+        <v>4070162.379758551</v>
       </c>
       <c r="BM9">
-        <v>4227385.545240051</v>
+        <v>4227385.545240045</v>
       </c>
       <c r="BN9">
-        <v>4364104.718506133</v>
+        <v>4364104.718506125</v>
       </c>
       <c r="BO9">
-        <v>4476158.867104318</v>
+        <v>4476158.867104311</v>
       </c>
       <c r="BP9">
-        <v>4561481.313488095</v>
+        <v>4561481.313488087</v>
       </c>
       <c r="BQ9">
-        <v>4628767.948670113</v>
+        <v>4628767.948670105</v>
       </c>
       <c r="BR9">
-        <v>4662601.589687388</v>
+        <v>4662601.589687379</v>
       </c>
       <c r="BS9">
-        <v>4675239.164796644</v>
+        <v>4675239.164796635</v>
       </c>
       <c r="BT9">
-        <v>4671547.330647033</v>
+        <v>4671547.330647026</v>
       </c>
       <c r="BU9">
-        <v>4657258.509660034</v>
+        <v>4657258.509660025</v>
       </c>
       <c r="BV9">
-        <v>4628987.565929624</v>
+        <v>4628987.565929615</v>
       </c>
       <c r="BW9">
-        <v>4611828.76050791</v>
+        <v>4611828.760507901</v>
       </c>
       <c r="BX9">
-        <v>4601774.131053426</v>
+        <v>4601774.131053417</v>
       </c>
       <c r="BY9">
-        <v>4603408.69633113</v>
+        <v>4603408.696331123</v>
       </c>
       <c r="BZ9">
-        <v>4620103.50775815</v>
+        <v>4620103.507758141</v>
       </c>
       <c r="CA9">
-        <v>4625985.364362171</v>
+        <v>4625985.364362163</v>
       </c>
       <c r="CB9">
-        <v>4677302.801184971</v>
+        <v>4677302.801184963</v>
       </c>
       <c r="CC9">
-        <v>4745339.48948603</v>
+        <v>4745339.489486023</v>
       </c>
       <c r="CD9">
-        <v>4827998.919350883</v>
+        <v>4827998.919350874</v>
       </c>
       <c r="CE9">
-        <v>4922199.4219175</v>
+        <v>4922199.421917491</v>
       </c>
       <c r="CF9">
-        <v>4971734.701427002</v>
+        <v>4971734.701426992</v>
       </c>
       <c r="CG9">
-        <v>5077469.938086077</v>
+        <v>5077469.938086067</v>
       </c>
       <c r="CH9">
-        <v>5182919.343620839</v>
+        <v>5182919.343620827</v>
       </c>
       <c r="CI9">
-        <v>5284402.565655198</v>
+        <v>5284402.565655189</v>
       </c>
       <c r="CJ9">
-        <v>5378830.5249183</v>
+        <v>5378830.524918289</v>
       </c>
       <c r="CK9">
-        <v>5380081.33941438</v>
+        <v>5380081.339414369</v>
       </c>
       <c r="CL9">
-        <v>5454322.831839864</v>
+        <v>5454322.831839854</v>
       </c>
       <c r="CM9">
-        <v>5517217.299474764</v>
+        <v>5517217.299474753</v>
       </c>
       <c r="CN9">
-        <v>5569106.080996441</v>
+        <v>5569106.08099643</v>
       </c>
       <c r="CO9">
-        <v>5611100.174170371</v>
+        <v>5611100.17417036</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -2936,7 +2936,7 @@
         <v>12.81576233800777</v>
       </c>
       <c r="L10">
-        <v>12.96840388917995</v>
+        <v>12.96840388917996</v>
       </c>
       <c r="M10">
         <v>13.81390895963057</v>
@@ -2951,7 +2951,7 @@
         <v>14.47968908455254</v>
       </c>
       <c r="Q10">
-        <v>14.83303317652202</v>
+        <v>14.83303317652203</v>
       </c>
       <c r="R10">
         <v>15.18754448140588</v>
@@ -2966,7 +2966,7 @@
         <v>17.43524901939799</v>
       </c>
       <c r="V10">
-        <v>17.86528068109865</v>
+        <v>17.86528068109866</v>
       </c>
       <c r="W10">
         <v>18.29509192783197</v>
@@ -2987,7 +2987,7 @@
         <v>20.36072901244575</v>
       </c>
       <c r="AC10">
-        <v>19.68415170517547</v>
+        <v>19.68415170517548</v>
       </c>
       <c r="AD10">
         <v>20.10984540405627</v>
@@ -2996,7 +2996,7 @@
         <v>20.54201638232434</v>
       </c>
       <c r="AF10">
-        <v>20.9850173850832</v>
+        <v>20.98501738508321</v>
       </c>
       <c r="AG10">
         <v>21.44056866209988</v>
@@ -3017,40 +3017,40 @@
         <v>23.61950940861963</v>
       </c>
       <c r="AM10">
-        <v>24.34710571107836</v>
+        <v>24.34710571107837</v>
       </c>
       <c r="AN10">
         <v>24.93824622357462</v>
       </c>
       <c r="AO10">
-        <v>25.46431951729581</v>
+        <v>25.46431951729582</v>
       </c>
       <c r="AP10">
         <v>25.94875291944178</v>
       </c>
       <c r="AQ10">
-        <v>26.4168803618058</v>
+        <v>26.41688036180581</v>
       </c>
       <c r="AR10">
         <v>27.09860234617323</v>
       </c>
       <c r="AS10">
-        <v>27.53827797875706</v>
+        <v>27.53827797875707</v>
       </c>
       <c r="AT10">
-        <v>27.96643352560302</v>
+        <v>27.96643352560303</v>
       </c>
       <c r="AU10">
         <v>28.37063465279589</v>
       </c>
       <c r="AV10">
-        <v>28.72944448991986</v>
+        <v>28.72944448991987</v>
       </c>
       <c r="AW10">
         <v>29.11829882496604</v>
       </c>
       <c r="AX10">
-        <v>29.43147950756493</v>
+        <v>29.43147950756494</v>
       </c>
       <c r="AY10">
         <v>29.81524487130667</v>
@@ -3059,46 +3059,46 @@
         <v>30.2393553148137</v>
       </c>
       <c r="BA10">
-        <v>30.66569399612573</v>
+        <v>30.66569399612574</v>
       </c>
       <c r="BB10">
-        <v>31.08695832305337</v>
+        <v>31.08695832305338</v>
       </c>
       <c r="BC10">
         <v>31.56477876226334</v>
       </c>
       <c r="BD10">
-        <v>32.0831484099359</v>
+        <v>32.08314840993592</v>
       </c>
       <c r="BE10">
-        <v>32.64278117453483</v>
+        <v>32.64278117453484</v>
       </c>
       <c r="BF10">
         <v>33.23651845057612</v>
       </c>
       <c r="BG10">
-        <v>33.86714925071049</v>
+        <v>33.8671492507105</v>
       </c>
       <c r="BH10">
-        <v>34.53909445966513</v>
+        <v>34.53909445966514</v>
       </c>
       <c r="BI10">
-        <v>35.19130972467635</v>
+        <v>35.19130972467636</v>
       </c>
       <c r="BJ10">
-        <v>35.81369774079299</v>
+        <v>35.813697740793</v>
       </c>
       <c r="BK10">
-        <v>36.42190643526535</v>
+        <v>36.42190643526536</v>
       </c>
       <c r="BL10">
-        <v>37.0473379679191</v>
+        <v>37.04733796791911</v>
       </c>
       <c r="BM10">
         <v>37.67510077539782</v>
       </c>
       <c r="BN10">
-        <v>38.27438524939661</v>
+        <v>38.27438524939663</v>
       </c>
       <c r="BO10">
         <v>38.84798713939301</v>
@@ -3110,7 +3110,7 @@
         <v>39.9511398621914</v>
       </c>
       <c r="BR10">
-        <v>40.49092946606551</v>
+        <v>40.49092946606552</v>
       </c>
       <c r="BS10">
         <v>41.03742743674145</v>
@@ -3119,31 +3119,31 @@
         <v>41.61503672757125</v>
       </c>
       <c r="BU10">
-        <v>42.20696982463297</v>
+        <v>42.20696982463298</v>
       </c>
       <c r="BV10">
         <v>42.82518133639358</v>
       </c>
       <c r="BW10">
-        <v>43.45177427565109</v>
+        <v>43.45177427565111</v>
       </c>
       <c r="BX10">
-        <v>44.09260194652024</v>
+        <v>44.09260194652025</v>
       </c>
       <c r="BY10">
-        <v>44.76104171183624</v>
+        <v>44.76104171183626</v>
       </c>
       <c r="BZ10">
         <v>45.4605566097089</v>
       </c>
       <c r="CA10">
-        <v>46.2062863025836</v>
+        <v>46.20628630258361</v>
       </c>
       <c r="CB10">
-        <v>46.97113984270134</v>
+        <v>46.97113984270135</v>
       </c>
       <c r="CC10">
-        <v>47.73435465166108</v>
+        <v>47.73435465166109</v>
       </c>
       <c r="CD10">
         <v>48.48306532708576</v>
@@ -3152,34 +3152,34 @@
         <v>49.21578937694503</v>
       </c>
       <c r="CF10">
-        <v>49.96691314988684</v>
+        <v>49.96691314988687</v>
       </c>
       <c r="CG10">
-        <v>50.72617232796402</v>
+        <v>50.72617232796403</v>
       </c>
       <c r="CH10">
-        <v>51.47487822577153</v>
+        <v>51.47487822577155</v>
       </c>
       <c r="CI10">
         <v>52.20547200191467</v>
       </c>
       <c r="CJ10">
-        <v>52.91580880970566</v>
+        <v>52.91580880970567</v>
       </c>
       <c r="CK10">
-        <v>53.62516700326464</v>
+        <v>53.62516700326466</v>
       </c>
       <c r="CL10">
-        <v>54.34409702232897</v>
+        <v>54.34409702232898</v>
       </c>
       <c r="CM10">
-        <v>55.06497054391303</v>
+        <v>55.06497054391304</v>
       </c>
       <c r="CN10">
         <v>55.81297199536048</v>
       </c>
       <c r="CO10">
-        <v>56.56808024964977</v>
+        <v>56.56808024964979</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -3219,7 +3219,7 @@
         <v>0.6848493790624501</v>
       </c>
       <c r="N11">
-        <v>0.7280618938704303</v>
+        <v>0.7280618938704301</v>
       </c>
       <c r="O11">
         <v>0.665854554438197</v>
@@ -3243,7 +3243,7 @@
         <v>0.8574883372469325</v>
       </c>
       <c r="V11">
-        <v>0.8789219773572315</v>
+        <v>0.8789219773572317</v>
       </c>
       <c r="W11">
         <v>0.9003411967057877</v>
@@ -3255,16 +3255,16 @@
         <v>0.9405421165630373</v>
       </c>
       <c r="Z11">
-        <v>0.9610397834548671</v>
+        <v>0.961039783454867</v>
       </c>
       <c r="AA11">
-        <v>0.9815767220930747</v>
+        <v>0.9815767220930748</v>
       </c>
       <c r="AB11">
-        <v>1.002430423499221</v>
+        <v>1.00243042349922</v>
       </c>
       <c r="AC11">
-        <v>0.9760929103902831</v>
+        <v>0.976092910390283</v>
       </c>
       <c r="AD11">
         <v>0.9971138216626366</v>
@@ -3315,7 +3315,7 @@
         <v>1.358198028877888</v>
       </c>
       <c r="AT11">
-        <v>1.379284664840256</v>
+        <v>1.379284664840255</v>
       </c>
       <c r="AU11">
         <v>1.39933666187124</v>
@@ -3342,7 +3342,7 @@
         <v>1.535637743462222</v>
       </c>
       <c r="BC11">
-        <v>1.559314652033478</v>
+        <v>1.559314652033479</v>
       </c>
       <c r="BD11">
         <v>1.58483737175976</v>
@@ -3402,13 +3402,13 @@
         <v>2.107713692308673</v>
       </c>
       <c r="BW11">
-        <v>2.138406408598666</v>
+        <v>2.138406408598667</v>
       </c>
       <c r="BX11">
         <v>2.169753389282791</v>
       </c>
       <c r="BY11">
-        <v>2.202397107571204</v>
+        <v>2.202397107571203</v>
       </c>
       <c r="BZ11">
         <v>2.2364909562887</v>
@@ -3438,7 +3438,7 @@
         <v>2.528220352460962</v>
       </c>
       <c r="CI11">
-        <v>2.563608362570817</v>
+        <v>2.563608362570818</v>
       </c>
       <c r="CJ11">
         <v>2.598045081901481</v>
@@ -3453,7 +3453,7 @@
         <v>2.702510212000198</v>
       </c>
       <c r="CN11">
-        <v>2.738856096436555</v>
+        <v>2.738856096436556</v>
       </c>
       <c r="CO11">
         <v>2.775561354093769</v>
@@ -3499,10 +3499,10 @@
         <v>432972.9436875397</v>
       </c>
       <c r="O12">
-        <v>417280.4347612715</v>
+        <v>417280.4347612716</v>
       </c>
       <c r="P12">
-        <v>3572790.457707116</v>
+        <v>3572790.457707115</v>
       </c>
       <c r="Q12">
         <v>3582105.816772085</v>
@@ -3511,7 +3511,7 @@
         <v>3591817.185165706</v>
       </c>
       <c r="S12">
-        <v>11753613.45129744</v>
+        <v>11753613.45129743</v>
       </c>
       <c r="T12">
         <v>11766785.84935502</v>
@@ -3526,13 +3526,13 @@
         <v>11818973.87868047</v>
       </c>
       <c r="X12">
-        <v>13839496.08587649</v>
+        <v>13839496.08587648</v>
       </c>
       <c r="Y12">
-        <v>13872206.05944675</v>
+        <v>13872206.05944674</v>
       </c>
       <c r="Z12">
-        <v>13912782.05911702</v>
+        <v>13912782.05911701</v>
       </c>
       <c r="AA12">
         <v>13965268.07213634</v>
@@ -3541,58 +3541,58 @@
         <v>14031157.83150085</v>
       </c>
       <c r="AC12">
-        <v>5670907.814836191</v>
+        <v>5670907.81483619</v>
       </c>
       <c r="AD12">
-        <v>5761429.79079393</v>
+        <v>5761429.790793927</v>
       </c>
       <c r="AE12">
-        <v>5876889.971339428</v>
+        <v>5876889.971339427</v>
       </c>
       <c r="AF12">
-        <v>6021042.825923964</v>
+        <v>6021042.825923962</v>
       </c>
       <c r="AG12">
-        <v>6206588.805940072</v>
+        <v>6206588.805940069</v>
       </c>
       <c r="AH12">
-        <v>3368301.41557235</v>
+        <v>3368301.415572349</v>
       </c>
       <c r="AI12">
-        <v>3669731.251888623</v>
+        <v>3669731.251888622</v>
       </c>
       <c r="AJ12">
-        <v>4045657.92627047</v>
+        <v>4045657.926270469</v>
       </c>
       <c r="AK12">
         <v>4483021.619434909</v>
       </c>
       <c r="AL12">
-        <v>4942409.842859859</v>
+        <v>4942409.842859857</v>
       </c>
       <c r="AM12">
-        <v>7212758.765166338</v>
+        <v>7212758.765166334</v>
       </c>
       <c r="AN12">
-        <v>7738197.358872539</v>
+        <v>7738197.358872538</v>
       </c>
       <c r="AO12">
-        <v>8174851.265163643</v>
+        <v>8174851.26516364</v>
       </c>
       <c r="AP12">
-        <v>8540677.569901695</v>
+        <v>8540677.569901692</v>
       </c>
       <c r="AQ12">
-        <v>8858218.624591015</v>
+        <v>8858218.624591013</v>
       </c>
       <c r="AR12">
-        <v>11725482.5355931</v>
+        <v>11725482.53559309</v>
       </c>
       <c r="AS12">
         <v>11907986.16695561</v>
       </c>
       <c r="AT12">
-        <v>12004207.73881226</v>
+        <v>12004207.73881225</v>
       </c>
       <c r="AU12">
         <v>12003176.83448734</v>
@@ -3610,13 +3610,13 @@
         <v>12002101.0414236</v>
       </c>
       <c r="AZ12">
-        <v>11823785.43574415</v>
+        <v>11823785.43574414</v>
       </c>
       <c r="BA12">
         <v>11660145.00678009</v>
       </c>
       <c r="BB12">
-        <v>11064740.36198327</v>
+        <v>11064740.36198326</v>
       </c>
       <c r="BC12">
         <v>10999808.44102969</v>
@@ -3631,79 +3631,79 @@
         <v>11500520.01572585</v>
       </c>
       <c r="BG12">
-        <v>11674765.77361252</v>
+        <v>11674765.77361251</v>
       </c>
       <c r="BH12">
-        <v>12080591.39716231</v>
+        <v>12080591.3971623</v>
       </c>
       <c r="BI12">
         <v>12483999.30984319</v>
       </c>
       <c r="BJ12">
-        <v>12871276.80244394</v>
+        <v>12871276.80244393</v>
       </c>
       <c r="BK12">
-        <v>13262966.59604023</v>
+        <v>13262966.59604022</v>
       </c>
       <c r="BL12">
-        <v>13778153.25246994</v>
+        <v>13778153.25246993</v>
       </c>
       <c r="BM12">
-        <v>14172510.45082958</v>
+        <v>14172510.45082957</v>
       </c>
       <c r="BN12">
         <v>14484613.87936788</v>
       </c>
       <c r="BO12">
-        <v>14717660.50343767</v>
+        <v>14717660.50343766</v>
       </c>
       <c r="BP12">
-        <v>14879837.91811393</v>
+        <v>14879837.91811392</v>
       </c>
       <c r="BQ12">
-        <v>15070218.65330615</v>
+        <v>15070218.65330614</v>
       </c>
       <c r="BR12">
-        <v>15099196.57478449</v>
+        <v>15099196.57478448</v>
       </c>
       <c r="BS12">
         <v>15100127.46477695</v>
       </c>
       <c r="BT12">
-        <v>15106756.92347357</v>
+        <v>15106756.92347356</v>
       </c>
       <c r="BU12">
-        <v>15111781.39942093</v>
+        <v>15111781.39942092</v>
       </c>
       <c r="BV12">
-        <v>15099683.89638515</v>
+        <v>15099683.89638514</v>
       </c>
       <c r="BW12">
-        <v>15096838.99741649</v>
+        <v>15096838.99741648</v>
       </c>
       <c r="BX12">
-        <v>15147072.83644337</v>
+        <v>15147072.83644336</v>
       </c>
       <c r="BY12">
-        <v>15259807.5287906</v>
+        <v>15259807.52879059</v>
       </c>
       <c r="BZ12">
-        <v>15423323.73847102</v>
+        <v>15423323.73847101</v>
       </c>
       <c r="CA12">
-        <v>15510678.68934863</v>
+        <v>15510678.68934862</v>
       </c>
       <c r="CB12">
-        <v>15742905.61737694</v>
+        <v>15742905.61737693</v>
       </c>
       <c r="CC12">
-        <v>15998249.58468811</v>
+        <v>15998249.5846881</v>
       </c>
       <c r="CD12">
-        <v>16259362.99975658</v>
+        <v>16259362.99975657</v>
       </c>
       <c r="CE12">
-        <v>16524255.90790991</v>
+        <v>16524255.9079099</v>
       </c>
       <c r="CF12">
         <v>16534793.98055789</v>
@@ -3712,28 +3712,28 @@
         <v>16816703.32606195</v>
       </c>
       <c r="CH12">
-        <v>17082652.81224321</v>
+        <v>17082652.8122432</v>
       </c>
       <c r="CI12">
         <v>17309851.94244143</v>
       </c>
       <c r="CJ12">
-        <v>17493515.44071693</v>
+        <v>17493515.44071692</v>
       </c>
       <c r="CK12">
-        <v>17192285.65299631</v>
+        <v>17192285.6529963</v>
       </c>
       <c r="CL12">
-        <v>17304452.49240254</v>
+        <v>17304452.49240253</v>
       </c>
       <c r="CM12">
-        <v>17397898.05351012</v>
+        <v>17397898.05351011</v>
       </c>
       <c r="CN12">
-        <v>17487292.06328465</v>
+        <v>17487292.06328464</v>
       </c>
       <c r="CO12">
-        <v>17578751.08697603</v>
+        <v>17578751.08697602</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -3743,79 +3743,79 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147351.5091590436</v>
+        <v>147351.5091590437</v>
       </c>
       <c r="E13">
-        <v>94065.91377740991</v>
+        <v>94065.91377740998</v>
       </c>
       <c r="F13">
-        <v>71690.85875876017</v>
+        <v>71690.85875876018</v>
       </c>
       <c r="G13">
-        <v>71456.46872010303</v>
+        <v>71456.46872010305</v>
       </c>
       <c r="H13">
         <v>65964.00104447809</v>
       </c>
       <c r="I13">
-        <v>63509.0986648067</v>
+        <v>63509.09866480672</v>
       </c>
       <c r="J13">
-        <v>58548.33703913054</v>
+        <v>58548.33703913055</v>
       </c>
       <c r="K13">
-        <v>61643.83504753983</v>
+        <v>61643.83504753984</v>
       </c>
       <c r="L13">
-        <v>74793.84449297246</v>
+        <v>74793.84449297248</v>
       </c>
       <c r="M13">
         <v>75767.52227887437</v>
       </c>
       <c r="N13">
-        <v>81742.61054046046</v>
+        <v>81742.61054046049</v>
       </c>
       <c r="O13">
-        <v>94123.75300922034</v>
+        <v>94123.75300922037</v>
       </c>
       <c r="P13">
-        <v>884188.6544114171</v>
+        <v>884188.6544114173</v>
       </c>
       <c r="Q13">
-        <v>887059.8600705196</v>
+        <v>887059.8600705198</v>
       </c>
       <c r="R13">
-        <v>890472.1266563894</v>
+        <v>890472.1266563896</v>
       </c>
       <c r="S13">
-        <v>2873772.137374498</v>
+        <v>2873772.137374499</v>
       </c>
       <c r="T13">
-        <v>2878344.017194971</v>
+        <v>2878344.017194972</v>
       </c>
       <c r="U13">
         <v>2883562.651466114</v>
       </c>
       <c r="V13">
-        <v>2889561.016506821</v>
+        <v>2889561.016506822</v>
       </c>
       <c r="W13">
         <v>2896610.478027957</v>
       </c>
       <c r="X13">
-        <v>3126693.34207972</v>
+        <v>3126693.342079721</v>
       </c>
       <c r="Y13">
         <v>3137528.50239188</v>
       </c>
       <c r="Z13">
-        <v>3151694.488263689</v>
+        <v>3151694.48826369</v>
       </c>
       <c r="AA13">
         <v>3170650.332137532</v>
       </c>
       <c r="AB13">
-        <v>3196282.691238143</v>
+        <v>3196282.691238144</v>
       </c>
       <c r="AC13">
         <v>1073525.82160784</v>
@@ -3824,7 +3824,7 @@
         <v>1119821.54162433</v>
       </c>
       <c r="AE13">
-        <v>1180705.650428515</v>
+        <v>1180705.650428516</v>
       </c>
       <c r="AF13">
         <v>1259083.132284549</v>
@@ -3833,7 +3833,7 @@
         <v>1357528.969725403</v>
       </c>
       <c r="AH13">
-        <v>718290.7136942155</v>
+        <v>718290.7136942156</v>
       </c>
       <c r="AI13">
         <v>861376.5005928504</v>
@@ -3860,10 +3860,10 @@
         <v>2604120.514678237</v>
       </c>
       <c r="AQ13">
-        <v>2749228.263414029</v>
+        <v>2749228.26341403</v>
       </c>
       <c r="AR13">
-        <v>3343910.88121463</v>
+        <v>3343910.881214631</v>
       </c>
       <c r="AS13">
         <v>3407510.108875964</v>
@@ -3872,7 +3872,7 @@
         <v>3425952.136392897</v>
       </c>
       <c r="AU13">
-        <v>3401034.067855959</v>
+        <v>3401034.06785596</v>
       </c>
       <c r="AV13">
         <v>3337980.917943425</v>
@@ -3881,7 +3881,7 @@
         <v>3405236.261870898</v>
       </c>
       <c r="AX13">
-        <v>3292384.404069279</v>
+        <v>3292384.40406928</v>
       </c>
       <c r="AY13">
         <v>3171261.446527156</v>
@@ -3905,7 +3905,7 @@
         <v>2774020.250258195</v>
       </c>
       <c r="BF13">
-        <v>2843883.456012094</v>
+        <v>2843883.456012093</v>
       </c>
       <c r="BG13">
         <v>2907001.234813099</v>
@@ -3914,7 +3914,7 @@
         <v>3036691.065971964</v>
       </c>
       <c r="BI13">
-        <v>3185148.632744797</v>
+        <v>3185148.632744798</v>
       </c>
       <c r="BJ13">
         <v>3343901.588560831</v>
@@ -3926,7 +3926,7 @@
         <v>3664036.872664903</v>
       </c>
       <c r="BM13">
-        <v>3805571.204010418</v>
+        <v>3805571.204010419</v>
       </c>
       <c r="BN13">
         <v>3928648.318573455</v>
@@ -3947,7 +3947,7 @@
         <v>4208750.91172763</v>
       </c>
       <c r="BT13">
-        <v>4205431.057185092</v>
+        <v>4205431.057185093</v>
       </c>
       <c r="BU13">
         <v>4192571.621024861</v>
@@ -3959,13 +3959,13 @@
         <v>4151682.960107686</v>
       </c>
       <c r="BX13">
-        <v>4142634.41068172</v>
+        <v>4142634.410681721</v>
       </c>
       <c r="BY13">
-        <v>4144108.233619564</v>
+        <v>4144108.233619565</v>
       </c>
       <c r="BZ13">
-        <v>4159139.081464419</v>
+        <v>4159139.08146442</v>
       </c>
       <c r="CA13">
         <v>4164436.072086724</v>
@@ -3980,10 +3980,10 @@
         <v>4346294.324283987</v>
       </c>
       <c r="CE13">
-        <v>4431095.56713657</v>
+        <v>4431095.567136571</v>
       </c>
       <c r="CF13">
-        <v>4475688.132199685</v>
+        <v>4475688.132199686</v>
       </c>
       <c r="CG13">
         <v>4570873.220146461</v>
@@ -4004,13 +4004,13 @@
         <v>4910127.65565045</v>
       </c>
       <c r="CM13">
-        <v>4966748.423522211</v>
+        <v>4966748.423522212</v>
       </c>
       <c r="CN13">
         <v>5013461.921701432</v>
       </c>
       <c r="CO13">
-        <v>5051268.225668464</v>
+        <v>5051268.225668465</v>
       </c>
     </row>
     <row r="14" spans="1:93">
@@ -4030,7 +4030,7 @@
         <v>1.719043060373733</v>
       </c>
       <c r="F14">
-        <v>1.815852075558104</v>
+        <v>1.815852075558103</v>
       </c>
       <c r="G14">
         <v>1.830184264181905</v>
@@ -4048,13 +4048,13 @@
         <v>2.034147247409429</v>
       </c>
       <c r="L14">
-        <v>2.058374865163888</v>
+        <v>2.058374865163887</v>
       </c>
       <c r="M14">
         <v>2.192575372817433</v>
       </c>
       <c r="N14">
-        <v>2.329660084793438</v>
+        <v>2.329660084793437</v>
       </c>
       <c r="O14">
         <v>2.129875690998468</v>
@@ -4066,7 +4066,7 @@
         <v>2.354333110350533</v>
       </c>
       <c r="R14">
-        <v>2.410601959287156</v>
+        <v>2.410601959287155</v>
       </c>
       <c r="S14">
         <v>2.631302462641063</v>
@@ -4078,25 +4078,25 @@
         <v>2.767362788519034</v>
       </c>
       <c r="V14">
-        <v>2.835618402026555</v>
+        <v>2.835618402026554</v>
       </c>
       <c r="W14">
         <v>2.903839030763972</v>
       </c>
       <c r="X14">
-        <v>2.968378880223479</v>
+        <v>2.968378880223477</v>
       </c>
       <c r="Y14">
-        <v>3.033820543764581</v>
+        <v>3.03382054376458</v>
       </c>
       <c r="Z14">
-        <v>3.099299771109996</v>
+        <v>3.099299771109995</v>
       </c>
       <c r="AA14">
-        <v>3.164949830583745</v>
+        <v>3.164949830583744</v>
       </c>
       <c r="AB14">
-        <v>3.231701695425959</v>
+        <v>3.231701695425958</v>
       </c>
       <c r="AC14">
         <v>3.124313790520612</v>
@@ -4108,7 +4108,7 @@
         <v>3.260476043350231</v>
       </c>
       <c r="AF14">
-        <v>3.330790180472537</v>
+        <v>3.330790180472536</v>
       </c>
       <c r="AG14">
         <v>3.403096325964104</v>
@@ -4117,40 +4117,40 @@
         <v>3.422539490839896</v>
       </c>
       <c r="AI14">
-        <v>3.498439190987404</v>
+        <v>3.498439190987402</v>
       </c>
       <c r="AJ14">
         <v>3.577997278573626</v>
       </c>
       <c r="AK14">
-        <v>3.662323074482332</v>
+        <v>3.662323074482331</v>
       </c>
       <c r="AL14">
         <v>3.748942808202353</v>
       </c>
       <c r="AM14">
-        <v>3.864428565259685</v>
+        <v>3.864428565259684</v>
       </c>
       <c r="AN14">
-        <v>3.958255745774756</v>
+        <v>3.958255745774755</v>
       </c>
       <c r="AO14">
         <v>4.041755307808995</v>
       </c>
       <c r="AP14">
-        <v>4.118645690568824</v>
+        <v>4.118645690568823</v>
       </c>
       <c r="AQ14">
-        <v>4.192947953922875</v>
+        <v>4.192947953922874</v>
       </c>
       <c r="AR14">
-        <v>4.301152433798948</v>
+        <v>4.301152433798947</v>
       </c>
       <c r="AS14">
-        <v>4.370938760525763</v>
+        <v>4.37093876052576</v>
       </c>
       <c r="AT14">
-        <v>4.438896592772453</v>
+        <v>4.438896592772451</v>
       </c>
       <c r="AU14">
         <v>4.503052324487354</v>
@@ -4162,133 +4162,133 @@
         <v>4.621723299938899</v>
       </c>
       <c r="AX14">
-        <v>4.671432057533523</v>
+        <v>4.671432057533522</v>
       </c>
       <c r="AY14">
         <v>4.732344177914469</v>
       </c>
       <c r="AZ14">
-        <v>4.799659962064036</v>
+        <v>4.799659962064035</v>
       </c>
       <c r="BA14">
-        <v>4.867329417238236</v>
+        <v>4.867329417238235</v>
       </c>
       <c r="BB14">
         <v>4.934193459224272</v>
       </c>
       <c r="BC14">
-        <v>5.010034217311082</v>
+        <v>5.010034217311081</v>
       </c>
       <c r="BD14">
-        <v>5.092311038942414</v>
+        <v>5.092311038942413</v>
       </c>
       <c r="BE14">
-        <v>5.1811372373101</v>
+        <v>5.181137237310099</v>
       </c>
       <c r="BF14">
-        <v>5.275376582102096</v>
+        <v>5.275376582102094</v>
       </c>
       <c r="BG14">
-        <v>5.375471751815141</v>
+        <v>5.37547175181514</v>
       </c>
       <c r="BH14">
         <v>5.482124439431812</v>
       </c>
       <c r="BI14">
-        <v>5.585645545008682</v>
+        <v>5.585645545008681</v>
       </c>
       <c r="BJ14">
-        <v>5.684432401101482</v>
+        <v>5.68443240110148</v>
       </c>
       <c r="BK14">
-        <v>5.780968682680477</v>
+        <v>5.780968682680475</v>
       </c>
       <c r="BL14">
-        <v>5.88023861271169</v>
+        <v>5.880238612711688</v>
       </c>
       <c r="BM14">
-        <v>5.979878568040121</v>
+        <v>5.979878568040118</v>
       </c>
       <c r="BN14">
-        <v>6.07499837683874</v>
+        <v>6.074998376838738</v>
       </c>
       <c r="BO14">
-        <v>6.16604178688893</v>
+        <v>6.166041786888929</v>
       </c>
       <c r="BP14">
         <v>6.252916236141522</v>
       </c>
       <c r="BQ14">
-        <v>6.341136721967243</v>
+        <v>6.34113672196724</v>
       </c>
       <c r="BR14">
-        <v>6.426813368267427</v>
+        <v>6.426813368267426</v>
       </c>
       <c r="BS14">
-        <v>6.513554781961439</v>
+        <v>6.513554781961438</v>
       </c>
       <c r="BT14">
-        <v>6.605234255880449</v>
+        <v>6.605234255880447</v>
       </c>
       <c r="BU14">
         <v>6.699187237239014</v>
       </c>
       <c r="BV14">
-        <v>6.797311188963303</v>
+        <v>6.797311188963302</v>
       </c>
       <c r="BW14">
-        <v>6.896765460119446</v>
+        <v>6.896765460119445</v>
       </c>
       <c r="BX14">
-        <v>6.99847910058673</v>
+        <v>6.998479100586728</v>
       </c>
       <c r="BY14">
-        <v>7.104575396133976</v>
+        <v>7.104575396133975</v>
       </c>
       <c r="BZ14">
         <v>7.215604008127627</v>
       </c>
       <c r="CA14">
-        <v>7.333967938580193</v>
+        <v>7.333967938580192</v>
       </c>
       <c r="CB14">
-        <v>7.455367250011531</v>
+        <v>7.455367250011529</v>
       </c>
       <c r="CC14">
-        <v>7.576506458267869</v>
+        <v>7.576506458267868</v>
       </c>
       <c r="CD14">
-        <v>7.695343537120714</v>
+        <v>7.695343537120712</v>
       </c>
       <c r="CE14">
-        <v>7.811643182028424</v>
+        <v>7.811643182028423</v>
       </c>
       <c r="CF14">
-        <v>7.930863273264208</v>
+        <v>7.930863273264206</v>
       </c>
       <c r="CG14">
-        <v>8.051374634697281</v>
+        <v>8.051374634697279</v>
       </c>
       <c r="CH14">
-        <v>8.170210955235749</v>
+        <v>8.170210955235746</v>
       </c>
       <c r="CI14">
-        <v>8.286172478204117</v>
+        <v>8.286172478204115</v>
       </c>
       <c r="CJ14">
-        <v>8.398918768607496</v>
+        <v>8.398918768607494</v>
       </c>
       <c r="CK14">
         <v>8.51150973111122</v>
       </c>
       <c r="CL14">
-        <v>8.62561995575409</v>
+        <v>8.625619955754088</v>
       </c>
       <c r="CM14">
         <v>8.740038657582833</v>
       </c>
       <c r="CN14">
-        <v>8.858763166776304</v>
+        <v>8.858763166776299</v>
       </c>
       <c r="CO14">
         <v>8.978615684047417</v>
@@ -4301,40 +4301,40 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514322098059242</v>
+        <v>0.0851432209805924</v>
       </c>
       <c r="E15">
-        <v>0.08537885388513231</v>
+        <v>0.08537885388513228</v>
       </c>
       <c r="F15">
-        <v>0.0888487640415387</v>
+        <v>0.08884876404153866</v>
       </c>
       <c r="G15">
-        <v>0.08978525472170443</v>
+        <v>0.08978525472170439</v>
       </c>
       <c r="H15">
-        <v>0.08876393051567606</v>
+        <v>0.08876393051567599</v>
       </c>
       <c r="I15">
-        <v>0.08739983202482846</v>
+        <v>0.08739983202482843</v>
       </c>
       <c r="J15">
-        <v>0.09003050217435142</v>
+        <v>0.09003050217435138</v>
       </c>
       <c r="K15">
-        <v>0.09887845697911148</v>
+        <v>0.09887845697911145</v>
       </c>
       <c r="L15">
-        <v>0.101672643504048</v>
+        <v>0.1016726435040479</v>
       </c>
       <c r="M15">
         <v>0.1087008671484538</v>
       </c>
       <c r="N15">
-        <v>0.1155596567960744</v>
+        <v>0.1155596567960743</v>
       </c>
       <c r="O15">
-        <v>0.1056859649362102</v>
+        <v>0.1056859649362101</v>
       </c>
       <c r="P15">
         <v>0.1137234017621607</v>
@@ -4343,16 +4343,16 @@
         <v>0.1165623952347566</v>
       </c>
       <c r="R15">
-        <v>0.1194100917848444</v>
+        <v>0.1194100917848443</v>
       </c>
       <c r="S15">
-        <v>0.1293192569996063</v>
+        <v>0.1293192569996062</v>
       </c>
       <c r="T15">
         <v>0.1327074510913689</v>
       </c>
       <c r="U15">
-        <v>0.1361025192956009</v>
+        <v>0.1361025192956008</v>
       </c>
       <c r="V15">
         <v>0.1395045159059022</v>
@@ -4361,10 +4361,10 @@
         <v>0.1429042236197623</v>
       </c>
       <c r="X15">
-        <v>0.1460316295699814</v>
+        <v>0.1460316295699813</v>
       </c>
       <c r="Y15">
-        <v>0.1492850059965106</v>
+        <v>0.1492850059965105</v>
       </c>
       <c r="Z15">
         <v>0.1525384427868194</v>
@@ -4373,22 +4373,22 @@
         <v>0.1557981128789553</v>
       </c>
       <c r="AB15">
-        <v>0.1591080602855023</v>
+        <v>0.1591080602855021</v>
       </c>
       <c r="AC15">
         <v>0.1549277096843313</v>
       </c>
       <c r="AD15">
-        <v>0.1582641970250714</v>
+        <v>0.1582641970250713</v>
       </c>
       <c r="AE15">
         <v>0.1616450972498583</v>
       </c>
       <c r="AF15">
-        <v>0.1651030701071251</v>
+        <v>0.165103070107125</v>
       </c>
       <c r="AG15">
-        <v>0.1686492374940964</v>
+        <v>0.1686492374940963</v>
       </c>
       <c r="AH15">
         <v>0.1699489940174091</v>
@@ -4400,175 +4400,175 @@
         <v>0.1775059772128338</v>
       </c>
       <c r="AK15">
-        <v>0.1815893507787192</v>
+        <v>0.1815893507787191</v>
       </c>
       <c r="AL15">
-        <v>0.1857763562794573</v>
+        <v>0.1857763562794571</v>
       </c>
       <c r="AM15">
         <v>0.1912213482672827</v>
       </c>
       <c r="AN15">
-        <v>0.1957401281201778</v>
+        <v>0.1957401281201777</v>
       </c>
       <c r="AO15">
-        <v>0.199769925166938</v>
+        <v>0.1997699251669379</v>
       </c>
       <c r="AP15">
-        <v>0.2034920023492952</v>
+        <v>0.2034920023492951</v>
       </c>
       <c r="AQ15">
-        <v>0.2071016668533792</v>
+        <v>0.2071016668533791</v>
       </c>
       <c r="AR15">
         <v>0.2121605505515504</v>
       </c>
       <c r="AS15">
-        <v>0.2155763121234931</v>
+        <v>0.215576312123493</v>
       </c>
       <c r="AT15">
-        <v>0.2189232314380598</v>
+        <v>0.2189232314380597</v>
       </c>
       <c r="AU15">
         <v>0.2221059304839582</v>
       </c>
       <c r="AV15">
-        <v>0.2249592468179921</v>
+        <v>0.224959246817992</v>
       </c>
       <c r="AW15">
-        <v>0.228003780593851</v>
+        <v>0.2280037805938508</v>
       </c>
       <c r="AX15">
-        <v>0.2305337775827184</v>
+        <v>0.2305337775827183</v>
       </c>
       <c r="AY15">
-        <v>0.2336034563787861</v>
+        <v>0.2336034563787859</v>
       </c>
       <c r="AZ15">
-        <v>0.2369789642165135</v>
+        <v>0.2369789642165134</v>
       </c>
       <c r="BA15">
-        <v>0.2403662936959963</v>
+        <v>0.2403662936959962</v>
       </c>
       <c r="BB15">
-        <v>0.2437399513580007</v>
+        <v>0.2437399513580005</v>
       </c>
       <c r="BC15">
-        <v>0.2474980046931933</v>
+        <v>0.2474980046931931</v>
       </c>
       <c r="BD15">
-        <v>0.2515490294163691</v>
+        <v>0.251549029416369</v>
       </c>
       <c r="BE15">
-        <v>0.2558981033403747</v>
+        <v>0.2558981033403745</v>
       </c>
       <c r="BF15">
-        <v>0.260491443030753</v>
+        <v>0.2604914430307529</v>
       </c>
       <c r="BG15">
-        <v>0.2653669510907937</v>
+        <v>0.2653669510907936</v>
       </c>
       <c r="BH15">
-        <v>0.2705295467432393</v>
+        <v>0.2705295467432391</v>
       </c>
       <c r="BI15">
-        <v>0.2755365710171597</v>
+        <v>0.2755365710171596</v>
       </c>
       <c r="BJ15">
-        <v>0.2803140152794657</v>
+        <v>0.2803140152794655</v>
       </c>
       <c r="BK15">
-        <v>0.2849826488011579</v>
+        <v>0.2849826488011577</v>
       </c>
       <c r="BL15">
-        <v>0.289779588204747</v>
+        <v>0.2897795882047469</v>
       </c>
       <c r="BM15">
-        <v>0.2945977104372281</v>
+        <v>0.2945977104372279</v>
       </c>
       <c r="BN15">
         <v>0.2992075679815202</v>
       </c>
       <c r="BO15">
-        <v>0.3036315619519301</v>
+        <v>0.3036315619519299</v>
       </c>
       <c r="BP15">
-        <v>0.3078652732484997</v>
+        <v>0.3078652732484995</v>
       </c>
       <c r="BQ15">
-        <v>0.31217188130271</v>
+        <v>0.3121718813027097</v>
       </c>
       <c r="BR15">
-        <v>0.316367159056358</v>
+        <v>0.3163671590563579</v>
       </c>
       <c r="BS15">
-        <v>0.3206213501329149</v>
+        <v>0.3206213501329148</v>
       </c>
       <c r="BT15">
-        <v>0.3251186233258068</v>
+        <v>0.3251186233258066</v>
       </c>
       <c r="BU15">
-        <v>0.3297284260534328</v>
+        <v>0.3297284260534326</v>
       </c>
       <c r="BV15">
-        <v>0.3345411605224367</v>
+        <v>0.3345411605224366</v>
       </c>
       <c r="BW15">
-        <v>0.3394127789802515</v>
+        <v>0.3394127789802514</v>
       </c>
       <c r="BX15">
-        <v>0.3443882437861262</v>
+        <v>0.344388243786126</v>
       </c>
       <c r="BY15">
-        <v>0.3495695297643042</v>
+        <v>0.3495695297643041</v>
       </c>
       <c r="BZ15">
-        <v>0.3549809837764164</v>
+        <v>0.3549809837764162</v>
       </c>
       <c r="CA15">
-        <v>0.3607443869239018</v>
+        <v>0.3607443869239016</v>
       </c>
       <c r="CB15">
-        <v>0.3666390796513363</v>
+        <v>0.3666390796513361</v>
       </c>
       <c r="CC15">
-        <v>0.3725155261756068</v>
+        <v>0.3725155261756066</v>
       </c>
       <c r="CD15">
-        <v>0.3782772031235594</v>
+        <v>0.3782772031235593</v>
       </c>
       <c r="CE15">
-        <v>0.3839137255199289</v>
+        <v>0.3839137255199288</v>
       </c>
       <c r="CF15">
-        <v>0.3897001545883347</v>
+        <v>0.3897001545883346</v>
       </c>
       <c r="CG15">
-        <v>0.3955324726695306</v>
+        <v>0.3955324726695304</v>
       </c>
       <c r="CH15">
-        <v>0.4012849438968623</v>
+        <v>0.4012849438968621</v>
       </c>
       <c r="CI15">
-        <v>0.4069018101790008</v>
+        <v>0.4069018101790007</v>
       </c>
       <c r="CJ15">
-        <v>0.4123676854027116</v>
+        <v>0.4123676854027115</v>
       </c>
       <c r="CK15">
-        <v>0.4178527840231184</v>
+        <v>0.4178527840231183</v>
       </c>
       <c r="CL15">
-        <v>0.4233912822389163</v>
+        <v>0.4233912822389161</v>
       </c>
       <c r="CM15">
-        <v>0.4289486309006137</v>
+        <v>0.4289486309006135</v>
       </c>
       <c r="CN15">
-        <v>0.434717533196938</v>
+        <v>0.4347175331969377</v>
       </c>
       <c r="CO15">
-        <v>0.440543476036674</v>
+        <v>0.4405434760366738</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -4581,7 +4581,7 @@
         <v>189635.4834094014</v>
       </c>
       <c r="E16">
-        <v>269899.1025181878</v>
+        <v>269899.1025181879</v>
       </c>
       <c r="F16">
         <v>118257.5541715255</v>
@@ -4599,13 +4599,13 @@
         <v>187882.9461176484</v>
       </c>
       <c r="K16">
-        <v>185944.3963714438</v>
+        <v>185944.3963714439</v>
       </c>
       <c r="L16">
         <v>201292.7362436187</v>
       </c>
       <c r="M16">
-        <v>266076.441533147</v>
+        <v>266076.4415331471</v>
       </c>
       <c r="N16">
         <v>278035.9120387133</v>
@@ -4623,49 +4623,49 @@
         <v>1368856.145598284</v>
       </c>
       <c r="S16">
-        <v>4288091.736052248</v>
+        <v>4288091.736052247</v>
       </c>
       <c r="T16">
-        <v>4300169.309018788</v>
+        <v>4300169.309018786</v>
       </c>
       <c r="U16">
-        <v>4313707.181655999</v>
+        <v>4313707.181655997</v>
       </c>
       <c r="V16">
-        <v>4324734.235741636</v>
+        <v>4324734.235741635</v>
       </c>
       <c r="W16">
         <v>4329655.67561935</v>
       </c>
       <c r="X16">
-        <v>3925071.122717498</v>
+        <v>3925071.122717497</v>
       </c>
       <c r="Y16">
-        <v>3934893.197935546</v>
+        <v>3934893.197935544</v>
       </c>
       <c r="Z16">
-        <v>3941653.413756153</v>
+        <v>3941653.413756152</v>
       </c>
       <c r="AA16">
-        <v>3943978.620531578</v>
+        <v>3943978.620531576</v>
       </c>
       <c r="AB16">
-        <v>3966969.229343069</v>
+        <v>3966969.229343068</v>
       </c>
       <c r="AC16">
         <v>595464.200878674</v>
       </c>
       <c r="AD16">
-        <v>625224.0091855706</v>
+        <v>625224.0091855704</v>
       </c>
       <c r="AE16">
-        <v>660274.4893126946</v>
+        <v>660274.4893126944</v>
       </c>
       <c r="AF16">
-        <v>712187.1966649473</v>
+        <v>712187.1966649471</v>
       </c>
       <c r="AG16">
-        <v>780979.5870098172</v>
+        <v>780979.5870098167</v>
       </c>
       <c r="AH16">
         <v>-204320.6123831658</v>
@@ -4674,19 +4674,19 @@
         <v>-132306.3359803364</v>
       </c>
       <c r="AJ16">
-        <v>-62090.8599872065</v>
+        <v>-62090.85998720668</v>
       </c>
       <c r="AK16">
-        <v>79661.31682045496</v>
+        <v>79661.31682045483</v>
       </c>
       <c r="AL16">
-        <v>279886.3827084308</v>
+        <v>279886.3827084305</v>
       </c>
       <c r="AM16">
-        <v>1086809.425673337</v>
+        <v>1086809.425673336</v>
       </c>
       <c r="AN16">
-        <v>1375128.826783043</v>
+        <v>1375128.826783042</v>
       </c>
       <c r="AO16">
         <v>1540237.361471135</v>
@@ -4698,136 +4698,136 @@
         <v>1676949.085159515</v>
       </c>
       <c r="AR16">
-        <v>2521075.877888618</v>
+        <v>2521075.877888617</v>
       </c>
       <c r="AS16">
-        <v>2501526.589498974</v>
+        <v>2501526.589498973</v>
       </c>
       <c r="AT16">
-        <v>2465003.172866539</v>
+        <v>2465003.172866537</v>
       </c>
       <c r="AU16">
-        <v>2391454.259248394</v>
+        <v>2391454.259248393</v>
       </c>
       <c r="AV16">
-        <v>2250100.999204711</v>
+        <v>2250100.99920471</v>
       </c>
       <c r="AW16">
-        <v>2143766.053886425</v>
+        <v>2143766.053886424</v>
       </c>
       <c r="AX16">
-        <v>1886072.28436481</v>
+        <v>1886072.284364809</v>
       </c>
       <c r="AY16">
-        <v>1736910.343240899</v>
+        <v>1736910.343240898</v>
       </c>
       <c r="AZ16">
-        <v>1649491.643238149</v>
+        <v>1649491.643238148</v>
       </c>
       <c r="BA16">
-        <v>1567178.879973272</v>
+        <v>1567178.879973271</v>
       </c>
       <c r="BB16">
         <v>1306551.825677288</v>
       </c>
       <c r="BC16">
-        <v>1241268.765425801</v>
+        <v>1241268.7654258</v>
       </c>
       <c r="BD16">
-        <v>1233736.578805133</v>
+        <v>1233736.578805132</v>
       </c>
       <c r="BE16">
-        <v>1290277.328074456</v>
+        <v>1290277.328074455</v>
       </c>
       <c r="BF16">
-        <v>1415244.944035794</v>
+        <v>1415244.944035793</v>
       </c>
       <c r="BG16">
-        <v>1489421.770407263</v>
+        <v>1489421.770407262</v>
       </c>
       <c r="BH16">
-        <v>1712230.618785717</v>
+        <v>1712230.618785716</v>
       </c>
       <c r="BI16">
-        <v>1897688.499470584</v>
+        <v>1897688.499470583</v>
       </c>
       <c r="BJ16">
-        <v>2024970.745686303</v>
+        <v>2024970.745686302</v>
       </c>
       <c r="BK16">
-        <v>2122051.795926024</v>
+        <v>2122051.795926023</v>
       </c>
       <c r="BL16">
-        <v>2172054.663778422</v>
+        <v>2172054.663778421</v>
       </c>
       <c r="BM16">
-        <v>2252740.794332894</v>
+        <v>2252740.794332893</v>
       </c>
       <c r="BN16">
-        <v>2285373.109213843</v>
+        <v>2285373.109213842</v>
       </c>
       <c r="BO16">
         <v>2276796.435093586</v>
       </c>
       <c r="BP16">
-        <v>2227927.638856932</v>
+        <v>2227927.638856931</v>
       </c>
       <c r="BQ16">
-        <v>2117308.340205944</v>
+        <v>2117308.340205943</v>
       </c>
       <c r="BR16">
-        <v>1994671.093929601</v>
+        <v>1994671.0939296</v>
       </c>
       <c r="BS16">
-        <v>1882659.638935065</v>
+        <v>1882659.638935064</v>
       </c>
       <c r="BT16">
-        <v>1809254.825085802</v>
+        <v>1809254.8250858</v>
       </c>
       <c r="BU16">
-        <v>1757340.227272675</v>
+        <v>1757340.227272674</v>
       </c>
       <c r="BV16">
-        <v>1678333.158267957</v>
+        <v>1678333.158267956</v>
       </c>
       <c r="BW16">
         <v>1627750.877062001</v>
       </c>
       <c r="BX16">
-        <v>1605765.445993915</v>
+        <v>1605765.445993913</v>
       </c>
       <c r="BY16">
-        <v>1627373.439812729</v>
+        <v>1627373.439812728</v>
       </c>
       <c r="BZ16">
-        <v>1695296.715188322</v>
+        <v>1695296.715188321</v>
       </c>
       <c r="CA16">
-        <v>1779525.020893322</v>
+        <v>1779525.020893321</v>
       </c>
       <c r="CB16">
-        <v>1912062.871905861</v>
+        <v>1912062.87190586</v>
       </c>
       <c r="CC16">
         <v>2043292.258147353</v>
       </c>
       <c r="CD16">
-        <v>2146548.901186818</v>
+        <v>2146548.901186817</v>
       </c>
       <c r="CE16">
-        <v>2218135.406008503</v>
+        <v>2218135.406008502</v>
       </c>
       <c r="CF16">
-        <v>2245805.556698674</v>
+        <v>2245805.556698673</v>
       </c>
       <c r="CG16">
-        <v>2286963.367115469</v>
+        <v>2286963.367115468</v>
       </c>
       <c r="CH16">
         <v>2309874.102977485</v>
       </c>
       <c r="CI16">
-        <v>2303856.730696903</v>
+        <v>2303856.730696902</v>
       </c>
       <c r="CJ16">
         <v>2267106.923614049</v>
@@ -4836,16 +4836,16 @@
         <v>2171150.57820366</v>
       </c>
       <c r="CL16">
-        <v>2089848.219140174</v>
+        <v>2089848.219140172</v>
       </c>
       <c r="CM16">
         <v>2009450.648927883</v>
       </c>
       <c r="CN16">
-        <v>1947183.524685246</v>
+        <v>1947183.524685245</v>
       </c>
       <c r="CO16">
-        <v>1906586.560040167</v>
+        <v>1906586.560040166</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -4858,106 +4858,106 @@
         <v>114598.2147953502</v>
       </c>
       <c r="E17">
-        <v>73154.74267550716</v>
+        <v>73154.74267550721</v>
       </c>
       <c r="F17">
-        <v>55747.26028266754</v>
+        <v>55747.26028266753</v>
       </c>
       <c r="G17">
-        <v>55560.96117877009</v>
+        <v>55560.96117877006</v>
       </c>
       <c r="H17">
-        <v>51290.53603036986</v>
+        <v>51290.53603036983</v>
       </c>
       <c r="I17">
-        <v>49380.02783244496</v>
+        <v>49380.02783244493</v>
       </c>
       <c r="J17">
-        <v>45522.4838834047</v>
+        <v>45522.48388340467</v>
       </c>
       <c r="K17">
-        <v>47930.08736730229</v>
+        <v>47930.08736730227</v>
       </c>
       <c r="L17">
-        <v>58156.62131479623</v>
+        <v>58156.62131479621</v>
       </c>
       <c r="M17">
-        <v>58913.82792003603</v>
+        <v>58913.82792003602</v>
       </c>
       <c r="N17">
         <v>63561.82901800082</v>
       </c>
       <c r="O17">
-        <v>73190.52572932249</v>
+        <v>73190.52572932247</v>
       </c>
       <c r="P17">
-        <v>687502.2351020135</v>
+        <v>687502.2351020131</v>
       </c>
       <c r="Q17">
-        <v>689735.1320579221</v>
+        <v>689735.1320579217</v>
       </c>
       <c r="R17">
-        <v>692388.7817647604</v>
+        <v>692388.7817647603</v>
       </c>
       <c r="S17">
-        <v>2234493.224222433</v>
+        <v>2234493.224222432</v>
       </c>
       <c r="T17">
-        <v>2238048.590451124</v>
+        <v>2238048.590451123</v>
       </c>
       <c r="U17">
         <v>2242106.834950659</v>
       </c>
       <c r="V17">
-        <v>2246771.321284289</v>
+        <v>2246771.321284288</v>
       </c>
       <c r="W17">
-        <v>2252253.013425676</v>
+        <v>2252253.013425675</v>
       </c>
       <c r="X17">
-        <v>2431121.175815863</v>
+        <v>2431121.175815862</v>
       </c>
       <c r="Y17">
-        <v>2439546.18281338</v>
+        <v>2439546.182813379</v>
       </c>
       <c r="Z17">
-        <v>2450560.906614693</v>
+        <v>2450560.906614692</v>
       </c>
       <c r="AA17">
-        <v>2465299.810047776</v>
+        <v>2465299.810047775</v>
       </c>
       <c r="AB17">
-        <v>2485229.873310318</v>
+        <v>2485229.873310317</v>
       </c>
       <c r="AC17">
-        <v>834675.9925161186</v>
+        <v>834675.992516118</v>
       </c>
       <c r="AD17">
-        <v>870672.6172274032</v>
+        <v>870672.6172274026</v>
       </c>
       <c r="AE17">
-        <v>918012.390038569</v>
+        <v>918012.3900385684</v>
       </c>
       <c r="AF17">
-        <v>978954.1179897898</v>
+        <v>978954.1179897892</v>
       </c>
       <c r="AG17">
-        <v>1055499.996944525</v>
+        <v>1055499.996944524</v>
       </c>
       <c r="AH17">
-        <v>558463.4076681265</v>
+        <v>558463.407668126</v>
       </c>
       <c r="AI17">
-        <v>669719.0312873648</v>
+        <v>669719.0312873642</v>
       </c>
       <c r="AJ17">
-        <v>798048.8679997763</v>
+        <v>798048.8679997757</v>
       </c>
       <c r="AK17">
-        <v>941437.3515408771</v>
+        <v>941437.3515408766</v>
       </c>
       <c r="AL17">
-        <v>1096262.556669678</v>
+        <v>1096262.556669677</v>
       </c>
       <c r="AM17">
         <v>1575384.977480406</v>
@@ -4966,163 +4966,163 @@
         <v>1735946.796601414</v>
       </c>
       <c r="AO17">
-        <v>1888399.633781401</v>
+        <v>1888399.6337814</v>
       </c>
       <c r="AP17">
-        <v>2024775.959467462</v>
+        <v>2024775.959467461</v>
       </c>
       <c r="AQ17">
-        <v>2137601.624961058</v>
+        <v>2137601.624961057</v>
       </c>
       <c r="AR17">
-        <v>2599966.472368594</v>
+        <v>2599966.472368593</v>
       </c>
       <c r="AS17">
-        <v>2649414.792826145</v>
+        <v>2649414.792826143</v>
       </c>
       <c r="AT17">
-        <v>2663751.069954058</v>
+        <v>2663751.069954057</v>
       </c>
       <c r="AU17">
-        <v>2644372.741353565</v>
+        <v>2644372.741353564</v>
       </c>
       <c r="AV17">
-        <v>2595342.611962461</v>
+        <v>2595342.61196246</v>
       </c>
       <c r="AW17">
-        <v>2647626.299249853</v>
+        <v>2647626.299249851</v>
       </c>
       <c r="AX17">
-        <v>2559875.661997275</v>
+        <v>2559875.661997274</v>
       </c>
       <c r="AY17">
-        <v>2465694.118217664</v>
+        <v>2465694.118217662</v>
       </c>
       <c r="AZ17">
-        <v>2374326.319953953</v>
+        <v>2374326.319953952</v>
       </c>
       <c r="BA17">
-        <v>2294628.307551179</v>
+        <v>2294628.307551177</v>
       </c>
       <c r="BB17">
-        <v>2171959.582419003</v>
+        <v>2171959.582419002</v>
       </c>
       <c r="BC17">
-        <v>2137210.004353966</v>
+        <v>2137210.004353964</v>
       </c>
       <c r="BD17">
-        <v>2131746.65408763</v>
+        <v>2131746.654087628</v>
       </c>
       <c r="BE17">
-        <v>2156811.770979747</v>
+        <v>2156811.770979745</v>
       </c>
       <c r="BF17">
-        <v>2211131.683185093</v>
+        <v>2211131.683185091</v>
       </c>
       <c r="BG17">
-        <v>2260206.319747041</v>
+        <v>2260206.31974704</v>
       </c>
       <c r="BH17">
-        <v>2361043.670904434</v>
+        <v>2361043.670904432</v>
       </c>
       <c r="BI17">
-        <v>2476473.430694859</v>
+        <v>2476473.430694858</v>
       </c>
       <c r="BJ17">
-        <v>2599907.917783282</v>
+        <v>2599907.91778328</v>
       </c>
       <c r="BK17">
-        <v>2724771.032263451</v>
+        <v>2724771.032263449</v>
       </c>
       <c r="BL17">
-        <v>2848816.75553687</v>
+        <v>2848816.755536867</v>
       </c>
       <c r="BM17">
-        <v>2958861.810569855</v>
+        <v>2958861.810569854</v>
       </c>
       <c r="BN17">
-        <v>3054555.278981589</v>
+        <v>3054555.278981587</v>
       </c>
       <c r="BO17">
-        <v>3132984.73185101</v>
+        <v>3132984.731851007</v>
       </c>
       <c r="BP17">
-        <v>3192703.661124308</v>
+        <v>3192703.661124306</v>
       </c>
       <c r="BQ17">
-        <v>3239797.862793846</v>
+        <v>3239797.862793843</v>
       </c>
       <c r="BR17">
-        <v>3263477.945075705</v>
+        <v>3263477.945075702</v>
       </c>
       <c r="BS17">
-        <v>3272322.194220704</v>
+        <v>3272322.194220702</v>
       </c>
       <c r="BT17">
-        <v>3269736.97825194</v>
+        <v>3269736.978251938</v>
       </c>
       <c r="BU17">
-        <v>3259734.635985014</v>
+        <v>3259734.635985012</v>
       </c>
       <c r="BV17">
-        <v>3239945.42165904</v>
+        <v>3239945.421659037</v>
       </c>
       <c r="BW17">
-        <v>3227934.440471947</v>
+        <v>3227934.440471945</v>
       </c>
       <c r="BX17">
-        <v>3220895.994159455</v>
+        <v>3220895.994159453</v>
       </c>
       <c r="BY17">
-        <v>3222039.285124546</v>
+        <v>3222039.285124544</v>
       </c>
       <c r="BZ17">
-        <v>3233723.813936611</v>
+        <v>3233723.813936608</v>
       </c>
       <c r="CA17">
-        <v>3237840.006999864</v>
+        <v>3237840.006999861</v>
       </c>
       <c r="CB17">
-        <v>3273758.155346083</v>
+        <v>3273758.15534608</v>
       </c>
       <c r="CC17">
-        <v>3321378.68040954</v>
+        <v>3321378.680409538</v>
       </c>
       <c r="CD17">
-        <v>3379234.144589482</v>
+        <v>3379234.14458948</v>
       </c>
       <c r="CE17">
-        <v>3445167.566205241</v>
+        <v>3445167.566205238</v>
       </c>
       <c r="CF17">
-        <v>3479838.65736037</v>
+        <v>3479838.657360367</v>
       </c>
       <c r="CG17">
-        <v>3553845.531370516</v>
+        <v>3553845.531370513</v>
       </c>
       <c r="CH17">
-        <v>3627652.282520242</v>
+        <v>3627652.282520239</v>
       </c>
       <c r="CI17">
-        <v>3698682.906649684</v>
+        <v>3698682.906649681</v>
       </c>
       <c r="CJ17">
-        <v>3764775.256245967</v>
+        <v>3764775.256245965</v>
       </c>
       <c r="CK17">
-        <v>3765650.543101238</v>
+        <v>3765650.543101235</v>
       </c>
       <c r="CL17">
-        <v>3817613.613289637</v>
+        <v>3817613.613289634</v>
       </c>
       <c r="CM17">
-        <v>3861634.491633949</v>
+        <v>3861634.491633946</v>
       </c>
       <c r="CN17">
-        <v>3897952.107095883</v>
+        <v>3897952.10709588</v>
       </c>
       <c r="CO17">
-        <v>3927344.09894747</v>
+        <v>3927344.098947467</v>
       </c>
     </row>
   </sheetData>
@@ -5434,58 +5434,58 @@
         <v>1059.16700008873</v>
       </c>
       <c r="E2">
-        <v>2443.488047558776</v>
+        <v>2443.488047558777</v>
       </c>
       <c r="F2">
-        <v>3826.355462599257</v>
+        <v>3826.355462599258</v>
       </c>
       <c r="G2">
-        <v>5139.670423710571</v>
+        <v>5139.670423710573</v>
       </c>
       <c r="H2">
-        <v>6906.40109585043</v>
+        <v>6906.401095850435</v>
       </c>
       <c r="I2">
-        <v>8177.384737794213</v>
+        <v>8177.384737794218</v>
       </c>
       <c r="J2">
         <v>10487.623783016</v>
       </c>
       <c r="K2">
-        <v>12783.36640673637</v>
+        <v>12783.36640673638</v>
       </c>
       <c r="L2">
-        <v>14825.72162234674</v>
+        <v>14825.72162234675</v>
       </c>
       <c r="M2">
-        <v>16710.07456217918</v>
+        <v>16710.07456217919</v>
       </c>
       <c r="N2">
-        <v>20761.91347406942</v>
+        <v>20761.91347406943</v>
       </c>
       <c r="O2">
-        <v>23235.73592511874</v>
+        <v>23235.73592511875</v>
       </c>
       <c r="P2">
-        <v>28193.35561859698</v>
+        <v>28193.355618597</v>
       </c>
       <c r="Q2">
-        <v>33531.22916486987</v>
+        <v>33531.22916486989</v>
       </c>
       <c r="R2">
-        <v>39239.36357069483</v>
+        <v>39239.36357069484</v>
       </c>
       <c r="S2">
-        <v>51730.92095727073</v>
+        <v>51730.92095727074</v>
       </c>
       <c r="T2">
-        <v>65135.24883030634</v>
+        <v>65135.24883030636</v>
       </c>
       <c r="U2">
-        <v>79467.9216066946</v>
+        <v>79467.92160669461</v>
       </c>
       <c r="V2">
-        <v>94756.18451521383</v>
+        <v>94756.18451521384</v>
       </c>
       <c r="W2">
         <v>111019.0658716599</v>
@@ -5500,7 +5500,7 @@
         <v>162923.8418835716</v>
       </c>
       <c r="AA2">
-        <v>182065.1689173197</v>
+        <v>182065.1689173198</v>
       </c>
       <c r="AB2">
         <v>202163.3130674225</v>
@@ -5515,109 +5515,109 @@
         <v>232117.2614725769</v>
       </c>
       <c r="AF2">
-        <v>242730.950446499</v>
+        <v>242730.9504464991</v>
       </c>
       <c r="AG2">
-        <v>253680.365398054</v>
+        <v>253680.3653980541</v>
       </c>
       <c r="AH2">
-        <v>261168.3582876101</v>
+        <v>261168.3582876102</v>
       </c>
       <c r="AI2">
-        <v>269274.7830399994</v>
+        <v>269274.7830399995</v>
       </c>
       <c r="AJ2">
-        <v>277995.0133230457</v>
+        <v>277995.0133230459</v>
       </c>
       <c r="AK2">
-        <v>287767.2100374055</v>
+        <v>287767.2100374056</v>
       </c>
       <c r="AL2">
-        <v>298942.7120974214</v>
+        <v>298942.7120974215</v>
       </c>
       <c r="AM2">
-        <v>313965.7229237378</v>
+        <v>313965.7229237379</v>
       </c>
       <c r="AN2">
-        <v>331452.9371552205</v>
+        <v>331452.9371552207</v>
       </c>
       <c r="AO2">
-        <v>350481.4641881023</v>
+        <v>350481.4641881025</v>
       </c>
       <c r="AP2">
-        <v>370494.5172150057</v>
+        <v>370494.5172150059</v>
       </c>
       <c r="AQ2">
-        <v>391370.8937788754</v>
+        <v>391370.8937788755</v>
       </c>
       <c r="AR2">
-        <v>416240.5036378014</v>
+        <v>416240.5036378016</v>
       </c>
       <c r="AS2">
-        <v>441806.6648911365</v>
+        <v>441806.6648911367</v>
       </c>
       <c r="AT2">
-        <v>468072.8621645712</v>
+        <v>468072.8621645715</v>
       </c>
       <c r="AU2">
-        <v>494698.3923273961</v>
+        <v>494698.3923273964</v>
       </c>
       <c r="AV2">
-        <v>520739.5139876634</v>
+        <v>520739.5139876637</v>
       </c>
       <c r="AW2">
-        <v>545390.2046037624</v>
+        <v>545390.2046037626</v>
       </c>
       <c r="AX2">
-        <v>567371.7426717066</v>
+        <v>567371.7426717068</v>
       </c>
       <c r="AY2">
-        <v>588535.5047353806</v>
+        <v>588535.5047353809</v>
       </c>
       <c r="AZ2">
-        <v>609805.2510845879</v>
+        <v>609805.2510845881</v>
       </c>
       <c r="BA2">
-        <v>630928.0535337384</v>
+        <v>630928.0535337386</v>
       </c>
       <c r="BB2">
-        <v>650582.9551372593</v>
+        <v>650582.9551372596</v>
       </c>
       <c r="BC2">
-        <v>669676.3151899296</v>
+        <v>669676.3151899298</v>
       </c>
       <c r="BD2">
-        <v>689140.0012413765</v>
+        <v>689140.0012413767</v>
       </c>
       <c r="BE2">
-        <v>709683.0456769222</v>
+        <v>709683.0456769224</v>
       </c>
       <c r="BF2">
-        <v>731836.5575080942</v>
+        <v>731836.5575080945</v>
       </c>
       <c r="BG2">
-        <v>755553.0263937813</v>
+        <v>755553.0263937815</v>
       </c>
       <c r="BH2">
-        <v>781761.2359708973</v>
+        <v>781761.2359708975</v>
       </c>
       <c r="BI2">
-        <v>810026.3192973307</v>
+        <v>810026.3192973309</v>
       </c>
       <c r="BJ2">
-        <v>839849.6571480763</v>
+        <v>839849.6571480766</v>
       </c>
       <c r="BK2">
-        <v>871152.6367766581</v>
+        <v>871152.6367766584</v>
       </c>
       <c r="BL2">
-        <v>903840.3276075365</v>
+        <v>903840.3276075367</v>
       </c>
       <c r="BM2">
-        <v>938287.5986852726</v>
+        <v>938287.5986852729</v>
       </c>
       <c r="BN2">
-        <v>973745.747085664</v>
+        <v>973745.7470856642</v>
       </c>
       <c r="BO2">
         <v>1009581.466947272</v>
@@ -5626,22 +5626,22 @@
         <v>1045224.418507193</v>
       </c>
       <c r="BQ2">
-        <v>1079802.63249062</v>
+        <v>1079802.632490621</v>
       </c>
       <c r="BR2">
         <v>1113050.048832938</v>
       </c>
       <c r="BS2">
-        <v>1145106.569020166</v>
+        <v>1145106.569020167</v>
       </c>
       <c r="BT2">
         <v>1176616.653211554</v>
       </c>
       <c r="BU2">
-        <v>1207895.650009837</v>
+        <v>1207895.650009838</v>
       </c>
       <c r="BV2">
-        <v>1238559.896441299</v>
+        <v>1238559.8964413</v>
       </c>
       <c r="BW2">
         <v>1268817.262009205</v>
@@ -5662,43 +5662,43 @@
         <v>1433063.652865221</v>
       </c>
       <c r="CC2">
-        <v>1471059.10577612</v>
+        <v>1471059.105776121</v>
       </c>
       <c r="CD2">
         <v>1510860.097063819</v>
       </c>
       <c r="CE2">
-        <v>1552245.855516066</v>
+        <v>1552245.855516067</v>
       </c>
       <c r="CF2">
         <v>1594859.732501839</v>
       </c>
       <c r="CG2">
-        <v>1638867.068396169</v>
+        <v>1638867.06839617</v>
       </c>
       <c r="CH2">
-        <v>1684009.404335652</v>
+        <v>1684009.404335653</v>
       </c>
       <c r="CI2">
         <v>1729750.011500766</v>
       </c>
       <c r="CJ2">
-        <v>1775479.20697952</v>
+        <v>1775479.206979521</v>
       </c>
       <c r="CK2">
         <v>1820247.724839859</v>
       </c>
       <c r="CL2">
-        <v>1864075.594159498</v>
+        <v>1864075.594159499</v>
       </c>
       <c r="CM2">
-        <v>1906925.322241239</v>
+        <v>1906925.32224124</v>
       </c>
       <c r="CN2">
-        <v>1949040.259212762</v>
+        <v>1949040.259212763</v>
       </c>
       <c r="CO2">
-        <v>1990718.769239213</v>
+        <v>1990718.769239214</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -5708,70 +5708,70 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24710370075029</v>
+        <v>70.24710370075032</v>
       </c>
       <c r="E3">
-        <v>162.2861235832223</v>
+        <v>162.2861235832224</v>
       </c>
       <c r="F3">
-        <v>254.1329010491055</v>
+        <v>254.1329010491057</v>
       </c>
       <c r="G3">
-        <v>341.3073918483196</v>
+        <v>341.3073918483198</v>
       </c>
       <c r="H3">
-        <v>459.0134232344863</v>
+        <v>459.0134232344865</v>
       </c>
       <c r="I3">
-        <v>543.4137259457567</v>
+        <v>543.4137259457571</v>
       </c>
       <c r="J3">
-        <v>697.524537543594</v>
+        <v>697.5245375435944</v>
       </c>
       <c r="K3">
-        <v>850.5402061816603</v>
+        <v>850.5402061816609</v>
       </c>
       <c r="L3">
-        <v>986.5751640967142</v>
+        <v>986.5751640967147</v>
       </c>
       <c r="M3">
-        <v>1111.942454023495</v>
+        <v>1111.942454023496</v>
       </c>
       <c r="N3">
         <v>1382.823663552328</v>
       </c>
       <c r="O3">
-        <v>1547.829254821261</v>
+        <v>1547.829254821262</v>
       </c>
       <c r="P3">
         <v>1879.564418453625</v>
       </c>
       <c r="Q3">
-        <v>2236.818675341013</v>
+        <v>2236.818675341014</v>
       </c>
       <c r="R3">
-        <v>2618.930074442361</v>
+        <v>2618.930074442362</v>
       </c>
       <c r="S3">
-        <v>3456.521900846306</v>
+        <v>3456.521900846307</v>
       </c>
       <c r="T3">
-        <v>4355.411553377226</v>
+        <v>4355.411553377227</v>
       </c>
       <c r="U3">
-        <v>5316.64864024708</v>
+        <v>5316.648640247082</v>
       </c>
       <c r="V3">
-        <v>6342.08297413498</v>
+        <v>6342.082974134982</v>
       </c>
       <c r="W3">
-        <v>7432.995673456702</v>
+        <v>7432.995673456704</v>
       </c>
       <c r="X3">
-        <v>8531.355418998515</v>
+        <v>8531.355418998517</v>
       </c>
       <c r="Y3">
-        <v>9691.702394729287</v>
+        <v>9691.702394729289</v>
       </c>
       <c r="Z3">
         <v>10915.09189136493</v>
@@ -5792,7 +5792,7 @@
         <v>15556.96428476717</v>
       </c>
       <c r="AF3">
-        <v>16268.88645879828</v>
+        <v>16268.88645879829</v>
       </c>
       <c r="AG3">
         <v>17003.3229742631</v>
@@ -5804,13 +5804,13 @@
         <v>18049.38018322014</v>
       </c>
       <c r="AJ3">
-        <v>18634.96403498689</v>
+        <v>18634.9640349869</v>
       </c>
       <c r="AK3">
         <v>19291.89353343643</v>
       </c>
       <c r="AL3">
-        <v>20043.93780964647</v>
+        <v>20043.93780964648</v>
       </c>
       <c r="AM3">
         <v>21055.72369192563</v>
@@ -5861,94 +5861,94 @@
         <v>43736.48829509084</v>
       </c>
       <c r="BC3">
-        <v>45018.39077945142</v>
+        <v>45018.39077945143</v>
       </c>
       <c r="BD3">
-        <v>46325.53666921738</v>
+        <v>46325.53666921739</v>
       </c>
       <c r="BE3">
-        <v>47706.13127995652</v>
+        <v>47706.13127995653</v>
       </c>
       <c r="BF3">
-        <v>49196.28593075312</v>
+        <v>49196.28593075313</v>
       </c>
       <c r="BG3">
-        <v>50793.24408647269</v>
+        <v>50793.2440864727</v>
       </c>
       <c r="BH3">
         <v>52559.60924793458</v>
       </c>
       <c r="BI3">
-        <v>54465.85131737257</v>
+        <v>54465.85131737258</v>
       </c>
       <c r="BJ3">
-        <v>56478.1616344264</v>
+        <v>56478.16163442641</v>
       </c>
       <c r="BK3">
-        <v>58591.66388471877</v>
+        <v>58591.66388471878</v>
       </c>
       <c r="BL3">
-        <v>60800.75431334625</v>
+        <v>60800.75431334626</v>
       </c>
       <c r="BM3">
-        <v>63129.78378885231</v>
+        <v>63129.78378885232</v>
       </c>
       <c r="BN3">
         <v>65526.30804288101</v>
       </c>
       <c r="BO3">
-        <v>67946.8990086571</v>
+        <v>67946.89900865711</v>
       </c>
       <c r="BP3">
-        <v>70352.65249195772</v>
+        <v>70352.65249195774</v>
       </c>
       <c r="BQ3">
-        <v>72684.29155202521</v>
+        <v>72684.29155202523</v>
       </c>
       <c r="BR3">
-        <v>74923.7096720368</v>
+        <v>74923.70967203681</v>
       </c>
       <c r="BS3">
-        <v>77081.01738518216</v>
+        <v>77081.01738518217</v>
       </c>
       <c r="BT3">
-        <v>79200.63746806009</v>
+        <v>79200.6374680601</v>
       </c>
       <c r="BU3">
-        <v>81304.40523808848</v>
+        <v>81304.4052380885</v>
       </c>
       <c r="BV3">
-        <v>83366.6577574541</v>
+        <v>83366.65775745412</v>
       </c>
       <c r="BW3">
-        <v>85401.46226233899</v>
+        <v>85401.462262339</v>
       </c>
       <c r="BX3">
-        <v>87445.3826169331</v>
+        <v>87445.38261693312</v>
       </c>
       <c r="BY3">
-        <v>89545.84314535241</v>
+        <v>89545.84314535242</v>
       </c>
       <c r="BZ3">
-        <v>91739.35607886796</v>
+        <v>91739.35607886798</v>
       </c>
       <c r="CA3">
-        <v>94035.93864722505</v>
+        <v>94035.93864722506</v>
       </c>
       <c r="CB3">
-        <v>96464.52734386876</v>
+        <v>96464.52734386877</v>
       </c>
       <c r="CC3">
-        <v>99030.94785629824</v>
+        <v>99030.94785629825</v>
       </c>
       <c r="CD3">
         <v>101721.5432180281</v>
       </c>
       <c r="CE3">
-        <v>104519.762713344</v>
+        <v>104519.7627133441</v>
       </c>
       <c r="CF3">
-        <v>107400.4763322745</v>
+        <v>107400.4763322746</v>
       </c>
       <c r="CG3">
         <v>110374.2919495166</v>
@@ -5988,37 +5988,37 @@
         <v>379421.6337229096</v>
       </c>
       <c r="E4">
-        <v>755086.0185692713</v>
+        <v>755086.0185692711</v>
       </c>
       <c r="F4">
         <v>1217229.904892687</v>
       </c>
       <c r="G4">
-        <v>1736432.984297137</v>
+        <v>1736432.984297136</v>
       </c>
       <c r="H4">
-        <v>2422797.49517277</v>
+        <v>2422797.495172769</v>
       </c>
       <c r="I4">
-        <v>3067508.644623072</v>
+        <v>3067508.644623071</v>
       </c>
       <c r="J4">
-        <v>3819649.421295033</v>
+        <v>3819649.421295032</v>
       </c>
       <c r="K4">
-        <v>4492544.658126664</v>
+        <v>4492544.658126663</v>
       </c>
       <c r="L4">
-        <v>5057344.207244035</v>
+        <v>5057344.207244034</v>
       </c>
       <c r="M4">
-        <v>6166055.158762397</v>
+        <v>6166055.158762395</v>
       </c>
       <c r="N4">
-        <v>7100956.066840004</v>
+        <v>7100956.066840002</v>
       </c>
       <c r="O4">
-        <v>7993270.103895514</v>
+        <v>7993270.103895512</v>
       </c>
       <c r="P4">
         <v>11258523.44354549</v>
@@ -6039,19 +6039,19 @@
         <v>46591398.37600556</v>
       </c>
       <c r="V4">
-        <v>56269638.62504091</v>
+        <v>56269638.62504092</v>
       </c>
       <c r="W4">
-        <v>66004824.61424811</v>
+        <v>66004824.61424813</v>
       </c>
       <c r="X4">
-        <v>75372110.49601556</v>
+        <v>75372110.49601558</v>
       </c>
       <c r="Y4">
-        <v>84789104.69122992</v>
+        <v>84789104.69122994</v>
       </c>
       <c r="Z4">
-        <v>94257383.27600653</v>
+        <v>94257383.27600655</v>
       </c>
       <c r="AA4">
         <v>103791654.8608837</v>
@@ -6069,7 +6069,7 @@
         <v>119557042.842051</v>
       </c>
       <c r="AF4">
-        <v>121821788.9057486</v>
+        <v>121821788.9057487</v>
       </c>
       <c r="AG4">
         <v>124281789.6886603</v>
@@ -6081,7 +6081,7 @@
         <v>124869217.978598</v>
       </c>
       <c r="AJ4">
-        <v>125559748.7237891</v>
+        <v>125559748.7237892</v>
       </c>
       <c r="AK4">
         <v>126649232.8090592</v>
@@ -6144,13 +6144,13 @@
         <v>186115013.7684709</v>
       </c>
       <c r="BE4">
-        <v>188336379.1737648</v>
+        <v>188336379.1737649</v>
       </c>
       <c r="BF4">
-        <v>190781906.1793427</v>
+        <v>190781906.1793428</v>
       </c>
       <c r="BG4">
-        <v>193347779.7891039</v>
+        <v>193347779.789104</v>
       </c>
       <c r="BH4">
         <v>196222526.226116</v>
@@ -6165,94 +6165,94 @@
         <v>206251700.8509844</v>
       </c>
       <c r="BL4">
-        <v>209827739.1592527</v>
+        <v>209827739.1592528</v>
       </c>
       <c r="BM4">
-        <v>213549648.9245162</v>
+        <v>213549648.9245163</v>
       </c>
       <c r="BN4">
         <v>217327108.75558</v>
       </c>
       <c r="BO4">
-        <v>221078793.2768956</v>
+        <v>221078793.2768957</v>
       </c>
       <c r="BP4">
         <v>224716842.9446326</v>
       </c>
       <c r="BQ4">
-        <v>228078718.7088237</v>
+        <v>228078718.7088238</v>
       </c>
       <c r="BR4">
-        <v>231158618.1252519</v>
+        <v>231158618.125252</v>
       </c>
       <c r="BS4">
-        <v>233985653.8257396</v>
+        <v>233985653.8257397</v>
       </c>
       <c r="BT4">
         <v>236702840.9558561</v>
       </c>
       <c r="BU4">
-        <v>239345948.2967857</v>
+        <v>239345948.2967858</v>
       </c>
       <c r="BV4">
-        <v>241839470.9919186</v>
+        <v>241839470.9919187</v>
       </c>
       <c r="BW4">
-        <v>244244086.1751254</v>
+        <v>244244086.1751255</v>
       </c>
       <c r="BX4">
-        <v>246565010.0668801</v>
+        <v>246565010.0668803</v>
       </c>
       <c r="BY4">
-        <v>248919254.5354426</v>
+        <v>248919254.5354427</v>
       </c>
       <c r="BZ4">
-        <v>251397727.5892261</v>
+        <v>251397727.5892262</v>
       </c>
       <c r="CA4">
-        <v>254007141.2634737</v>
+        <v>254007141.2634738</v>
       </c>
       <c r="CB4">
-        <v>256796964.796561</v>
+        <v>256796964.7965612</v>
       </c>
       <c r="CC4">
-        <v>259763270.3125283</v>
+        <v>259763270.3125284</v>
       </c>
       <c r="CD4">
-        <v>262875370.7087439</v>
+        <v>262875370.708744</v>
       </c>
       <c r="CE4">
-        <v>266095787.226209</v>
+        <v>266095787.2262091</v>
       </c>
       <c r="CF4">
-        <v>269383261.1978438</v>
+        <v>269383261.197844</v>
       </c>
       <c r="CG4">
-        <v>272735130.1974636</v>
+        <v>272735130.1974637</v>
       </c>
       <c r="CH4">
-        <v>276117470.9065862</v>
+        <v>276117470.9065863</v>
       </c>
       <c r="CI4">
-        <v>279472518.1780782</v>
+        <v>279472518.1780783</v>
       </c>
       <c r="CJ4">
-        <v>282734405.9743264</v>
+        <v>282734405.9743265</v>
       </c>
       <c r="CK4">
-        <v>285827664.9528465</v>
+        <v>285827664.9528466</v>
       </c>
       <c r="CL4">
-        <v>288727136.3191498</v>
+        <v>288727136.3191499</v>
       </c>
       <c r="CM4">
-        <v>291441849.7585899</v>
+        <v>291441849.75859</v>
       </c>
       <c r="CN4">
-        <v>294148210.8659042</v>
+        <v>294148210.8659043</v>
       </c>
       <c r="CO4">
-        <v>296829590.5138761</v>
+        <v>296829590.5138763</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -6262,40 +6262,40 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724677.179362033</v>
+        <v>1724677.179362034</v>
       </c>
       <c r="E5">
-        <v>2893588.449912178</v>
+        <v>2893588.44991218</v>
       </c>
       <c r="F5">
-        <v>4034011.414361184</v>
+        <v>4034011.414361186</v>
       </c>
       <c r="G5">
-        <v>5127668.361172827</v>
+        <v>5127668.361172829</v>
       </c>
       <c r="H5">
-        <v>6185832.878676888</v>
+        <v>6185832.878676889</v>
       </c>
       <c r="I5">
-        <v>7563949.363287464</v>
+        <v>7563949.363287466</v>
       </c>
       <c r="J5">
-        <v>9115995.025896842</v>
+        <v>9115995.025896845</v>
       </c>
       <c r="K5">
-        <v>10442766.51183776</v>
+        <v>10442766.51183777</v>
       </c>
       <c r="L5">
-        <v>11626467.82638616</v>
+        <v>11626467.82638617</v>
       </c>
       <c r="M5">
         <v>12980997.50382601</v>
       </c>
       <c r="N5">
-        <v>14410826.19227621</v>
+        <v>14410826.19227622</v>
       </c>
       <c r="O5">
-        <v>16303789.04017871</v>
+        <v>16303789.04017872</v>
       </c>
       <c r="P5">
         <v>30128457.60992458</v>
@@ -6543,7 +6543,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465606491950592</v>
+        <v>0.8465606491950595</v>
       </c>
       <c r="E6">
         <v>1.706082179381926</v>
@@ -6552,7 +6552,7 @@
         <v>2.614008217160977</v>
       </c>
       <c r="G6">
-        <v>3.529100349251929</v>
+        <v>3.52910034925193</v>
       </c>
       <c r="H6">
         <v>4.417981560636526</v>
@@ -6591,7 +6591,7 @@
         <v>16.44056608124824</v>
       </c>
       <c r="T6">
-        <v>17.790196023087</v>
+        <v>17.79019602308701</v>
       </c>
       <c r="U6">
         <v>19.17387741734652</v>
@@ -6600,7 +6600,7 @@
         <v>20.5916866183598</v>
       </c>
       <c r="W6">
-        <v>22.04360613374178</v>
+        <v>22.04360613374179</v>
       </c>
       <c r="X6">
         <v>23.52779557385352</v>
@@ -6621,16 +6621,16 @@
         <v>31.35483838955597</v>
       </c>
       <c r="AD6">
-        <v>32.95077882585658</v>
+        <v>32.95077882585659</v>
       </c>
       <c r="AE6">
-        <v>34.58101684753169</v>
+        <v>34.5810168475317</v>
       </c>
       <c r="AF6">
-        <v>36.24641193776796</v>
+        <v>36.24641193776797</v>
       </c>
       <c r="AG6">
-        <v>37.94796010075001</v>
+        <v>37.94796010075002</v>
       </c>
       <c r="AH6">
         <v>39.65922984616996</v>
@@ -6642,13 +6642,13 @@
         <v>43.19744808095047</v>
       </c>
       <c r="AK6">
-        <v>45.02860961819163</v>
+        <v>45.02860961819164</v>
       </c>
       <c r="AL6">
-        <v>46.90308102229281</v>
+        <v>46.90308102229282</v>
       </c>
       <c r="AM6">
-        <v>48.83529530492265</v>
+        <v>48.83529530492266</v>
       </c>
       <c r="AN6">
         <v>50.81442317781003</v>
@@ -6657,10 +6657,10 @@
         <v>52.83530083171453</v>
       </c>
       <c r="AP6">
-        <v>54.89462367699894</v>
+        <v>54.89462367699895</v>
       </c>
       <c r="AQ6">
-        <v>56.99109765396037</v>
+        <v>56.99109765396038</v>
       </c>
       <c r="AR6">
         <v>59.14167387085985</v>
@@ -6669,7 +6669,7 @@
         <v>61.32714325112273</v>
       </c>
       <c r="AT6">
-        <v>63.54659154750895</v>
+        <v>63.54659154750896</v>
       </c>
       <c r="AU6">
         <v>65.79811770975263</v>
@@ -6810,7 +6810,7 @@
         <v>212.3247291112851</v>
       </c>
       <c r="CO6">
-        <v>216.8140369533088</v>
+        <v>216.8140369533089</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -6829,61 +6829,61 @@
         <v>0.1296854194536317</v>
       </c>
       <c r="G7">
-        <v>0.1745780468144839</v>
+        <v>0.1745780468144838</v>
       </c>
       <c r="H7">
-        <v>0.2189600120723219</v>
+        <v>0.2189600120723218</v>
       </c>
       <c r="I7">
-        <v>0.2626599280847361</v>
+        <v>0.262659928084736</v>
       </c>
       <c r="J7">
-        <v>0.3076751791719118</v>
+        <v>0.3076751791719117</v>
       </c>
       <c r="K7">
-        <v>0.3571144076614675</v>
+        <v>0.3571144076614674</v>
       </c>
       <c r="L7">
-        <v>0.4079507294134915</v>
+        <v>0.4079507294134914</v>
       </c>
       <c r="M7">
-        <v>0.4623011629877183</v>
+        <v>0.4623011629877182</v>
       </c>
       <c r="N7">
-        <v>0.5200809913857555</v>
+        <v>0.5200809913857554</v>
       </c>
       <c r="O7">
-        <v>0.5729239738538605</v>
+        <v>0.5729239738538604</v>
       </c>
       <c r="P7">
-        <v>0.6297856747349408</v>
+        <v>0.6297856747349407</v>
       </c>
       <c r="Q7">
-        <v>0.6880668723523191</v>
+        <v>0.688066872352319</v>
       </c>
       <c r="R7">
-        <v>0.7477719182447413</v>
+        <v>0.7477719182447412</v>
       </c>
       <c r="S7">
-        <v>0.8124315467445444</v>
+        <v>0.8124315467445443</v>
       </c>
       <c r="T7">
-        <v>0.8787852722902288</v>
+        <v>0.8787852722902287</v>
       </c>
       <c r="U7">
-        <v>0.9468365319380293</v>
+        <v>0.9468365319380291</v>
       </c>
       <c r="V7">
         <v>1.01658878989098</v>
       </c>
       <c r="W7">
-        <v>1.088040901700862</v>
+        <v>1.088040901700861</v>
       </c>
       <c r="X7">
         <v>1.161056716485852</v>
       </c>
       <c r="Y7">
-        <v>1.235699219484108</v>
+        <v>1.235699219484107</v>
       </c>
       <c r="Z7">
         <v>1.311968440877517</v>
@@ -6895,13 +6895,13 @@
         <v>1.469421527459746</v>
       </c>
       <c r="AC7">
-        <v>1.546885382301912</v>
+        <v>1.546885382301911</v>
       </c>
       <c r="AD7">
         <v>1.626017480814447</v>
       </c>
       <c r="AE7">
-        <v>1.706840029439377</v>
+        <v>1.706840029439376</v>
       </c>
       <c r="AF7">
         <v>1.789391564492939</v>
@@ -6910,172 +6910,172 @@
         <v>1.873716183239987</v>
       </c>
       <c r="AH7">
-        <v>1.958690680248692</v>
+        <v>1.958690680248691</v>
       </c>
       <c r="AI7">
-        <v>2.045512779798867</v>
+        <v>2.045512779798866</v>
       </c>
       <c r="AJ7">
-        <v>2.134265768405284</v>
+        <v>2.134265768405283</v>
       </c>
       <c r="AK7">
-        <v>2.225060443794644</v>
+        <v>2.225060443794642</v>
       </c>
       <c r="AL7">
-        <v>2.317948621934372</v>
+        <v>2.317948621934371</v>
       </c>
       <c r="AM7">
-        <v>2.413559296068014</v>
+        <v>2.413559296068012</v>
       </c>
       <c r="AN7">
-        <v>2.511429360128103</v>
+        <v>2.511429360128101</v>
       </c>
       <c r="AO7">
-        <v>2.611314322711571</v>
+        <v>2.61131432271157</v>
       </c>
       <c r="AP7">
-        <v>2.713060323886219</v>
+        <v>2.713060323886217</v>
       </c>
       <c r="AQ7">
-        <v>2.816611157312908</v>
+        <v>2.816611157312907</v>
       </c>
       <c r="AR7">
-        <v>2.922691432588683</v>
+        <v>2.922691432588682</v>
       </c>
       <c r="AS7">
-        <v>3.03047958865043</v>
+        <v>3.030479588650428</v>
       </c>
       <c r="AT7">
-        <v>3.13994120436946</v>
+        <v>3.139941204369458</v>
       </c>
       <c r="AU7">
-        <v>3.250994169611439</v>
+        <v>3.250994169611437</v>
       </c>
       <c r="AV7">
-        <v>3.363473793020435</v>
+        <v>3.363473793020433</v>
       </c>
       <c r="AW7">
-        <v>3.477475683317361</v>
+        <v>3.477475683317359</v>
       </c>
       <c r="AX7">
-        <v>3.59274257210872</v>
+        <v>3.592742572108718</v>
       </c>
       <c r="AY7">
-        <v>3.709544300298113</v>
+        <v>3.709544300298111</v>
       </c>
       <c r="AZ7">
-        <v>3.828033782406369</v>
+        <v>3.828033782406368</v>
       </c>
       <c r="BA7">
-        <v>3.948216929254368</v>
+        <v>3.948216929254366</v>
       </c>
       <c r="BB7">
-        <v>4.070086904933368</v>
+        <v>4.070086904933366</v>
       </c>
       <c r="BC7">
-        <v>4.193835907279965</v>
+        <v>4.193835907279963</v>
       </c>
       <c r="BD7">
-        <v>4.319610421988149</v>
+        <v>4.319610421988147</v>
       </c>
       <c r="BE7">
-        <v>4.447559473658337</v>
+        <v>4.447559473658335</v>
       </c>
       <c r="BF7">
-        <v>4.577805195173713</v>
+        <v>4.577805195173712</v>
       </c>
       <c r="BG7">
-        <v>4.71048867071911</v>
+        <v>4.710488670719108</v>
       </c>
       <c r="BH7">
-        <v>4.84575344409073</v>
+        <v>4.845753444090728</v>
       </c>
       <c r="BI7">
-        <v>4.98352172959931</v>
+        <v>4.983521729599308</v>
       </c>
       <c r="BJ7">
-        <v>5.123678737239042</v>
+        <v>5.12367873723904</v>
       </c>
       <c r="BK7">
-        <v>5.266170061639621</v>
+        <v>5.266170061639619</v>
       </c>
       <c r="BL7">
-        <v>5.411059855741994</v>
+        <v>5.411059855741993</v>
       </c>
       <c r="BM7">
-        <v>5.558358710960609</v>
+        <v>5.558358710960607</v>
       </c>
       <c r="BN7">
-        <v>5.707962494951369</v>
+        <v>5.707962494951367</v>
       </c>
       <c r="BO7">
-        <v>5.859778275927334</v>
+        <v>5.859778275927332</v>
       </c>
       <c r="BP7">
-        <v>6.013710912551583</v>
+        <v>6.013710912551582</v>
       </c>
       <c r="BQ7">
-        <v>6.169796853202938</v>
+        <v>6.169796853202937</v>
       </c>
       <c r="BR7">
-        <v>6.327980432731117</v>
+        <v>6.327980432731115</v>
       </c>
       <c r="BS7">
-        <v>6.488291107797575</v>
+        <v>6.488291107797572</v>
       </c>
       <c r="BT7">
-        <v>6.650850419460478</v>
+        <v>6.650850419460475</v>
       </c>
       <c r="BU7">
-        <v>6.815714632487194</v>
+        <v>6.815714632487191</v>
       </c>
       <c r="BV7">
-        <v>6.982985212748412</v>
+        <v>6.982985212748409</v>
       </c>
       <c r="BW7">
-        <v>7.152691602238538</v>
+        <v>7.152691602238535</v>
       </c>
       <c r="BX7">
-        <v>7.324885724131601</v>
+        <v>7.324885724131598</v>
       </c>
       <c r="BY7">
-        <v>7.499670489013753</v>
+        <v>7.49967048901375</v>
       </c>
       <c r="BZ7">
-        <v>7.677160980901961</v>
+        <v>7.677160980901959</v>
       </c>
       <c r="CA7">
-        <v>7.857533174363912</v>
+        <v>7.857533174363909</v>
       </c>
       <c r="CB7">
-        <v>8.04085271418958</v>
+        <v>8.040852714189578</v>
       </c>
       <c r="CC7">
-        <v>8.227110477277384</v>
+        <v>8.227110477277382</v>
       </c>
       <c r="CD7">
-        <v>8.416249078839163</v>
+        <v>8.416249078839162</v>
       </c>
       <c r="CE7">
-        <v>8.608205941599127</v>
+        <v>8.608205941599126</v>
       </c>
       <c r="CF7">
-        <v>8.803056018893296</v>
+        <v>8.803056018893292</v>
       </c>
       <c r="CG7">
-        <v>9.00082225522806</v>
+        <v>9.000822255228057</v>
       </c>
       <c r="CH7">
-        <v>9.201464727176491</v>
+        <v>9.201464727176488</v>
       </c>
       <c r="CI7">
-        <v>9.404915632265991</v>
+        <v>9.404915632265988</v>
       </c>
       <c r="CJ7">
-        <v>9.611099474967347</v>
+        <v>9.611099474967343</v>
       </c>
       <c r="CK7">
-        <v>9.820025866978906</v>
+        <v>9.820025866978902</v>
       </c>
       <c r="CL7">
         <v>10.03172150809836</v>
@@ -7087,7 +7087,7 @@
         <v>10.46355459014714</v>
       </c>
       <c r="CO7">
-        <v>10.68382632816548</v>
+        <v>10.68382632816547</v>
       </c>
     </row>
     <row r="8" spans="1:93">
@@ -7097,133 +7097,133 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804846.9438147569</v>
+        <v>804846.9438147575</v>
       </c>
       <c r="E8">
         <v>1373065.822862478</v>
       </c>
       <c r="F8">
-        <v>1736195.874359263</v>
+        <v>1736195.874359264</v>
       </c>
       <c r="G8">
-        <v>2037965.547211695</v>
+        <v>2037965.547211696</v>
       </c>
       <c r="H8">
-        <v>2361920.095686884</v>
+        <v>2361920.095686886</v>
       </c>
       <c r="I8">
-        <v>2618118.694199644</v>
+        <v>2618118.694199646</v>
       </c>
       <c r="J8">
-        <v>2908352.85245837</v>
+        <v>2908352.852458372</v>
       </c>
       <c r="K8">
-        <v>3163103.986844491</v>
+        <v>3163103.986844493</v>
       </c>
       <c r="L8">
-        <v>3470928.845901498</v>
+        <v>3470928.8459015</v>
       </c>
       <c r="M8">
-        <v>3751356.968159567</v>
+        <v>3751356.968159569</v>
       </c>
       <c r="N8">
-        <v>4088390.232329958</v>
+        <v>4088390.232329961</v>
       </c>
       <c r="O8">
-        <v>4542664.065893489</v>
+        <v>4542664.065893492</v>
       </c>
       <c r="P8">
-        <v>6332239.024868055</v>
+        <v>6332239.02486806</v>
       </c>
       <c r="Q8">
-        <v>8129714.831226619</v>
+        <v>8129714.831226625</v>
       </c>
       <c r="R8">
-        <v>9939138.943405181</v>
+        <v>9939138.943405189</v>
       </c>
       <c r="S8">
-        <v>15697360.23318666</v>
+        <v>15697360.23318667</v>
       </c>
       <c r="T8">
-        <v>21481312.03521629</v>
+        <v>21481312.03521631</v>
       </c>
       <c r="U8">
-        <v>27291285.32059266</v>
+        <v>27291285.32059268</v>
       </c>
       <c r="V8">
-        <v>33129260.84161033</v>
+        <v>33129260.84161035</v>
       </c>
       <c r="W8">
-        <v>38996571.97142386</v>
+        <v>38996571.97142388</v>
       </c>
       <c r="X8">
-        <v>44569787.71778089</v>
+        <v>44569787.71778091</v>
       </c>
       <c r="Y8">
-        <v>50170428.25764124</v>
+        <v>50170428.25764126</v>
       </c>
       <c r="Z8">
-        <v>55802277.43459252</v>
+        <v>55802277.43459255</v>
       </c>
       <c r="AA8">
-        <v>61466161.14686693</v>
+        <v>61466161.14686696</v>
       </c>
       <c r="AB8">
-        <v>67169212.21936181</v>
+        <v>67169212.21936184</v>
       </c>
       <c r="AC8">
-        <v>68381271.03919819</v>
+        <v>68381271.03919822</v>
       </c>
       <c r="AD8">
-        <v>69632978.06729601</v>
+        <v>69632978.06729604</v>
       </c>
       <c r="AE8">
-        <v>70934503.04720224</v>
+        <v>70934503.04720227</v>
       </c>
       <c r="AF8">
-        <v>72300027.37024514</v>
+        <v>72300027.37024517</v>
       </c>
       <c r="AG8">
-        <v>73756230.17990658</v>
+        <v>73756230.17990661</v>
       </c>
       <c r="AH8">
-        <v>73935481.84574071</v>
+        <v>73935481.84574074</v>
       </c>
       <c r="AI8">
-        <v>74222792.12725428</v>
+        <v>74222792.12725431</v>
       </c>
       <c r="AJ8">
-        <v>74681497.64644291</v>
+        <v>74681497.64644293</v>
       </c>
       <c r="AK8">
-        <v>75365662.3235985</v>
+        <v>75365662.32359853</v>
       </c>
       <c r="AL8">
-        <v>76316226.9463412</v>
+        <v>76316226.94634123</v>
       </c>
       <c r="AM8">
-        <v>78422208.46134788</v>
+        <v>78422208.46134791</v>
       </c>
       <c r="AN8">
-        <v>80889300.90771894</v>
+        <v>80889300.90771899</v>
       </c>
       <c r="AO8">
-        <v>83590876.99186791</v>
+        <v>83590876.99186796</v>
       </c>
       <c r="AP8">
-        <v>86440957.16068706</v>
+        <v>86440957.1606871</v>
       </c>
       <c r="AQ8">
-        <v>89398799.0564018</v>
+        <v>89398799.05640185</v>
       </c>
       <c r="AR8">
-        <v>92874699.76227492</v>
+        <v>92874699.76227497</v>
       </c>
       <c r="AS8">
-        <v>96361513.69513468</v>
+        <v>96361513.69513473</v>
       </c>
       <c r="AT8">
-        <v>99824434.0761946</v>
+        <v>99824434.07619464</v>
       </c>
       <c r="AU8">
         <v>103209506.3594516</v>
@@ -7238,22 +7238,22 @@
         <v>112348661.5229733</v>
       </c>
       <c r="AY8">
-        <v>114946355.0907959</v>
+        <v>114946355.090796</v>
       </c>
       <c r="AZ8">
-        <v>117404048.7200144</v>
+        <v>117404048.7200145</v>
       </c>
       <c r="BA8">
         <v>119731746.1934393</v>
       </c>
       <c r="BB8">
-        <v>121852998.1404226</v>
+        <v>121852998.1404227</v>
       </c>
       <c r="BC8">
         <v>123898371.3646962</v>
       </c>
       <c r="BD8">
-        <v>125935298.7186133</v>
+        <v>125935298.7186134</v>
       </c>
       <c r="BE8">
         <v>128050139.3191718</v>
@@ -7262,109 +7262,109 @@
         <v>130317621.7346494</v>
       </c>
       <c r="BG8">
-        <v>132724058.1579015</v>
+        <v>132724058.1579016</v>
       </c>
       <c r="BH8">
-        <v>135394425.9953513</v>
+        <v>135394425.9953514</v>
       </c>
       <c r="BI8">
-        <v>138291200.0709582</v>
+        <v>138291200.0709583</v>
       </c>
       <c r="BJ8">
-        <v>141353894.3384192</v>
+        <v>141353894.3384193</v>
       </c>
       <c r="BK8">
-        <v>144546684.732231</v>
+        <v>144546684.7322311</v>
       </c>
       <c r="BL8">
-        <v>147789817.130081</v>
+        <v>147789817.1300811</v>
       </c>
       <c r="BM8">
-        <v>151127916.1048194</v>
+        <v>151127916.1048195</v>
       </c>
       <c r="BN8">
-        <v>154519439.5554536</v>
+        <v>154519439.5554537</v>
       </c>
       <c r="BO8">
-        <v>157921118.2672036</v>
+        <v>157921118.2672037</v>
       </c>
       <c r="BP8">
-        <v>161282094.2116621</v>
+        <v>161282094.2116622</v>
       </c>
       <c r="BQ8">
-        <v>164499764.6401985</v>
+        <v>164499764.6401986</v>
       </c>
       <c r="BR8">
-        <v>167581620.7758866</v>
+        <v>167581620.7758867</v>
       </c>
       <c r="BS8">
-        <v>170532695.6816045</v>
+        <v>170532695.6816046</v>
       </c>
       <c r="BT8">
-        <v>173412939.5452105</v>
+        <v>173412939.5452106</v>
       </c>
       <c r="BU8">
-        <v>176252159.1644232</v>
+        <v>176252159.1644233</v>
       </c>
       <c r="BV8">
-        <v>179001446.7683816</v>
+        <v>179001446.7683817</v>
       </c>
       <c r="BW8">
-        <v>181701977.5828359</v>
+        <v>181701977.582836</v>
       </c>
       <c r="BX8">
-        <v>184360068.14054</v>
+        <v>184360068.1405401</v>
       </c>
       <c r="BY8">
-        <v>186997003.0281259</v>
+        <v>186997003.028126</v>
       </c>
       <c r="BZ8">
-        <v>189713469.0862218</v>
+        <v>189713469.0862219</v>
       </c>
       <c r="CA8">
-        <v>192504753.0591321</v>
+        <v>192504753.0591322</v>
       </c>
       <c r="CB8">
-        <v>195444331.5953841</v>
+        <v>195444331.5953842</v>
       </c>
       <c r="CC8">
-        <v>198530300.2894336</v>
+        <v>198530300.2894337</v>
       </c>
       <c r="CD8">
         <v>201733251.1560023</v>
       </c>
       <c r="CE8">
-        <v>205019647.436798</v>
+        <v>205019647.4367981</v>
       </c>
       <c r="CF8">
         <v>208313688.6839691</v>
       </c>
       <c r="CG8">
-        <v>211657221.66924</v>
+        <v>211657221.6692401</v>
       </c>
       <c r="CH8">
-        <v>215034824.0097225</v>
+        <v>215034824.0097226</v>
       </c>
       <c r="CI8">
-        <v>218421105.9470102</v>
+        <v>218421105.9470103</v>
       </c>
       <c r="CJ8">
-        <v>221784156.1015175</v>
+        <v>221784156.1015176</v>
       </c>
       <c r="CK8">
-        <v>225015763.7829145</v>
+        <v>225015763.7829146</v>
       </c>
       <c r="CL8">
-        <v>228167890.1567978</v>
+        <v>228167890.1567979</v>
       </c>
       <c r="CM8">
-        <v>231249902.6509919</v>
+        <v>231249902.650992</v>
       </c>
       <c r="CN8">
-        <v>234349646.4374649</v>
+        <v>234349646.437465</v>
       </c>
       <c r="CO8">
-        <v>237446695.8127047</v>
+        <v>237446695.8127049</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -7374,10 +7374,10 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>163715.3845150303</v>
+        <v>163715.3845150304</v>
       </c>
       <c r="E9">
-        <v>268225.4317830071</v>
+        <v>268225.4317830072</v>
       </c>
       <c r="F9">
         <v>347869.6449852617</v>
@@ -7386,262 +7386,262 @@
         <v>427249.4290707335</v>
       </c>
       <c r="H9">
-        <v>500527.9654492633</v>
+        <v>500527.9654492632</v>
       </c>
       <c r="I9">
-        <v>571077.6928366446</v>
+        <v>571077.6928366444</v>
       </c>
       <c r="J9">
-        <v>636116.2890664269</v>
+        <v>636116.2890664266</v>
       </c>
       <c r="K9">
-        <v>704594.3214495765</v>
+        <v>704594.3214495761</v>
       </c>
       <c r="L9">
-        <v>787682.2242620309</v>
+        <v>787682.2242620304</v>
       </c>
       <c r="M9">
-        <v>871851.8929416925</v>
+        <v>871851.8929416919</v>
       </c>
       <c r="N9">
-        <v>962661.2588065141</v>
+        <v>962661.2588065134</v>
       </c>
       <c r="O9">
-        <v>1067226.368872244</v>
+        <v>1067226.368872243</v>
       </c>
       <c r="P9">
-        <v>2049458.155444738</v>
+        <v>2049458.155444736</v>
       </c>
       <c r="Q9">
-        <v>3034879.907526175</v>
+        <v>3034879.907526172</v>
       </c>
       <c r="R9">
-        <v>4024092.73150974</v>
+        <v>4024092.731509736</v>
       </c>
       <c r="S9">
-        <v>7216510.001523703</v>
+        <v>7216510.001523696</v>
       </c>
       <c r="T9">
-        <v>10414006.59770652</v>
+        <v>10414006.5977065</v>
       </c>
       <c r="U9">
-        <v>13617300.98314591</v>
+        <v>13617300.98314589</v>
       </c>
       <c r="V9">
-        <v>16827259.3099325</v>
+        <v>16827259.30993248</v>
       </c>
       <c r="W9">
-        <v>20045049.14936753</v>
+        <v>20045049.1493675</v>
       </c>
       <c r="X9">
-        <v>23518401.43921</v>
+        <v>23518401.43920998</v>
       </c>
       <c r="Y9">
-        <v>27003790.45615404</v>
+        <v>27003790.45615401</v>
       </c>
       <c r="Z9">
-        <v>30504916.19219</v>
+        <v>30504916.19218997</v>
       </c>
       <c r="AA9">
-        <v>34027099.44628366</v>
+        <v>34027099.44628362</v>
       </c>
       <c r="AB9">
-        <v>37577756.88334007</v>
+        <v>37577756.88334002</v>
       </c>
       <c r="AC9">
-        <v>38770274.81639215</v>
+        <v>38770274.81639209</v>
       </c>
       <c r="AD9">
-        <v>40014221.28082768</v>
+        <v>40014221.28082762</v>
       </c>
       <c r="AE9">
-        <v>41325802.22100911</v>
+        <v>41325802.22100904</v>
       </c>
       <c r="AF9">
-        <v>42724450.7164271</v>
+        <v>42724450.71642703</v>
       </c>
       <c r="AG9">
-        <v>44232460.36994677</v>
+        <v>44232460.3699467</v>
       </c>
       <c r="AH9">
-        <v>45030354.01551298</v>
+        <v>45030354.01551291</v>
       </c>
       <c r="AI9">
-        <v>45987198.54699798</v>
+        <v>45987198.5469979</v>
       </c>
       <c r="AJ9">
-        <v>47127387.88346224</v>
+        <v>47127387.88346217</v>
       </c>
       <c r="AK9">
-        <v>48472436.34056982</v>
+        <v>48472436.34056974</v>
       </c>
       <c r="AL9">
-        <v>50038683.63049489</v>
+        <v>50038683.6304948</v>
       </c>
       <c r="AM9">
-        <v>52289453.36811445</v>
+        <v>52289453.36811436</v>
       </c>
       <c r="AN9">
-        <v>54769618.09429646</v>
+        <v>54769618.09429637</v>
       </c>
       <c r="AO9">
-        <v>57467592.68190887</v>
+        <v>57467592.68190877</v>
       </c>
       <c r="AP9">
-        <v>60360408.81293578</v>
+        <v>60360408.81293567</v>
       </c>
       <c r="AQ9">
-        <v>63414419.85903488</v>
+        <v>63414419.85903477</v>
       </c>
       <c r="AR9">
-        <v>67129023.2918084</v>
+        <v>67129023.29180828</v>
       </c>
       <c r="AS9">
-        <v>70914274.78759325</v>
+        <v>70914274.78759311</v>
       </c>
       <c r="AT9">
-        <v>74720009.90301165</v>
+        <v>74720009.90301152</v>
       </c>
       <c r="AU9">
-        <v>78498060.66698392</v>
+        <v>78498060.66698377</v>
       </c>
       <c r="AV9">
-        <v>82206063.58492756</v>
+        <v>82206063.58492741</v>
       </c>
       <c r="AW9">
-        <v>85988768.63813442</v>
+        <v>85988768.63813427</v>
       </c>
       <c r="AX9">
-        <v>89646105.76815483</v>
+        <v>89646105.76815468</v>
       </c>
       <c r="AY9">
-        <v>93168887.03521492</v>
+        <v>93168887.03521477</v>
       </c>
       <c r="AZ9">
-        <v>96561132.31293815</v>
+        <v>96561132.312938</v>
       </c>
       <c r="BA9">
-        <v>99839514.0952394</v>
+        <v>99839514.09523924</v>
       </c>
       <c r="BB9">
-        <v>102942638.5728144</v>
+        <v>102942638.5728142</v>
       </c>
       <c r="BC9">
-        <v>105996117.1707265</v>
+        <v>105996117.1707264</v>
       </c>
       <c r="BD9">
-        <v>109041791.0625862</v>
+        <v>109041791.062586</v>
       </c>
       <c r="BE9">
-        <v>112123276.2503187</v>
+        <v>112123276.2503186</v>
       </c>
       <c r="BF9">
-        <v>115282369.0855079</v>
+        <v>115282369.0855077</v>
       </c>
       <c r="BG9">
-        <v>118511575.8168593</v>
+        <v>118511575.8168592</v>
       </c>
       <c r="BH9">
-        <v>121884849.8430878</v>
+        <v>121884849.8430876</v>
       </c>
       <c r="BI9">
-        <v>125423039.4846977</v>
+        <v>125423039.4846975</v>
       </c>
       <c r="BJ9">
-        <v>129137581.2653346</v>
+        <v>129137581.2653344</v>
       </c>
       <c r="BK9">
-        <v>133030516.4446035</v>
+        <v>133030516.4446032</v>
       </c>
       <c r="BL9">
-        <v>137100678.824362</v>
+        <v>137100678.8243618</v>
       </c>
       <c r="BM9">
-        <v>141328064.3696021</v>
+        <v>141328064.3696018</v>
       </c>
       <c r="BN9">
-        <v>145692169.0881082</v>
+        <v>145692169.088108</v>
       </c>
       <c r="BO9">
-        <v>150168327.9552125</v>
+        <v>150168327.9552123</v>
       </c>
       <c r="BP9">
-        <v>154729809.2687006</v>
+        <v>154729809.2687004</v>
       </c>
       <c r="BQ9">
-        <v>159358577.2173707</v>
+        <v>159358577.2173705</v>
       </c>
       <c r="BR9">
-        <v>164021178.8070581</v>
+        <v>164021178.8070579</v>
       </c>
       <c r="BS9">
-        <v>168696417.9718547</v>
+        <v>168696417.9718545</v>
       </c>
       <c r="BT9">
-        <v>173367965.3025018</v>
+        <v>173367965.3025015</v>
       </c>
       <c r="BU9">
-        <v>178025223.8121618</v>
+        <v>178025223.8121616</v>
       </c>
       <c r="BV9">
-        <v>182654211.3780914</v>
+        <v>182654211.3780912</v>
       </c>
       <c r="BW9">
-        <v>187266040.1385993</v>
+        <v>187266040.1385991</v>
       </c>
       <c r="BX9">
-        <v>191867814.2696528</v>
+        <v>191867814.2696525</v>
       </c>
       <c r="BY9">
-        <v>196471222.9659839</v>
+        <v>196471222.9659836</v>
       </c>
       <c r="BZ9">
-        <v>201091326.473742</v>
+        <v>201091326.4737418</v>
       </c>
       <c r="CA9">
-        <v>205717311.8381042</v>
+        <v>205717311.8381039</v>
       </c>
       <c r="CB9">
-        <v>210394614.6392892</v>
+        <v>210394614.6392889</v>
       </c>
       <c r="CC9">
-        <v>215139954.1287752</v>
+        <v>215139954.1287749</v>
       </c>
       <c r="CD9">
-        <v>219967953.0481261</v>
+        <v>219967953.0481257</v>
       </c>
       <c r="CE9">
-        <v>224890152.4700436</v>
+        <v>224890152.4700432</v>
       </c>
       <c r="CF9">
-        <v>229861887.1714706</v>
+        <v>229861887.1714702</v>
       </c>
       <c r="CG9">
-        <v>234939357.1095567</v>
+        <v>234939357.1095563</v>
       </c>
       <c r="CH9">
-        <v>240122276.4531775</v>
+        <v>240122276.4531771</v>
       </c>
       <c r="CI9">
-        <v>245406679.0188327</v>
+        <v>245406679.0188323</v>
       </c>
       <c r="CJ9">
-        <v>250785509.543751</v>
+        <v>250785509.5437506</v>
       </c>
       <c r="CK9">
-        <v>256165590.8831654</v>
+        <v>256165590.883165</v>
       </c>
       <c r="CL9">
-        <v>261619913.7150053</v>
+        <v>261619913.7150048</v>
       </c>
       <c r="CM9">
-        <v>267137131.0144801</v>
+        <v>267137131.0144796</v>
       </c>
       <c r="CN9">
-        <v>272706237.0954765</v>
+        <v>272706237.095476</v>
       </c>
       <c r="CO9">
-        <v>278317337.2696469</v>
+        <v>278317337.2696464</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -7820,7 +7820,7 @@
         <v>1167.711044935781</v>
       </c>
       <c r="BG10">
-        <v>1201.578194186491</v>
+        <v>1201.578194186492</v>
       </c>
       <c r="BH10">
         <v>1236.117288646157</v>
@@ -7835,7 +7835,7 @@
         <v>1343.544202546891</v>
       </c>
       <c r="BL10">
-        <v>1380.59154051481</v>
+        <v>1380.591540514811</v>
       </c>
       <c r="BM10">
         <v>1418.266641290208</v>
@@ -8212,7 +8212,7 @@
         <v>250327.5712160597</v>
       </c>
       <c r="E12">
-        <v>495618.8668639605</v>
+        <v>495618.8668639606</v>
       </c>
       <c r="F12">
         <v>826037.5688765906</v>
@@ -8245,13 +8245,13 @@
         <v>4726066.723556129</v>
       </c>
       <c r="P12">
-        <v>8298857.181263246</v>
+        <v>8298857.181263244</v>
       </c>
       <c r="Q12">
         <v>11880962.99803533</v>
       </c>
       <c r="R12">
-        <v>15472780.18320104</v>
+        <v>15472780.18320103</v>
       </c>
       <c r="S12">
         <v>27226393.63449847</v>
@@ -8356,7 +8356,7 @@
         <v>342708383.051064</v>
       </c>
       <c r="BA12">
-        <v>354368528.0578441</v>
+        <v>354368528.057844</v>
       </c>
       <c r="BB12">
         <v>365433268.4198273</v>
@@ -8365,10 +8365,10 @@
         <v>376433076.860857</v>
       </c>
       <c r="BD12">
-        <v>387492457.5601953</v>
+        <v>387492457.5601952</v>
       </c>
       <c r="BE12">
-        <v>398725850.8898297</v>
+        <v>398725850.8898296</v>
       </c>
       <c r="BF12">
         <v>410226370.9055555</v>
@@ -8377,19 +8377,19 @@
         <v>421901136.679168</v>
       </c>
       <c r="BH12">
-        <v>433981728.0763304</v>
+        <v>433981728.0763303</v>
       </c>
       <c r="BI12">
         <v>446465727.3861735</v>
       </c>
       <c r="BJ12">
-        <v>459337004.1886175</v>
+        <v>459337004.1886174</v>
       </c>
       <c r="BK12">
         <v>472599970.7846577</v>
       </c>
       <c r="BL12">
-        <v>486378124.0371277</v>
+        <v>486378124.0371276</v>
       </c>
       <c r="BM12">
         <v>500550634.4879572</v>
@@ -8398,7 +8398,7 @@
         <v>515035248.3673251</v>
       </c>
       <c r="BO12">
-        <v>529752908.8707628</v>
+        <v>529752908.8707627</v>
       </c>
       <c r="BP12">
         <v>544632746.7888767</v>
@@ -8425,58 +8425,58 @@
         <v>650317350.6984406</v>
       </c>
       <c r="BX12">
-        <v>665464423.534884</v>
+        <v>665464423.5348839</v>
       </c>
       <c r="BY12">
-        <v>680724231.0636746</v>
+        <v>680724231.0636744</v>
       </c>
       <c r="BZ12">
-        <v>696147554.8021456</v>
+        <v>696147554.8021455</v>
       </c>
       <c r="CA12">
-        <v>711658233.4914942</v>
+        <v>711658233.4914941</v>
       </c>
       <c r="CB12">
-        <v>727401139.1088711</v>
+        <v>727401139.108871</v>
       </c>
       <c r="CC12">
-        <v>743399388.6935592</v>
+        <v>743399388.6935591</v>
       </c>
       <c r="CD12">
-        <v>759658751.6933157</v>
+        <v>759658751.6933156</v>
       </c>
       <c r="CE12">
-        <v>776183007.6012256</v>
+        <v>776183007.6012255</v>
       </c>
       <c r="CF12">
-        <v>792717801.5817835</v>
+        <v>792717801.5817834</v>
       </c>
       <c r="CG12">
-        <v>809534504.9078455</v>
+        <v>809534504.9078454</v>
       </c>
       <c r="CH12">
-        <v>826617157.7200887</v>
+        <v>826617157.7200886</v>
       </c>
       <c r="CI12">
-        <v>843927009.6625302</v>
+        <v>843927009.6625301</v>
       </c>
       <c r="CJ12">
-        <v>861420525.1032472</v>
+        <v>861420525.1032469</v>
       </c>
       <c r="CK12">
-        <v>878612810.7562435</v>
+        <v>878612810.7562432</v>
       </c>
       <c r="CL12">
-        <v>895917263.248646</v>
+        <v>895917263.2486458</v>
       </c>
       <c r="CM12">
-        <v>913315161.3021561</v>
+        <v>913315161.3021559</v>
       </c>
       <c r="CN12">
-        <v>930802453.3654407</v>
+        <v>930802453.3654405</v>
       </c>
       <c r="CO12">
-        <v>948381204.4524168</v>
+        <v>948381204.4524165</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -8486,67 +8486,67 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147351.5091590436</v>
+        <v>147351.5091590437</v>
       </c>
       <c r="E13">
-        <v>241417.4229364535</v>
+        <v>241417.4229364537</v>
       </c>
       <c r="F13">
-        <v>313108.2816952136</v>
+        <v>313108.2816952139</v>
       </c>
       <c r="G13">
-        <v>384564.7504153167</v>
+        <v>384564.7504153169</v>
       </c>
       <c r="H13">
-        <v>450528.7514597948</v>
+        <v>450528.751459795</v>
       </c>
       <c r="I13">
-        <v>514037.8501246014</v>
+        <v>514037.8501246017</v>
       </c>
       <c r="J13">
-        <v>572586.187163732</v>
+        <v>572586.1871637322</v>
       </c>
       <c r="K13">
-        <v>634230.0222112718</v>
+        <v>634230.022211272</v>
       </c>
       <c r="L13">
-        <v>709023.8667042443</v>
+        <v>709023.8667042445</v>
       </c>
       <c r="M13">
-        <v>784791.3889831187</v>
+        <v>784791.3889831189</v>
       </c>
       <c r="N13">
-        <v>866533.9995235791</v>
+        <v>866533.9995235794</v>
       </c>
       <c r="O13">
-        <v>960657.7525327995</v>
+        <v>960657.7525327997</v>
       </c>
       <c r="P13">
         <v>1844846.406944217</v>
       </c>
       <c r="Q13">
-        <v>2731906.267014736</v>
+        <v>2731906.267014737</v>
       </c>
       <c r="R13">
-        <v>3622378.393671126</v>
+        <v>3622378.393671127</v>
       </c>
       <c r="S13">
-        <v>6496150.531045623</v>
+        <v>6496150.531045626</v>
       </c>
       <c r="T13">
-        <v>9374494.548240595</v>
+        <v>9374494.548240598</v>
       </c>
       <c r="U13">
         <v>12258057.19970671</v>
       </c>
       <c r="V13">
-        <v>15147618.21621353</v>
+        <v>15147618.21621354</v>
       </c>
       <c r="W13">
         <v>18044228.69424149</v>
       </c>
       <c r="X13">
-        <v>21170922.03632121</v>
+        <v>21170922.03632122</v>
       </c>
       <c r="Y13">
         <v>24308450.53871309</v>
@@ -8555,10 +8555,10 @@
         <v>27460145.02697678</v>
       </c>
       <c r="AA13">
-        <v>30630795.35911431</v>
+        <v>30630795.35911432</v>
       </c>
       <c r="AB13">
-        <v>33827078.05035245</v>
+        <v>33827078.05035246</v>
       </c>
       <c r="AC13">
         <v>34900603.8719603</v>
@@ -8570,46 +8570,46 @@
         <v>37201131.06401315</v>
       </c>
       <c r="AF13">
-        <v>38460214.1962977</v>
+        <v>38460214.19629771</v>
       </c>
       <c r="AG13">
-        <v>39817743.1660231</v>
+        <v>39817743.16602311</v>
       </c>
       <c r="AH13">
-        <v>40536033.87971731</v>
+        <v>40536033.87971732</v>
       </c>
       <c r="AI13">
-        <v>41397410.38031016</v>
+        <v>41397410.38031017</v>
       </c>
       <c r="AJ13">
         <v>42423831.78570358</v>
       </c>
       <c r="AK13">
-        <v>43634665.10240363</v>
+        <v>43634665.10240364</v>
       </c>
       <c r="AL13">
-        <v>45044619.30216971</v>
+        <v>45044619.30216972</v>
       </c>
       <c r="AM13">
-        <v>47070773.58258711</v>
+        <v>47070773.58258712</v>
       </c>
       <c r="AN13">
         <v>49303427.37132882</v>
       </c>
       <c r="AO13">
-        <v>51732152.23282174</v>
+        <v>51732152.23282175</v>
       </c>
       <c r="AP13">
-        <v>54336272.74749998</v>
+        <v>54336272.74749999</v>
       </c>
       <c r="AQ13">
-        <v>57085501.01091401</v>
+        <v>57085501.01091402</v>
       </c>
       <c r="AR13">
         <v>60429411.89212865</v>
       </c>
       <c r="AS13">
-        <v>63836922.00100461</v>
+        <v>63836922.00100462</v>
       </c>
       <c r="AT13">
         <v>67262874.13739751</v>
@@ -8773,10 +8773,10 @@
         <v>3.412164358763852</v>
       </c>
       <c r="F14">
-        <v>5.228016434321956</v>
+        <v>5.228016434321955</v>
       </c>
       <c r="G14">
-        <v>7.058200698503861</v>
+        <v>7.058200698503859</v>
       </c>
       <c r="H14">
         <v>8.835963121273053</v>
@@ -8785,7 +8785,7 @@
         <v>10.59772217558126</v>
       </c>
       <c r="J14">
-        <v>12.44201184490529</v>
+        <v>12.44201184490528</v>
       </c>
       <c r="K14">
         <v>14.47615909231471</v>
@@ -8812,67 +8812,67 @@
         <v>30.24982969985543</v>
       </c>
       <c r="S14">
-        <v>32.88113216249649</v>
+        <v>32.88113216249648</v>
       </c>
       <c r="T14">
-        <v>35.58039204617402</v>
+        <v>35.58039204617401</v>
       </c>
       <c r="U14">
-        <v>38.34775483469306</v>
+        <v>38.34775483469305</v>
       </c>
       <c r="V14">
-        <v>41.18337323671961</v>
+        <v>41.1833732367196</v>
       </c>
       <c r="W14">
-        <v>44.08721226748358</v>
+        <v>44.08721226748357</v>
       </c>
       <c r="X14">
-        <v>47.05559114770706</v>
+        <v>47.05559114770705</v>
       </c>
       <c r="Y14">
-        <v>50.08941169147164</v>
+        <v>50.08941169147162</v>
       </c>
       <c r="Z14">
-        <v>53.18871146258164</v>
+        <v>53.18871146258162</v>
       </c>
       <c r="AA14">
-        <v>56.35366129316538</v>
+        <v>56.35366129316537</v>
       </c>
       <c r="AB14">
-        <v>59.58536298859134</v>
+        <v>59.58536298859133</v>
       </c>
       <c r="AC14">
-        <v>62.70967677911195</v>
+        <v>62.70967677911194</v>
       </c>
       <c r="AD14">
-        <v>65.90155765171319</v>
+        <v>65.90155765171318</v>
       </c>
       <c r="AE14">
-        <v>69.16203369506343</v>
+        <v>69.1620336950634</v>
       </c>
       <c r="AF14">
-        <v>72.49282387553596</v>
+        <v>72.49282387553593</v>
       </c>
       <c r="AG14">
-        <v>75.89592020150006</v>
+        <v>75.89592020150003</v>
       </c>
       <c r="AH14">
-        <v>79.31845969233996</v>
+        <v>79.31845969233993</v>
       </c>
       <c r="AI14">
-        <v>82.81689888332735</v>
+        <v>82.81689888332733</v>
       </c>
       <c r="AJ14">
-        <v>86.39489616190097</v>
+        <v>86.39489616190095</v>
       </c>
       <c r="AK14">
-        <v>90.0572192363833</v>
+        <v>90.05721923638328</v>
       </c>
       <c r="AL14">
-        <v>93.80616204458566</v>
+        <v>93.80616204458563</v>
       </c>
       <c r="AM14">
-        <v>97.67059060984535</v>
+        <v>97.67059060984532</v>
       </c>
       <c r="AN14">
         <v>101.6288463556201</v>
@@ -8905,25 +8905,25 @@
         <v>140.7779621657828</v>
       </c>
       <c r="AX14">
-        <v>145.4493942233164</v>
+        <v>145.4493942233163</v>
       </c>
       <c r="AY14">
         <v>150.1817384012308</v>
       </c>
       <c r="AZ14">
-        <v>154.9813983632949</v>
+        <v>154.9813983632948</v>
       </c>
       <c r="BA14">
         <v>159.8487277805331</v>
       </c>
       <c r="BB14">
-        <v>164.7829212397574</v>
+        <v>164.7829212397573</v>
       </c>
       <c r="BC14">
         <v>169.7929554570684</v>
       </c>
       <c r="BD14">
-        <v>174.8852664960109</v>
+        <v>174.8852664960108</v>
       </c>
       <c r="BE14">
         <v>180.066403733321</v>
@@ -8941,31 +8941,31 @@
         <v>201.7850220516787</v>
       </c>
       <c r="BJ14">
-        <v>207.4694544527802</v>
+        <v>207.4694544527801</v>
       </c>
       <c r="BK14">
-        <v>213.2504231354607</v>
+        <v>213.2504231354606</v>
       </c>
       <c r="BL14">
         <v>219.1306617481723</v>
       </c>
       <c r="BM14">
-        <v>225.1105403162125</v>
+        <v>225.1105403162124</v>
       </c>
       <c r="BN14">
-        <v>231.1855386930512</v>
+        <v>231.1855386930511</v>
       </c>
       <c r="BO14">
         <v>237.3515804799401</v>
       </c>
       <c r="BP14">
-        <v>243.6044967160817</v>
+        <v>243.6044967160816</v>
       </c>
       <c r="BQ14">
-        <v>249.9456334380489</v>
+        <v>249.9456334380488</v>
       </c>
       <c r="BR14">
-        <v>256.3724468063163</v>
+        <v>256.3724468063162</v>
       </c>
       <c r="BS14">
         <v>262.8860015882777</v>
@@ -8980,13 +8980,13 @@
         <v>282.9877342703605</v>
       </c>
       <c r="BW14">
-        <v>289.88449973048</v>
+        <v>289.8844997304799</v>
       </c>
       <c r="BX14">
         <v>296.8829788310667</v>
       </c>
       <c r="BY14">
-        <v>303.9875542272007</v>
+        <v>303.9875542272006</v>
       </c>
       <c r="BZ14">
         <v>311.2031582353283</v>
@@ -8995,46 +8995,46 @@
         <v>318.5371261739085</v>
       </c>
       <c r="CB14">
-        <v>325.9924934239201</v>
+        <v>325.99249342392</v>
       </c>
       <c r="CC14">
         <v>333.5689998821879</v>
       </c>
       <c r="CD14">
-        <v>341.2643434193087</v>
+        <v>341.2643434193086</v>
       </c>
       <c r="CE14">
-        <v>349.0759866013371</v>
+        <v>349.075986601337</v>
       </c>
       <c r="CF14">
-        <v>357.0068498746013</v>
+        <v>357.0068498746012</v>
       </c>
       <c r="CG14">
-        <v>365.0582245092986</v>
+        <v>365.0582245092985</v>
       </c>
       <c r="CH14">
-        <v>373.2284354645343</v>
+        <v>373.2284354645342</v>
       </c>
       <c r="CI14">
-        <v>381.5146079427384</v>
+        <v>381.5146079427383</v>
       </c>
       <c r="CJ14">
-        <v>389.9135267113459</v>
+        <v>389.9135267113458</v>
       </c>
       <c r="CK14">
-        <v>398.4250364424571</v>
+        <v>398.425036442457</v>
       </c>
       <c r="CL14">
-        <v>407.0506563982112</v>
+        <v>407.0506563982111</v>
       </c>
       <c r="CM14">
-        <v>415.790695055794</v>
+        <v>415.7906950557939</v>
       </c>
       <c r="CN14">
         <v>424.6494582225703</v>
       </c>
       <c r="CO14">
-        <v>433.6280739066178</v>
+        <v>433.6280739066177</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -9044,34 +9044,34 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514322098059242</v>
+        <v>0.0851432209805924</v>
       </c>
       <c r="E15">
         <v>0.1705220748657247</v>
       </c>
       <c r="F15">
-        <v>0.2593708389072634</v>
+        <v>0.2593708389072633</v>
       </c>
       <c r="G15">
-        <v>0.3491560936289678</v>
+        <v>0.3491560936289677</v>
       </c>
       <c r="H15">
-        <v>0.4379200241446439</v>
+        <v>0.4379200241446437</v>
       </c>
       <c r="I15">
-        <v>0.5253198561694723</v>
+        <v>0.5253198561694721</v>
       </c>
       <c r="J15">
-        <v>0.6153503583438237</v>
+        <v>0.6153503583438235</v>
       </c>
       <c r="K15">
-        <v>0.7142288153229351</v>
+        <v>0.7142288153229349</v>
       </c>
       <c r="L15">
-        <v>0.8159014588269831</v>
+        <v>0.8159014588269828</v>
       </c>
       <c r="M15">
-        <v>0.9246023259754368</v>
+        <v>0.9246023259754366</v>
       </c>
       <c r="N15">
         <v>1.040161982771511</v>
@@ -9083,7 +9083,7 @@
         <v>1.259571349469882</v>
       </c>
       <c r="Q15">
-        <v>1.376133744704639</v>
+        <v>1.376133744704638</v>
       </c>
       <c r="R15">
         <v>1.495543836489483</v>
@@ -9095,127 +9095,127 @@
         <v>1.757570544580458</v>
       </c>
       <c r="U15">
-        <v>1.893673063876059</v>
+        <v>1.893673063876058</v>
       </c>
       <c r="V15">
-        <v>2.033177579781961</v>
+        <v>2.03317757978196</v>
       </c>
       <c r="W15">
-        <v>2.176081803401724</v>
+        <v>2.176081803401723</v>
       </c>
       <c r="X15">
-        <v>2.322113432971705</v>
+        <v>2.322113432971704</v>
       </c>
       <c r="Y15">
-        <v>2.471398438968216</v>
+        <v>2.471398438968214</v>
       </c>
       <c r="Z15">
-        <v>2.623936881755035</v>
+        <v>2.623936881755034</v>
       </c>
       <c r="AA15">
-        <v>2.779734994633991</v>
+        <v>2.779734994633989</v>
       </c>
       <c r="AB15">
-        <v>2.938843054919493</v>
+        <v>2.938843054919491</v>
       </c>
       <c r="AC15">
-        <v>3.093770764603824</v>
+        <v>3.093770764603823</v>
       </c>
       <c r="AD15">
-        <v>3.252034961628895</v>
+        <v>3.252034961628894</v>
       </c>
       <c r="AE15">
-        <v>3.413680058878754</v>
+        <v>3.413680058878752</v>
       </c>
       <c r="AF15">
-        <v>3.578783128985879</v>
+        <v>3.578783128985878</v>
       </c>
       <c r="AG15">
-        <v>3.747432366479975</v>
+        <v>3.747432366479974</v>
       </c>
       <c r="AH15">
-        <v>3.917381360497384</v>
+        <v>3.917381360497383</v>
       </c>
       <c r="AI15">
-        <v>4.091025559597735</v>
+        <v>4.091025559597734</v>
       </c>
       <c r="AJ15">
-        <v>4.268531536810569</v>
+        <v>4.268531536810567</v>
       </c>
       <c r="AK15">
-        <v>4.450120887589287</v>
+        <v>4.450120887589286</v>
       </c>
       <c r="AL15">
-        <v>4.635897243868745</v>
+        <v>4.635897243868743</v>
       </c>
       <c r="AM15">
-        <v>4.827118592136028</v>
+        <v>4.827118592136026</v>
       </c>
       <c r="AN15">
-        <v>5.022858720256205</v>
+        <v>5.022858720256203</v>
       </c>
       <c r="AO15">
-        <v>5.222628645423143</v>
+        <v>5.222628645423141</v>
       </c>
       <c r="AP15">
-        <v>5.426120647772438</v>
+        <v>5.426120647772436</v>
       </c>
       <c r="AQ15">
-        <v>5.633222314625817</v>
+        <v>5.633222314625815</v>
       </c>
       <c r="AR15">
-        <v>5.845382865177367</v>
+        <v>5.845382865177365</v>
       </c>
       <c r="AS15">
-        <v>6.06095917730086</v>
+        <v>6.060959177300858</v>
       </c>
       <c r="AT15">
-        <v>6.27988240873892</v>
+        <v>6.279882408738918</v>
       </c>
       <c r="AU15">
-        <v>6.501988339222878</v>
+        <v>6.501988339222876</v>
       </c>
       <c r="AV15">
-        <v>6.72694758604087</v>
+        <v>6.726947586040868</v>
       </c>
       <c r="AW15">
-        <v>6.954951366634721</v>
+        <v>6.954951366634719</v>
       </c>
       <c r="AX15">
-        <v>7.18548514421744</v>
+        <v>7.185485144217438</v>
       </c>
       <c r="AY15">
-        <v>7.419088600596226</v>
+        <v>7.419088600596224</v>
       </c>
       <c r="AZ15">
-        <v>7.656067564812739</v>
+        <v>7.656067564812737</v>
       </c>
       <c r="BA15">
-        <v>7.896433858508735</v>
+        <v>7.896433858508733</v>
       </c>
       <c r="BB15">
-        <v>8.140173809866736</v>
+        <v>8.140173809866734</v>
       </c>
       <c r="BC15">
-        <v>8.38767181455993</v>
+        <v>8.387671814559928</v>
       </c>
       <c r="BD15">
-        <v>8.639220843976299</v>
+        <v>8.639220843976297</v>
       </c>
       <c r="BE15">
-        <v>8.895118947316673</v>
+        <v>8.895118947316671</v>
       </c>
       <c r="BF15">
-        <v>9.155610390347427</v>
+        <v>9.155610390347425</v>
       </c>
       <c r="BG15">
-        <v>9.420977341438221</v>
+        <v>9.420977341438219</v>
       </c>
       <c r="BH15">
-        <v>9.691506888181459</v>
+        <v>9.691506888181458</v>
       </c>
       <c r="BI15">
-        <v>9.967043459198619</v>
+        <v>9.967043459198617</v>
       </c>
       <c r="BJ15">
         <v>10.24735747447808</v>
@@ -9236,13 +9236,13 @@
         <v>11.71955655185467</v>
       </c>
       <c r="BP15">
-        <v>12.02742182510317</v>
+        <v>12.02742182510316</v>
       </c>
       <c r="BQ15">
-        <v>12.33959370640588</v>
+        <v>12.33959370640587</v>
       </c>
       <c r="BR15">
-        <v>12.65596086546224</v>
+        <v>12.65596086546223</v>
       </c>
       <c r="BS15">
         <v>12.97658221559515</v>
@@ -9254,7 +9254,7 @@
         <v>13.63142926497439</v>
       </c>
       <c r="BV15">
-        <v>13.96597042549683</v>
+        <v>13.96597042549682</v>
       </c>
       <c r="BW15">
         <v>14.30538320447708</v>
@@ -9269,7 +9269,7 @@
         <v>15.35432196180392</v>
       </c>
       <c r="CA15">
-        <v>15.71506634872783</v>
+        <v>15.71506634872782</v>
       </c>
       <c r="CB15">
         <v>16.08170542837916</v>
@@ -9281,7 +9281,7 @@
         <v>16.83249815767833</v>
       </c>
       <c r="CE15">
-        <v>17.21641188319826</v>
+        <v>17.21641188319825</v>
       </c>
       <c r="CF15">
         <v>17.60611203778659</v>
@@ -9290,28 +9290,28 @@
         <v>18.00164451045612</v>
       </c>
       <c r="CH15">
-        <v>18.40292945435299</v>
+        <v>18.40292945435298</v>
       </c>
       <c r="CI15">
-        <v>18.80983126453199</v>
+        <v>18.80983126453198</v>
       </c>
       <c r="CJ15">
-        <v>19.2221989499347</v>
+        <v>19.22219894993469</v>
       </c>
       <c r="CK15">
-        <v>19.64005173395782</v>
+        <v>19.64005173395781</v>
       </c>
       <c r="CL15">
         <v>20.06344301619673</v>
       </c>
       <c r="CM15">
-        <v>20.49239164709735</v>
+        <v>20.49239164709734</v>
       </c>
       <c r="CN15">
         <v>20.92710918029428</v>
       </c>
       <c r="CO15">
-        <v>21.36765265633096</v>
+        <v>21.36765265633095</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -9324,7 +9324,7 @@
         <v>189635.4834094014</v>
       </c>
       <c r="E16">
-        <v>459534.5859275892</v>
+        <v>459534.5859275893</v>
       </c>
       <c r="F16">
         <v>577792.1400991147</v>
@@ -9348,10 +9348,10 @@
         <v>1772002.177337995</v>
       </c>
       <c r="M16">
-        <v>2038078.618871142</v>
+        <v>2038078.618871143</v>
       </c>
       <c r="N16">
-        <v>2316114.530909855</v>
+        <v>2316114.530909856</v>
       </c>
       <c r="O16">
         <v>2529679.754447213</v>
@@ -9366,7 +9366,7 @@
         <v>6623110.353212588</v>
       </c>
       <c r="S16">
-        <v>10911202.08926484</v>
+        <v>10911202.08926483</v>
       </c>
       <c r="T16">
         <v>15211371.39828362</v>
@@ -9375,136 +9375,136 @@
         <v>19525078.57993962</v>
       </c>
       <c r="V16">
-        <v>23849812.81568126</v>
+        <v>23849812.81568125</v>
       </c>
       <c r="W16">
-        <v>28179468.49130061</v>
+        <v>28179468.4913006</v>
       </c>
       <c r="X16">
         <v>32104539.6140181</v>
       </c>
       <c r="Y16">
-        <v>36039432.81195365</v>
+        <v>36039432.81195364</v>
       </c>
       <c r="Z16">
         <v>39981086.2257098</v>
       </c>
       <c r="AA16">
-        <v>43925064.84624138</v>
+        <v>43925064.84624137</v>
       </c>
       <c r="AB16">
-        <v>47892034.07558446</v>
+        <v>47892034.07558444</v>
       </c>
       <c r="AC16">
-        <v>48487498.27646313</v>
+        <v>48487498.27646311</v>
       </c>
       <c r="AD16">
-        <v>49112722.2856487</v>
+        <v>49112722.28564868</v>
       </c>
       <c r="AE16">
-        <v>49772996.77496139</v>
+        <v>49772996.77496137</v>
       </c>
       <c r="AF16">
-        <v>50485183.97162633</v>
+        <v>50485183.97162632</v>
       </c>
       <c r="AG16">
-        <v>51266163.55863615</v>
+        <v>51266163.55863614</v>
       </c>
       <c r="AH16">
-        <v>51061842.94625299</v>
+        <v>51061842.94625297</v>
       </c>
       <c r="AI16">
-        <v>50929536.61027265</v>
+        <v>50929536.61027264</v>
       </c>
       <c r="AJ16">
-        <v>50867445.75028545</v>
+        <v>50867445.75028543</v>
       </c>
       <c r="AK16">
-        <v>50947107.0671059</v>
+        <v>50947107.06710589</v>
       </c>
       <c r="AL16">
-        <v>51226993.44981433</v>
+        <v>51226993.44981432</v>
       </c>
       <c r="AM16">
-        <v>52313802.87548767</v>
+        <v>52313802.87548766</v>
       </c>
       <c r="AN16">
-        <v>53688931.70227072</v>
+        <v>53688931.70227069</v>
       </c>
       <c r="AO16">
-        <v>55229169.06374186</v>
+        <v>55229169.06374183</v>
       </c>
       <c r="AP16">
-        <v>56854330.6894447</v>
+        <v>56854330.68944468</v>
       </c>
       <c r="AQ16">
-        <v>58531279.77460422</v>
+        <v>58531279.77460419</v>
       </c>
       <c r="AR16">
-        <v>61052355.65249284</v>
+        <v>61052355.65249281</v>
       </c>
       <c r="AS16">
-        <v>63553882.24199181</v>
+        <v>63553882.24199179</v>
       </c>
       <c r="AT16">
-        <v>66018885.41485835</v>
+        <v>66018885.41485833</v>
       </c>
       <c r="AU16">
-        <v>68410339.67410675</v>
+        <v>68410339.67410672</v>
       </c>
       <c r="AV16">
-        <v>70660440.67331146</v>
+        <v>70660440.67331143</v>
       </c>
       <c r="AW16">
-        <v>72804206.72719789</v>
+        <v>72804206.72719786</v>
       </c>
       <c r="AX16">
-        <v>74690279.01156269</v>
+        <v>74690279.01156266</v>
       </c>
       <c r="AY16">
-        <v>76427189.35480359</v>
+        <v>76427189.35480356</v>
       </c>
       <c r="AZ16">
-        <v>78076680.99804173</v>
+        <v>78076680.9980417</v>
       </c>
       <c r="BA16">
-        <v>79643859.87801501</v>
+        <v>79643859.87801498</v>
       </c>
       <c r="BB16">
-        <v>80950411.7036923</v>
+        <v>80950411.70369227</v>
       </c>
       <c r="BC16">
-        <v>82191680.4691181</v>
+        <v>82191680.46911807</v>
       </c>
       <c r="BD16">
-        <v>83425417.04792324</v>
+        <v>83425417.04792321</v>
       </c>
       <c r="BE16">
-        <v>84715694.37599769</v>
+        <v>84715694.37599766</v>
       </c>
       <c r="BF16">
-        <v>86130939.32003349</v>
+        <v>86130939.32003346</v>
       </c>
       <c r="BG16">
-        <v>87620361.09044075</v>
+        <v>87620361.09044072</v>
       </c>
       <c r="BH16">
-        <v>89332591.70922647</v>
+        <v>89332591.70922643</v>
       </c>
       <c r="BI16">
-        <v>91230280.20869705</v>
+        <v>91230280.20869701</v>
       </c>
       <c r="BJ16">
-        <v>93255250.95438336</v>
+        <v>93255250.95438331</v>
       </c>
       <c r="BK16">
-        <v>95377302.75030938</v>
+        <v>95377302.75030933</v>
       </c>
       <c r="BL16">
-        <v>97549357.4140878</v>
+        <v>97549357.41408776</v>
       </c>
       <c r="BM16">
-        <v>99802098.20842069</v>
+        <v>99802098.20842065</v>
       </c>
       <c r="BN16">
         <v>102087471.3176345</v>
@@ -9513,25 +9513,25 @@
         <v>104364267.7527281</v>
       </c>
       <c r="BP16">
-        <v>106592195.3915851</v>
+        <v>106592195.391585</v>
       </c>
       <c r="BQ16">
-        <v>108709503.731791</v>
+        <v>108709503.7317909</v>
       </c>
       <c r="BR16">
-        <v>110704174.8257206</v>
+        <v>110704174.8257205</v>
       </c>
       <c r="BS16">
-        <v>112586834.4646557</v>
+        <v>112586834.4646556</v>
       </c>
       <c r="BT16">
-        <v>114396089.2897415</v>
+        <v>114396089.2897414</v>
       </c>
       <c r="BU16">
         <v>116153429.5170141</v>
       </c>
       <c r="BV16">
-        <v>117831762.6752821</v>
+        <v>117831762.675282</v>
       </c>
       <c r="BW16">
         <v>119459513.5523441</v>
@@ -9543,13 +9543,13 @@
         <v>122692652.4381507</v>
       </c>
       <c r="BZ16">
-        <v>124387949.1533391</v>
+        <v>124387949.153339</v>
       </c>
       <c r="CA16">
-        <v>126167474.1742324</v>
+        <v>126167474.1742323</v>
       </c>
       <c r="CB16">
-        <v>128079537.0461383</v>
+        <v>128079537.0461382</v>
       </c>
       <c r="CC16">
         <v>130122829.3042856</v>
@@ -9558,37 +9558,37 @@
         <v>132269378.2054724</v>
       </c>
       <c r="CE16">
-        <v>134487513.611481</v>
+        <v>134487513.6114809</v>
       </c>
       <c r="CF16">
         <v>136733319.1681796</v>
       </c>
       <c r="CG16">
-        <v>139020282.5352951</v>
+        <v>139020282.535295</v>
       </c>
       <c r="CH16">
-        <v>141330156.6382726</v>
+        <v>141330156.6382725</v>
       </c>
       <c r="CI16">
-        <v>143634013.3689695</v>
+        <v>143634013.3689694</v>
       </c>
       <c r="CJ16">
-        <v>145901120.2925836</v>
+        <v>145901120.2925835</v>
       </c>
       <c r="CK16">
-        <v>148072270.8707872</v>
+        <v>148072270.8707871</v>
       </c>
       <c r="CL16">
-        <v>150162119.0899274</v>
+        <v>150162119.0899273</v>
       </c>
       <c r="CM16">
-        <v>152171569.7388553</v>
+        <v>152171569.7388552</v>
       </c>
       <c r="CN16">
-        <v>154118753.2635405</v>
+        <v>154118753.2635404</v>
       </c>
       <c r="CO16">
-        <v>156025339.8235807</v>
+        <v>156025339.8235806</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -9601,13 +9601,13 @@
         <v>114598.2147953502</v>
       </c>
       <c r="E17">
-        <v>187752.9574708573</v>
+        <v>187752.9574708574</v>
       </c>
       <c r="F17">
-        <v>243500.2177535249</v>
+        <v>243500.217753525</v>
       </c>
       <c r="G17">
-        <v>299061.1789322949</v>
+        <v>299061.178932295</v>
       </c>
       <c r="H17">
         <v>350351.7149626648</v>
@@ -9634,154 +9634,154 @@
         <v>747007.1180279723</v>
       </c>
       <c r="P17">
-        <v>1434509.353129986</v>
+        <v>1434509.353129985</v>
       </c>
       <c r="Q17">
-        <v>2124244.485187908</v>
+        <v>2124244.485187907</v>
       </c>
       <c r="R17">
-        <v>2816633.266952668</v>
+        <v>2816633.266952667</v>
       </c>
       <c r="S17">
-        <v>5051126.491175102</v>
+        <v>5051126.491175098</v>
       </c>
       <c r="T17">
-        <v>7289175.081626226</v>
+        <v>7289175.081626222</v>
       </c>
       <c r="U17">
-        <v>9531281.916576885</v>
+        <v>9531281.916576881</v>
       </c>
       <c r="V17">
         <v>11778053.23786117</v>
       </c>
       <c r="W17">
-        <v>14030306.25128685</v>
+        <v>14030306.25128684</v>
       </c>
       <c r="X17">
-        <v>16461427.42710271</v>
+        <v>16461427.4271027</v>
       </c>
       <c r="Y17">
-        <v>18900973.60991609</v>
+        <v>18900973.60991608</v>
       </c>
       <c r="Z17">
-        <v>21351534.51653078</v>
+        <v>21351534.51653077</v>
       </c>
       <c r="AA17">
-        <v>23816834.32657856</v>
+        <v>23816834.32657855</v>
       </c>
       <c r="AB17">
-        <v>26302064.19988888</v>
+        <v>26302064.19988887</v>
       </c>
       <c r="AC17">
-        <v>27136740.192405</v>
+        <v>27136740.19240499</v>
       </c>
       <c r="AD17">
-        <v>28007412.8096324</v>
+        <v>28007412.80963239</v>
       </c>
       <c r="AE17">
-        <v>28925425.19967097</v>
+        <v>28925425.19967096</v>
       </c>
       <c r="AF17">
-        <v>29904379.31766076</v>
+        <v>29904379.31766075</v>
       </c>
       <c r="AG17">
-        <v>30959879.31460528</v>
+        <v>30959879.31460527</v>
       </c>
       <c r="AH17">
-        <v>31518342.72227341</v>
+        <v>31518342.72227339</v>
       </c>
       <c r="AI17">
-        <v>32188061.75356077</v>
+        <v>32188061.75356076</v>
       </c>
       <c r="AJ17">
-        <v>32986110.62156055</v>
+        <v>32986110.62156054</v>
       </c>
       <c r="AK17">
-        <v>33927547.97310142</v>
+        <v>33927547.97310141</v>
       </c>
       <c r="AL17">
-        <v>35023810.5297711</v>
+        <v>35023810.52977109</v>
       </c>
       <c r="AM17">
-        <v>36599195.5072515</v>
+        <v>36599195.50725149</v>
       </c>
       <c r="AN17">
-        <v>38335142.30385292</v>
+        <v>38335142.30385291</v>
       </c>
       <c r="AO17">
-        <v>40223541.93763432</v>
+        <v>40223541.93763431</v>
       </c>
       <c r="AP17">
-        <v>42248317.89710178</v>
+        <v>42248317.89710177</v>
       </c>
       <c r="AQ17">
-        <v>44385919.52206284</v>
+        <v>44385919.52206283</v>
       </c>
       <c r="AR17">
-        <v>46985885.99443144</v>
+        <v>46985885.99443142</v>
       </c>
       <c r="AS17">
-        <v>49635300.78725758</v>
+        <v>49635300.78725757</v>
       </c>
       <c r="AT17">
-        <v>52299051.85721164</v>
+        <v>52299051.85721163</v>
       </c>
       <c r="AU17">
-        <v>54943424.59856521</v>
+        <v>54943424.59856519</v>
       </c>
       <c r="AV17">
-        <v>57538767.21052767</v>
+        <v>57538767.21052765</v>
       </c>
       <c r="AW17">
-        <v>60186393.50977752</v>
+        <v>60186393.5097775</v>
       </c>
       <c r="AX17">
-        <v>62746269.17177479</v>
+        <v>62746269.17177477</v>
       </c>
       <c r="AY17">
-        <v>65211963.28999245</v>
+        <v>65211963.28999244</v>
       </c>
       <c r="AZ17">
-        <v>67586289.6099464</v>
+        <v>67586289.60994639</v>
       </c>
       <c r="BA17">
-        <v>69880917.91749758</v>
+        <v>69880917.91749756</v>
       </c>
       <c r="BB17">
-        <v>72052877.49991658</v>
+        <v>72052877.49991657</v>
       </c>
       <c r="BC17">
-        <v>74190087.50427055</v>
+        <v>74190087.50427054</v>
       </c>
       <c r="BD17">
-        <v>76321834.15835819</v>
+        <v>76321834.15835817</v>
       </c>
       <c r="BE17">
-        <v>78478645.92933793</v>
+        <v>78478645.92933792</v>
       </c>
       <c r="BF17">
-        <v>80689777.61252302</v>
+        <v>80689777.612523</v>
       </c>
       <c r="BG17">
-        <v>82949983.93227006</v>
+        <v>82949983.93227005</v>
       </c>
       <c r="BH17">
-        <v>85311027.60317449</v>
+        <v>85311027.60317448</v>
       </c>
       <c r="BI17">
-        <v>87787501.03386936</v>
+        <v>87787501.03386934</v>
       </c>
       <c r="BJ17">
-        <v>90387408.95165263</v>
+        <v>90387408.95165262</v>
       </c>
       <c r="BK17">
-        <v>93112179.98391609</v>
+        <v>93112179.98391606</v>
       </c>
       <c r="BL17">
-        <v>95960996.73945296</v>
+        <v>95960996.73945293</v>
       </c>
       <c r="BM17">
-        <v>98919858.55002281</v>
+        <v>98919858.55002278</v>
       </c>
       <c r="BN17">
         <v>101974413.8290044</v>
@@ -9793,13 +9793,13 @@
         <v>108300102.2219797</v>
       </c>
       <c r="BQ17">
-        <v>111539900.0847736</v>
+        <v>111539900.0847735</v>
       </c>
       <c r="BR17">
-        <v>114803378.0298493</v>
+        <v>114803378.0298492</v>
       </c>
       <c r="BS17">
-        <v>118075700.22407</v>
+        <v>118075700.2240699</v>
       </c>
       <c r="BT17">
         <v>121345437.2023219</v>
@@ -9808,13 +9808,13 @@
         <v>124605171.8383069</v>
       </c>
       <c r="BV17">
-        <v>127845117.259966</v>
+        <v>127845117.2599659</v>
       </c>
       <c r="BW17">
         <v>131073051.7004379</v>
       </c>
       <c r="BX17">
-        <v>134293947.6945974</v>
+        <v>134293947.6945973</v>
       </c>
       <c r="BY17">
         <v>137515986.9797219</v>
@@ -9823,16 +9823,16 @@
         <v>140749710.7936585</v>
       </c>
       <c r="CA17">
-        <v>143987550.8006584</v>
+        <v>143987550.8006583</v>
       </c>
       <c r="CB17">
-        <v>147261308.9560045</v>
+        <v>147261308.9560044</v>
       </c>
       <c r="CC17">
         <v>150582687.636414</v>
       </c>
       <c r="CD17">
-        <v>153961921.7810035</v>
+        <v>153961921.7810034</v>
       </c>
       <c r="CE17">
         <v>157407089.3472087</v>
@@ -9844,7 +9844,7 @@
         <v>164440773.5359396</v>
       </c>
       <c r="CH17">
-        <v>168068425.8184599</v>
+        <v>168068425.8184598</v>
       </c>
       <c r="CI17">
         <v>171767108.7251095</v>
@@ -9853,19 +9853,19 @@
         <v>175531883.9813555</v>
       </c>
       <c r="CK17">
-        <v>179297534.5244568</v>
+        <v>179297534.5244567</v>
       </c>
       <c r="CL17">
-        <v>183115148.1377464</v>
+        <v>183115148.1377463</v>
       </c>
       <c r="CM17">
         <v>186976782.6293803</v>
       </c>
       <c r="CN17">
-        <v>190874734.7364762</v>
+        <v>190874734.7364761</v>
       </c>
       <c r="CO17">
-        <v>194802078.8354237</v>
+        <v>194802078.8354236</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Lifetime/Results_region_base_life_Min.xlsx
+++ b/Results/Baseline/Lifetime/Results_region_base_life_Min.xlsx
@@ -691,16 +691,16 @@
         <v>1059.16700008873</v>
       </c>
       <c r="E2">
-        <v>1384.321047470047</v>
+        <v>1384.321047470046</v>
       </c>
       <c r="F2">
-        <v>1382.867415040482</v>
+        <v>1382.867415040481</v>
       </c>
       <c r="G2">
         <v>1313.314961111314</v>
       </c>
       <c r="H2">
-        <v>1766.730672139861</v>
+        <v>1766.73067213986</v>
       </c>
       <c r="I2">
         <v>1270.983641943783</v>
@@ -709,10 +709,10 @@
         <v>2310.239045221783</v>
       </c>
       <c r="K2">
-        <v>2295.742623720378</v>
+        <v>2295.742623720377</v>
       </c>
       <c r="L2">
-        <v>2042.355215610373</v>
+        <v>2042.355215610372</v>
       </c>
       <c r="M2">
         <v>1884.352939832432</v>
@@ -721,22 +721,22 @@
         <v>4051.838911890242</v>
       </c>
       <c r="O2">
-        <v>2473.822451049326</v>
+        <v>2473.822451049324</v>
       </c>
       <c r="P2">
-        <v>4957.619693478245</v>
+        <v>4957.619693478243</v>
       </c>
       <c r="Q2">
         <v>5337.873546272888</v>
       </c>
       <c r="R2">
-        <v>5708.134405824955</v>
+        <v>5708.134405824954</v>
       </c>
       <c r="S2">
         <v>12491.5573865759</v>
       </c>
       <c r="T2">
-        <v>13404.32787303562</v>
+        <v>13404.32787303561</v>
       </c>
       <c r="U2">
         <v>14332.67277638825</v>
@@ -748,25 +748,25 @@
         <v>16262.88135644603</v>
       </c>
       <c r="X2">
-        <v>16373.92966080884</v>
+        <v>16373.92966080883</v>
       </c>
       <c r="Y2">
-        <v>17296.45818212533</v>
+        <v>17296.45818212532</v>
       </c>
       <c r="Z2">
         <v>18234.38816897757</v>
       </c>
       <c r="AA2">
-        <v>19141.32703374817</v>
+        <v>19141.32703374816</v>
       </c>
       <c r="AB2">
         <v>20098.14415010271</v>
       </c>
       <c r="AC2">
-        <v>9638.68642004205</v>
+        <v>9638.686420042046</v>
       </c>
       <c r="AD2">
-        <v>9966.597145998994</v>
+        <v>9966.597145998992</v>
       </c>
       <c r="AE2">
         <v>10348.66483911339</v>
@@ -775,19 +775,19 @@
         <v>10613.68897392215</v>
       </c>
       <c r="AG2">
-        <v>10949.41495155504</v>
+        <v>10949.41495155503</v>
       </c>
       <c r="AH2">
-        <v>7487.992889556045</v>
+        <v>7487.992889556042</v>
       </c>
       <c r="AI2">
-        <v>8106.424752389349</v>
+        <v>8106.424752389348</v>
       </c>
       <c r="AJ2">
-        <v>8720.230283046334</v>
+        <v>8720.230283046332</v>
       </c>
       <c r="AK2">
-        <v>9772.196714359723</v>
+        <v>9772.196714359721</v>
       </c>
       <c r="AL2">
         <v>11175.50206001594</v>
@@ -796,10 +796,10 @@
         <v>15023.01082631636</v>
       </c>
       <c r="AN2">
-        <v>17487.2142314828</v>
+        <v>17487.21423148279</v>
       </c>
       <c r="AO2">
-        <v>19028.52703288173</v>
+        <v>19028.52703288172</v>
       </c>
       <c r="AP2">
         <v>20013.05302690344</v>
@@ -808,154 +808,154 @@
         <v>20876.37656386966</v>
       </c>
       <c r="AR2">
-        <v>24869.60985892608</v>
+        <v>24869.60985892607</v>
       </c>
       <c r="AS2">
-        <v>25566.16125333505</v>
+        <v>25566.16125333503</v>
       </c>
       <c r="AT2">
-        <v>26266.19727343479</v>
+        <v>26266.19727343477</v>
       </c>
       <c r="AU2">
-        <v>26625.53016282489</v>
+        <v>26625.53016282488</v>
       </c>
       <c r="AV2">
-        <v>26041.12166026728</v>
+        <v>26041.12166026727</v>
       </c>
       <c r="AW2">
-        <v>24650.69061609892</v>
+        <v>24650.6906160989</v>
       </c>
       <c r="AX2">
-        <v>21981.53806794426</v>
+        <v>21981.53806794424</v>
       </c>
       <c r="AY2">
-        <v>21163.76206367406</v>
+        <v>21163.76206367405</v>
       </c>
       <c r="AZ2">
-        <v>21269.74634920723</v>
+        <v>21269.74634920722</v>
       </c>
       <c r="BA2">
-        <v>21122.80244915047</v>
+        <v>21122.80244915046</v>
       </c>
       <c r="BB2">
         <v>19654.90160352098</v>
       </c>
       <c r="BC2">
-        <v>19093.36005267022</v>
+        <v>19093.36005267021</v>
       </c>
       <c r="BD2">
-        <v>19463.68605144694</v>
+        <v>19463.68605144693</v>
       </c>
       <c r="BE2">
-        <v>20543.04443554574</v>
+        <v>20543.04443554573</v>
       </c>
       <c r="BF2">
-        <v>22153.51183117206</v>
+        <v>22153.51183117205</v>
       </c>
       <c r="BG2">
-        <v>23716.46888568702</v>
+        <v>23716.46888568701</v>
       </c>
       <c r="BH2">
-        <v>26208.20957711596</v>
+        <v>26208.20957711595</v>
       </c>
       <c r="BI2">
-        <v>28265.0833264334</v>
+        <v>28265.08332643339</v>
       </c>
       <c r="BJ2">
-        <v>29823.33785074565</v>
+        <v>29823.33785074564</v>
       </c>
       <c r="BK2">
-        <v>31302.97962858182</v>
+        <v>31302.9796285818</v>
       </c>
       <c r="BL2">
-        <v>32687.69083087834</v>
+        <v>32687.69083087832</v>
       </c>
       <c r="BM2">
-        <v>34447.2710777362</v>
+        <v>34447.27107773619</v>
       </c>
       <c r="BN2">
-        <v>35458.14840039136</v>
+        <v>35458.14840039135</v>
       </c>
       <c r="BO2">
-        <v>35835.71986160777</v>
+        <v>35835.71986160775</v>
       </c>
       <c r="BP2">
-        <v>35642.95155992133</v>
+        <v>35642.95155992131</v>
       </c>
       <c r="BQ2">
-        <v>34578.21398342754</v>
+        <v>34578.21398342753</v>
       </c>
       <c r="BR2">
-        <v>33247.41634231713</v>
+        <v>33247.41634231711</v>
       </c>
       <c r="BS2">
-        <v>32056.52018722876</v>
+        <v>32056.52018722874</v>
       </c>
       <c r="BT2">
-        <v>31510.08419138743</v>
+        <v>31510.08419138741</v>
       </c>
       <c r="BU2">
-        <v>31278.9967982835</v>
+        <v>31278.99679828349</v>
       </c>
       <c r="BV2">
-        <v>30664.24643146217</v>
+        <v>30664.24643146215</v>
       </c>
       <c r="BW2">
-        <v>30257.36556790508</v>
+        <v>30257.36556790506</v>
       </c>
       <c r="BX2">
         <v>30387.60303777118</v>
       </c>
       <c r="BY2">
-        <v>31213.8851745049</v>
+        <v>31213.88517450489</v>
       </c>
       <c r="BZ2">
-        <v>32574.28066351125</v>
+        <v>32574.28066351124</v>
       </c>
       <c r="CA2">
-        <v>34074.80146446301</v>
+        <v>34074.80146446299</v>
       </c>
       <c r="CB2">
-        <v>35995.82051576615</v>
+        <v>35995.82051576613</v>
       </c>
       <c r="CC2">
-        <v>37995.45291089958</v>
+        <v>37995.45291089956</v>
       </c>
       <c r="CD2">
-        <v>39800.99128769827</v>
+        <v>39800.99128769825</v>
       </c>
       <c r="CE2">
-        <v>41385.75845224736</v>
+        <v>41385.75845224733</v>
       </c>
       <c r="CF2">
-        <v>42613.87698577243</v>
+        <v>42613.8769857724</v>
       </c>
       <c r="CG2">
-        <v>44007.33589433067</v>
+        <v>44007.33589433064</v>
       </c>
       <c r="CH2">
-        <v>45142.33593948297</v>
+        <v>45142.33593948295</v>
       </c>
       <c r="CI2">
-        <v>45740.60716511343</v>
+        <v>45740.6071651134</v>
       </c>
       <c r="CJ2">
-        <v>45729.19547875437</v>
+        <v>45729.19547875434</v>
       </c>
       <c r="CK2">
-        <v>44768.51786033875</v>
+        <v>44768.51786033872</v>
       </c>
       <c r="CL2">
-        <v>43827.86931963939</v>
+        <v>43827.86931963937</v>
       </c>
       <c r="CM2">
-        <v>42849.72808174079</v>
+        <v>42849.72808174076</v>
       </c>
       <c r="CN2">
-        <v>42114.9369715233</v>
+        <v>42114.93697152328</v>
       </c>
       <c r="CO2">
-        <v>41678.51002645049</v>
+        <v>41678.51002645047</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -965,22 +965,22 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24710370075032</v>
+        <v>70.24710370075029</v>
       </c>
       <c r="E3">
-        <v>92.03901988247205</v>
+        <v>92.03901988247199</v>
       </c>
       <c r="F3">
-        <v>91.84677746588331</v>
+        <v>91.84677746588326</v>
       </c>
       <c r="G3">
-        <v>87.17449079921414</v>
+        <v>87.1744907992141</v>
       </c>
       <c r="H3">
         <v>117.7060313861666</v>
       </c>
       <c r="I3">
-        <v>84.40030271127054</v>
+        <v>84.4003027112705</v>
       </c>
       <c r="J3">
         <v>154.1108115978373</v>
@@ -992,7 +992,7 @@
         <v>136.0349579150538</v>
       </c>
       <c r="M3">
-        <v>125.3672899267814</v>
+        <v>125.3672899267813</v>
       </c>
       <c r="N3">
         <v>270.8812095288322</v>
@@ -1013,10 +1013,10 @@
         <v>837.5918264039457</v>
       </c>
       <c r="T3">
-        <v>898.8896525309196</v>
+        <v>898.8896525309194</v>
       </c>
       <c r="U3">
-        <v>961.2370868698544</v>
+        <v>961.2370868698541</v>
       </c>
       <c r="V3">
         <v>1025.4343338879</v>
@@ -1040,7 +1040,7 @@
         <v>1348.796041223901</v>
       </c>
       <c r="AC3">
-        <v>646.3637088433969</v>
+        <v>646.3637088433968</v>
       </c>
       <c r="AD3">
         <v>668.2922738015117</v>
@@ -1049,19 +1049,19 @@
         <v>694.0073755834591</v>
       </c>
       <c r="AF3">
-        <v>711.9221740311152</v>
+        <v>711.9221740311151</v>
       </c>
       <c r="AG3">
-        <v>734.4365154648123</v>
+        <v>734.4365154648121</v>
       </c>
       <c r="AH3">
-        <v>502.1404423362858</v>
+        <v>502.1404423362859</v>
       </c>
       <c r="AI3">
         <v>543.9167666207499</v>
       </c>
       <c r="AJ3">
-        <v>585.5838517667601</v>
+        <v>585.5838517667598</v>
       </c>
       <c r="AK3">
         <v>656.9294984495359</v>
@@ -1088,7 +1088,7 @@
         <v>1676.896646890173</v>
       </c>
       <c r="AS3">
-        <v>1724.136390635324</v>
+        <v>1724.136390635323</v>
       </c>
       <c r="AT3">
         <v>1772.34871468398</v>
@@ -1097,16 +1097,16 @@
         <v>1798.216984383374</v>
       </c>
       <c r="AV3">
-        <v>1757.727777867707</v>
+        <v>1757.727777867706</v>
       </c>
       <c r="AW3">
-        <v>1661.392688058789</v>
+        <v>1661.392688058788</v>
       </c>
       <c r="AX3">
         <v>1478.754204034418</v>
       </c>
       <c r="AY3">
-        <v>1422.537994800593</v>
+        <v>1422.537994800592</v>
       </c>
       <c r="AZ3">
         <v>1429.301383789992</v>
@@ -1115,7 +1115,7 @@
         <v>1418.980538086262</v>
       </c>
       <c r="BB3">
-        <v>1319.912082459738</v>
+        <v>1319.912082459737</v>
       </c>
       <c r="BC3">
         <v>1281.90248436059</v>
@@ -1130,13 +1130,13 @@
         <v>1490.154650796598</v>
       </c>
       <c r="BG3">
-        <v>1596.958155719574</v>
+        <v>1596.958155719573</v>
       </c>
       <c r="BH3">
         <v>1766.365161461886</v>
       </c>
       <c r="BI3">
-        <v>1906.242069437999</v>
+        <v>1906.242069437998</v>
       </c>
       <c r="BJ3">
         <v>2012.310317053831</v>
@@ -1148,28 +1148,28 @@
         <v>2209.09042862748</v>
       </c>
       <c r="BM3">
-        <v>2329.029475506063</v>
+        <v>2329.029475506062</v>
       </c>
       <c r="BN3">
         <v>2396.524254028689</v>
       </c>
       <c r="BO3">
-        <v>2420.590965776099</v>
+        <v>2420.590965776098</v>
       </c>
       <c r="BP3">
         <v>2405.753483300623</v>
       </c>
       <c r="BQ3">
-        <v>2331.639060067497</v>
+        <v>2331.639060067496</v>
       </c>
       <c r="BR3">
-        <v>2239.418120011592</v>
+        <v>2239.418120011591</v>
       </c>
       <c r="BS3">
-        <v>2157.307713145363</v>
+        <v>2157.307713145362</v>
       </c>
       <c r="BT3">
-        <v>2119.62008287792</v>
+        <v>2119.620082877919</v>
       </c>
       <c r="BU3">
         <v>2103.767770028396</v>
@@ -1187,7 +1187,7 @@
         <v>2100.460528419314</v>
       </c>
       <c r="BZ3">
-        <v>2193.512933515551</v>
+        <v>2193.51293351555</v>
       </c>
       <c r="CA3">
         <v>2296.582568357083</v>
@@ -1205,10 +1205,10 @@
         <v>2798.219495315951</v>
       </c>
       <c r="CF3">
-        <v>2880.713618930507</v>
+        <v>2880.713618930506</v>
       </c>
       <c r="CG3">
-        <v>2973.815617242017</v>
+        <v>2973.815617242016</v>
       </c>
       <c r="CH3">
         <v>3049.031623778621</v>
@@ -1217,22 +1217,22 @@
         <v>3087.551443967921</v>
       </c>
       <c r="CJ3">
-        <v>3084.768476403781</v>
+        <v>3084.76847640378</v>
       </c>
       <c r="CK3">
-        <v>3018.20729316849</v>
+        <v>3018.207293168489</v>
       </c>
       <c r="CL3">
-        <v>2953.129024084137</v>
+        <v>2953.129024084136</v>
       </c>
       <c r="CM3">
-        <v>2885.866659339318</v>
+        <v>2885.866659339317</v>
       </c>
       <c r="CN3">
-        <v>2835.501730389287</v>
+        <v>2835.501730389286</v>
       </c>
       <c r="CO3">
-        <v>2805.759126723751</v>
+        <v>2805.75912672375</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1245,25 +1245,25 @@
         <v>379421.6337229096</v>
       </c>
       <c r="E4">
-        <v>375664.3848463615</v>
+        <v>375664.3848463616</v>
       </c>
       <c r="F4">
-        <v>462143.8863234154</v>
+        <v>462143.8863234155</v>
       </c>
       <c r="G4">
         <v>519203.0794044498</v>
       </c>
       <c r="H4">
-        <v>686364.5108756328</v>
+        <v>686364.510875633</v>
       </c>
       <c r="I4">
         <v>644711.1494503022</v>
       </c>
       <c r="J4">
-        <v>752140.7766719615</v>
+        <v>752140.7766719613</v>
       </c>
       <c r="K4">
-        <v>672895.2368316309</v>
+        <v>672895.2368316308</v>
       </c>
       <c r="L4">
         <v>564799.5491173709</v>
@@ -1278,238 +1278,238 @@
         <v>892314.0370555097</v>
       </c>
       <c r="P4">
-        <v>3265253.33964998</v>
+        <v>3265253.339649979</v>
       </c>
       <c r="Q4">
-        <v>3279888.486966783</v>
+        <v>3279888.486966781</v>
       </c>
       <c r="R4">
         <v>3296918.7422346</v>
       </c>
       <c r="S4">
-        <v>9546455.123650471</v>
+        <v>9546455.123650469</v>
       </c>
       <c r="T4">
-        <v>9583151.233150048</v>
+        <v>9583151.233150046</v>
       </c>
       <c r="U4">
-        <v>9626461.346458167</v>
+        <v>9626461.346458165</v>
       </c>
       <c r="V4">
-        <v>9678240.249035357</v>
+        <v>9678240.249035353</v>
       </c>
       <c r="W4">
-        <v>9735185.989207206</v>
+        <v>9735185.989207203</v>
       </c>
       <c r="X4">
-        <v>9367285.881767448</v>
+        <v>9367285.881767446</v>
       </c>
       <c r="Y4">
-        <v>9416994.195214365</v>
+        <v>9416994.195214361</v>
       </c>
       <c r="Z4">
         <v>9468278.584776616</v>
       </c>
       <c r="AA4">
-        <v>9534271.584877152</v>
+        <v>9534271.584877148</v>
       </c>
       <c r="AB4">
-        <v>9619847.635414723</v>
+        <v>9619847.63541472</v>
       </c>
       <c r="AC4">
-        <v>1990453.396260185</v>
+        <v>1990453.396260184</v>
       </c>
       <c r="AD4">
-        <v>2034751.700936417</v>
+        <v>2034751.700936416</v>
       </c>
       <c r="AE4">
         <v>2120335.248555962</v>
       </c>
       <c r="AF4">
-        <v>2264746.063697669</v>
+        <v>2264746.063697668</v>
       </c>
       <c r="AG4">
-        <v>2460000.782911653</v>
+        <v>2460000.782911652</v>
       </c>
       <c r="AH4">
-        <v>194047.3545932775</v>
+        <v>194047.3545932772</v>
       </c>
       <c r="AI4">
-        <v>393380.9353443801</v>
+        <v>393380.9353443795</v>
       </c>
       <c r="AJ4">
-        <v>690530.7451911937</v>
+        <v>690530.7451911928</v>
       </c>
       <c r="AK4">
-        <v>1089484.085270046</v>
+        <v>1089484.085270045</v>
       </c>
       <c r="AL4">
-        <v>1485897.825497568</v>
+        <v>1485897.825497567</v>
       </c>
       <c r="AM4">
-        <v>2169603.582904975</v>
+        <v>2169603.582904974</v>
       </c>
       <c r="AN4">
-        <v>2656433.235812167</v>
+        <v>2656433.235812166</v>
       </c>
       <c r="AO4">
-        <v>2975603.851561053</v>
+        <v>2975603.851561051</v>
       </c>
       <c r="AP4">
-        <v>3181745.348019813</v>
+        <v>3181745.348019811</v>
       </c>
       <c r="AQ4">
-        <v>3331654.733181121</v>
+        <v>3331654.733181119</v>
       </c>
       <c r="AR4">
-        <v>4522627.051062279</v>
+        <v>4522627.051062277</v>
       </c>
       <c r="AS4">
-        <v>4530590.642948319</v>
+        <v>4530590.642948318</v>
       </c>
       <c r="AT4">
-        <v>4500360.062839016</v>
+        <v>4500360.062839014</v>
       </c>
       <c r="AU4">
-        <v>4390874.337368751</v>
+        <v>4390874.337368749</v>
       </c>
       <c r="AV4">
-        <v>4124146.104652457</v>
+        <v>4124146.104652455</v>
       </c>
       <c r="AW4">
-        <v>3783697.703400205</v>
+        <v>3783697.703400203</v>
       </c>
       <c r="AX4">
-        <v>3228178.622372616</v>
+        <v>3228178.622372612</v>
       </c>
       <c r="AY4">
-        <v>2910513.744120089</v>
+        <v>2910513.744120087</v>
       </c>
       <c r="AZ4">
-        <v>2738072.156901516</v>
+        <v>2738072.156901514</v>
       </c>
       <c r="BA4">
-        <v>2581041.807072345</v>
+        <v>2581041.807072343</v>
       </c>
       <c r="BB4">
-        <v>2201422.95103944</v>
+        <v>2201422.951039439</v>
       </c>
       <c r="BC4">
-        <v>2071984.986698877</v>
+        <v>2071984.986698876</v>
       </c>
       <c r="BD4">
-        <v>2081332.211959166</v>
+        <v>2081332.211959164</v>
       </c>
       <c r="BE4">
         <v>2221365.405293921</v>
       </c>
       <c r="BF4">
-        <v>2445527.005577927</v>
+        <v>2445527.005577926</v>
       </c>
       <c r="BG4">
-        <v>2565873.609761172</v>
+        <v>2565873.609761171</v>
       </c>
       <c r="BH4">
-        <v>2874746.437012065</v>
+        <v>2874746.437012063</v>
       </c>
       <c r="BI4">
-        <v>3147825.278922291</v>
+        <v>3147825.27892229</v>
       </c>
       <c r="BJ4">
-        <v>3354624.241688475</v>
+        <v>3354624.241688473</v>
       </c>
       <c r="BK4">
-        <v>3526725.104257608</v>
+        <v>3526725.104257607</v>
       </c>
       <c r="BL4">
-        <v>3576038.30826838</v>
+        <v>3576038.308268378</v>
       </c>
       <c r="BM4">
-        <v>3721909.765263502</v>
+        <v>3721909.765263501</v>
       </c>
       <c r="BN4">
-        <v>3777459.831063739</v>
+        <v>3777459.831063738</v>
       </c>
       <c r="BO4">
-        <v>3751684.52131563</v>
+        <v>3751684.521315628</v>
       </c>
       <c r="BP4">
-        <v>3638049.667736986</v>
+        <v>3638049.667736984</v>
       </c>
       <c r="BQ4">
-        <v>3361875.764191141</v>
+        <v>3361875.764191139</v>
       </c>
       <c r="BR4">
-        <v>3079899.416428224</v>
+        <v>3079899.416428221</v>
       </c>
       <c r="BS4">
-        <v>2827035.700487603</v>
+        <v>2827035.700487602</v>
       </c>
       <c r="BT4">
-        <v>2717187.130116491</v>
+        <v>2717187.130116489</v>
       </c>
       <c r="BU4">
-        <v>2643107.340929644</v>
+        <v>2643107.340929641</v>
       </c>
       <c r="BV4">
-        <v>2493522.69513295</v>
+        <v>2493522.695132949</v>
       </c>
       <c r="BW4">
-        <v>2404615.18320677</v>
+        <v>2404615.183206767</v>
       </c>
       <c r="BX4">
-        <v>2320923.891754736</v>
+        <v>2320923.891754733</v>
       </c>
       <c r="BY4">
-        <v>2354244.468562455</v>
+        <v>2354244.468562454</v>
       </c>
       <c r="BZ4">
-        <v>2478473.05378355</v>
+        <v>2478473.053783549</v>
       </c>
       <c r="CA4">
-        <v>2609413.674247604</v>
+        <v>2609413.674247602</v>
       </c>
       <c r="CB4">
-        <v>2789823.533087322</v>
+        <v>2789823.533087319</v>
       </c>
       <c r="CC4">
-        <v>2966305.51596729</v>
+        <v>2966305.515967289</v>
       </c>
       <c r="CD4">
-        <v>3112100.396215609</v>
+        <v>3112100.396215607</v>
       </c>
       <c r="CE4">
-        <v>3220416.51746508</v>
+        <v>3220416.517465078</v>
       </c>
       <c r="CF4">
-        <v>3287473.971634821</v>
+        <v>3287473.97163482</v>
       </c>
       <c r="CG4">
-        <v>3351868.999619703</v>
+        <v>3351868.999619702</v>
       </c>
       <c r="CH4">
-        <v>3382340.709122615</v>
+        <v>3382340.709122614</v>
       </c>
       <c r="CI4">
-        <v>3355047.271492013</v>
+        <v>3355047.271492011</v>
       </c>
       <c r="CJ4">
-        <v>3261887.796248191</v>
+        <v>3261887.79624819</v>
       </c>
       <c r="CK4">
-        <v>3093258.978520077</v>
+        <v>3093258.978520075</v>
       </c>
       <c r="CL4">
-        <v>2899471.366303348</v>
+        <v>2899471.366303346</v>
       </c>
       <c r="CM4">
-        <v>2714713.439440108</v>
+        <v>2714713.439440106</v>
       </c>
       <c r="CN4">
-        <v>2706361.107314217</v>
+        <v>2706361.107314215</v>
       </c>
       <c r="CO4">
-        <v>2681379.647972007</v>
+        <v>2681379.647972005</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724677.179362034</v>
+        <v>1724677.179362033</v>
       </c>
       <c r="E5">
         <v>1168911.270550145</v>
       </c>
       <c r="F5">
-        <v>1140422.964449007</v>
+        <v>1140422.964449006</v>
       </c>
       <c r="G5">
         <v>1093656.946811642</v>
@@ -1540,7 +1540,7 @@
         <v>1552045.662609379</v>
       </c>
       <c r="K5">
-        <v>1326771.485940922</v>
+        <v>1326771.485940921</v>
       </c>
       <c r="L5">
         <v>1183701.314548401</v>
@@ -1552,10 +1552,10 @@
         <v>1429828.6884502</v>
       </c>
       <c r="O5">
-        <v>1892962.847902502</v>
+        <v>1892962.847902501</v>
       </c>
       <c r="P5">
-        <v>13824668.56974587</v>
+        <v>13824668.56974586</v>
       </c>
       <c r="Q5">
         <v>13861831.64779243</v>
@@ -1564,28 +1564,28 @@
         <v>13907104.90687419</v>
       </c>
       <c r="S5">
-        <v>46046290.28643088</v>
+        <v>46046290.28643087</v>
       </c>
       <c r="T5">
-        <v>46110716.65029762</v>
+        <v>46110716.65029761</v>
       </c>
       <c r="U5">
-        <v>46186959.26804135</v>
+        <v>46186959.26804134</v>
       </c>
       <c r="V5">
-        <v>46278084.88911848</v>
+        <v>46278084.88911847</v>
       </c>
       <c r="W5">
         <v>46389407.57666808</v>
       </c>
       <c r="X5">
-        <v>48687388.64088407</v>
+        <v>48687388.64088406</v>
       </c>
       <c r="Y5">
-        <v>48868449.23131564</v>
+        <v>48868449.23131563</v>
       </c>
       <c r="Z5">
-        <v>49107914.65715975</v>
+        <v>49107914.65715974</v>
       </c>
       <c r="AA5">
         <v>49428719.24506731</v>
@@ -1612,7 +1612,7 @@
         <v>9227701.241806116</v>
       </c>
       <c r="AI5">
-        <v>11495223.26745298</v>
+        <v>11495223.26745299</v>
       </c>
       <c r="AJ5">
         <v>14101688.0163633</v>
@@ -1624,7 +1624,7 @@
         <v>20134283.66855064</v>
       </c>
       <c r="AM5">
-        <v>28102142.66350136</v>
+        <v>28102142.66350135</v>
       </c>
       <c r="AN5">
         <v>31326722.08505711</v>
@@ -1642,16 +1642,16 @@
         <v>47661686.6800503</v>
       </c>
       <c r="AS5">
-        <v>48538963.69368595</v>
+        <v>48538963.69368594</v>
       </c>
       <c r="AT5">
         <v>48682519.68977801</v>
       </c>
       <c r="AU5">
-        <v>48123373.39725518</v>
+        <v>48123373.39725519</v>
       </c>
       <c r="AV5">
-        <v>46948064.6803106</v>
+        <v>46948064.68031061</v>
       </c>
       <c r="AW5">
         <v>47225517.11616352</v>
@@ -1663,13 +1663,13 @@
         <v>43143547.5553823</v>
       </c>
       <c r="AZ5">
-        <v>41095763.52329586</v>
+        <v>41095763.52329587</v>
       </c>
       <c r="BA5">
         <v>39287259.62820368</v>
       </c>
       <c r="BB5">
-        <v>36710006.06862988</v>
+        <v>36710006.06862989</v>
       </c>
       <c r="BC5">
         <v>35814184.04063226</v>
@@ -1684,10 +1684,10 @@
         <v>36701643.3600164</v>
       </c>
       <c r="BG5">
-        <v>37442817.71690575</v>
+        <v>37442817.71690576</v>
       </c>
       <c r="BH5">
-        <v>39244217.80576169</v>
+        <v>39244217.8057617</v>
       </c>
       <c r="BI5">
         <v>41326173.05266362</v>
@@ -1699,7 +1699,7 @@
         <v>45806285.3595968</v>
       </c>
       <c r="BL5">
-        <v>47833476.24845851</v>
+        <v>47833476.24845852</v>
       </c>
       <c r="BM5">
         <v>49773469.25351521</v>
@@ -1717,19 +1717,19 @@
         <v>54215007.97107038</v>
       </c>
       <c r="BR5">
-        <v>54426883.24366496</v>
+        <v>54426883.24366497</v>
       </c>
       <c r="BS5">
-        <v>54344868.43823526</v>
+        <v>54344868.43823527</v>
       </c>
       <c r="BT5">
-        <v>54038026.661014</v>
+        <v>54038026.66101401</v>
       </c>
       <c r="BU5">
         <v>53587467.74773848</v>
       </c>
       <c r="BV5">
-        <v>52884821.86631858</v>
+        <v>52884821.86631859</v>
       </c>
       <c r="BW5">
         <v>52404522.49231344</v>
@@ -1738,7 +1738,7 @@
         <v>52028320.65880664</v>
       </c>
       <c r="BY5">
-        <v>51819149.03063939</v>
+        <v>51819149.0306394</v>
       </c>
       <c r="BZ5">
         <v>51822409.38690586</v>
@@ -1747,10 +1747,10 @@
         <v>51745274.42449816</v>
       </c>
       <c r="CB5">
-        <v>52230107.91542265</v>
+        <v>52230107.91542266</v>
       </c>
       <c r="CC5">
-        <v>52944529.14960466</v>
+        <v>52944529.14960467</v>
       </c>
       <c r="CD5">
         <v>53857831.1141194</v>
@@ -1759,10 +1759,10 @@
         <v>54926133.48501258</v>
       </c>
       <c r="CF5">
-        <v>55562829.99408394</v>
+        <v>55562829.99408395</v>
       </c>
       <c r="CG5">
-        <v>56779745.7869879</v>
+        <v>56779745.78698792</v>
       </c>
       <c r="CH5">
         <v>57987406.84220318</v>
@@ -1771,22 +1771,22 @@
         <v>59135574.70799045</v>
       </c>
       <c r="CJ5">
-        <v>60182499.42336389</v>
+        <v>60182499.4233639</v>
       </c>
       <c r="CK5">
-        <v>60262852.66520022</v>
+        <v>60262852.66520023</v>
       </c>
       <c r="CL5">
-        <v>61026911.91453669</v>
+        <v>61026911.9145367</v>
       </c>
       <c r="CM5">
-        <v>61634134.96077552</v>
+        <v>61634134.96077553</v>
       </c>
       <c r="CN5">
-        <v>62090461.70280561</v>
+        <v>62090461.70280562</v>
       </c>
       <c r="CO5">
-        <v>62412351.94043733</v>
+        <v>62412351.94043734</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -1800,16 +1800,16 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465606491950595</v>
+        <v>0.8465606491950592</v>
       </c>
       <c r="E6">
-        <v>0.8595215301868664</v>
+        <v>0.8595215301868663</v>
       </c>
       <c r="F6">
-        <v>0.9079260377790516</v>
+        <v>0.9079260377790513</v>
       </c>
       <c r="G6">
-        <v>0.9150921320909525</v>
+        <v>0.9150921320909524</v>
       </c>
       <c r="H6">
         <v>0.8888812113845964</v>
@@ -1842,10 +1842,10 @@
         <v>1.177166555175266</v>
       </c>
       <c r="R6">
-        <v>1.205300979643578</v>
+        <v>1.205300979643577</v>
       </c>
       <c r="S6">
-        <v>1.315651231320532</v>
+        <v>1.315651231320531</v>
       </c>
       <c r="T6">
         <v>1.349629941838763</v>
@@ -1863,7 +1863,7 @@
         <v>1.484189440111739</v>
       </c>
       <c r="Y6">
-        <v>1.51691027188229</v>
+        <v>1.516910271882289</v>
       </c>
       <c r="Z6">
         <v>1.549649885554998</v>
@@ -1878,7 +1878,7 @@
         <v>1.562156895260306</v>
       </c>
       <c r="AD6">
-        <v>1.595940436300616</v>
+        <v>1.595940436300615</v>
       </c>
       <c r="AE6">
         <v>1.630238021675115</v>
@@ -1899,7 +1899,7 @@
         <v>1.788998639286812</v>
       </c>
       <c r="AK6">
-        <v>1.831161537241166</v>
+        <v>1.831161537241165</v>
       </c>
       <c r="AL6">
         <v>1.874471404101176</v>
@@ -1914,7 +1914,7 @@
         <v>2.020877653904497</v>
       </c>
       <c r="AP6">
-        <v>2.059322845284411</v>
+        <v>2.05932284528441</v>
       </c>
       <c r="AQ6">
         <v>2.096473976961437</v>
@@ -1947,10 +1947,10 @@
         <v>2.399829981032017</v>
       </c>
       <c r="BA6">
-        <v>2.433664708619118</v>
+        <v>2.433664708619117</v>
       </c>
       <c r="BB6">
-        <v>2.467096729612136</v>
+        <v>2.467096729612135</v>
       </c>
       <c r="BC6">
         <v>2.50501710865554</v>
@@ -1959,7 +1959,7 @@
         <v>2.546155519471205</v>
       </c>
       <c r="BE6">
-        <v>2.59056861865505</v>
+        <v>2.590568618655049</v>
       </c>
       <c r="BF6">
         <v>2.637688291051047</v>
@@ -1977,7 +1977,7 @@
         <v>2.842216200550739</v>
       </c>
       <c r="BK6">
-        <v>2.890484341340238</v>
+        <v>2.890484341340237</v>
       </c>
       <c r="BL6">
         <v>2.940119306355844</v>
@@ -1986,7 +1986,7 @@
         <v>2.989939284020059</v>
       </c>
       <c r="BN6">
-        <v>3.037499188419369</v>
+        <v>3.03749918841937</v>
       </c>
       <c r="BO6">
         <v>3.083020893444465</v>
@@ -1998,7 +1998,7 @@
         <v>3.17056836098362</v>
       </c>
       <c r="BR6">
-        <v>3.213406684133713</v>
+        <v>3.213406684133712</v>
       </c>
       <c r="BS6">
         <v>3.256777390980719</v>
@@ -2022,22 +2022,22 @@
         <v>3.552287698066987</v>
       </c>
       <c r="BZ6">
-        <v>3.607802004063814</v>
+        <v>3.607802004063813</v>
       </c>
       <c r="CA6">
         <v>3.666983969290096</v>
       </c>
       <c r="CB6">
-        <v>3.727683625005765</v>
+        <v>3.727683625005764</v>
       </c>
       <c r="CC6">
-        <v>3.788253229133934</v>
+        <v>3.788253229133933</v>
       </c>
       <c r="CD6">
-        <v>3.847671768560355</v>
+        <v>3.847671768560356</v>
       </c>
       <c r="CE6">
-        <v>3.905821591014212</v>
+        <v>3.90582159101421</v>
       </c>
       <c r="CF6">
         <v>3.965431636632103</v>
@@ -2052,19 +2052,19 @@
         <v>4.143086239102058</v>
       </c>
       <c r="CJ6">
-        <v>4.199459384303747</v>
+        <v>4.199459384303746</v>
       </c>
       <c r="CK6">
         <v>4.255754865555609</v>
       </c>
       <c r="CL6">
-        <v>4.312809977877044</v>
+        <v>4.312809977877043</v>
       </c>
       <c r="CM6">
         <v>4.370019328791416</v>
       </c>
       <c r="CN6">
-        <v>4.42938158338815</v>
+        <v>4.429381583388149</v>
       </c>
       <c r="CO6">
         <v>4.489307842023709</v>
@@ -2080,118 +2080,118 @@
         <v>0.0425716104902962</v>
       </c>
       <c r="E7">
-        <v>0.04268942694256614</v>
+        <v>0.04268942694256615</v>
       </c>
       <c r="F7">
-        <v>0.04442438202076932</v>
+        <v>0.04442438202076933</v>
       </c>
       <c r="G7">
-        <v>0.04489262736085218</v>
+        <v>0.04489262736085219</v>
       </c>
       <c r="H7">
         <v>0.044381965257838</v>
       </c>
       <c r="I7">
-        <v>0.04369991601241421</v>
+        <v>0.04369991601241422</v>
       </c>
       <c r="J7">
-        <v>0.04501525108717568</v>
+        <v>0.04501525108717569</v>
       </c>
       <c r="K7">
-        <v>0.0494392284895557</v>
+        <v>0.04943922848955571</v>
       </c>
       <c r="L7">
-        <v>0.05083632175202395</v>
+        <v>0.05083632175202397</v>
       </c>
       <c r="M7">
         <v>0.05435043357422688</v>
       </c>
       <c r="N7">
-        <v>0.05777982839803714</v>
+        <v>0.05777982839803716</v>
       </c>
       <c r="O7">
-        <v>0.05284298246810505</v>
+        <v>0.05284298246810506</v>
       </c>
       <c r="P7">
-        <v>0.05686170088108034</v>
+        <v>0.05686170088108036</v>
       </c>
       <c r="Q7">
-        <v>0.05828119761737827</v>
+        <v>0.05828119761737829</v>
       </c>
       <c r="R7">
-        <v>0.05970504589242216</v>
+        <v>0.05970504589242218</v>
       </c>
       <c r="S7">
         <v>0.06465962849980311</v>
       </c>
       <c r="T7">
-        <v>0.06635372554568442</v>
+        <v>0.06635372554568443</v>
       </c>
       <c r="U7">
-        <v>0.06805125964780039</v>
+        <v>0.06805125964780041</v>
       </c>
       <c r="V7">
-        <v>0.06975225795295106</v>
+        <v>0.06975225795295109</v>
       </c>
       <c r="W7">
-        <v>0.07145211180988112</v>
+        <v>0.07145211180988113</v>
       </c>
       <c r="X7">
-        <v>0.07301581478499064</v>
+        <v>0.07301581478499067</v>
       </c>
       <c r="Y7">
-        <v>0.07464250299825521</v>
+        <v>0.07464250299825526</v>
       </c>
       <c r="Z7">
-        <v>0.07626922139340965</v>
+        <v>0.07626922139340969</v>
       </c>
       <c r="AA7">
         <v>0.07789905643947763</v>
       </c>
       <c r="AB7">
-        <v>0.07955403014275107</v>
+        <v>0.0795540301427511</v>
       </c>
       <c r="AC7">
-        <v>0.07746385484216561</v>
+        <v>0.07746385484216563</v>
       </c>
       <c r="AD7">
-        <v>0.07913209851253565</v>
+        <v>0.07913209851253568</v>
       </c>
       <c r="AE7">
-        <v>0.08082254862492912</v>
+        <v>0.08082254862492916</v>
       </c>
       <c r="AF7">
-        <v>0.08255153505356248</v>
+        <v>0.08255153505356251</v>
       </c>
       <c r="AG7">
-        <v>0.08432461874704812</v>
+        <v>0.08432461874704814</v>
       </c>
       <c r="AH7">
-        <v>0.08497449700870452</v>
+        <v>0.08497449700870453</v>
       </c>
       <c r="AI7">
-        <v>0.08682209955017525</v>
+        <v>0.08682209955017528</v>
       </c>
       <c r="AJ7">
-        <v>0.08875298860641687</v>
+        <v>0.08875298860641689</v>
       </c>
       <c r="AK7">
         <v>0.09079467538935954</v>
       </c>
       <c r="AL7">
-        <v>0.09288817813972856</v>
+        <v>0.09288817813972861</v>
       </c>
       <c r="AM7">
-        <v>0.09561067413364133</v>
+        <v>0.09561067413364134</v>
       </c>
       <c r="AN7">
-        <v>0.09787006406008883</v>
+        <v>0.09787006406008886</v>
       </c>
       <c r="AO7">
-        <v>0.09988496258346891</v>
+        <v>0.09988496258346895</v>
       </c>
       <c r="AP7">
-        <v>0.1017460011746475</v>
+        <v>0.1017460011746476</v>
       </c>
       <c r="AQ7">
         <v>0.1035508334266896</v>
@@ -2215,7 +2215,7 @@
         <v>0.1140018902969254</v>
       </c>
       <c r="AX7">
-        <v>0.1152668887913591</v>
+        <v>0.1152668887913592</v>
       </c>
       <c r="AY7">
         <v>0.116801728189393</v>
@@ -2236,46 +2236,46 @@
         <v>0.1257745147081845</v>
       </c>
       <c r="BE7">
-        <v>0.1279490516701872</v>
+        <v>0.1279490516701873</v>
       </c>
       <c r="BF7">
-        <v>0.1302457215153764</v>
+        <v>0.1302457215153765</v>
       </c>
       <c r="BG7">
         <v>0.1326834755453968</v>
       </c>
       <c r="BH7">
-        <v>0.1352647733716195</v>
+        <v>0.1352647733716196</v>
       </c>
       <c r="BI7">
         <v>0.1377682855085798</v>
       </c>
       <c r="BJ7">
-        <v>0.1401570076397327</v>
+        <v>0.1401570076397328</v>
       </c>
       <c r="BK7">
-        <v>0.1424913244005788</v>
+        <v>0.1424913244005789</v>
       </c>
       <c r="BL7">
-        <v>0.1448897941023734</v>
+        <v>0.1448897941023735</v>
       </c>
       <c r="BM7">
-        <v>0.1472988552186139</v>
+        <v>0.147298855218614</v>
       </c>
       <c r="BN7">
-        <v>0.14960378399076</v>
+        <v>0.1496037839907601</v>
       </c>
       <c r="BO7">
         <v>0.1518157809759649</v>
       </c>
       <c r="BP7">
-        <v>0.1539326366242497</v>
+        <v>0.1539326366242498</v>
       </c>
       <c r="BQ7">
-        <v>0.1560859406513548</v>
+        <v>0.1560859406513549</v>
       </c>
       <c r="BR7">
-        <v>0.1581835795281789</v>
+        <v>0.158183579528179</v>
       </c>
       <c r="BS7">
         <v>0.1603106750664574</v>
@@ -2296,7 +2296,7 @@
         <v>0.172194121893063</v>
       </c>
       <c r="BY7">
-        <v>0.174784764882152</v>
+        <v>0.1747847648821521</v>
       </c>
       <c r="BZ7">
         <v>0.1774904918882081</v>
@@ -2314,16 +2314,16 @@
         <v>0.1891386015617796</v>
       </c>
       <c r="CE7">
-        <v>0.1919568627599643</v>
+        <v>0.1919568627599644</v>
       </c>
       <c r="CF7">
-        <v>0.1948500772941672</v>
+        <v>0.1948500772941673</v>
       </c>
       <c r="CG7">
-        <v>0.1977662363347652</v>
+        <v>0.1977662363347653</v>
       </c>
       <c r="CH7">
-        <v>0.200642471948431</v>
+        <v>0.2006424719484311</v>
       </c>
       <c r="CI7">
         <v>0.2034509050895003</v>
@@ -2332,16 +2332,16 @@
         <v>0.2061838427013557</v>
       </c>
       <c r="CK7">
-        <v>0.2089263920115591</v>
+        <v>0.2089263920115592</v>
       </c>
       <c r="CL7">
-        <v>0.211695641119458</v>
+        <v>0.2116956411194581</v>
       </c>
       <c r="CM7">
-        <v>0.2144743154503067</v>
+        <v>0.2144743154503068</v>
       </c>
       <c r="CN7">
-        <v>0.2173587665984688</v>
+        <v>0.2173587665984689</v>
       </c>
       <c r="CO7">
         <v>0.2202717380183369</v>
@@ -2354,274 +2354,274 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804846.9438147575</v>
+        <v>804846.9438147569</v>
       </c>
       <c r="E8">
-        <v>568218.8790477208</v>
+        <v>568218.8790477207</v>
       </c>
       <c r="F8">
-        <v>363130.0514967854</v>
+        <v>363130.0514967852</v>
       </c>
       <c r="G8">
-        <v>301769.6728524325</v>
+        <v>301769.6728524324</v>
       </c>
       <c r="H8">
-        <v>323954.5484751889</v>
+        <v>323954.5484751888</v>
       </c>
       <c r="I8">
-        <v>256198.5985127604</v>
+        <v>256198.5985127603</v>
       </c>
       <c r="J8">
-        <v>290234.1582587259</v>
+        <v>290234.1582587258</v>
       </c>
       <c r="K8">
         <v>254751.1343861211</v>
       </c>
       <c r="L8">
-        <v>307824.8590570072</v>
+        <v>307824.859057007</v>
       </c>
       <c r="M8">
-        <v>280428.1222580691</v>
+        <v>280428.122258069</v>
       </c>
       <c r="N8">
-        <v>337033.2641703913</v>
+        <v>337033.2641703911</v>
       </c>
       <c r="O8">
-        <v>454273.8335635311</v>
+        <v>454273.833563531</v>
       </c>
       <c r="P8">
-        <v>1789574.958974568</v>
+        <v>1789574.958974567</v>
       </c>
       <c r="Q8">
-        <v>1797475.806358565</v>
+        <v>1797475.806358564</v>
       </c>
       <c r="R8">
-        <v>1809424.112178563</v>
+        <v>1809424.112178562</v>
       </c>
       <c r="S8">
-        <v>5758221.28978148</v>
+        <v>5758221.289781478</v>
       </c>
       <c r="T8">
-        <v>5783951.80202964</v>
+        <v>5783951.802029637</v>
       </c>
       <c r="U8">
-        <v>5809973.28537637</v>
+        <v>5809973.285376367</v>
       </c>
       <c r="V8">
-        <v>5837975.521017673</v>
+        <v>5837975.521017671</v>
       </c>
       <c r="W8">
-        <v>5867311.129813529</v>
+        <v>5867311.129813525</v>
       </c>
       <c r="X8">
-        <v>5573215.746357031</v>
+        <v>5573215.746357028</v>
       </c>
       <c r="Y8">
-        <v>5600640.539860354</v>
+        <v>5600640.53986035</v>
       </c>
       <c r="Z8">
-        <v>5631849.17695128</v>
+        <v>5631849.176951276</v>
       </c>
       <c r="AA8">
-        <v>5663883.712274419</v>
+        <v>5663883.712274415</v>
       </c>
       <c r="AB8">
-        <v>5703051.072494876</v>
+        <v>5703051.072494872</v>
       </c>
       <c r="AC8">
-        <v>1212058.819836372</v>
+        <v>1212058.819836371</v>
       </c>
       <c r="AD8">
-        <v>1251707.028097823</v>
+        <v>1251707.028097821</v>
       </c>
       <c r="AE8">
-        <v>1301524.979906229</v>
+        <v>1301524.979906228</v>
       </c>
       <c r="AF8">
-        <v>1365524.323042901</v>
+        <v>1365524.3230429</v>
       </c>
       <c r="AG8">
-        <v>1456202.809661432</v>
+        <v>1456202.809661431</v>
       </c>
       <c r="AH8">
-        <v>179251.6658341222</v>
+        <v>179251.6658341218</v>
       </c>
       <c r="AI8">
-        <v>287310.2815135776</v>
+        <v>287310.2815135771</v>
       </c>
       <c r="AJ8">
-        <v>458705.5191886241</v>
+        <v>458705.5191886234</v>
       </c>
       <c r="AK8">
-        <v>684164.6771556018</v>
+        <v>684164.677155601</v>
       </c>
       <c r="AL8">
-        <v>950564.6227426962</v>
+        <v>950564.6227426952</v>
       </c>
       <c r="AM8">
-        <v>2105981.515006682</v>
+        <v>2105981.51500668</v>
       </c>
       <c r="AN8">
-        <v>2467092.446371072</v>
+        <v>2467092.44637107</v>
       </c>
       <c r="AO8">
-        <v>2701576.084148981</v>
+        <v>2701576.084148978</v>
       </c>
       <c r="AP8">
-        <v>2850080.16881915</v>
+        <v>2850080.168819148</v>
       </c>
       <c r="AQ8">
-        <v>2957841.895714744</v>
+        <v>2957841.89571474</v>
       </c>
       <c r="AR8">
-        <v>3475900.705873122</v>
+        <v>3475900.705873118</v>
       </c>
       <c r="AS8">
-        <v>3486813.932859763</v>
+        <v>3486813.932859759</v>
       </c>
       <c r="AT8">
-        <v>3462920.381059917</v>
+        <v>3462920.381059914</v>
       </c>
       <c r="AU8">
-        <v>3385072.28325696</v>
+        <v>3385072.283256957</v>
       </c>
       <c r="AV8">
-        <v>3219970.788258593</v>
+        <v>3219970.78825859</v>
       </c>
       <c r="AW8">
-        <v>3116899.595541697</v>
+        <v>3116899.595541693</v>
       </c>
       <c r="AX8">
-        <v>2802284.779721431</v>
+        <v>2802284.779721429</v>
       </c>
       <c r="AY8">
-        <v>2597693.567822653</v>
+        <v>2597693.567822651</v>
       </c>
       <c r="AZ8">
-        <v>2457693.629218474</v>
+        <v>2457693.629218472</v>
       </c>
       <c r="BA8">
-        <v>2327697.473424848</v>
+        <v>2327697.473424845</v>
       </c>
       <c r="BB8">
-        <v>2121251.946983352</v>
+        <v>2121251.94698335</v>
       </c>
       <c r="BC8">
-        <v>2045373.22427358</v>
+        <v>2045373.224273578</v>
       </c>
       <c r="BD8">
-        <v>2036927.353917139</v>
+        <v>2036927.353917137</v>
       </c>
       <c r="BE8">
-        <v>2114840.600558462</v>
+        <v>2114840.60055846</v>
       </c>
       <c r="BF8">
-        <v>2267482.415477597</v>
+        <v>2267482.415477594</v>
       </c>
       <c r="BG8">
-        <v>2406436.423252151</v>
+        <v>2406436.423252149</v>
       </c>
       <c r="BH8">
-        <v>2670367.837449778</v>
+        <v>2670367.837449775</v>
       </c>
       <c r="BI8">
-        <v>2896774.075606869</v>
+        <v>2896774.075606866</v>
       </c>
       <c r="BJ8">
-        <v>3062694.267461068</v>
+        <v>3062694.267461066</v>
       </c>
       <c r="BK8">
-        <v>3192790.39381174</v>
+        <v>3192790.393811737</v>
       </c>
       <c r="BL8">
-        <v>3243132.397850033</v>
+        <v>3243132.397850031</v>
       </c>
       <c r="BM8">
-        <v>3338098.974738419</v>
+        <v>3338098.974738416</v>
       </c>
       <c r="BN8">
-        <v>3391523.450634159</v>
+        <v>3391523.450634156</v>
       </c>
       <c r="BO8">
-        <v>3401678.711750066</v>
+        <v>3401678.711750062</v>
       </c>
       <c r="BP8">
-        <v>3360975.944458445</v>
+        <v>3360975.944458441</v>
       </c>
       <c r="BQ8">
-        <v>3217670.428536426</v>
+        <v>3217670.428536423</v>
       </c>
       <c r="BR8">
-        <v>3081856.135688072</v>
+        <v>3081856.135688069</v>
       </c>
       <c r="BS8">
-        <v>2951074.905717975</v>
+        <v>2951074.905717973</v>
       </c>
       <c r="BT8">
-        <v>2880243.863605951</v>
+        <v>2880243.863605949</v>
       </c>
       <c r="BU8">
-        <v>2839219.619212692</v>
+        <v>2839219.619212689</v>
       </c>
       <c r="BV8">
-        <v>2749287.603958419</v>
+        <v>2749287.603958416</v>
       </c>
       <c r="BW8">
-        <v>2700530.814454278</v>
+        <v>2700530.814454275</v>
       </c>
       <c r="BX8">
-        <v>2658090.557704096</v>
+        <v>2658090.557704094</v>
       </c>
       <c r="BY8">
-        <v>2636934.887585958</v>
+        <v>2636934.887585955</v>
       </c>
       <c r="BZ8">
-        <v>2716466.058095838</v>
+        <v>2716466.058095836</v>
       </c>
       <c r="CA8">
-        <v>2791283.972910337</v>
+        <v>2791283.972910334</v>
       </c>
       <c r="CB8">
-        <v>2939578.536251995</v>
+        <v>2939578.536251992</v>
       </c>
       <c r="CC8">
-        <v>3085968.694049499</v>
+        <v>3085968.694049496</v>
       </c>
       <c r="CD8">
-        <v>3202950.866568618</v>
+        <v>3202950.866568614</v>
       </c>
       <c r="CE8">
-        <v>3286396.280795751</v>
+        <v>3286396.280795747</v>
       </c>
       <c r="CF8">
-        <v>3294041.247171044</v>
+        <v>3294041.247171041</v>
       </c>
       <c r="CG8">
-        <v>3343532.985270935</v>
+        <v>3343532.985270933</v>
       </c>
       <c r="CH8">
-        <v>3377602.340482489</v>
+        <v>3377602.340482486</v>
       </c>
       <c r="CI8">
-        <v>3386281.93728774</v>
+        <v>3386281.937287737</v>
       </c>
       <c r="CJ8">
-        <v>3363050.154507289</v>
+        <v>3363050.154507287</v>
       </c>
       <c r="CK8">
-        <v>3231607.681397032</v>
+        <v>3231607.681397029</v>
       </c>
       <c r="CL8">
-        <v>3152126.373883252</v>
+        <v>3152126.373883249</v>
       </c>
       <c r="CM8">
-        <v>3082012.494194109</v>
+        <v>3082012.494194105</v>
       </c>
       <c r="CN8">
-        <v>3099743.786473041</v>
+        <v>3099743.786473038</v>
       </c>
       <c r="CO8">
-        <v>3097049.375239852</v>
+        <v>3097049.375239849</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2631,274 +2631,274 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>163715.3845150304</v>
+        <v>163715.3845150303</v>
       </c>
       <c r="E9">
-        <v>104510.0472679768</v>
+        <v>104510.0472679767</v>
       </c>
       <c r="F9">
-        <v>79644.21320225453</v>
+        <v>79644.2132022546</v>
       </c>
       <c r="G9">
-        <v>79379.78408547177</v>
+        <v>79379.78408547184</v>
       </c>
       <c r="H9">
-        <v>73278.53637852975</v>
+        <v>73278.53637852984</v>
       </c>
       <c r="I9">
-        <v>70549.72738738119</v>
+        <v>70549.7273873813</v>
       </c>
       <c r="J9">
-        <v>65038.5962297822</v>
+        <v>65038.59622978229</v>
       </c>
       <c r="K9">
-        <v>68478.03238314952</v>
+        <v>68478.03238314961</v>
       </c>
       <c r="L9">
-        <v>83087.90281245434</v>
+        <v>83087.90281245443</v>
       </c>
       <c r="M9">
-        <v>84169.66867966144</v>
+        <v>84169.66867966154</v>
       </c>
       <c r="N9">
-        <v>90809.36586482148</v>
+        <v>90809.36586482156</v>
       </c>
       <c r="O9">
-        <v>104565.1100657297</v>
+        <v>104565.1100657298</v>
       </c>
       <c r="P9">
-        <v>982231.786572493</v>
+        <v>982231.7865724942</v>
       </c>
       <c r="Q9">
-        <v>985421.7520814358</v>
+        <v>985421.7520814369</v>
       </c>
       <c r="R9">
-        <v>989212.8239835646</v>
+        <v>989212.8239835656</v>
       </c>
       <c r="S9">
-        <v>3192417.270013959</v>
+        <v>3192417.270013963</v>
       </c>
       <c r="T9">
-        <v>3197496.596182808</v>
+        <v>3197496.596182812</v>
       </c>
       <c r="U9">
-        <v>3203294.385439389</v>
+        <v>3203294.385439392</v>
       </c>
       <c r="V9">
-        <v>3209958.326786588</v>
+        <v>3209958.326786592</v>
       </c>
       <c r="W9">
-        <v>3217789.83943502</v>
+        <v>3217789.839435025</v>
       </c>
       <c r="X9">
-        <v>3473352.28984247</v>
+        <v>3473352.289842475</v>
       </c>
       <c r="Y9">
-        <v>3485389.016944039</v>
+        <v>3485389.016944044</v>
       </c>
       <c r="Z9">
-        <v>3501125.736035953</v>
+        <v>3501125.736035957</v>
       </c>
       <c r="AA9">
-        <v>3522183.25409365</v>
+        <v>3522183.254093655</v>
       </c>
       <c r="AB9">
-        <v>3550657.4370564</v>
+        <v>3550657.437056405</v>
       </c>
       <c r="AC9">
-        <v>1192517.933052078</v>
+        <v>1192517.93305208</v>
       </c>
       <c r="AD9">
-        <v>1243946.464435527</v>
+        <v>1243946.464435529</v>
       </c>
       <c r="AE9">
-        <v>1311580.940181422</v>
+        <v>1311580.940181424</v>
       </c>
       <c r="AF9">
-        <v>1398648.495417988</v>
+        <v>1398648.49541799</v>
       </c>
       <c r="AG9">
-        <v>1508009.653519676</v>
+        <v>1508009.653519678</v>
       </c>
       <c r="AH9">
-        <v>797893.645566209</v>
+        <v>797893.6455662105</v>
       </c>
       <c r="AI9">
-        <v>956844.5314849936</v>
+        <v>956844.5314849954</v>
       </c>
       <c r="AJ9">
-        <v>1140189.336464262</v>
+        <v>1140189.336464264</v>
       </c>
       <c r="AK9">
-        <v>1345048.457107577</v>
+        <v>1345048.457107579</v>
       </c>
       <c r="AL9">
-        <v>1566247.289925056</v>
+        <v>1566247.289925058</v>
       </c>
       <c r="AM9">
-        <v>2250769.737619562</v>
+        <v>2250769.737619565</v>
       </c>
       <c r="AN9">
-        <v>2480164.726182009</v>
+        <v>2480164.726182014</v>
       </c>
       <c r="AO9">
-        <v>2697974.587612404</v>
+        <v>2697974.587612408</v>
       </c>
       <c r="AP9">
-        <v>2892816.131026901</v>
+        <v>2892816.131026905</v>
       </c>
       <c r="AQ9">
-        <v>3054011.046099097</v>
+        <v>3054011.046099102</v>
       </c>
       <c r="AR9">
-        <v>3714603.43277351</v>
+        <v>3714603.432773516</v>
       </c>
       <c r="AS9">
-        <v>3785251.495784839</v>
+        <v>3785251.495784845</v>
       </c>
       <c r="AT9">
-        <v>3805735.115418397</v>
+        <v>3805735.115418404</v>
       </c>
       <c r="AU9">
-        <v>3778050.763972258</v>
+        <v>3778050.763972265</v>
       </c>
       <c r="AV9">
-        <v>3708002.917943641</v>
+        <v>3708002.917943647</v>
       </c>
       <c r="AW9">
-        <v>3782705.05320686</v>
+        <v>3782705.053206866</v>
       </c>
       <c r="AX9">
-        <v>3657337.130020407</v>
+        <v>3657337.130020414</v>
       </c>
       <c r="AY9">
-        <v>3522781.267060087</v>
+        <v>3522781.267060093</v>
       </c>
       <c r="AZ9">
-        <v>3392245.277723236</v>
+        <v>3392245.277723241</v>
       </c>
       <c r="BA9">
-        <v>3278381.782301237</v>
+        <v>3278381.782301242</v>
       </c>
       <c r="BB9">
-        <v>3103124.477575001</v>
+        <v>3103124.477575007</v>
       </c>
       <c r="BC9">
-        <v>3053478.597912119</v>
+        <v>3053478.597912124</v>
       </c>
       <c r="BD9">
-        <v>3045673.891859687</v>
+        <v>3045673.891859692</v>
       </c>
       <c r="BE9">
-        <v>3081485.187732515</v>
+        <v>3081485.18773252</v>
       </c>
       <c r="BF9">
-        <v>3159092.835189162</v>
+        <v>3159092.835189168</v>
       </c>
       <c r="BG9">
-        <v>3229206.731351444</v>
+        <v>3229206.73135145</v>
       </c>
       <c r="BH9">
-        <v>3373274.026228463</v>
+        <v>3373274.026228468</v>
       </c>
       <c r="BI9">
-        <v>3538189.641609836</v>
+        <v>3538189.641609842</v>
       </c>
       <c r="BJ9">
-        <v>3714541.780636935</v>
+        <v>3714541.780636942</v>
       </c>
       <c r="BK9">
-        <v>3892935.179268848</v>
+        <v>3892935.179268855</v>
       </c>
       <c r="BL9">
-        <v>4070162.379758551</v>
+        <v>4070162.379758558</v>
       </c>
       <c r="BM9">
-        <v>4227385.545240045</v>
+        <v>4227385.545240051</v>
       </c>
       <c r="BN9">
-        <v>4364104.718506125</v>
+        <v>4364104.718506133</v>
       </c>
       <c r="BO9">
-        <v>4476158.867104311</v>
+        <v>4476158.867104318</v>
       </c>
       <c r="BP9">
-        <v>4561481.313488087</v>
+        <v>4561481.313488095</v>
       </c>
       <c r="BQ9">
-        <v>4628767.948670105</v>
+        <v>4628767.948670113</v>
       </c>
       <c r="BR9">
-        <v>4662601.589687379</v>
+        <v>4662601.589687388</v>
       </c>
       <c r="BS9">
-        <v>4675239.164796635</v>
+        <v>4675239.164796644</v>
       </c>
       <c r="BT9">
-        <v>4671547.330647026</v>
+        <v>4671547.330647033</v>
       </c>
       <c r="BU9">
-        <v>4657258.509660025</v>
+        <v>4657258.509660034</v>
       </c>
       <c r="BV9">
-        <v>4628987.565929615</v>
+        <v>4628987.565929624</v>
       </c>
       <c r="BW9">
-        <v>4611828.760507901</v>
+        <v>4611828.76050791</v>
       </c>
       <c r="BX9">
-        <v>4601774.131053417</v>
+        <v>4601774.131053426</v>
       </c>
       <c r="BY9">
-        <v>4603408.696331123</v>
+        <v>4603408.69633113</v>
       </c>
       <c r="BZ9">
-        <v>4620103.507758141</v>
+        <v>4620103.50775815</v>
       </c>
       <c r="CA9">
-        <v>4625985.364362163</v>
+        <v>4625985.364362171</v>
       </c>
       <c r="CB9">
-        <v>4677302.801184963</v>
+        <v>4677302.801184971</v>
       </c>
       <c r="CC9">
-        <v>4745339.489486023</v>
+        <v>4745339.48948603</v>
       </c>
       <c r="CD9">
-        <v>4827998.919350874</v>
+        <v>4827998.919350883</v>
       </c>
       <c r="CE9">
-        <v>4922199.421917491</v>
+        <v>4922199.4219175</v>
       </c>
       <c r="CF9">
-        <v>4971734.701426992</v>
+        <v>4971734.701427002</v>
       </c>
       <c r="CG9">
-        <v>5077469.938086067</v>
+        <v>5077469.938086077</v>
       </c>
       <c r="CH9">
-        <v>5182919.343620827</v>
+        <v>5182919.343620839</v>
       </c>
       <c r="CI9">
-        <v>5284402.565655189</v>
+        <v>5284402.565655198</v>
       </c>
       <c r="CJ9">
-        <v>5378830.524918289</v>
+        <v>5378830.5249183</v>
       </c>
       <c r="CK9">
-        <v>5380081.339414369</v>
+        <v>5380081.33941438</v>
       </c>
       <c r="CL9">
-        <v>5454322.831839854</v>
+        <v>5454322.831839864</v>
       </c>
       <c r="CM9">
-        <v>5517217.299474753</v>
+        <v>5517217.299474764</v>
       </c>
       <c r="CN9">
-        <v>5569106.08099643</v>
+        <v>5569106.080996441</v>
       </c>
       <c r="CO9">
-        <v>5611100.17417036</v>
+        <v>5611100.174170371</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -2936,7 +2936,7 @@
         <v>12.81576233800777</v>
       </c>
       <c r="L10">
-        <v>12.96840388917996</v>
+        <v>12.96840388917995</v>
       </c>
       <c r="M10">
         <v>13.81390895963057</v>
@@ -2951,7 +2951,7 @@
         <v>14.47968908455254</v>
       </c>
       <c r="Q10">
-        <v>14.83303317652203</v>
+        <v>14.83303317652202</v>
       </c>
       <c r="R10">
         <v>15.18754448140588</v>
@@ -2966,7 +2966,7 @@
         <v>17.43524901939799</v>
       </c>
       <c r="V10">
-        <v>17.86528068109866</v>
+        <v>17.86528068109865</v>
       </c>
       <c r="W10">
         <v>18.29509192783197</v>
@@ -2987,7 +2987,7 @@
         <v>20.36072901244575</v>
       </c>
       <c r="AC10">
-        <v>19.68415170517548</v>
+        <v>19.68415170517547</v>
       </c>
       <c r="AD10">
         <v>20.10984540405627</v>
@@ -2996,7 +2996,7 @@
         <v>20.54201638232434</v>
       </c>
       <c r="AF10">
-        <v>20.98501738508321</v>
+        <v>20.9850173850832</v>
       </c>
       <c r="AG10">
         <v>21.44056866209988</v>
@@ -3017,40 +3017,40 @@
         <v>23.61950940861963</v>
       </c>
       <c r="AM10">
-        <v>24.34710571107837</v>
+        <v>24.34710571107836</v>
       </c>
       <c r="AN10">
         <v>24.93824622357462</v>
       </c>
       <c r="AO10">
-        <v>25.46431951729582</v>
+        <v>25.46431951729581</v>
       </c>
       <c r="AP10">
         <v>25.94875291944178</v>
       </c>
       <c r="AQ10">
-        <v>26.41688036180581</v>
+        <v>26.4168803618058</v>
       </c>
       <c r="AR10">
         <v>27.09860234617323</v>
       </c>
       <c r="AS10">
-        <v>27.53827797875707</v>
+        <v>27.53827797875706</v>
       </c>
       <c r="AT10">
-        <v>27.96643352560303</v>
+        <v>27.96643352560302</v>
       </c>
       <c r="AU10">
         <v>28.37063465279589</v>
       </c>
       <c r="AV10">
-        <v>28.72944448991987</v>
+        <v>28.72944448991986</v>
       </c>
       <c r="AW10">
         <v>29.11829882496604</v>
       </c>
       <c r="AX10">
-        <v>29.43147950756494</v>
+        <v>29.43147950756493</v>
       </c>
       <c r="AY10">
         <v>29.81524487130667</v>
@@ -3059,46 +3059,46 @@
         <v>30.2393553148137</v>
       </c>
       <c r="BA10">
-        <v>30.66569399612574</v>
+        <v>30.66569399612573</v>
       </c>
       <c r="BB10">
-        <v>31.08695832305338</v>
+        <v>31.08695832305337</v>
       </c>
       <c r="BC10">
         <v>31.56477876226334</v>
       </c>
       <c r="BD10">
-        <v>32.08314840993592</v>
+        <v>32.0831484099359</v>
       </c>
       <c r="BE10">
-        <v>32.64278117453484</v>
+        <v>32.64278117453483</v>
       </c>
       <c r="BF10">
         <v>33.23651845057612</v>
       </c>
       <c r="BG10">
-        <v>33.8671492507105</v>
+        <v>33.86714925071049</v>
       </c>
       <c r="BH10">
-        <v>34.53909445966514</v>
+        <v>34.53909445966513</v>
       </c>
       <c r="BI10">
-        <v>35.19130972467636</v>
+        <v>35.19130972467635</v>
       </c>
       <c r="BJ10">
-        <v>35.813697740793</v>
+        <v>35.81369774079299</v>
       </c>
       <c r="BK10">
-        <v>36.42190643526536</v>
+        <v>36.42190643526535</v>
       </c>
       <c r="BL10">
-        <v>37.04733796791911</v>
+        <v>37.0473379679191</v>
       </c>
       <c r="BM10">
         <v>37.67510077539782</v>
       </c>
       <c r="BN10">
-        <v>38.27438524939663</v>
+        <v>38.27438524939661</v>
       </c>
       <c r="BO10">
         <v>38.84798713939301</v>
@@ -3110,7 +3110,7 @@
         <v>39.9511398621914</v>
       </c>
       <c r="BR10">
-        <v>40.49092946606552</v>
+        <v>40.49092946606551</v>
       </c>
       <c r="BS10">
         <v>41.03742743674145</v>
@@ -3119,31 +3119,31 @@
         <v>41.61503672757125</v>
       </c>
       <c r="BU10">
-        <v>42.20696982463298</v>
+        <v>42.20696982463297</v>
       </c>
       <c r="BV10">
         <v>42.82518133639358</v>
       </c>
       <c r="BW10">
-        <v>43.45177427565111</v>
+        <v>43.45177427565109</v>
       </c>
       <c r="BX10">
-        <v>44.09260194652025</v>
+        <v>44.09260194652024</v>
       </c>
       <c r="BY10">
-        <v>44.76104171183626</v>
+        <v>44.76104171183624</v>
       </c>
       <c r="BZ10">
         <v>45.4605566097089</v>
       </c>
       <c r="CA10">
-        <v>46.20628630258361</v>
+        <v>46.2062863025836</v>
       </c>
       <c r="CB10">
-        <v>46.97113984270135</v>
+        <v>46.97113984270134</v>
       </c>
       <c r="CC10">
-        <v>47.73435465166109</v>
+        <v>47.73435465166108</v>
       </c>
       <c r="CD10">
         <v>48.48306532708576</v>
@@ -3152,34 +3152,34 @@
         <v>49.21578937694503</v>
       </c>
       <c r="CF10">
-        <v>49.96691314988687</v>
+        <v>49.96691314988684</v>
       </c>
       <c r="CG10">
-        <v>50.72617232796403</v>
+        <v>50.72617232796402</v>
       </c>
       <c r="CH10">
-        <v>51.47487822577155</v>
+        <v>51.47487822577153</v>
       </c>
       <c r="CI10">
         <v>52.20547200191467</v>
       </c>
       <c r="CJ10">
-        <v>52.91580880970567</v>
+        <v>52.91580880970566</v>
       </c>
       <c r="CK10">
-        <v>53.62516700326466</v>
+        <v>53.62516700326464</v>
       </c>
       <c r="CL10">
-        <v>54.34409702232898</v>
+        <v>54.34409702232897</v>
       </c>
       <c r="CM10">
-        <v>55.06497054391304</v>
+        <v>55.06497054391303</v>
       </c>
       <c r="CN10">
         <v>55.81297199536048</v>
       </c>
       <c r="CO10">
-        <v>56.56808024964979</v>
+        <v>56.56808024964977</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -3219,7 +3219,7 @@
         <v>0.6848493790624501</v>
       </c>
       <c r="N11">
-        <v>0.7280618938704301</v>
+        <v>0.7280618938704303</v>
       </c>
       <c r="O11">
         <v>0.665854554438197</v>
@@ -3243,7 +3243,7 @@
         <v>0.8574883372469325</v>
       </c>
       <c r="V11">
-        <v>0.8789219773572317</v>
+        <v>0.8789219773572315</v>
       </c>
       <c r="W11">
         <v>0.9003411967057877</v>
@@ -3255,16 +3255,16 @@
         <v>0.9405421165630373</v>
       </c>
       <c r="Z11">
-        <v>0.961039783454867</v>
+        <v>0.9610397834548671</v>
       </c>
       <c r="AA11">
-        <v>0.9815767220930748</v>
+        <v>0.9815767220930747</v>
       </c>
       <c r="AB11">
-        <v>1.00243042349922</v>
+        <v>1.002430423499221</v>
       </c>
       <c r="AC11">
-        <v>0.976092910390283</v>
+        <v>0.9760929103902831</v>
       </c>
       <c r="AD11">
         <v>0.9971138216626366</v>
@@ -3315,7 +3315,7 @@
         <v>1.358198028877888</v>
       </c>
       <c r="AT11">
-        <v>1.379284664840255</v>
+        <v>1.379284664840256</v>
       </c>
       <c r="AU11">
         <v>1.39933666187124</v>
@@ -3342,7 +3342,7 @@
         <v>1.535637743462222</v>
       </c>
       <c r="BC11">
-        <v>1.559314652033479</v>
+        <v>1.559314652033478</v>
       </c>
       <c r="BD11">
         <v>1.58483737175976</v>
@@ -3402,13 +3402,13 @@
         <v>2.107713692308673</v>
       </c>
       <c r="BW11">
-        <v>2.138406408598667</v>
+        <v>2.138406408598666</v>
       </c>
       <c r="BX11">
         <v>2.169753389282791</v>
       </c>
       <c r="BY11">
-        <v>2.202397107571203</v>
+        <v>2.202397107571204</v>
       </c>
       <c r="BZ11">
         <v>2.2364909562887</v>
@@ -3438,7 +3438,7 @@
         <v>2.528220352460962</v>
       </c>
       <c r="CI11">
-        <v>2.563608362570818</v>
+        <v>2.563608362570817</v>
       </c>
       <c r="CJ11">
         <v>2.598045081901481</v>
@@ -3453,7 +3453,7 @@
         <v>2.702510212000198</v>
       </c>
       <c r="CN11">
-        <v>2.738856096436556</v>
+        <v>2.738856096436555</v>
       </c>
       <c r="CO11">
         <v>2.775561354093769</v>
@@ -3499,10 +3499,10 @@
         <v>432972.9436875397</v>
       </c>
       <c r="O12">
-        <v>417280.4347612716</v>
+        <v>417280.4347612715</v>
       </c>
       <c r="P12">
-        <v>3572790.457707115</v>
+        <v>3572790.457707116</v>
       </c>
       <c r="Q12">
         <v>3582105.816772085</v>
@@ -3511,7 +3511,7 @@
         <v>3591817.185165706</v>
       </c>
       <c r="S12">
-        <v>11753613.45129743</v>
+        <v>11753613.45129744</v>
       </c>
       <c r="T12">
         <v>11766785.84935502</v>
@@ -3526,13 +3526,13 @@
         <v>11818973.87868047</v>
       </c>
       <c r="X12">
-        <v>13839496.08587648</v>
+        <v>13839496.08587649</v>
       </c>
       <c r="Y12">
-        <v>13872206.05944674</v>
+        <v>13872206.05944675</v>
       </c>
       <c r="Z12">
-        <v>13912782.05911701</v>
+        <v>13912782.05911702</v>
       </c>
       <c r="AA12">
         <v>13965268.07213634</v>
@@ -3541,58 +3541,58 @@
         <v>14031157.83150085</v>
       </c>
       <c r="AC12">
-        <v>5670907.81483619</v>
+        <v>5670907.814836191</v>
       </c>
       <c r="AD12">
-        <v>5761429.790793927</v>
+        <v>5761429.79079393</v>
       </c>
       <c r="AE12">
-        <v>5876889.971339427</v>
+        <v>5876889.971339428</v>
       </c>
       <c r="AF12">
-        <v>6021042.825923962</v>
+        <v>6021042.825923964</v>
       </c>
       <c r="AG12">
-        <v>6206588.805940069</v>
+        <v>6206588.805940072</v>
       </c>
       <c r="AH12">
-        <v>3368301.415572349</v>
+        <v>3368301.41557235</v>
       </c>
       <c r="AI12">
-        <v>3669731.251888622</v>
+        <v>3669731.251888623</v>
       </c>
       <c r="AJ12">
-        <v>4045657.926270469</v>
+        <v>4045657.92627047</v>
       </c>
       <c r="AK12">
         <v>4483021.619434909</v>
       </c>
       <c r="AL12">
-        <v>4942409.842859857</v>
+        <v>4942409.842859859</v>
       </c>
       <c r="AM12">
-        <v>7212758.765166334</v>
+        <v>7212758.765166338</v>
       </c>
       <c r="AN12">
-        <v>7738197.358872538</v>
+        <v>7738197.358872539</v>
       </c>
       <c r="AO12">
-        <v>8174851.26516364</v>
+        <v>8174851.265163643</v>
       </c>
       <c r="AP12">
-        <v>8540677.569901692</v>
+        <v>8540677.569901695</v>
       </c>
       <c r="AQ12">
-        <v>8858218.624591013</v>
+        <v>8858218.624591015</v>
       </c>
       <c r="AR12">
-        <v>11725482.53559309</v>
+        <v>11725482.5355931</v>
       </c>
       <c r="AS12">
         <v>11907986.16695561</v>
       </c>
       <c r="AT12">
-        <v>12004207.73881225</v>
+        <v>12004207.73881226</v>
       </c>
       <c r="AU12">
         <v>12003176.83448734</v>
@@ -3610,13 +3610,13 @@
         <v>12002101.0414236</v>
       </c>
       <c r="AZ12">
-        <v>11823785.43574414</v>
+        <v>11823785.43574415</v>
       </c>
       <c r="BA12">
         <v>11660145.00678009</v>
       </c>
       <c r="BB12">
-        <v>11064740.36198326</v>
+        <v>11064740.36198327</v>
       </c>
       <c r="BC12">
         <v>10999808.44102969</v>
@@ -3631,79 +3631,79 @@
         <v>11500520.01572585</v>
       </c>
       <c r="BG12">
-        <v>11674765.77361251</v>
+        <v>11674765.77361252</v>
       </c>
       <c r="BH12">
-        <v>12080591.3971623</v>
+        <v>12080591.39716231</v>
       </c>
       <c r="BI12">
         <v>12483999.30984319</v>
       </c>
       <c r="BJ12">
-        <v>12871276.80244393</v>
+        <v>12871276.80244394</v>
       </c>
       <c r="BK12">
-        <v>13262966.59604022</v>
+        <v>13262966.59604023</v>
       </c>
       <c r="BL12">
-        <v>13778153.25246993</v>
+        <v>13778153.25246994</v>
       </c>
       <c r="BM12">
-        <v>14172510.45082957</v>
+        <v>14172510.45082958</v>
       </c>
       <c r="BN12">
         <v>14484613.87936788</v>
       </c>
       <c r="BO12">
-        <v>14717660.50343766</v>
+        <v>14717660.50343767</v>
       </c>
       <c r="BP12">
-        <v>14879837.91811392</v>
+        <v>14879837.91811393</v>
       </c>
       <c r="BQ12">
-        <v>15070218.65330614</v>
+        <v>15070218.65330615</v>
       </c>
       <c r="BR12">
-        <v>15099196.57478448</v>
+        <v>15099196.57478449</v>
       </c>
       <c r="BS12">
         <v>15100127.46477695</v>
       </c>
       <c r="BT12">
-        <v>15106756.92347356</v>
+        <v>15106756.92347357</v>
       </c>
       <c r="BU12">
-        <v>15111781.39942092</v>
+        <v>15111781.39942093</v>
       </c>
       <c r="BV12">
-        <v>15099683.89638514</v>
+        <v>15099683.89638515</v>
       </c>
       <c r="BW12">
-        <v>15096838.99741648</v>
+        <v>15096838.99741649</v>
       </c>
       <c r="BX12">
-        <v>15147072.83644336</v>
+        <v>15147072.83644337</v>
       </c>
       <c r="BY12">
-        <v>15259807.52879059</v>
+        <v>15259807.5287906</v>
       </c>
       <c r="BZ12">
-        <v>15423323.73847101</v>
+        <v>15423323.73847102</v>
       </c>
       <c r="CA12">
-        <v>15510678.68934862</v>
+        <v>15510678.68934863</v>
       </c>
       <c r="CB12">
-        <v>15742905.61737693</v>
+        <v>15742905.61737694</v>
       </c>
       <c r="CC12">
-        <v>15998249.5846881</v>
+        <v>15998249.58468811</v>
       </c>
       <c r="CD12">
-        <v>16259362.99975657</v>
+        <v>16259362.99975658</v>
       </c>
       <c r="CE12">
-        <v>16524255.9079099</v>
+        <v>16524255.90790991</v>
       </c>
       <c r="CF12">
         <v>16534793.98055789</v>
@@ -3712,28 +3712,28 @@
         <v>16816703.32606195</v>
       </c>
       <c r="CH12">
-        <v>17082652.8122432</v>
+        <v>17082652.81224321</v>
       </c>
       <c r="CI12">
         <v>17309851.94244143</v>
       </c>
       <c r="CJ12">
-        <v>17493515.44071692</v>
+        <v>17493515.44071693</v>
       </c>
       <c r="CK12">
-        <v>17192285.6529963</v>
+        <v>17192285.65299631</v>
       </c>
       <c r="CL12">
-        <v>17304452.49240253</v>
+        <v>17304452.49240254</v>
       </c>
       <c r="CM12">
-        <v>17397898.05351011</v>
+        <v>17397898.05351012</v>
       </c>
       <c r="CN12">
-        <v>17487292.06328464</v>
+        <v>17487292.06328465</v>
       </c>
       <c r="CO12">
-        <v>17578751.08697602</v>
+        <v>17578751.08697603</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -3743,79 +3743,79 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147351.5091590437</v>
+        <v>147351.5091590436</v>
       </c>
       <c r="E13">
-        <v>94065.91377740998</v>
+        <v>94065.91377740991</v>
       </c>
       <c r="F13">
-        <v>71690.85875876018</v>
+        <v>71690.85875876017</v>
       </c>
       <c r="G13">
-        <v>71456.46872010305</v>
+        <v>71456.46872010303</v>
       </c>
       <c r="H13">
         <v>65964.00104447809</v>
       </c>
       <c r="I13">
-        <v>63509.09866480672</v>
+        <v>63509.0986648067</v>
       </c>
       <c r="J13">
-        <v>58548.33703913055</v>
+        <v>58548.33703913054</v>
       </c>
       <c r="K13">
-        <v>61643.83504753984</v>
+        <v>61643.83504753983</v>
       </c>
       <c r="L13">
-        <v>74793.84449297248</v>
+        <v>74793.84449297246</v>
       </c>
       <c r="M13">
         <v>75767.52227887437</v>
       </c>
       <c r="N13">
-        <v>81742.61054046049</v>
+        <v>81742.61054046046</v>
       </c>
       <c r="O13">
-        <v>94123.75300922037</v>
+        <v>94123.75300922034</v>
       </c>
       <c r="P13">
-        <v>884188.6544114173</v>
+        <v>884188.6544114171</v>
       </c>
       <c r="Q13">
-        <v>887059.8600705198</v>
+        <v>887059.8600705196</v>
       </c>
       <c r="R13">
-        <v>890472.1266563896</v>
+        <v>890472.1266563894</v>
       </c>
       <c r="S13">
-        <v>2873772.137374499</v>
+        <v>2873772.137374498</v>
       </c>
       <c r="T13">
-        <v>2878344.017194972</v>
+        <v>2878344.017194971</v>
       </c>
       <c r="U13">
         <v>2883562.651466114</v>
       </c>
       <c r="V13">
-        <v>2889561.016506822</v>
+        <v>2889561.016506821</v>
       </c>
       <c r="W13">
         <v>2896610.478027957</v>
       </c>
       <c r="X13">
-        <v>3126693.342079721</v>
+        <v>3126693.34207972</v>
       </c>
       <c r="Y13">
         <v>3137528.50239188</v>
       </c>
       <c r="Z13">
-        <v>3151694.48826369</v>
+        <v>3151694.488263689</v>
       </c>
       <c r="AA13">
         <v>3170650.332137532</v>
       </c>
       <c r="AB13">
-        <v>3196282.691238144</v>
+        <v>3196282.691238143</v>
       </c>
       <c r="AC13">
         <v>1073525.82160784</v>
@@ -3824,7 +3824,7 @@
         <v>1119821.54162433</v>
       </c>
       <c r="AE13">
-        <v>1180705.650428516</v>
+        <v>1180705.650428515</v>
       </c>
       <c r="AF13">
         <v>1259083.132284549</v>
@@ -3833,7 +3833,7 @@
         <v>1357528.969725403</v>
       </c>
       <c r="AH13">
-        <v>718290.7136942156</v>
+        <v>718290.7136942155</v>
       </c>
       <c r="AI13">
         <v>861376.5005928504</v>
@@ -3860,10 +3860,10 @@
         <v>2604120.514678237</v>
       </c>
       <c r="AQ13">
-        <v>2749228.26341403</v>
+        <v>2749228.263414029</v>
       </c>
       <c r="AR13">
-        <v>3343910.881214631</v>
+        <v>3343910.88121463</v>
       </c>
       <c r="AS13">
         <v>3407510.108875964</v>
@@ -3872,7 +3872,7 @@
         <v>3425952.136392897</v>
       </c>
       <c r="AU13">
-        <v>3401034.06785596</v>
+        <v>3401034.067855959</v>
       </c>
       <c r="AV13">
         <v>3337980.917943425</v>
@@ -3881,7 +3881,7 @@
         <v>3405236.261870898</v>
       </c>
       <c r="AX13">
-        <v>3292384.40406928</v>
+        <v>3292384.404069279</v>
       </c>
       <c r="AY13">
         <v>3171261.446527156</v>
@@ -3905,7 +3905,7 @@
         <v>2774020.250258195</v>
       </c>
       <c r="BF13">
-        <v>2843883.456012093</v>
+        <v>2843883.456012094</v>
       </c>
       <c r="BG13">
         <v>2907001.234813099</v>
@@ -3914,7 +3914,7 @@
         <v>3036691.065971964</v>
       </c>
       <c r="BI13">
-        <v>3185148.632744798</v>
+        <v>3185148.632744797</v>
       </c>
       <c r="BJ13">
         <v>3343901.588560831</v>
@@ -3926,7 +3926,7 @@
         <v>3664036.872664903</v>
       </c>
       <c r="BM13">
-        <v>3805571.204010419</v>
+        <v>3805571.204010418</v>
       </c>
       <c r="BN13">
         <v>3928648.318573455</v>
@@ -3947,7 +3947,7 @@
         <v>4208750.91172763</v>
       </c>
       <c r="BT13">
-        <v>4205431.057185093</v>
+        <v>4205431.057185092</v>
       </c>
       <c r="BU13">
         <v>4192571.621024861</v>
@@ -3959,13 +3959,13 @@
         <v>4151682.960107686</v>
       </c>
       <c r="BX13">
-        <v>4142634.410681721</v>
+        <v>4142634.41068172</v>
       </c>
       <c r="BY13">
-        <v>4144108.233619565</v>
+        <v>4144108.233619564</v>
       </c>
       <c r="BZ13">
-        <v>4159139.08146442</v>
+        <v>4159139.081464419</v>
       </c>
       <c r="CA13">
         <v>4164436.072086724</v>
@@ -3980,10 +3980,10 @@
         <v>4346294.324283987</v>
       </c>
       <c r="CE13">
-        <v>4431095.567136571</v>
+        <v>4431095.56713657</v>
       </c>
       <c r="CF13">
-        <v>4475688.132199686</v>
+        <v>4475688.132199685</v>
       </c>
       <c r="CG13">
         <v>4570873.220146461</v>
@@ -4004,13 +4004,13 @@
         <v>4910127.65565045</v>
       </c>
       <c r="CM13">
-        <v>4966748.423522212</v>
+        <v>4966748.423522211</v>
       </c>
       <c r="CN13">
         <v>5013461.921701432</v>
       </c>
       <c r="CO13">
-        <v>5051268.225668465</v>
+        <v>5051268.225668464</v>
       </c>
     </row>
     <row r="14" spans="1:93">
@@ -4030,7 +4030,7 @@
         <v>1.719043060373733</v>
       </c>
       <c r="F14">
-        <v>1.815852075558103</v>
+        <v>1.815852075558104</v>
       </c>
       <c r="G14">
         <v>1.830184264181905</v>
@@ -4048,13 +4048,13 @@
         <v>2.034147247409429</v>
       </c>
       <c r="L14">
-        <v>2.058374865163887</v>
+        <v>2.058374865163888</v>
       </c>
       <c r="M14">
         <v>2.192575372817433</v>
       </c>
       <c r="N14">
-        <v>2.329660084793437</v>
+        <v>2.329660084793438</v>
       </c>
       <c r="O14">
         <v>2.129875690998468</v>
@@ -4066,7 +4066,7 @@
         <v>2.354333110350533</v>
       </c>
       <c r="R14">
-        <v>2.410601959287155</v>
+        <v>2.410601959287156</v>
       </c>
       <c r="S14">
         <v>2.631302462641063</v>
@@ -4078,25 +4078,25 @@
         <v>2.767362788519034</v>
       </c>
       <c r="V14">
-        <v>2.835618402026554</v>
+        <v>2.835618402026555</v>
       </c>
       <c r="W14">
         <v>2.903839030763972</v>
       </c>
       <c r="X14">
-        <v>2.968378880223477</v>
+        <v>2.968378880223479</v>
       </c>
       <c r="Y14">
-        <v>3.03382054376458</v>
+        <v>3.033820543764581</v>
       </c>
       <c r="Z14">
-        <v>3.099299771109995</v>
+        <v>3.099299771109996</v>
       </c>
       <c r="AA14">
-        <v>3.164949830583744</v>
+        <v>3.164949830583745</v>
       </c>
       <c r="AB14">
-        <v>3.231701695425958</v>
+        <v>3.231701695425959</v>
       </c>
       <c r="AC14">
         <v>3.124313790520612</v>
@@ -4108,7 +4108,7 @@
         <v>3.260476043350231</v>
       </c>
       <c r="AF14">
-        <v>3.330790180472536</v>
+        <v>3.330790180472537</v>
       </c>
       <c r="AG14">
         <v>3.403096325964104</v>
@@ -4117,40 +4117,40 @@
         <v>3.422539490839896</v>
       </c>
       <c r="AI14">
-        <v>3.498439190987402</v>
+        <v>3.498439190987404</v>
       </c>
       <c r="AJ14">
         <v>3.577997278573626</v>
       </c>
       <c r="AK14">
-        <v>3.662323074482331</v>
+        <v>3.662323074482332</v>
       </c>
       <c r="AL14">
         <v>3.748942808202353</v>
       </c>
       <c r="AM14">
-        <v>3.864428565259684</v>
+        <v>3.864428565259685</v>
       </c>
       <c r="AN14">
-        <v>3.958255745774755</v>
+        <v>3.958255745774756</v>
       </c>
       <c r="AO14">
         <v>4.041755307808995</v>
       </c>
       <c r="AP14">
-        <v>4.118645690568823</v>
+        <v>4.118645690568824</v>
       </c>
       <c r="AQ14">
-        <v>4.192947953922874</v>
+        <v>4.192947953922875</v>
       </c>
       <c r="AR14">
-        <v>4.301152433798947</v>
+        <v>4.301152433798948</v>
       </c>
       <c r="AS14">
-        <v>4.37093876052576</v>
+        <v>4.370938760525763</v>
       </c>
       <c r="AT14">
-        <v>4.438896592772451</v>
+        <v>4.438896592772453</v>
       </c>
       <c r="AU14">
         <v>4.503052324487354</v>
@@ -4162,133 +4162,133 @@
         <v>4.621723299938899</v>
       </c>
       <c r="AX14">
-        <v>4.671432057533522</v>
+        <v>4.671432057533523</v>
       </c>
       <c r="AY14">
         <v>4.732344177914469</v>
       </c>
       <c r="AZ14">
-        <v>4.799659962064035</v>
+        <v>4.799659962064036</v>
       </c>
       <c r="BA14">
-        <v>4.867329417238235</v>
+        <v>4.867329417238236</v>
       </c>
       <c r="BB14">
         <v>4.934193459224272</v>
       </c>
       <c r="BC14">
-        <v>5.010034217311081</v>
+        <v>5.010034217311082</v>
       </c>
       <c r="BD14">
-        <v>5.092311038942413</v>
+        <v>5.092311038942414</v>
       </c>
       <c r="BE14">
-        <v>5.181137237310099</v>
+        <v>5.1811372373101</v>
       </c>
       <c r="BF14">
-        <v>5.275376582102094</v>
+        <v>5.275376582102096</v>
       </c>
       <c r="BG14">
-        <v>5.37547175181514</v>
+        <v>5.375471751815141</v>
       </c>
       <c r="BH14">
         <v>5.482124439431812</v>
       </c>
       <c r="BI14">
-        <v>5.585645545008681</v>
+        <v>5.585645545008682</v>
       </c>
       <c r="BJ14">
-        <v>5.68443240110148</v>
+        <v>5.684432401101482</v>
       </c>
       <c r="BK14">
-        <v>5.780968682680475</v>
+        <v>5.780968682680477</v>
       </c>
       <c r="BL14">
-        <v>5.880238612711688</v>
+        <v>5.88023861271169</v>
       </c>
       <c r="BM14">
-        <v>5.979878568040118</v>
+        <v>5.979878568040121</v>
       </c>
       <c r="BN14">
-        <v>6.074998376838738</v>
+        <v>6.07499837683874</v>
       </c>
       <c r="BO14">
-        <v>6.166041786888929</v>
+        <v>6.16604178688893</v>
       </c>
       <c r="BP14">
         <v>6.252916236141522</v>
       </c>
       <c r="BQ14">
-        <v>6.34113672196724</v>
+        <v>6.341136721967243</v>
       </c>
       <c r="BR14">
-        <v>6.426813368267426</v>
+        <v>6.426813368267427</v>
       </c>
       <c r="BS14">
-        <v>6.513554781961438</v>
+        <v>6.513554781961439</v>
       </c>
       <c r="BT14">
-        <v>6.605234255880447</v>
+        <v>6.605234255880449</v>
       </c>
       <c r="BU14">
         <v>6.699187237239014</v>
       </c>
       <c r="BV14">
-        <v>6.797311188963302</v>
+        <v>6.797311188963303</v>
       </c>
       <c r="BW14">
-        <v>6.896765460119445</v>
+        <v>6.896765460119446</v>
       </c>
       <c r="BX14">
-        <v>6.998479100586728</v>
+        <v>6.99847910058673</v>
       </c>
       <c r="BY14">
-        <v>7.104575396133975</v>
+        <v>7.104575396133976</v>
       </c>
       <c r="BZ14">
         <v>7.215604008127627</v>
       </c>
       <c r="CA14">
-        <v>7.333967938580192</v>
+        <v>7.333967938580193</v>
       </c>
       <c r="CB14">
-        <v>7.455367250011529</v>
+        <v>7.455367250011531</v>
       </c>
       <c r="CC14">
-        <v>7.576506458267868</v>
+        <v>7.576506458267869</v>
       </c>
       <c r="CD14">
-        <v>7.695343537120712</v>
+        <v>7.695343537120714</v>
       </c>
       <c r="CE14">
-        <v>7.811643182028423</v>
+        <v>7.811643182028424</v>
       </c>
       <c r="CF14">
-        <v>7.930863273264206</v>
+        <v>7.930863273264208</v>
       </c>
       <c r="CG14">
-        <v>8.051374634697279</v>
+        <v>8.051374634697281</v>
       </c>
       <c r="CH14">
-        <v>8.170210955235746</v>
+        <v>8.170210955235749</v>
       </c>
       <c r="CI14">
-        <v>8.286172478204115</v>
+        <v>8.286172478204117</v>
       </c>
       <c r="CJ14">
-        <v>8.398918768607494</v>
+        <v>8.398918768607496</v>
       </c>
       <c r="CK14">
         <v>8.51150973111122</v>
       </c>
       <c r="CL14">
-        <v>8.625619955754088</v>
+        <v>8.62561995575409</v>
       </c>
       <c r="CM14">
         <v>8.740038657582833</v>
       </c>
       <c r="CN14">
-        <v>8.858763166776299</v>
+        <v>8.858763166776304</v>
       </c>
       <c r="CO14">
         <v>8.978615684047417</v>
@@ -4301,40 +4301,40 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.0851432209805924</v>
+        <v>0.08514322098059242</v>
       </c>
       <c r="E15">
-        <v>0.08537885388513228</v>
+        <v>0.08537885388513231</v>
       </c>
       <c r="F15">
-        <v>0.08884876404153866</v>
+        <v>0.0888487640415387</v>
       </c>
       <c r="G15">
-        <v>0.08978525472170439</v>
+        <v>0.08978525472170443</v>
       </c>
       <c r="H15">
-        <v>0.08876393051567599</v>
+        <v>0.08876393051567606</v>
       </c>
       <c r="I15">
-        <v>0.08739983202482843</v>
+        <v>0.08739983202482846</v>
       </c>
       <c r="J15">
-        <v>0.09003050217435138</v>
+        <v>0.09003050217435142</v>
       </c>
       <c r="K15">
-        <v>0.09887845697911145</v>
+        <v>0.09887845697911148</v>
       </c>
       <c r="L15">
-        <v>0.1016726435040479</v>
+        <v>0.101672643504048</v>
       </c>
       <c r="M15">
         <v>0.1087008671484538</v>
       </c>
       <c r="N15">
-        <v>0.1155596567960743</v>
+        <v>0.1155596567960744</v>
       </c>
       <c r="O15">
-        <v>0.1056859649362101</v>
+        <v>0.1056859649362102</v>
       </c>
       <c r="P15">
         <v>0.1137234017621607</v>
@@ -4343,16 +4343,16 @@
         <v>0.1165623952347566</v>
       </c>
       <c r="R15">
-        <v>0.1194100917848443</v>
+        <v>0.1194100917848444</v>
       </c>
       <c r="S15">
-        <v>0.1293192569996062</v>
+        <v>0.1293192569996063</v>
       </c>
       <c r="T15">
         <v>0.1327074510913689</v>
       </c>
       <c r="U15">
-        <v>0.1361025192956008</v>
+        <v>0.1361025192956009</v>
       </c>
       <c r="V15">
         <v>0.1395045159059022</v>
@@ -4361,10 +4361,10 @@
         <v>0.1429042236197623</v>
       </c>
       <c r="X15">
-        <v>0.1460316295699813</v>
+        <v>0.1460316295699814</v>
       </c>
       <c r="Y15">
-        <v>0.1492850059965105</v>
+        <v>0.1492850059965106</v>
       </c>
       <c r="Z15">
         <v>0.1525384427868194</v>
@@ -4373,22 +4373,22 @@
         <v>0.1557981128789553</v>
       </c>
       <c r="AB15">
-        <v>0.1591080602855021</v>
+        <v>0.1591080602855023</v>
       </c>
       <c r="AC15">
         <v>0.1549277096843313</v>
       </c>
       <c r="AD15">
-        <v>0.1582641970250713</v>
+        <v>0.1582641970250714</v>
       </c>
       <c r="AE15">
         <v>0.1616450972498583</v>
       </c>
       <c r="AF15">
-        <v>0.165103070107125</v>
+        <v>0.1651030701071251</v>
       </c>
       <c r="AG15">
-        <v>0.1686492374940963</v>
+        <v>0.1686492374940964</v>
       </c>
       <c r="AH15">
         <v>0.1699489940174091</v>
@@ -4400,175 +4400,175 @@
         <v>0.1775059772128338</v>
       </c>
       <c r="AK15">
-        <v>0.1815893507787191</v>
+        <v>0.1815893507787192</v>
       </c>
       <c r="AL15">
-        <v>0.1857763562794571</v>
+        <v>0.1857763562794573</v>
       </c>
       <c r="AM15">
         <v>0.1912213482672827</v>
       </c>
       <c r="AN15">
-        <v>0.1957401281201777</v>
+        <v>0.1957401281201778</v>
       </c>
       <c r="AO15">
-        <v>0.1997699251669379</v>
+        <v>0.199769925166938</v>
       </c>
       <c r="AP15">
-        <v>0.2034920023492951</v>
+        <v>0.2034920023492952</v>
       </c>
       <c r="AQ15">
-        <v>0.2071016668533791</v>
+        <v>0.2071016668533792</v>
       </c>
       <c r="AR15">
         <v>0.2121605505515504</v>
       </c>
       <c r="AS15">
-        <v>0.215576312123493</v>
+        <v>0.2155763121234931</v>
       </c>
       <c r="AT15">
-        <v>0.2189232314380597</v>
+        <v>0.2189232314380598</v>
       </c>
       <c r="AU15">
         <v>0.2221059304839582</v>
       </c>
       <c r="AV15">
-        <v>0.224959246817992</v>
+        <v>0.2249592468179921</v>
       </c>
       <c r="AW15">
-        <v>0.2280037805938508</v>
+        <v>0.228003780593851</v>
       </c>
       <c r="AX15">
-        <v>0.2305337775827183</v>
+        <v>0.2305337775827184</v>
       </c>
       <c r="AY15">
-        <v>0.2336034563787859</v>
+        <v>0.2336034563787861</v>
       </c>
       <c r="AZ15">
-        <v>0.2369789642165134</v>
+        <v>0.2369789642165135</v>
       </c>
       <c r="BA15">
-        <v>0.2403662936959962</v>
+        <v>0.2403662936959963</v>
       </c>
       <c r="BB15">
-        <v>0.2437399513580005</v>
+        <v>0.2437399513580007</v>
       </c>
       <c r="BC15">
-        <v>0.2474980046931931</v>
+        <v>0.2474980046931933</v>
       </c>
       <c r="BD15">
-        <v>0.251549029416369</v>
+        <v>0.2515490294163691</v>
       </c>
       <c r="BE15">
-        <v>0.2558981033403745</v>
+        <v>0.2558981033403747</v>
       </c>
       <c r="BF15">
-        <v>0.2604914430307529</v>
+        <v>0.260491443030753</v>
       </c>
       <c r="BG15">
-        <v>0.2653669510907936</v>
+        <v>0.2653669510907937</v>
       </c>
       <c r="BH15">
-        <v>0.2705295467432391</v>
+        <v>0.2705295467432393</v>
       </c>
       <c r="BI15">
-        <v>0.2755365710171596</v>
+        <v>0.2755365710171597</v>
       </c>
       <c r="BJ15">
-        <v>0.2803140152794655</v>
+        <v>0.2803140152794657</v>
       </c>
       <c r="BK15">
-        <v>0.2849826488011577</v>
+        <v>0.2849826488011579</v>
       </c>
       <c r="BL15">
-        <v>0.2897795882047469</v>
+        <v>0.289779588204747</v>
       </c>
       <c r="BM15">
-        <v>0.2945977104372279</v>
+        <v>0.2945977104372281</v>
       </c>
       <c r="BN15">
         <v>0.2992075679815202</v>
       </c>
       <c r="BO15">
-        <v>0.3036315619519299</v>
+        <v>0.3036315619519301</v>
       </c>
       <c r="BP15">
-        <v>0.3078652732484995</v>
+        <v>0.3078652732484997</v>
       </c>
       <c r="BQ15">
-        <v>0.3121718813027097</v>
+        <v>0.31217188130271</v>
       </c>
       <c r="BR15">
-        <v>0.3163671590563579</v>
+        <v>0.316367159056358</v>
       </c>
       <c r="BS15">
-        <v>0.3206213501329148</v>
+        <v>0.3206213501329149</v>
       </c>
       <c r="BT15">
-        <v>0.3251186233258066</v>
+        <v>0.3251186233258068</v>
       </c>
       <c r="BU15">
-        <v>0.3297284260534326</v>
+        <v>0.3297284260534328</v>
       </c>
       <c r="BV15">
-        <v>0.3345411605224366</v>
+        <v>0.3345411605224367</v>
       </c>
       <c r="BW15">
-        <v>0.3394127789802514</v>
+        <v>0.3394127789802515</v>
       </c>
       <c r="BX15">
-        <v>0.344388243786126</v>
+        <v>0.3443882437861262</v>
       </c>
       <c r="BY15">
-        <v>0.3495695297643041</v>
+        <v>0.3495695297643042</v>
       </c>
       <c r="BZ15">
-        <v>0.3549809837764162</v>
+        <v>0.3549809837764164</v>
       </c>
       <c r="CA15">
-        <v>0.3607443869239016</v>
+        <v>0.3607443869239018</v>
       </c>
       <c r="CB15">
-        <v>0.3666390796513361</v>
+        <v>0.3666390796513363</v>
       </c>
       <c r="CC15">
-        <v>0.3725155261756066</v>
+        <v>0.3725155261756068</v>
       </c>
       <c r="CD15">
-        <v>0.3782772031235593</v>
+        <v>0.3782772031235594</v>
       </c>
       <c r="CE15">
-        <v>0.3839137255199288</v>
+        <v>0.3839137255199289</v>
       </c>
       <c r="CF15">
-        <v>0.3897001545883346</v>
+        <v>0.3897001545883347</v>
       </c>
       <c r="CG15">
-        <v>0.3955324726695304</v>
+        <v>0.3955324726695306</v>
       </c>
       <c r="CH15">
-        <v>0.4012849438968621</v>
+        <v>0.4012849438968623</v>
       </c>
       <c r="CI15">
-        <v>0.4069018101790007</v>
+        <v>0.4069018101790008</v>
       </c>
       <c r="CJ15">
-        <v>0.4123676854027115</v>
+        <v>0.4123676854027116</v>
       </c>
       <c r="CK15">
-        <v>0.4178527840231183</v>
+        <v>0.4178527840231184</v>
       </c>
       <c r="CL15">
-        <v>0.4233912822389161</v>
+        <v>0.4233912822389163</v>
       </c>
       <c r="CM15">
-        <v>0.4289486309006135</v>
+        <v>0.4289486309006137</v>
       </c>
       <c r="CN15">
-        <v>0.4347175331969377</v>
+        <v>0.434717533196938</v>
       </c>
       <c r="CO15">
-        <v>0.4405434760366738</v>
+        <v>0.440543476036674</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -4581,7 +4581,7 @@
         <v>189635.4834094014</v>
       </c>
       <c r="E16">
-        <v>269899.1025181879</v>
+        <v>269899.1025181878</v>
       </c>
       <c r="F16">
         <v>118257.5541715255</v>
@@ -4599,13 +4599,13 @@
         <v>187882.9461176484</v>
       </c>
       <c r="K16">
-        <v>185944.3963714439</v>
+        <v>185944.3963714438</v>
       </c>
       <c r="L16">
         <v>201292.7362436187</v>
       </c>
       <c r="M16">
-        <v>266076.4415331471</v>
+        <v>266076.441533147</v>
       </c>
       <c r="N16">
         <v>278035.9120387133</v>
@@ -4623,49 +4623,49 @@
         <v>1368856.145598284</v>
       </c>
       <c r="S16">
-        <v>4288091.736052247</v>
+        <v>4288091.736052248</v>
       </c>
       <c r="T16">
-        <v>4300169.309018786</v>
+        <v>4300169.309018788</v>
       </c>
       <c r="U16">
-        <v>4313707.181655997</v>
+        <v>4313707.181655999</v>
       </c>
       <c r="V16">
-        <v>4324734.235741635</v>
+        <v>4324734.235741636</v>
       </c>
       <c r="W16">
         <v>4329655.67561935</v>
       </c>
       <c r="X16">
-        <v>3925071.122717497</v>
+        <v>3925071.122717498</v>
       </c>
       <c r="Y16">
-        <v>3934893.197935544</v>
+        <v>3934893.197935546</v>
       </c>
       <c r="Z16">
-        <v>3941653.413756152</v>
+        <v>3941653.413756153</v>
       </c>
       <c r="AA16">
-        <v>3943978.620531576</v>
+        <v>3943978.620531578</v>
       </c>
       <c r="AB16">
-        <v>3966969.229343068</v>
+        <v>3966969.229343069</v>
       </c>
       <c r="AC16">
         <v>595464.200878674</v>
       </c>
       <c r="AD16">
-        <v>625224.0091855704</v>
+        <v>625224.0091855706</v>
       </c>
       <c r="AE16">
-        <v>660274.4893126944</v>
+        <v>660274.4893126946</v>
       </c>
       <c r="AF16">
-        <v>712187.1966649471</v>
+        <v>712187.1966649473</v>
       </c>
       <c r="AG16">
-        <v>780979.5870098167</v>
+        <v>780979.5870098172</v>
       </c>
       <c r="AH16">
         <v>-204320.6123831658</v>
@@ -4674,19 +4674,19 @@
         <v>-132306.3359803364</v>
       </c>
       <c r="AJ16">
-        <v>-62090.85998720668</v>
+        <v>-62090.8599872065</v>
       </c>
       <c r="AK16">
-        <v>79661.31682045483</v>
+        <v>79661.31682045496</v>
       </c>
       <c r="AL16">
-        <v>279886.3827084305</v>
+        <v>279886.3827084308</v>
       </c>
       <c r="AM16">
-        <v>1086809.425673336</v>
+        <v>1086809.425673337</v>
       </c>
       <c r="AN16">
-        <v>1375128.826783042</v>
+        <v>1375128.826783043</v>
       </c>
       <c r="AO16">
         <v>1540237.361471135</v>
@@ -4698,136 +4698,136 @@
         <v>1676949.085159515</v>
       </c>
       <c r="AR16">
-        <v>2521075.877888617</v>
+        <v>2521075.877888618</v>
       </c>
       <c r="AS16">
-        <v>2501526.589498973</v>
+        <v>2501526.589498974</v>
       </c>
       <c r="AT16">
-        <v>2465003.172866537</v>
+        <v>2465003.172866539</v>
       </c>
       <c r="AU16">
-        <v>2391454.259248393</v>
+        <v>2391454.259248394</v>
       </c>
       <c r="AV16">
-        <v>2250100.99920471</v>
+        <v>2250100.999204711</v>
       </c>
       <c r="AW16">
-        <v>2143766.053886424</v>
+        <v>2143766.053886425</v>
       </c>
       <c r="AX16">
-        <v>1886072.284364809</v>
+        <v>1886072.28436481</v>
       </c>
       <c r="AY16">
-        <v>1736910.343240898</v>
+        <v>1736910.343240899</v>
       </c>
       <c r="AZ16">
-        <v>1649491.643238148</v>
+        <v>1649491.643238149</v>
       </c>
       <c r="BA16">
-        <v>1567178.879973271</v>
+        <v>1567178.879973272</v>
       </c>
       <c r="BB16">
         <v>1306551.825677288</v>
       </c>
       <c r="BC16">
-        <v>1241268.7654258</v>
+        <v>1241268.765425801</v>
       </c>
       <c r="BD16">
-        <v>1233736.578805132</v>
+        <v>1233736.578805133</v>
       </c>
       <c r="BE16">
-        <v>1290277.328074455</v>
+        <v>1290277.328074456</v>
       </c>
       <c r="BF16">
-        <v>1415244.944035793</v>
+        <v>1415244.944035794</v>
       </c>
       <c r="BG16">
-        <v>1489421.770407262</v>
+        <v>1489421.770407263</v>
       </c>
       <c r="BH16">
-        <v>1712230.618785716</v>
+        <v>1712230.618785717</v>
       </c>
       <c r="BI16">
-        <v>1897688.499470583</v>
+        <v>1897688.499470584</v>
       </c>
       <c r="BJ16">
-        <v>2024970.745686302</v>
+        <v>2024970.745686303</v>
       </c>
       <c r="BK16">
-        <v>2122051.795926023</v>
+        <v>2122051.795926024</v>
       </c>
       <c r="BL16">
-        <v>2172054.663778421</v>
+        <v>2172054.663778422</v>
       </c>
       <c r="BM16">
-        <v>2252740.794332893</v>
+        <v>2252740.794332894</v>
       </c>
       <c r="BN16">
-        <v>2285373.109213842</v>
+        <v>2285373.109213843</v>
       </c>
       <c r="BO16">
         <v>2276796.435093586</v>
       </c>
       <c r="BP16">
-        <v>2227927.638856931</v>
+        <v>2227927.638856932</v>
       </c>
       <c r="BQ16">
-        <v>2117308.340205943</v>
+        <v>2117308.340205944</v>
       </c>
       <c r="BR16">
-        <v>1994671.0939296</v>
+        <v>1994671.093929601</v>
       </c>
       <c r="BS16">
-        <v>1882659.638935064</v>
+        <v>1882659.638935065</v>
       </c>
       <c r="BT16">
-        <v>1809254.8250858</v>
+        <v>1809254.825085802</v>
       </c>
       <c r="BU16">
-        <v>1757340.227272674</v>
+        <v>1757340.227272675</v>
       </c>
       <c r="BV16">
-        <v>1678333.158267956</v>
+        <v>1678333.158267957</v>
       </c>
       <c r="BW16">
         <v>1627750.877062001</v>
       </c>
       <c r="BX16">
-        <v>1605765.445993913</v>
+        <v>1605765.445993915</v>
       </c>
       <c r="BY16">
-        <v>1627373.439812728</v>
+        <v>1627373.439812729</v>
       </c>
       <c r="BZ16">
-        <v>1695296.715188321</v>
+        <v>1695296.715188322</v>
       </c>
       <c r="CA16">
-        <v>1779525.020893321</v>
+        <v>1779525.020893322</v>
       </c>
       <c r="CB16">
-        <v>1912062.87190586</v>
+        <v>1912062.871905861</v>
       </c>
       <c r="CC16">
         <v>2043292.258147353</v>
       </c>
       <c r="CD16">
-        <v>2146548.901186817</v>
+        <v>2146548.901186818</v>
       </c>
       <c r="CE16">
-        <v>2218135.406008502</v>
+        <v>2218135.406008503</v>
       </c>
       <c r="CF16">
-        <v>2245805.556698673</v>
+        <v>2245805.556698674</v>
       </c>
       <c r="CG16">
-        <v>2286963.367115468</v>
+        <v>2286963.367115469</v>
       </c>
       <c r="CH16">
         <v>2309874.102977485</v>
       </c>
       <c r="CI16">
-        <v>2303856.730696902</v>
+        <v>2303856.730696903</v>
       </c>
       <c r="CJ16">
         <v>2267106.923614049</v>
@@ -4836,16 +4836,16 @@
         <v>2171150.57820366</v>
       </c>
       <c r="CL16">
-        <v>2089848.219140172</v>
+        <v>2089848.219140174</v>
       </c>
       <c r="CM16">
         <v>2009450.648927883</v>
       </c>
       <c r="CN16">
-        <v>1947183.524685245</v>
+        <v>1947183.524685246</v>
       </c>
       <c r="CO16">
-        <v>1906586.560040166</v>
+        <v>1906586.560040167</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -4858,106 +4858,106 @@
         <v>114598.2147953502</v>
       </c>
       <c r="E17">
-        <v>73154.74267550721</v>
+        <v>73154.74267550716</v>
       </c>
       <c r="F17">
-        <v>55747.26028266753</v>
+        <v>55747.26028266754</v>
       </c>
       <c r="G17">
-        <v>55560.96117877006</v>
+        <v>55560.96117877009</v>
       </c>
       <c r="H17">
-        <v>51290.53603036983</v>
+        <v>51290.53603036986</v>
       </c>
       <c r="I17">
-        <v>49380.02783244493</v>
+        <v>49380.02783244496</v>
       </c>
       <c r="J17">
-        <v>45522.48388340467</v>
+        <v>45522.4838834047</v>
       </c>
       <c r="K17">
-        <v>47930.08736730227</v>
+        <v>47930.08736730229</v>
       </c>
       <c r="L17">
-        <v>58156.62131479621</v>
+        <v>58156.62131479623</v>
       </c>
       <c r="M17">
-        <v>58913.82792003602</v>
+        <v>58913.82792003603</v>
       </c>
       <c r="N17">
         <v>63561.82901800082</v>
       </c>
       <c r="O17">
-        <v>73190.52572932247</v>
+        <v>73190.52572932249</v>
       </c>
       <c r="P17">
-        <v>687502.2351020131</v>
+        <v>687502.2351020135</v>
       </c>
       <c r="Q17">
-        <v>689735.1320579217</v>
+        <v>689735.1320579221</v>
       </c>
       <c r="R17">
-        <v>692388.7817647603</v>
+        <v>692388.7817647604</v>
       </c>
       <c r="S17">
-        <v>2234493.224222432</v>
+        <v>2234493.224222433</v>
       </c>
       <c r="T17">
-        <v>2238048.590451123</v>
+        <v>2238048.590451124</v>
       </c>
       <c r="U17">
         <v>2242106.834950659</v>
       </c>
       <c r="V17">
-        <v>2246771.321284288</v>
+        <v>2246771.321284289</v>
       </c>
       <c r="W17">
-        <v>2252253.013425675</v>
+        <v>2252253.013425676</v>
       </c>
       <c r="X17">
-        <v>2431121.175815862</v>
+        <v>2431121.175815863</v>
       </c>
       <c r="Y17">
-        <v>2439546.182813379</v>
+        <v>2439546.18281338</v>
       </c>
       <c r="Z17">
-        <v>2450560.906614692</v>
+        <v>2450560.906614693</v>
       </c>
       <c r="AA17">
-        <v>2465299.810047775</v>
+        <v>2465299.810047776</v>
       </c>
       <c r="AB17">
-        <v>2485229.873310317</v>
+        <v>2485229.873310318</v>
       </c>
       <c r="AC17">
-        <v>834675.992516118</v>
+        <v>834675.9925161186</v>
       </c>
       <c r="AD17">
-        <v>870672.6172274026</v>
+        <v>870672.6172274032</v>
       </c>
       <c r="AE17">
-        <v>918012.3900385684</v>
+        <v>918012.390038569</v>
       </c>
       <c r="AF17">
-        <v>978954.1179897892</v>
+        <v>978954.1179897898</v>
       </c>
       <c r="AG17">
-        <v>1055499.996944524</v>
+        <v>1055499.996944525</v>
       </c>
       <c r="AH17">
-        <v>558463.407668126</v>
+        <v>558463.4076681265</v>
       </c>
       <c r="AI17">
-        <v>669719.0312873642</v>
+        <v>669719.0312873648</v>
       </c>
       <c r="AJ17">
-        <v>798048.8679997757</v>
+        <v>798048.8679997763</v>
       </c>
       <c r="AK17">
-        <v>941437.3515408766</v>
+        <v>941437.3515408771</v>
       </c>
       <c r="AL17">
-        <v>1096262.556669677</v>
+        <v>1096262.556669678</v>
       </c>
       <c r="AM17">
         <v>1575384.977480406</v>
@@ -4966,163 +4966,163 @@
         <v>1735946.796601414</v>
       </c>
       <c r="AO17">
-        <v>1888399.6337814</v>
+        <v>1888399.633781401</v>
       </c>
       <c r="AP17">
-        <v>2024775.959467461</v>
+        <v>2024775.959467462</v>
       </c>
       <c r="AQ17">
-        <v>2137601.624961057</v>
+        <v>2137601.624961058</v>
       </c>
       <c r="AR17">
-        <v>2599966.472368593</v>
+        <v>2599966.472368594</v>
       </c>
       <c r="AS17">
-        <v>2649414.792826143</v>
+        <v>2649414.792826145</v>
       </c>
       <c r="AT17">
-        <v>2663751.069954057</v>
+        <v>2663751.069954058</v>
       </c>
       <c r="AU17">
-        <v>2644372.741353564</v>
+        <v>2644372.741353565</v>
       </c>
       <c r="AV17">
-        <v>2595342.61196246</v>
+        <v>2595342.611962461</v>
       </c>
       <c r="AW17">
-        <v>2647626.299249851</v>
+        <v>2647626.299249853</v>
       </c>
       <c r="AX17">
-        <v>2559875.661997274</v>
+        <v>2559875.661997275</v>
       </c>
       <c r="AY17">
-        <v>2465694.118217662</v>
+        <v>2465694.118217664</v>
       </c>
       <c r="AZ17">
-        <v>2374326.319953952</v>
+        <v>2374326.319953953</v>
       </c>
       <c r="BA17">
-        <v>2294628.307551177</v>
+        <v>2294628.307551179</v>
       </c>
       <c r="BB17">
-        <v>2171959.582419002</v>
+        <v>2171959.582419003</v>
       </c>
       <c r="BC17">
-        <v>2137210.004353964</v>
+        <v>2137210.004353966</v>
       </c>
       <c r="BD17">
-        <v>2131746.654087628</v>
+        <v>2131746.65408763</v>
       </c>
       <c r="BE17">
-        <v>2156811.770979745</v>
+        <v>2156811.770979747</v>
       </c>
       <c r="BF17">
-        <v>2211131.683185091</v>
+        <v>2211131.683185093</v>
       </c>
       <c r="BG17">
-        <v>2260206.31974704</v>
+        <v>2260206.319747041</v>
       </c>
       <c r="BH17">
-        <v>2361043.670904432</v>
+        <v>2361043.670904434</v>
       </c>
       <c r="BI17">
-        <v>2476473.430694858</v>
+        <v>2476473.430694859</v>
       </c>
       <c r="BJ17">
-        <v>2599907.91778328</v>
+        <v>2599907.917783282</v>
       </c>
       <c r="BK17">
-        <v>2724771.032263449</v>
+        <v>2724771.032263451</v>
       </c>
       <c r="BL17">
-        <v>2848816.755536867</v>
+        <v>2848816.75553687</v>
       </c>
       <c r="BM17">
-        <v>2958861.810569854</v>
+        <v>2958861.810569855</v>
       </c>
       <c r="BN17">
-        <v>3054555.278981587</v>
+        <v>3054555.278981589</v>
       </c>
       <c r="BO17">
-        <v>3132984.731851007</v>
+        <v>3132984.73185101</v>
       </c>
       <c r="BP17">
-        <v>3192703.661124306</v>
+        <v>3192703.661124308</v>
       </c>
       <c r="BQ17">
-        <v>3239797.862793843</v>
+        <v>3239797.862793846</v>
       </c>
       <c r="BR17">
-        <v>3263477.945075702</v>
+        <v>3263477.945075705</v>
       </c>
       <c r="BS17">
-        <v>3272322.194220702</v>
+        <v>3272322.194220704</v>
       </c>
       <c r="BT17">
-        <v>3269736.978251938</v>
+        <v>3269736.97825194</v>
       </c>
       <c r="BU17">
-        <v>3259734.635985012</v>
+        <v>3259734.635985014</v>
       </c>
       <c r="BV17">
-        <v>3239945.421659037</v>
+        <v>3239945.42165904</v>
       </c>
       <c r="BW17">
-        <v>3227934.440471945</v>
+        <v>3227934.440471947</v>
       </c>
       <c r="BX17">
-        <v>3220895.994159453</v>
+        <v>3220895.994159455</v>
       </c>
       <c r="BY17">
-        <v>3222039.285124544</v>
+        <v>3222039.285124546</v>
       </c>
       <c r="BZ17">
-        <v>3233723.813936608</v>
+        <v>3233723.813936611</v>
       </c>
       <c r="CA17">
-        <v>3237840.006999861</v>
+        <v>3237840.006999864</v>
       </c>
       <c r="CB17">
-        <v>3273758.15534608</v>
+        <v>3273758.155346083</v>
       </c>
       <c r="CC17">
-        <v>3321378.680409538</v>
+        <v>3321378.68040954</v>
       </c>
       <c r="CD17">
-        <v>3379234.14458948</v>
+        <v>3379234.144589482</v>
       </c>
       <c r="CE17">
-        <v>3445167.566205238</v>
+        <v>3445167.566205241</v>
       </c>
       <c r="CF17">
-        <v>3479838.657360367</v>
+        <v>3479838.65736037</v>
       </c>
       <c r="CG17">
-        <v>3553845.531370513</v>
+        <v>3553845.531370516</v>
       </c>
       <c r="CH17">
-        <v>3627652.282520239</v>
+        <v>3627652.282520242</v>
       </c>
       <c r="CI17">
-        <v>3698682.906649681</v>
+        <v>3698682.906649684</v>
       </c>
       <c r="CJ17">
-        <v>3764775.256245965</v>
+        <v>3764775.256245967</v>
       </c>
       <c r="CK17">
-        <v>3765650.543101235</v>
+        <v>3765650.543101238</v>
       </c>
       <c r="CL17">
-        <v>3817613.613289634</v>
+        <v>3817613.613289637</v>
       </c>
       <c r="CM17">
-        <v>3861634.491633946</v>
+        <v>3861634.491633949</v>
       </c>
       <c r="CN17">
-        <v>3897952.10709588</v>
+        <v>3897952.107095883</v>
       </c>
       <c r="CO17">
-        <v>3927344.098947467</v>
+        <v>3927344.09894747</v>
       </c>
     </row>
   </sheetData>
@@ -5434,58 +5434,58 @@
         <v>1059.16700008873</v>
       </c>
       <c r="E2">
-        <v>2443.488047558777</v>
+        <v>2443.488047558776</v>
       </c>
       <c r="F2">
-        <v>3826.355462599258</v>
+        <v>3826.355462599257</v>
       </c>
       <c r="G2">
-        <v>5139.670423710573</v>
+        <v>5139.670423710571</v>
       </c>
       <c r="H2">
-        <v>6906.401095850435</v>
+        <v>6906.40109585043</v>
       </c>
       <c r="I2">
-        <v>8177.384737794218</v>
+        <v>8177.384737794213</v>
       </c>
       <c r="J2">
         <v>10487.623783016</v>
       </c>
       <c r="K2">
-        <v>12783.36640673638</v>
+        <v>12783.36640673637</v>
       </c>
       <c r="L2">
-        <v>14825.72162234675</v>
+        <v>14825.72162234674</v>
       </c>
       <c r="M2">
-        <v>16710.07456217919</v>
+        <v>16710.07456217918</v>
       </c>
       <c r="N2">
-        <v>20761.91347406943</v>
+        <v>20761.91347406942</v>
       </c>
       <c r="O2">
-        <v>23235.73592511875</v>
+        <v>23235.73592511874</v>
       </c>
       <c r="P2">
-        <v>28193.355618597</v>
+        <v>28193.35561859698</v>
       </c>
       <c r="Q2">
-        <v>33531.22916486989</v>
+        <v>33531.22916486987</v>
       </c>
       <c r="R2">
-        <v>39239.36357069484</v>
+        <v>39239.36357069483</v>
       </c>
       <c r="S2">
-        <v>51730.92095727074</v>
+        <v>51730.92095727073</v>
       </c>
       <c r="T2">
-        <v>65135.24883030636</v>
+        <v>65135.24883030634</v>
       </c>
       <c r="U2">
-        <v>79467.92160669461</v>
+        <v>79467.9216066946</v>
       </c>
       <c r="V2">
-        <v>94756.18451521384</v>
+        <v>94756.18451521383</v>
       </c>
       <c r="W2">
         <v>111019.0658716599</v>
@@ -5500,7 +5500,7 @@
         <v>162923.8418835716</v>
       </c>
       <c r="AA2">
-        <v>182065.1689173198</v>
+        <v>182065.1689173197</v>
       </c>
       <c r="AB2">
         <v>202163.3130674225</v>
@@ -5515,109 +5515,109 @@
         <v>232117.2614725769</v>
       </c>
       <c r="AF2">
-        <v>242730.9504464991</v>
+        <v>242730.950446499</v>
       </c>
       <c r="AG2">
-        <v>253680.3653980541</v>
+        <v>253680.365398054</v>
       </c>
       <c r="AH2">
-        <v>261168.3582876102</v>
+        <v>261168.3582876101</v>
       </c>
       <c r="AI2">
-        <v>269274.7830399995</v>
+        <v>269274.7830399994</v>
       </c>
       <c r="AJ2">
-        <v>277995.0133230459</v>
+        <v>277995.0133230457</v>
       </c>
       <c r="AK2">
-        <v>287767.2100374056</v>
+        <v>287767.2100374055</v>
       </c>
       <c r="AL2">
-        <v>298942.7120974215</v>
+        <v>298942.7120974214</v>
       </c>
       <c r="AM2">
-        <v>313965.7229237379</v>
+        <v>313965.7229237378</v>
       </c>
       <c r="AN2">
-        <v>331452.9371552207</v>
+        <v>331452.9371552205</v>
       </c>
       <c r="AO2">
-        <v>350481.4641881025</v>
+        <v>350481.4641881023</v>
       </c>
       <c r="AP2">
-        <v>370494.5172150059</v>
+        <v>370494.5172150057</v>
       </c>
       <c r="AQ2">
-        <v>391370.8937788755</v>
+        <v>391370.8937788754</v>
       </c>
       <c r="AR2">
-        <v>416240.5036378016</v>
+        <v>416240.5036378014</v>
       </c>
       <c r="AS2">
-        <v>441806.6648911367</v>
+        <v>441806.6648911365</v>
       </c>
       <c r="AT2">
-        <v>468072.8621645715</v>
+        <v>468072.8621645712</v>
       </c>
       <c r="AU2">
-        <v>494698.3923273964</v>
+        <v>494698.3923273961</v>
       </c>
       <c r="AV2">
-        <v>520739.5139876637</v>
+        <v>520739.5139876634</v>
       </c>
       <c r="AW2">
-        <v>545390.2046037626</v>
+        <v>545390.2046037624</v>
       </c>
       <c r="AX2">
-        <v>567371.7426717068</v>
+        <v>567371.7426717066</v>
       </c>
       <c r="AY2">
-        <v>588535.5047353809</v>
+        <v>588535.5047353806</v>
       </c>
       <c r="AZ2">
-        <v>609805.2510845881</v>
+        <v>609805.2510845879</v>
       </c>
       <c r="BA2">
-        <v>630928.0535337386</v>
+        <v>630928.0535337384</v>
       </c>
       <c r="BB2">
-        <v>650582.9551372596</v>
+        <v>650582.9551372593</v>
       </c>
       <c r="BC2">
-        <v>669676.3151899298</v>
+        <v>669676.3151899296</v>
       </c>
       <c r="BD2">
-        <v>689140.0012413767</v>
+        <v>689140.0012413765</v>
       </c>
       <c r="BE2">
-        <v>709683.0456769224</v>
+        <v>709683.0456769222</v>
       </c>
       <c r="BF2">
-        <v>731836.5575080945</v>
+        <v>731836.5575080942</v>
       </c>
       <c r="BG2">
-        <v>755553.0263937815</v>
+        <v>755553.0263937813</v>
       </c>
       <c r="BH2">
-        <v>781761.2359708975</v>
+        <v>781761.2359708973</v>
       </c>
       <c r="BI2">
-        <v>810026.3192973309</v>
+        <v>810026.3192973307</v>
       </c>
       <c r="BJ2">
-        <v>839849.6571480766</v>
+        <v>839849.6571480763</v>
       </c>
       <c r="BK2">
-        <v>871152.6367766584</v>
+        <v>871152.6367766581</v>
       </c>
       <c r="BL2">
-        <v>903840.3276075367</v>
+        <v>903840.3276075365</v>
       </c>
       <c r="BM2">
-        <v>938287.5986852729</v>
+        <v>938287.5986852726</v>
       </c>
       <c r="BN2">
-        <v>973745.7470856642</v>
+        <v>973745.747085664</v>
       </c>
       <c r="BO2">
         <v>1009581.466947272</v>
@@ -5626,22 +5626,22 @@
         <v>1045224.418507193</v>
       </c>
       <c r="BQ2">
-        <v>1079802.632490621</v>
+        <v>1079802.63249062</v>
       </c>
       <c r="BR2">
         <v>1113050.048832938</v>
       </c>
       <c r="BS2">
-        <v>1145106.569020167</v>
+        <v>1145106.569020166</v>
       </c>
       <c r="BT2">
         <v>1176616.653211554</v>
       </c>
       <c r="BU2">
-        <v>1207895.650009838</v>
+        <v>1207895.650009837</v>
       </c>
       <c r="BV2">
-        <v>1238559.8964413</v>
+        <v>1238559.896441299</v>
       </c>
       <c r="BW2">
         <v>1268817.262009205</v>
@@ -5662,43 +5662,43 @@
         <v>1433063.652865221</v>
       </c>
       <c r="CC2">
-        <v>1471059.105776121</v>
+        <v>1471059.10577612</v>
       </c>
       <c r="CD2">
         <v>1510860.097063819</v>
       </c>
       <c r="CE2">
-        <v>1552245.855516067</v>
+        <v>1552245.855516066</v>
       </c>
       <c r="CF2">
         <v>1594859.732501839</v>
       </c>
       <c r="CG2">
-        <v>1638867.06839617</v>
+        <v>1638867.068396169</v>
       </c>
       <c r="CH2">
-        <v>1684009.404335653</v>
+        <v>1684009.404335652</v>
       </c>
       <c r="CI2">
         <v>1729750.011500766</v>
       </c>
       <c r="CJ2">
-        <v>1775479.206979521</v>
+        <v>1775479.20697952</v>
       </c>
       <c r="CK2">
         <v>1820247.724839859</v>
       </c>
       <c r="CL2">
-        <v>1864075.594159499</v>
+        <v>1864075.594159498</v>
       </c>
       <c r="CM2">
-        <v>1906925.32224124</v>
+        <v>1906925.322241239</v>
       </c>
       <c r="CN2">
-        <v>1949040.259212763</v>
+        <v>1949040.259212762</v>
       </c>
       <c r="CO2">
-        <v>1990718.769239214</v>
+        <v>1990718.769239213</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -5708,70 +5708,70 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24710370075032</v>
+        <v>70.24710370075029</v>
       </c>
       <c r="E3">
-        <v>162.2861235832224</v>
+        <v>162.2861235832223</v>
       </c>
       <c r="F3">
-        <v>254.1329010491057</v>
+        <v>254.1329010491055</v>
       </c>
       <c r="G3">
-        <v>341.3073918483198</v>
+        <v>341.3073918483196</v>
       </c>
       <c r="H3">
-        <v>459.0134232344865</v>
+        <v>459.0134232344863</v>
       </c>
       <c r="I3">
-        <v>543.4137259457571</v>
+        <v>543.4137259457567</v>
       </c>
       <c r="J3">
-        <v>697.5245375435944</v>
+        <v>697.524537543594</v>
       </c>
       <c r="K3">
-        <v>850.5402061816609</v>
+        <v>850.5402061816603</v>
       </c>
       <c r="L3">
-        <v>986.5751640967147</v>
+        <v>986.5751640967142</v>
       </c>
       <c r="M3">
-        <v>1111.942454023496</v>
+        <v>1111.942454023495</v>
       </c>
       <c r="N3">
         <v>1382.823663552328</v>
       </c>
       <c r="O3">
-        <v>1547.829254821262</v>
+        <v>1547.829254821261</v>
       </c>
       <c r="P3">
         <v>1879.564418453625</v>
       </c>
       <c r="Q3">
-        <v>2236.818675341014</v>
+        <v>2236.818675341013</v>
       </c>
       <c r="R3">
-        <v>2618.930074442362</v>
+        <v>2618.930074442361</v>
       </c>
       <c r="S3">
-        <v>3456.521900846307</v>
+        <v>3456.521900846306</v>
       </c>
       <c r="T3">
-        <v>4355.411553377227</v>
+        <v>4355.411553377226</v>
       </c>
       <c r="U3">
-        <v>5316.648640247082</v>
+        <v>5316.64864024708</v>
       </c>
       <c r="V3">
-        <v>6342.082974134982</v>
+        <v>6342.08297413498</v>
       </c>
       <c r="W3">
-        <v>7432.995673456704</v>
+        <v>7432.995673456702</v>
       </c>
       <c r="X3">
-        <v>8531.355418998517</v>
+        <v>8531.355418998515</v>
       </c>
       <c r="Y3">
-        <v>9691.702394729289</v>
+        <v>9691.702394729287</v>
       </c>
       <c r="Z3">
         <v>10915.09189136493</v>
@@ -5792,7 +5792,7 @@
         <v>15556.96428476717</v>
       </c>
       <c r="AF3">
-        <v>16268.88645879829</v>
+        <v>16268.88645879828</v>
       </c>
       <c r="AG3">
         <v>17003.3229742631</v>
@@ -5804,13 +5804,13 @@
         <v>18049.38018322014</v>
       </c>
       <c r="AJ3">
-        <v>18634.9640349869</v>
+        <v>18634.96403498689</v>
       </c>
       <c r="AK3">
         <v>19291.89353343643</v>
       </c>
       <c r="AL3">
-        <v>20043.93780964648</v>
+        <v>20043.93780964647</v>
       </c>
       <c r="AM3">
         <v>21055.72369192563</v>
@@ -5861,94 +5861,94 @@
         <v>43736.48829509084</v>
       </c>
       <c r="BC3">
-        <v>45018.39077945143</v>
+        <v>45018.39077945142</v>
       </c>
       <c r="BD3">
-        <v>46325.53666921739</v>
+        <v>46325.53666921738</v>
       </c>
       <c r="BE3">
-        <v>47706.13127995653</v>
+        <v>47706.13127995652</v>
       </c>
       <c r="BF3">
-        <v>49196.28593075313</v>
+        <v>49196.28593075312</v>
       </c>
       <c r="BG3">
-        <v>50793.2440864727</v>
+        <v>50793.24408647269</v>
       </c>
       <c r="BH3">
         <v>52559.60924793458</v>
       </c>
       <c r="BI3">
-        <v>54465.85131737258</v>
+        <v>54465.85131737257</v>
       </c>
       <c r="BJ3">
-        <v>56478.16163442641</v>
+        <v>56478.1616344264</v>
       </c>
       <c r="BK3">
-        <v>58591.66388471878</v>
+        <v>58591.66388471877</v>
       </c>
       <c r="BL3">
-        <v>60800.75431334626</v>
+        <v>60800.75431334625</v>
       </c>
       <c r="BM3">
-        <v>63129.78378885232</v>
+        <v>63129.78378885231</v>
       </c>
       <c r="BN3">
         <v>65526.30804288101</v>
       </c>
       <c r="BO3">
-        <v>67946.89900865711</v>
+        <v>67946.8990086571</v>
       </c>
       <c r="BP3">
-        <v>70352.65249195774</v>
+        <v>70352.65249195772</v>
       </c>
       <c r="BQ3">
-        <v>72684.29155202523</v>
+        <v>72684.29155202521</v>
       </c>
       <c r="BR3">
-        <v>74923.70967203681</v>
+        <v>74923.7096720368</v>
       </c>
       <c r="BS3">
-        <v>77081.01738518217</v>
+        <v>77081.01738518216</v>
       </c>
       <c r="BT3">
-        <v>79200.6374680601</v>
+        <v>79200.63746806009</v>
       </c>
       <c r="BU3">
-        <v>81304.4052380885</v>
+        <v>81304.40523808848</v>
       </c>
       <c r="BV3">
-        <v>83366.65775745412</v>
+        <v>83366.6577574541</v>
       </c>
       <c r="BW3">
-        <v>85401.462262339</v>
+        <v>85401.46226233899</v>
       </c>
       <c r="BX3">
-        <v>87445.38261693312</v>
+        <v>87445.3826169331</v>
       </c>
       <c r="BY3">
-        <v>89545.84314535242</v>
+        <v>89545.84314535241</v>
       </c>
       <c r="BZ3">
-        <v>91739.35607886798</v>
+        <v>91739.35607886796</v>
       </c>
       <c r="CA3">
-        <v>94035.93864722506</v>
+        <v>94035.93864722505</v>
       </c>
       <c r="CB3">
-        <v>96464.52734386877</v>
+        <v>96464.52734386876</v>
       </c>
       <c r="CC3">
-        <v>99030.94785629825</v>
+        <v>99030.94785629824</v>
       </c>
       <c r="CD3">
         <v>101721.5432180281</v>
       </c>
       <c r="CE3">
-        <v>104519.7627133441</v>
+        <v>104519.762713344</v>
       </c>
       <c r="CF3">
-        <v>107400.4763322746</v>
+        <v>107400.4763322745</v>
       </c>
       <c r="CG3">
         <v>110374.2919495166</v>
@@ -5988,37 +5988,37 @@
         <v>379421.6337229096</v>
       </c>
       <c r="E4">
-        <v>755086.0185692711</v>
+        <v>755086.0185692713</v>
       </c>
       <c r="F4">
         <v>1217229.904892687</v>
       </c>
       <c r="G4">
-        <v>1736432.984297136</v>
+        <v>1736432.984297137</v>
       </c>
       <c r="H4">
-        <v>2422797.495172769</v>
+        <v>2422797.49517277</v>
       </c>
       <c r="I4">
-        <v>3067508.644623071</v>
+        <v>3067508.644623072</v>
       </c>
       <c r="J4">
-        <v>3819649.421295032</v>
+        <v>3819649.421295033</v>
       </c>
       <c r="K4">
-        <v>4492544.658126663</v>
+        <v>4492544.658126664</v>
       </c>
       <c r="L4">
-        <v>5057344.207244034</v>
+        <v>5057344.207244035</v>
       </c>
       <c r="M4">
-        <v>6166055.158762395</v>
+        <v>6166055.158762397</v>
       </c>
       <c r="N4">
-        <v>7100956.066840002</v>
+        <v>7100956.066840004</v>
       </c>
       <c r="O4">
-        <v>7993270.103895512</v>
+        <v>7993270.103895514</v>
       </c>
       <c r="P4">
         <v>11258523.44354549</v>
@@ -6039,19 +6039,19 @@
         <v>46591398.37600556</v>
       </c>
       <c r="V4">
-        <v>56269638.62504092</v>
+        <v>56269638.62504091</v>
       </c>
       <c r="W4">
-        <v>66004824.61424813</v>
+        <v>66004824.61424811</v>
       </c>
       <c r="X4">
-        <v>75372110.49601558</v>
+        <v>75372110.49601556</v>
       </c>
       <c r="Y4">
-        <v>84789104.69122994</v>
+        <v>84789104.69122992</v>
       </c>
       <c r="Z4">
-        <v>94257383.27600655</v>
+        <v>94257383.27600653</v>
       </c>
       <c r="AA4">
         <v>103791654.8608837</v>
@@ -6069,7 +6069,7 @@
         <v>119557042.842051</v>
       </c>
       <c r="AF4">
-        <v>121821788.9057487</v>
+        <v>121821788.9057486</v>
       </c>
       <c r="AG4">
         <v>124281789.6886603</v>
@@ -6081,7 +6081,7 @@
         <v>124869217.978598</v>
       </c>
       <c r="AJ4">
-        <v>125559748.7237892</v>
+        <v>125559748.7237891</v>
       </c>
       <c r="AK4">
         <v>126649232.8090592</v>
@@ -6144,13 +6144,13 @@
         <v>186115013.7684709</v>
       </c>
       <c r="BE4">
-        <v>188336379.1737649</v>
+        <v>188336379.1737648</v>
       </c>
       <c r="BF4">
-        <v>190781906.1793428</v>
+        <v>190781906.1793427</v>
       </c>
       <c r="BG4">
-        <v>193347779.789104</v>
+        <v>193347779.7891039</v>
       </c>
       <c r="BH4">
         <v>196222526.226116</v>
@@ -6165,94 +6165,94 @@
         <v>206251700.8509844</v>
       </c>
       <c r="BL4">
-        <v>209827739.1592528</v>
+        <v>209827739.1592527</v>
       </c>
       <c r="BM4">
-        <v>213549648.9245163</v>
+        <v>213549648.9245162</v>
       </c>
       <c r="BN4">
         <v>217327108.75558</v>
       </c>
       <c r="BO4">
-        <v>221078793.2768957</v>
+        <v>221078793.2768956</v>
       </c>
       <c r="BP4">
         <v>224716842.9446326</v>
       </c>
       <c r="BQ4">
-        <v>228078718.7088238</v>
+        <v>228078718.7088237</v>
       </c>
       <c r="BR4">
-        <v>231158618.125252</v>
+        <v>231158618.1252519</v>
       </c>
       <c r="BS4">
-        <v>233985653.8257397</v>
+        <v>233985653.8257396</v>
       </c>
       <c r="BT4">
         <v>236702840.9558561</v>
       </c>
       <c r="BU4">
-        <v>239345948.2967858</v>
+        <v>239345948.2967857</v>
       </c>
       <c r="BV4">
-        <v>241839470.9919187</v>
+        <v>241839470.9919186</v>
       </c>
       <c r="BW4">
-        <v>244244086.1751255</v>
+        <v>244244086.1751254</v>
       </c>
       <c r="BX4">
-        <v>246565010.0668803</v>
+        <v>246565010.0668801</v>
       </c>
       <c r="BY4">
-        <v>248919254.5354427</v>
+        <v>248919254.5354426</v>
       </c>
       <c r="BZ4">
-        <v>251397727.5892262</v>
+        <v>251397727.5892261</v>
       </c>
       <c r="CA4">
-        <v>254007141.2634738</v>
+        <v>254007141.2634737</v>
       </c>
       <c r="CB4">
-        <v>256796964.7965612</v>
+        <v>256796964.796561</v>
       </c>
       <c r="CC4">
-        <v>259763270.3125284</v>
+        <v>259763270.3125283</v>
       </c>
       <c r="CD4">
-        <v>262875370.708744</v>
+        <v>262875370.7087439</v>
       </c>
       <c r="CE4">
-        <v>266095787.2262091</v>
+        <v>266095787.226209</v>
       </c>
       <c r="CF4">
-        <v>269383261.197844</v>
+        <v>269383261.1978438</v>
       </c>
       <c r="CG4">
-        <v>272735130.1974637</v>
+        <v>272735130.1974636</v>
       </c>
       <c r="CH4">
-        <v>276117470.9065863</v>
+        <v>276117470.9065862</v>
       </c>
       <c r="CI4">
-        <v>279472518.1780783</v>
+        <v>279472518.1780782</v>
       </c>
       <c r="CJ4">
-        <v>282734405.9743265</v>
+        <v>282734405.9743264</v>
       </c>
       <c r="CK4">
-        <v>285827664.9528466</v>
+        <v>285827664.9528465</v>
       </c>
       <c r="CL4">
-        <v>288727136.3191499</v>
+        <v>288727136.3191498</v>
       </c>
       <c r="CM4">
-        <v>291441849.75859</v>
+        <v>291441849.7585899</v>
       </c>
       <c r="CN4">
-        <v>294148210.8659043</v>
+        <v>294148210.8659042</v>
       </c>
       <c r="CO4">
-        <v>296829590.5138763</v>
+        <v>296829590.5138761</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -6262,40 +6262,40 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724677.179362034</v>
+        <v>1724677.179362033</v>
       </c>
       <c r="E5">
-        <v>2893588.44991218</v>
+        <v>2893588.449912178</v>
       </c>
       <c r="F5">
-        <v>4034011.414361186</v>
+        <v>4034011.414361184</v>
       </c>
       <c r="G5">
-        <v>5127668.361172829</v>
+        <v>5127668.361172827</v>
       </c>
       <c r="H5">
-        <v>6185832.878676889</v>
+        <v>6185832.878676888</v>
       </c>
       <c r="I5">
-        <v>7563949.363287466</v>
+        <v>7563949.363287464</v>
       </c>
       <c r="J5">
-        <v>9115995.025896845</v>
+        <v>9115995.025896842</v>
       </c>
       <c r="K5">
-        <v>10442766.51183777</v>
+        <v>10442766.51183776</v>
       </c>
       <c r="L5">
-        <v>11626467.82638617</v>
+        <v>11626467.82638616</v>
       </c>
       <c r="M5">
         <v>12980997.50382601</v>
       </c>
       <c r="N5">
-        <v>14410826.19227622</v>
+        <v>14410826.19227621</v>
       </c>
       <c r="O5">
-        <v>16303789.04017872</v>
+        <v>16303789.04017871</v>
       </c>
       <c r="P5">
         <v>30128457.60992458</v>
@@ -6543,7 +6543,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465606491950595</v>
+        <v>0.8465606491950592</v>
       </c>
       <c r="E6">
         <v>1.706082179381926</v>
@@ -6552,7 +6552,7 @@
         <v>2.614008217160977</v>
       </c>
       <c r="G6">
-        <v>3.52910034925193</v>
+        <v>3.529100349251929</v>
       </c>
       <c r="H6">
         <v>4.417981560636526</v>
@@ -6591,7 +6591,7 @@
         <v>16.44056608124824</v>
       </c>
       <c r="T6">
-        <v>17.79019602308701</v>
+        <v>17.790196023087</v>
       </c>
       <c r="U6">
         <v>19.17387741734652</v>
@@ -6600,7 +6600,7 @@
         <v>20.5916866183598</v>
       </c>
       <c r="W6">
-        <v>22.04360613374179</v>
+        <v>22.04360613374178</v>
       </c>
       <c r="X6">
         <v>23.52779557385352</v>
@@ -6621,16 +6621,16 @@
         <v>31.35483838955597</v>
       </c>
       <c r="AD6">
-        <v>32.95077882585659</v>
+        <v>32.95077882585658</v>
       </c>
       <c r="AE6">
-        <v>34.5810168475317</v>
+        <v>34.58101684753169</v>
       </c>
       <c r="AF6">
-        <v>36.24641193776797</v>
+        <v>36.24641193776796</v>
       </c>
       <c r="AG6">
-        <v>37.94796010075002</v>
+        <v>37.94796010075001</v>
       </c>
       <c r="AH6">
         <v>39.65922984616996</v>
@@ -6642,13 +6642,13 @@
         <v>43.19744808095047</v>
       </c>
       <c r="AK6">
-        <v>45.02860961819164</v>
+        <v>45.02860961819163</v>
       </c>
       <c r="AL6">
-        <v>46.90308102229282</v>
+        <v>46.90308102229281</v>
       </c>
       <c r="AM6">
-        <v>48.83529530492266</v>
+        <v>48.83529530492265</v>
       </c>
       <c r="AN6">
         <v>50.81442317781003</v>
@@ -6657,10 +6657,10 @@
         <v>52.83530083171453</v>
       </c>
       <c r="AP6">
-        <v>54.89462367699895</v>
+        <v>54.89462367699894</v>
       </c>
       <c r="AQ6">
-        <v>56.99109765396038</v>
+        <v>56.99109765396037</v>
       </c>
       <c r="AR6">
         <v>59.14167387085985</v>
@@ -6669,7 +6669,7 @@
         <v>61.32714325112273</v>
       </c>
       <c r="AT6">
-        <v>63.54659154750896</v>
+        <v>63.54659154750895</v>
       </c>
       <c r="AU6">
         <v>65.79811770975263</v>
@@ -6810,7 +6810,7 @@
         <v>212.3247291112851</v>
       </c>
       <c r="CO6">
-        <v>216.8140369533089</v>
+        <v>216.8140369533088</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -6829,61 +6829,61 @@
         <v>0.1296854194536317</v>
       </c>
       <c r="G7">
-        <v>0.1745780468144838</v>
+        <v>0.1745780468144839</v>
       </c>
       <c r="H7">
-        <v>0.2189600120723218</v>
+        <v>0.2189600120723219</v>
       </c>
       <c r="I7">
-        <v>0.262659928084736</v>
+        <v>0.2626599280847361</v>
       </c>
       <c r="J7">
-        <v>0.3076751791719117</v>
+        <v>0.3076751791719118</v>
       </c>
       <c r="K7">
-        <v>0.3571144076614674</v>
+        <v>0.3571144076614675</v>
       </c>
       <c r="L7">
-        <v>0.4079507294134914</v>
+        <v>0.4079507294134915</v>
       </c>
       <c r="M7">
-        <v>0.4623011629877182</v>
+        <v>0.4623011629877183</v>
       </c>
       <c r="N7">
-        <v>0.5200809913857554</v>
+        <v>0.5200809913857555</v>
       </c>
       <c r="O7">
-        <v>0.5729239738538604</v>
+        <v>0.5729239738538605</v>
       </c>
       <c r="P7">
-        <v>0.6297856747349407</v>
+        <v>0.6297856747349408</v>
       </c>
       <c r="Q7">
-        <v>0.688066872352319</v>
+        <v>0.6880668723523191</v>
       </c>
       <c r="R7">
-        <v>0.7477719182447412</v>
+        <v>0.7477719182447413</v>
       </c>
       <c r="S7">
-        <v>0.8124315467445443</v>
+        <v>0.8124315467445444</v>
       </c>
       <c r="T7">
-        <v>0.8787852722902287</v>
+        <v>0.8787852722902288</v>
       </c>
       <c r="U7">
-        <v>0.9468365319380291</v>
+        <v>0.9468365319380293</v>
       </c>
       <c r="V7">
         <v>1.01658878989098</v>
       </c>
       <c r="W7">
-        <v>1.088040901700861</v>
+        <v>1.088040901700862</v>
       </c>
       <c r="X7">
         <v>1.161056716485852</v>
       </c>
       <c r="Y7">
-        <v>1.235699219484107</v>
+        <v>1.235699219484108</v>
       </c>
       <c r="Z7">
         <v>1.311968440877517</v>
@@ -6895,13 +6895,13 @@
         <v>1.469421527459746</v>
       </c>
       <c r="AC7">
-        <v>1.546885382301911</v>
+        <v>1.546885382301912</v>
       </c>
       <c r="AD7">
         <v>1.626017480814447</v>
       </c>
       <c r="AE7">
-        <v>1.706840029439376</v>
+        <v>1.706840029439377</v>
       </c>
       <c r="AF7">
         <v>1.789391564492939</v>
@@ -6910,172 +6910,172 @@
         <v>1.873716183239987</v>
       </c>
       <c r="AH7">
-        <v>1.958690680248691</v>
+        <v>1.958690680248692</v>
       </c>
       <c r="AI7">
-        <v>2.045512779798866</v>
+        <v>2.045512779798867</v>
       </c>
       <c r="AJ7">
-        <v>2.134265768405283</v>
+        <v>2.134265768405284</v>
       </c>
       <c r="AK7">
-        <v>2.225060443794642</v>
+        <v>2.225060443794644</v>
       </c>
       <c r="AL7">
-        <v>2.317948621934371</v>
+        <v>2.317948621934372</v>
       </c>
       <c r="AM7">
-        <v>2.413559296068012</v>
+        <v>2.413559296068014</v>
       </c>
       <c r="AN7">
-        <v>2.511429360128101</v>
+        <v>2.511429360128103</v>
       </c>
       <c r="AO7">
-        <v>2.61131432271157</v>
+        <v>2.611314322711571</v>
       </c>
       <c r="AP7">
-        <v>2.713060323886217</v>
+        <v>2.713060323886219</v>
       </c>
       <c r="AQ7">
-        <v>2.816611157312907</v>
+        <v>2.816611157312908</v>
       </c>
       <c r="AR7">
-        <v>2.922691432588682</v>
+        <v>2.922691432588683</v>
       </c>
       <c r="AS7">
-        <v>3.030479588650428</v>
+        <v>3.03047958865043</v>
       </c>
       <c r="AT7">
-        <v>3.139941204369458</v>
+        <v>3.13994120436946</v>
       </c>
       <c r="AU7">
-        <v>3.250994169611437</v>
+        <v>3.250994169611439</v>
       </c>
       <c r="AV7">
-        <v>3.363473793020433</v>
+        <v>3.363473793020435</v>
       </c>
       <c r="AW7">
-        <v>3.477475683317359</v>
+        <v>3.477475683317361</v>
       </c>
       <c r="AX7">
-        <v>3.592742572108718</v>
+        <v>3.59274257210872</v>
       </c>
       <c r="AY7">
-        <v>3.709544300298111</v>
+        <v>3.709544300298113</v>
       </c>
       <c r="AZ7">
-        <v>3.828033782406368</v>
+        <v>3.828033782406369</v>
       </c>
       <c r="BA7">
-        <v>3.948216929254366</v>
+        <v>3.948216929254368</v>
       </c>
       <c r="BB7">
-        <v>4.070086904933366</v>
+        <v>4.070086904933368</v>
       </c>
       <c r="BC7">
-        <v>4.193835907279963</v>
+        <v>4.193835907279965</v>
       </c>
       <c r="BD7">
-        <v>4.319610421988147</v>
+        <v>4.319610421988149</v>
       </c>
       <c r="BE7">
-        <v>4.447559473658335</v>
+        <v>4.447559473658337</v>
       </c>
       <c r="BF7">
-        <v>4.577805195173712</v>
+        <v>4.577805195173713</v>
       </c>
       <c r="BG7">
-        <v>4.710488670719108</v>
+        <v>4.71048867071911</v>
       </c>
       <c r="BH7">
-        <v>4.845753444090728</v>
+        <v>4.84575344409073</v>
       </c>
       <c r="BI7">
-        <v>4.983521729599308</v>
+        <v>4.98352172959931</v>
       </c>
       <c r="BJ7">
-        <v>5.12367873723904</v>
+        <v>5.123678737239042</v>
       </c>
       <c r="BK7">
-        <v>5.266170061639619</v>
+        <v>5.266170061639621</v>
       </c>
       <c r="BL7">
-        <v>5.411059855741993</v>
+        <v>5.411059855741994</v>
       </c>
       <c r="BM7">
-        <v>5.558358710960607</v>
+        <v>5.558358710960609</v>
       </c>
       <c r="BN7">
-        <v>5.707962494951367</v>
+        <v>5.707962494951369</v>
       </c>
       <c r="BO7">
-        <v>5.859778275927332</v>
+        <v>5.859778275927334</v>
       </c>
       <c r="BP7">
-        <v>6.013710912551582</v>
+        <v>6.013710912551583</v>
       </c>
       <c r="BQ7">
-        <v>6.169796853202937</v>
+        <v>6.169796853202938</v>
       </c>
       <c r="BR7">
-        <v>6.327980432731115</v>
+        <v>6.327980432731117</v>
       </c>
       <c r="BS7">
-        <v>6.488291107797572</v>
+        <v>6.488291107797575</v>
       </c>
       <c r="BT7">
-        <v>6.650850419460475</v>
+        <v>6.650850419460478</v>
       </c>
       <c r="BU7">
-        <v>6.815714632487191</v>
+        <v>6.815714632487194</v>
       </c>
       <c r="BV7">
-        <v>6.982985212748409</v>
+        <v>6.982985212748412</v>
       </c>
       <c r="BW7">
-        <v>7.152691602238535</v>
+        <v>7.152691602238538</v>
       </c>
       <c r="BX7">
-        <v>7.324885724131598</v>
+        <v>7.324885724131601</v>
       </c>
       <c r="BY7">
-        <v>7.49967048901375</v>
+        <v>7.499670489013753</v>
       </c>
       <c r="BZ7">
-        <v>7.677160980901959</v>
+        <v>7.677160980901961</v>
       </c>
       <c r="CA7">
-        <v>7.857533174363909</v>
+        <v>7.857533174363912</v>
       </c>
       <c r="CB7">
-        <v>8.040852714189578</v>
+        <v>8.04085271418958</v>
       </c>
       <c r="CC7">
-        <v>8.227110477277382</v>
+        <v>8.227110477277384</v>
       </c>
       <c r="CD7">
-        <v>8.416249078839162</v>
+        <v>8.416249078839163</v>
       </c>
       <c r="CE7">
-        <v>8.608205941599126</v>
+        <v>8.608205941599127</v>
       </c>
       <c r="CF7">
-        <v>8.803056018893292</v>
+        <v>8.803056018893296</v>
       </c>
       <c r="CG7">
-        <v>9.000822255228057</v>
+        <v>9.00082225522806</v>
       </c>
       <c r="CH7">
-        <v>9.201464727176488</v>
+        <v>9.201464727176491</v>
       </c>
       <c r="CI7">
-        <v>9.404915632265988</v>
+        <v>9.404915632265991</v>
       </c>
       <c r="CJ7">
-        <v>9.611099474967343</v>
+        <v>9.611099474967347</v>
       </c>
       <c r="CK7">
-        <v>9.820025866978902</v>
+        <v>9.820025866978906</v>
       </c>
       <c r="CL7">
         <v>10.03172150809836</v>
@@ -7087,7 +7087,7 @@
         <v>10.46355459014714</v>
       </c>
       <c r="CO7">
-        <v>10.68382632816547</v>
+        <v>10.68382632816548</v>
       </c>
     </row>
     <row r="8" spans="1:93">
@@ -7097,133 +7097,133 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804846.9438147575</v>
+        <v>804846.9438147569</v>
       </c>
       <c r="E8">
         <v>1373065.822862478</v>
       </c>
       <c r="F8">
-        <v>1736195.874359264</v>
+        <v>1736195.874359263</v>
       </c>
       <c r="G8">
-        <v>2037965.547211696</v>
+        <v>2037965.547211695</v>
       </c>
       <c r="H8">
-        <v>2361920.095686886</v>
+        <v>2361920.095686884</v>
       </c>
       <c r="I8">
-        <v>2618118.694199646</v>
+        <v>2618118.694199644</v>
       </c>
       <c r="J8">
-        <v>2908352.852458372</v>
+        <v>2908352.85245837</v>
       </c>
       <c r="K8">
-        <v>3163103.986844493</v>
+        <v>3163103.986844491</v>
       </c>
       <c r="L8">
-        <v>3470928.8459015</v>
+        <v>3470928.845901498</v>
       </c>
       <c r="M8">
-        <v>3751356.968159569</v>
+        <v>3751356.968159567</v>
       </c>
       <c r="N8">
-        <v>4088390.232329961</v>
+        <v>4088390.232329958</v>
       </c>
       <c r="O8">
-        <v>4542664.065893492</v>
+        <v>4542664.065893489</v>
       </c>
       <c r="P8">
-        <v>6332239.02486806</v>
+        <v>6332239.024868055</v>
       </c>
       <c r="Q8">
-        <v>8129714.831226625</v>
+        <v>8129714.831226619</v>
       </c>
       <c r="R8">
-        <v>9939138.943405189</v>
+        <v>9939138.943405181</v>
       </c>
       <c r="S8">
-        <v>15697360.23318667</v>
+        <v>15697360.23318666</v>
       </c>
       <c r="T8">
-        <v>21481312.03521631</v>
+        <v>21481312.03521629</v>
       </c>
       <c r="U8">
-        <v>27291285.32059268</v>
+        <v>27291285.32059266</v>
       </c>
       <c r="V8">
-        <v>33129260.84161035</v>
+        <v>33129260.84161033</v>
       </c>
       <c r="W8">
-        <v>38996571.97142388</v>
+        <v>38996571.97142386</v>
       </c>
       <c r="X8">
-        <v>44569787.71778091</v>
+        <v>44569787.71778089</v>
       </c>
       <c r="Y8">
-        <v>50170428.25764126</v>
+        <v>50170428.25764124</v>
       </c>
       <c r="Z8">
-        <v>55802277.43459255</v>
+        <v>55802277.43459252</v>
       </c>
       <c r="AA8">
-        <v>61466161.14686696</v>
+        <v>61466161.14686693</v>
       </c>
       <c r="AB8">
-        <v>67169212.21936184</v>
+        <v>67169212.21936181</v>
       </c>
       <c r="AC8">
-        <v>68381271.03919822</v>
+        <v>68381271.03919819</v>
       </c>
       <c r="AD8">
-        <v>69632978.06729604</v>
+        <v>69632978.06729601</v>
       </c>
       <c r="AE8">
-        <v>70934503.04720227</v>
+        <v>70934503.04720224</v>
       </c>
       <c r="AF8">
-        <v>72300027.37024517</v>
+        <v>72300027.37024514</v>
       </c>
       <c r="AG8">
-        <v>73756230.17990661</v>
+        <v>73756230.17990658</v>
       </c>
       <c r="AH8">
-        <v>73935481.84574074</v>
+        <v>73935481.84574071</v>
       </c>
       <c r="AI8">
-        <v>74222792.12725431</v>
+        <v>74222792.12725428</v>
       </c>
       <c r="AJ8">
-        <v>74681497.64644293</v>
+        <v>74681497.64644291</v>
       </c>
       <c r="AK8">
-        <v>75365662.32359853</v>
+        <v>75365662.3235985</v>
       </c>
       <c r="AL8">
-        <v>76316226.94634123</v>
+        <v>76316226.9463412</v>
       </c>
       <c r="AM8">
-        <v>78422208.46134791</v>
+        <v>78422208.46134788</v>
       </c>
       <c r="AN8">
-        <v>80889300.90771899</v>
+        <v>80889300.90771894</v>
       </c>
       <c r="AO8">
-        <v>83590876.99186796</v>
+        <v>83590876.99186791</v>
       </c>
       <c r="AP8">
-        <v>86440957.1606871</v>
+        <v>86440957.16068706</v>
       </c>
       <c r="AQ8">
-        <v>89398799.05640185</v>
+        <v>89398799.0564018</v>
       </c>
       <c r="AR8">
-        <v>92874699.76227497</v>
+        <v>92874699.76227492</v>
       </c>
       <c r="AS8">
-        <v>96361513.69513473</v>
+        <v>96361513.69513468</v>
       </c>
       <c r="AT8">
-        <v>99824434.07619464</v>
+        <v>99824434.0761946</v>
       </c>
       <c r="AU8">
         <v>103209506.3594516</v>
@@ -7238,22 +7238,22 @@
         <v>112348661.5229733</v>
       </c>
       <c r="AY8">
-        <v>114946355.090796</v>
+        <v>114946355.0907959</v>
       </c>
       <c r="AZ8">
-        <v>117404048.7200145</v>
+        <v>117404048.7200144</v>
       </c>
       <c r="BA8">
         <v>119731746.1934393</v>
       </c>
       <c r="BB8">
-        <v>121852998.1404227</v>
+        <v>121852998.1404226</v>
       </c>
       <c r="BC8">
         <v>123898371.3646962</v>
       </c>
       <c r="BD8">
-        <v>125935298.7186134</v>
+        <v>125935298.7186133</v>
       </c>
       <c r="BE8">
         <v>128050139.3191718</v>
@@ -7262,109 +7262,109 @@
         <v>130317621.7346494</v>
       </c>
       <c r="BG8">
-        <v>132724058.1579016</v>
+        <v>132724058.1579015</v>
       </c>
       <c r="BH8">
-        <v>135394425.9953514</v>
+        <v>135394425.9953513</v>
       </c>
       <c r="BI8">
-        <v>138291200.0709583</v>
+        <v>138291200.0709582</v>
       </c>
       <c r="BJ8">
-        <v>141353894.3384193</v>
+        <v>141353894.3384192</v>
       </c>
       <c r="BK8">
-        <v>144546684.7322311</v>
+        <v>144546684.732231</v>
       </c>
       <c r="BL8">
-        <v>147789817.1300811</v>
+        <v>147789817.130081</v>
       </c>
       <c r="BM8">
-        <v>151127916.1048195</v>
+        <v>151127916.1048194</v>
       </c>
       <c r="BN8">
-        <v>154519439.5554537</v>
+        <v>154519439.5554536</v>
       </c>
       <c r="BO8">
-        <v>157921118.2672037</v>
+        <v>157921118.2672036</v>
       </c>
       <c r="BP8">
-        <v>161282094.2116622</v>
+        <v>161282094.2116621</v>
       </c>
       <c r="BQ8">
-        <v>164499764.6401986</v>
+        <v>164499764.6401985</v>
       </c>
       <c r="BR8">
-        <v>167581620.7758867</v>
+        <v>167581620.7758866</v>
       </c>
       <c r="BS8">
-        <v>170532695.6816046</v>
+        <v>170532695.6816045</v>
       </c>
       <c r="BT8">
-        <v>173412939.5452106</v>
+        <v>173412939.5452105</v>
       </c>
       <c r="BU8">
-        <v>176252159.1644233</v>
+        <v>176252159.1644232</v>
       </c>
       <c r="BV8">
-        <v>179001446.7683817</v>
+        <v>179001446.7683816</v>
       </c>
       <c r="BW8">
-        <v>181701977.582836</v>
+        <v>181701977.5828359</v>
       </c>
       <c r="BX8">
-        <v>184360068.1405401</v>
+        <v>184360068.14054</v>
       </c>
       <c r="BY8">
-        <v>186997003.028126</v>
+        <v>186997003.0281259</v>
       </c>
       <c r="BZ8">
-        <v>189713469.0862219</v>
+        <v>189713469.0862218</v>
       </c>
       <c r="CA8">
-        <v>192504753.0591322</v>
+        <v>192504753.0591321</v>
       </c>
       <c r="CB8">
-        <v>195444331.5953842</v>
+        <v>195444331.5953841</v>
       </c>
       <c r="CC8">
-        <v>198530300.2894337</v>
+        <v>198530300.2894336</v>
       </c>
       <c r="CD8">
         <v>201733251.1560023</v>
       </c>
       <c r="CE8">
-        <v>205019647.4367981</v>
+        <v>205019647.436798</v>
       </c>
       <c r="CF8">
         <v>208313688.6839691</v>
       </c>
       <c r="CG8">
-        <v>211657221.6692401</v>
+        <v>211657221.66924</v>
       </c>
       <c r="CH8">
-        <v>215034824.0097226</v>
+        <v>215034824.0097225</v>
       </c>
       <c r="CI8">
-        <v>218421105.9470103</v>
+        <v>218421105.9470102</v>
       </c>
       <c r="CJ8">
-        <v>221784156.1015176</v>
+        <v>221784156.1015175</v>
       </c>
       <c r="CK8">
-        <v>225015763.7829146</v>
+        <v>225015763.7829145</v>
       </c>
       <c r="CL8">
-        <v>228167890.1567979</v>
+        <v>228167890.1567978</v>
       </c>
       <c r="CM8">
-        <v>231249902.650992</v>
+        <v>231249902.6509919</v>
       </c>
       <c r="CN8">
-        <v>234349646.437465</v>
+        <v>234349646.4374649</v>
       </c>
       <c r="CO8">
-        <v>237446695.8127049</v>
+        <v>237446695.8127047</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -7374,10 +7374,10 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>163715.3845150304</v>
+        <v>163715.3845150303</v>
       </c>
       <c r="E9">
-        <v>268225.4317830072</v>
+        <v>268225.4317830071</v>
       </c>
       <c r="F9">
         <v>347869.6449852617</v>
@@ -7386,262 +7386,262 @@
         <v>427249.4290707335</v>
       </c>
       <c r="H9">
-        <v>500527.9654492632</v>
+        <v>500527.9654492633</v>
       </c>
       <c r="I9">
-        <v>571077.6928366444</v>
+        <v>571077.6928366446</v>
       </c>
       <c r="J9">
-        <v>636116.2890664266</v>
+        <v>636116.2890664269</v>
       </c>
       <c r="K9">
-        <v>704594.3214495761</v>
+        <v>704594.3214495765</v>
       </c>
       <c r="L9">
-        <v>787682.2242620304</v>
+        <v>787682.2242620309</v>
       </c>
       <c r="M9">
-        <v>871851.8929416919</v>
+        <v>871851.8929416925</v>
       </c>
       <c r="N9">
-        <v>962661.2588065134</v>
+        <v>962661.2588065141</v>
       </c>
       <c r="O9">
-        <v>1067226.368872243</v>
+        <v>1067226.368872244</v>
       </c>
       <c r="P9">
-        <v>2049458.155444736</v>
+        <v>2049458.155444738</v>
       </c>
       <c r="Q9">
-        <v>3034879.907526172</v>
+        <v>3034879.907526175</v>
       </c>
       <c r="R9">
-        <v>4024092.731509736</v>
+        <v>4024092.73150974</v>
       </c>
       <c r="S9">
-        <v>7216510.001523696</v>
+        <v>7216510.001523703</v>
       </c>
       <c r="T9">
-        <v>10414006.5977065</v>
+        <v>10414006.59770652</v>
       </c>
       <c r="U9">
-        <v>13617300.98314589</v>
+        <v>13617300.98314591</v>
       </c>
       <c r="V9">
-        <v>16827259.30993248</v>
+        <v>16827259.3099325</v>
       </c>
       <c r="W9">
-        <v>20045049.1493675</v>
+        <v>20045049.14936753</v>
       </c>
       <c r="X9">
-        <v>23518401.43920998</v>
+        <v>23518401.43921</v>
       </c>
       <c r="Y9">
-        <v>27003790.45615401</v>
+        <v>27003790.45615404</v>
       </c>
       <c r="Z9">
-        <v>30504916.19218997</v>
+        <v>30504916.19219</v>
       </c>
       <c r="AA9">
-        <v>34027099.44628362</v>
+        <v>34027099.44628366</v>
       </c>
       <c r="AB9">
-        <v>37577756.88334002</v>
+        <v>37577756.88334007</v>
       </c>
       <c r="AC9">
-        <v>38770274.81639209</v>
+        <v>38770274.81639215</v>
       </c>
       <c r="AD9">
-        <v>40014221.28082762</v>
+        <v>40014221.28082768</v>
       </c>
       <c r="AE9">
-        <v>41325802.22100904</v>
+        <v>41325802.22100911</v>
       </c>
       <c r="AF9">
-        <v>42724450.71642703</v>
+        <v>42724450.7164271</v>
       </c>
       <c r="AG9">
-        <v>44232460.3699467</v>
+        <v>44232460.36994677</v>
       </c>
       <c r="AH9">
-        <v>45030354.01551291</v>
+        <v>45030354.01551298</v>
       </c>
       <c r="AI9">
-        <v>45987198.5469979</v>
+        <v>45987198.54699798</v>
       </c>
       <c r="AJ9">
-        <v>47127387.88346217</v>
+        <v>47127387.88346224</v>
       </c>
       <c r="AK9">
-        <v>48472436.34056974</v>
+        <v>48472436.34056982</v>
       </c>
       <c r="AL9">
-        <v>50038683.6304948</v>
+        <v>50038683.63049489</v>
       </c>
       <c r="AM9">
-        <v>52289453.36811436</v>
+        <v>52289453.36811445</v>
       </c>
       <c r="AN9">
-        <v>54769618.09429637</v>
+        <v>54769618.09429646</v>
       </c>
       <c r="AO9">
-        <v>57467592.68190877</v>
+        <v>57467592.68190887</v>
       </c>
       <c r="AP9">
-        <v>60360408.81293567</v>
+        <v>60360408.81293578</v>
       </c>
       <c r="AQ9">
-        <v>63414419.85903477</v>
+        <v>63414419.85903488</v>
       </c>
       <c r="AR9">
-        <v>67129023.29180828</v>
+        <v>67129023.2918084</v>
       </c>
       <c r="AS9">
-        <v>70914274.78759311</v>
+        <v>70914274.78759325</v>
       </c>
       <c r="AT9">
-        <v>74720009.90301152</v>
+        <v>74720009.90301165</v>
       </c>
       <c r="AU9">
-        <v>78498060.66698377</v>
+        <v>78498060.66698392</v>
       </c>
       <c r="AV9">
-        <v>82206063.58492741</v>
+        <v>82206063.58492756</v>
       </c>
       <c r="AW9">
-        <v>85988768.63813427</v>
+        <v>85988768.63813442</v>
       </c>
       <c r="AX9">
-        <v>89646105.76815468</v>
+        <v>89646105.76815483</v>
       </c>
       <c r="AY9">
-        <v>93168887.03521477</v>
+        <v>93168887.03521492</v>
       </c>
       <c r="AZ9">
-        <v>96561132.312938</v>
+        <v>96561132.31293815</v>
       </c>
       <c r="BA9">
-        <v>99839514.09523924</v>
+        <v>99839514.0952394</v>
       </c>
       <c r="BB9">
-        <v>102942638.5728142</v>
+        <v>102942638.5728144</v>
       </c>
       <c r="BC9">
-        <v>105996117.1707264</v>
+        <v>105996117.1707265</v>
       </c>
       <c r="BD9">
-        <v>109041791.062586</v>
+        <v>109041791.0625862</v>
       </c>
       <c r="BE9">
-        <v>112123276.2503186</v>
+        <v>112123276.2503187</v>
       </c>
       <c r="BF9">
-        <v>115282369.0855077</v>
+        <v>115282369.0855079</v>
       </c>
       <c r="BG9">
-        <v>118511575.8168592</v>
+        <v>118511575.8168593</v>
       </c>
       <c r="BH9">
-        <v>121884849.8430876</v>
+        <v>121884849.8430878</v>
       </c>
       <c r="BI9">
-        <v>125423039.4846975</v>
+        <v>125423039.4846977</v>
       </c>
       <c r="BJ9">
-        <v>129137581.2653344</v>
+        <v>129137581.2653346</v>
       </c>
       <c r="BK9">
-        <v>133030516.4446032</v>
+        <v>133030516.4446035</v>
       </c>
       <c r="BL9">
-        <v>137100678.8243618</v>
+        <v>137100678.824362</v>
       </c>
       <c r="BM9">
-        <v>141328064.3696018</v>
+        <v>141328064.3696021</v>
       </c>
       <c r="BN9">
-        <v>145692169.088108</v>
+        <v>145692169.0881082</v>
       </c>
       <c r="BO9">
-        <v>150168327.9552123</v>
+        <v>150168327.9552125</v>
       </c>
       <c r="BP9">
-        <v>154729809.2687004</v>
+        <v>154729809.2687006</v>
       </c>
       <c r="BQ9">
-        <v>159358577.2173705</v>
+        <v>159358577.2173707</v>
       </c>
       <c r="BR9">
-        <v>164021178.8070579</v>
+        <v>164021178.8070581</v>
       </c>
       <c r="BS9">
-        <v>168696417.9718545</v>
+        <v>168696417.9718547</v>
       </c>
       <c r="BT9">
-        <v>173367965.3025015</v>
+        <v>173367965.3025018</v>
       </c>
       <c r="BU9">
-        <v>178025223.8121616</v>
+        <v>178025223.8121618</v>
       </c>
       <c r="BV9">
-        <v>182654211.3780912</v>
+        <v>182654211.3780914</v>
       </c>
       <c r="BW9">
-        <v>187266040.1385991</v>
+        <v>187266040.1385993</v>
       </c>
       <c r="BX9">
-        <v>191867814.2696525</v>
+        <v>191867814.2696528</v>
       </c>
       <c r="BY9">
-        <v>196471222.9659836</v>
+        <v>196471222.9659839</v>
       </c>
       <c r="BZ9">
-        <v>201091326.4737418</v>
+        <v>201091326.473742</v>
       </c>
       <c r="CA9">
-        <v>205717311.8381039</v>
+        <v>205717311.8381042</v>
       </c>
       <c r="CB9">
-        <v>210394614.6392889</v>
+        <v>210394614.6392892</v>
       </c>
       <c r="CC9">
-        <v>215139954.1287749</v>
+        <v>215139954.1287752</v>
       </c>
       <c r="CD9">
-        <v>219967953.0481257</v>
+        <v>219967953.0481261</v>
       </c>
       <c r="CE9">
-        <v>224890152.4700432</v>
+        <v>224890152.4700436</v>
       </c>
       <c r="CF9">
-        <v>229861887.1714702</v>
+        <v>229861887.1714706</v>
       </c>
       <c r="CG9">
-        <v>234939357.1095563</v>
+        <v>234939357.1095567</v>
       </c>
       <c r="CH9">
-        <v>240122276.4531771</v>
+        <v>240122276.4531775</v>
       </c>
       <c r="CI9">
-        <v>245406679.0188323</v>
+        <v>245406679.0188327</v>
       </c>
       <c r="CJ9">
-        <v>250785509.5437506</v>
+        <v>250785509.543751</v>
       </c>
       <c r="CK9">
-        <v>256165590.883165</v>
+        <v>256165590.8831654</v>
       </c>
       <c r="CL9">
-        <v>261619913.7150048</v>
+        <v>261619913.7150053</v>
       </c>
       <c r="CM9">
-        <v>267137131.0144796</v>
+        <v>267137131.0144801</v>
       </c>
       <c r="CN9">
-        <v>272706237.095476</v>
+        <v>272706237.0954765</v>
       </c>
       <c r="CO9">
-        <v>278317337.2696464</v>
+        <v>278317337.2696469</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -7820,7 +7820,7 @@
         <v>1167.711044935781</v>
       </c>
       <c r="BG10">
-        <v>1201.578194186492</v>
+        <v>1201.578194186491</v>
       </c>
       <c r="BH10">
         <v>1236.117288646157</v>
@@ -7835,7 +7835,7 @@
         <v>1343.544202546891</v>
       </c>
       <c r="BL10">
-        <v>1380.591540514811</v>
+        <v>1380.59154051481</v>
       </c>
       <c r="BM10">
         <v>1418.266641290208</v>
@@ -8212,7 +8212,7 @@
         <v>250327.5712160597</v>
       </c>
       <c r="E12">
-        <v>495618.8668639606</v>
+        <v>495618.8668639605</v>
       </c>
       <c r="F12">
         <v>826037.5688765906</v>
@@ -8245,13 +8245,13 @@
         <v>4726066.723556129</v>
       </c>
       <c r="P12">
-        <v>8298857.181263244</v>
+        <v>8298857.181263246</v>
       </c>
       <c r="Q12">
         <v>11880962.99803533</v>
       </c>
       <c r="R12">
-        <v>15472780.18320103</v>
+        <v>15472780.18320104</v>
       </c>
       <c r="S12">
         <v>27226393.63449847</v>
@@ -8356,7 +8356,7 @@
         <v>342708383.051064</v>
       </c>
       <c r="BA12">
-        <v>354368528.057844</v>
+        <v>354368528.0578441</v>
       </c>
       <c r="BB12">
         <v>365433268.4198273</v>
@@ -8365,10 +8365,10 @@
         <v>376433076.860857</v>
       </c>
       <c r="BD12">
-        <v>387492457.5601952</v>
+        <v>387492457.5601953</v>
       </c>
       <c r="BE12">
-        <v>398725850.8898296</v>
+        <v>398725850.8898297</v>
       </c>
       <c r="BF12">
         <v>410226370.9055555</v>
@@ -8377,19 +8377,19 @@
         <v>421901136.679168</v>
       </c>
       <c r="BH12">
-        <v>433981728.0763303</v>
+        <v>433981728.0763304</v>
       </c>
       <c r="BI12">
         <v>446465727.3861735</v>
       </c>
       <c r="BJ12">
-        <v>459337004.1886174</v>
+        <v>459337004.1886175</v>
       </c>
       <c r="BK12">
         <v>472599970.7846577</v>
       </c>
       <c r="BL12">
-        <v>486378124.0371276</v>
+        <v>486378124.0371277</v>
       </c>
       <c r="BM12">
         <v>500550634.4879572</v>
@@ -8398,7 +8398,7 @@
         <v>515035248.3673251</v>
       </c>
       <c r="BO12">
-        <v>529752908.8707627</v>
+        <v>529752908.8707628</v>
       </c>
       <c r="BP12">
         <v>544632746.7888767</v>
@@ -8425,58 +8425,58 @@
         <v>650317350.6984406</v>
       </c>
       <c r="BX12">
-        <v>665464423.5348839</v>
+        <v>665464423.534884</v>
       </c>
       <c r="BY12">
-        <v>680724231.0636744</v>
+        <v>680724231.0636746</v>
       </c>
       <c r="BZ12">
-        <v>696147554.8021455</v>
+        <v>696147554.8021456</v>
       </c>
       <c r="CA12">
-        <v>711658233.4914941</v>
+        <v>711658233.4914942</v>
       </c>
       <c r="CB12">
-        <v>727401139.108871</v>
+        <v>727401139.1088711</v>
       </c>
       <c r="CC12">
-        <v>743399388.6935591</v>
+        <v>743399388.6935592</v>
       </c>
       <c r="CD12">
-        <v>759658751.6933156</v>
+        <v>759658751.6933157</v>
       </c>
       <c r="CE12">
-        <v>776183007.6012255</v>
+        <v>776183007.6012256</v>
       </c>
       <c r="CF12">
-        <v>792717801.5817834</v>
+        <v>792717801.5817835</v>
       </c>
       <c r="CG12">
-        <v>809534504.9078454</v>
+        <v>809534504.9078455</v>
       </c>
       <c r="CH12">
-        <v>826617157.7200886</v>
+        <v>826617157.7200887</v>
       </c>
       <c r="CI12">
-        <v>843927009.6625301</v>
+        <v>843927009.6625302</v>
       </c>
       <c r="CJ12">
-        <v>861420525.1032469</v>
+        <v>861420525.1032472</v>
       </c>
       <c r="CK12">
-        <v>878612810.7562432</v>
+        <v>878612810.7562435</v>
       </c>
       <c r="CL12">
-        <v>895917263.2486458</v>
+        <v>895917263.248646</v>
       </c>
       <c r="CM12">
-        <v>913315161.3021559</v>
+        <v>913315161.3021561</v>
       </c>
       <c r="CN12">
-        <v>930802453.3654405</v>
+        <v>930802453.3654407</v>
       </c>
       <c r="CO12">
-        <v>948381204.4524165</v>
+        <v>948381204.4524168</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -8486,67 +8486,67 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147351.5091590437</v>
+        <v>147351.5091590436</v>
       </c>
       <c r="E13">
-        <v>241417.4229364537</v>
+        <v>241417.4229364535</v>
       </c>
       <c r="F13">
-        <v>313108.2816952139</v>
+        <v>313108.2816952136</v>
       </c>
       <c r="G13">
-        <v>384564.7504153169</v>
+        <v>384564.7504153167</v>
       </c>
       <c r="H13">
-        <v>450528.751459795</v>
+        <v>450528.7514597948</v>
       </c>
       <c r="I13">
-        <v>514037.8501246017</v>
+        <v>514037.8501246014</v>
       </c>
       <c r="J13">
-        <v>572586.1871637322</v>
+        <v>572586.187163732</v>
       </c>
       <c r="K13">
-        <v>634230.022211272</v>
+        <v>634230.0222112718</v>
       </c>
       <c r="L13">
-        <v>709023.8667042445</v>
+        <v>709023.8667042443</v>
       </c>
       <c r="M13">
-        <v>784791.3889831189</v>
+        <v>784791.3889831187</v>
       </c>
       <c r="N13">
-        <v>866533.9995235794</v>
+        <v>866533.9995235791</v>
       </c>
       <c r="O13">
-        <v>960657.7525327997</v>
+        <v>960657.7525327995</v>
       </c>
       <c r="P13">
         <v>1844846.406944217</v>
       </c>
       <c r="Q13">
-        <v>2731906.267014737</v>
+        <v>2731906.267014736</v>
       </c>
       <c r="R13">
-        <v>3622378.393671127</v>
+        <v>3622378.393671126</v>
       </c>
       <c r="S13">
-        <v>6496150.531045626</v>
+        <v>6496150.531045623</v>
       </c>
       <c r="T13">
-        <v>9374494.548240598</v>
+        <v>9374494.548240595</v>
       </c>
       <c r="U13">
         <v>12258057.19970671</v>
       </c>
       <c r="V13">
-        <v>15147618.21621354</v>
+        <v>15147618.21621353</v>
       </c>
       <c r="W13">
         <v>18044228.69424149</v>
       </c>
       <c r="X13">
-        <v>21170922.03632122</v>
+        <v>21170922.03632121</v>
       </c>
       <c r="Y13">
         <v>24308450.53871309</v>
@@ -8555,10 +8555,10 @@
         <v>27460145.02697678</v>
       </c>
       <c r="AA13">
-        <v>30630795.35911432</v>
+        <v>30630795.35911431</v>
       </c>
       <c r="AB13">
-        <v>33827078.05035246</v>
+        <v>33827078.05035245</v>
       </c>
       <c r="AC13">
         <v>34900603.8719603</v>
@@ -8570,46 +8570,46 @@
         <v>37201131.06401315</v>
       </c>
       <c r="AF13">
-        <v>38460214.19629771</v>
+        <v>38460214.1962977</v>
       </c>
       <c r="AG13">
-        <v>39817743.16602311</v>
+        <v>39817743.1660231</v>
       </c>
       <c r="AH13">
-        <v>40536033.87971732</v>
+        <v>40536033.87971731</v>
       </c>
       <c r="AI13">
-        <v>41397410.38031017</v>
+        <v>41397410.38031016</v>
       </c>
       <c r="AJ13">
         <v>42423831.78570358</v>
       </c>
       <c r="AK13">
-        <v>43634665.10240364</v>
+        <v>43634665.10240363</v>
       </c>
       <c r="AL13">
-        <v>45044619.30216972</v>
+        <v>45044619.30216971</v>
       </c>
       <c r="AM13">
-        <v>47070773.58258712</v>
+        <v>47070773.58258711</v>
       </c>
       <c r="AN13">
         <v>49303427.37132882</v>
       </c>
       <c r="AO13">
-        <v>51732152.23282175</v>
+        <v>51732152.23282174</v>
       </c>
       <c r="AP13">
-        <v>54336272.74749999</v>
+        <v>54336272.74749998</v>
       </c>
       <c r="AQ13">
-        <v>57085501.01091402</v>
+        <v>57085501.01091401</v>
       </c>
       <c r="AR13">
         <v>60429411.89212865</v>
       </c>
       <c r="AS13">
-        <v>63836922.00100462</v>
+        <v>63836922.00100461</v>
       </c>
       <c r="AT13">
         <v>67262874.13739751</v>
@@ -8773,10 +8773,10 @@
         <v>3.412164358763852</v>
       </c>
       <c r="F14">
-        <v>5.228016434321955</v>
+        <v>5.228016434321956</v>
       </c>
       <c r="G14">
-        <v>7.058200698503859</v>
+        <v>7.058200698503861</v>
       </c>
       <c r="H14">
         <v>8.835963121273053</v>
@@ -8785,7 +8785,7 @@
         <v>10.59772217558126</v>
       </c>
       <c r="J14">
-        <v>12.44201184490528</v>
+        <v>12.44201184490529</v>
       </c>
       <c r="K14">
         <v>14.47615909231471</v>
@@ -8812,67 +8812,67 @@
         <v>30.24982969985543</v>
       </c>
       <c r="S14">
-        <v>32.88113216249648</v>
+        <v>32.88113216249649</v>
       </c>
       <c r="T14">
-        <v>35.58039204617401</v>
+        <v>35.58039204617402</v>
       </c>
       <c r="U14">
-        <v>38.34775483469305</v>
+        <v>38.34775483469306</v>
       </c>
       <c r="V14">
-        <v>41.1833732367196</v>
+        <v>41.18337323671961</v>
       </c>
       <c r="W14">
-        <v>44.08721226748357</v>
+        <v>44.08721226748358</v>
       </c>
       <c r="X14">
-        <v>47.05559114770705</v>
+        <v>47.05559114770706</v>
       </c>
       <c r="Y14">
-        <v>50.08941169147162</v>
+        <v>50.08941169147164</v>
       </c>
       <c r="Z14">
-        <v>53.18871146258162</v>
+        <v>53.18871146258164</v>
       </c>
       <c r="AA14">
-        <v>56.35366129316537</v>
+        <v>56.35366129316538</v>
       </c>
       <c r="AB14">
-        <v>59.58536298859133</v>
+        <v>59.58536298859134</v>
       </c>
       <c r="AC14">
-        <v>62.70967677911194</v>
+        <v>62.70967677911195</v>
       </c>
       <c r="AD14">
-        <v>65.90155765171318</v>
+        <v>65.90155765171319</v>
       </c>
       <c r="AE14">
-        <v>69.1620336950634</v>
+        <v>69.16203369506343</v>
       </c>
       <c r="AF14">
-        <v>72.49282387553593</v>
+        <v>72.49282387553596</v>
       </c>
       <c r="AG14">
-        <v>75.89592020150003</v>
+        <v>75.89592020150006</v>
       </c>
       <c r="AH14">
-        <v>79.31845969233993</v>
+        <v>79.31845969233996</v>
       </c>
       <c r="AI14">
-        <v>82.81689888332733</v>
+        <v>82.81689888332735</v>
       </c>
       <c r="AJ14">
-        <v>86.39489616190095</v>
+        <v>86.39489616190097</v>
       </c>
       <c r="AK14">
-        <v>90.05721923638328</v>
+        <v>90.0572192363833</v>
       </c>
       <c r="AL14">
-        <v>93.80616204458563</v>
+        <v>93.80616204458566</v>
       </c>
       <c r="AM14">
-        <v>97.67059060984532</v>
+        <v>97.67059060984535</v>
       </c>
       <c r="AN14">
         <v>101.6288463556201</v>
@@ -8905,25 +8905,25 @@
         <v>140.7779621657828</v>
       </c>
       <c r="AX14">
-        <v>145.4493942233163</v>
+        <v>145.4493942233164</v>
       </c>
       <c r="AY14">
         <v>150.1817384012308</v>
       </c>
       <c r="AZ14">
-        <v>154.9813983632948</v>
+        <v>154.9813983632949</v>
       </c>
       <c r="BA14">
         <v>159.8487277805331</v>
       </c>
       <c r="BB14">
-        <v>164.7829212397573</v>
+        <v>164.7829212397574</v>
       </c>
       <c r="BC14">
         <v>169.7929554570684</v>
       </c>
       <c r="BD14">
-        <v>174.8852664960108</v>
+        <v>174.8852664960109</v>
       </c>
       <c r="BE14">
         <v>180.066403733321</v>
@@ -8941,31 +8941,31 @@
         <v>201.7850220516787</v>
       </c>
       <c r="BJ14">
-        <v>207.4694544527801</v>
+        <v>207.4694544527802</v>
       </c>
       <c r="BK14">
-        <v>213.2504231354606</v>
+        <v>213.2504231354607</v>
       </c>
       <c r="BL14">
         <v>219.1306617481723</v>
       </c>
       <c r="BM14">
-        <v>225.1105403162124</v>
+        <v>225.1105403162125</v>
       </c>
       <c r="BN14">
-        <v>231.1855386930511</v>
+        <v>231.1855386930512</v>
       </c>
       <c r="BO14">
         <v>237.3515804799401</v>
       </c>
       <c r="BP14">
-        <v>243.6044967160816</v>
+        <v>243.6044967160817</v>
       </c>
       <c r="BQ14">
-        <v>249.9456334380488</v>
+        <v>249.9456334380489</v>
       </c>
       <c r="BR14">
-        <v>256.3724468063162</v>
+        <v>256.3724468063163</v>
       </c>
       <c r="BS14">
         <v>262.8860015882777</v>
@@ -8980,13 +8980,13 @@
         <v>282.9877342703605</v>
       </c>
       <c r="BW14">
-        <v>289.8844997304799</v>
+        <v>289.88449973048</v>
       </c>
       <c r="BX14">
         <v>296.8829788310667</v>
       </c>
       <c r="BY14">
-        <v>303.9875542272006</v>
+        <v>303.9875542272007</v>
       </c>
       <c r="BZ14">
         <v>311.2031582353283</v>
@@ -8995,46 +8995,46 @@
         <v>318.5371261739085</v>
       </c>
       <c r="CB14">
-        <v>325.99249342392</v>
+        <v>325.9924934239201</v>
       </c>
       <c r="CC14">
         <v>333.5689998821879</v>
       </c>
       <c r="CD14">
-        <v>341.2643434193086</v>
+        <v>341.2643434193087</v>
       </c>
       <c r="CE14">
-        <v>349.075986601337</v>
+        <v>349.0759866013371</v>
       </c>
       <c r="CF14">
-        <v>357.0068498746012</v>
+        <v>357.0068498746013</v>
       </c>
       <c r="CG14">
-        <v>365.0582245092985</v>
+        <v>365.0582245092986</v>
       </c>
       <c r="CH14">
-        <v>373.2284354645342</v>
+        <v>373.2284354645343</v>
       </c>
       <c r="CI14">
-        <v>381.5146079427383</v>
+        <v>381.5146079427384</v>
       </c>
       <c r="CJ14">
-        <v>389.9135267113458</v>
+        <v>389.9135267113459</v>
       </c>
       <c r="CK14">
-        <v>398.425036442457</v>
+        <v>398.4250364424571</v>
       </c>
       <c r="CL14">
-        <v>407.0506563982111</v>
+        <v>407.0506563982112</v>
       </c>
       <c r="CM14">
-        <v>415.7906950557939</v>
+        <v>415.790695055794</v>
       </c>
       <c r="CN14">
         <v>424.6494582225703</v>
       </c>
       <c r="CO14">
-        <v>433.6280739066177</v>
+        <v>433.6280739066178</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -9044,34 +9044,34 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.0851432209805924</v>
+        <v>0.08514322098059242</v>
       </c>
       <c r="E15">
         <v>0.1705220748657247</v>
       </c>
       <c r="F15">
-        <v>0.2593708389072633</v>
+        <v>0.2593708389072634</v>
       </c>
       <c r="G15">
-        <v>0.3491560936289677</v>
+        <v>0.3491560936289678</v>
       </c>
       <c r="H15">
-        <v>0.4379200241446437</v>
+        <v>0.4379200241446439</v>
       </c>
       <c r="I15">
-        <v>0.5253198561694721</v>
+        <v>0.5253198561694723</v>
       </c>
       <c r="J15">
-        <v>0.6153503583438235</v>
+        <v>0.6153503583438237</v>
       </c>
       <c r="K15">
-        <v>0.7142288153229349</v>
+        <v>0.7142288153229351</v>
       </c>
       <c r="L15">
-        <v>0.8159014588269828</v>
+        <v>0.8159014588269831</v>
       </c>
       <c r="M15">
-        <v>0.9246023259754366</v>
+        <v>0.9246023259754368</v>
       </c>
       <c r="N15">
         <v>1.040161982771511</v>
@@ -9083,7 +9083,7 @@
         <v>1.259571349469882</v>
       </c>
       <c r="Q15">
-        <v>1.376133744704638</v>
+        <v>1.376133744704639</v>
       </c>
       <c r="R15">
         <v>1.495543836489483</v>
@@ -9095,127 +9095,127 @@
         <v>1.757570544580458</v>
       </c>
       <c r="U15">
-        <v>1.893673063876058</v>
+        <v>1.893673063876059</v>
       </c>
       <c r="V15">
-        <v>2.03317757978196</v>
+        <v>2.033177579781961</v>
       </c>
       <c r="W15">
-        <v>2.176081803401723</v>
+        <v>2.176081803401724</v>
       </c>
       <c r="X15">
-        <v>2.322113432971704</v>
+        <v>2.322113432971705</v>
       </c>
       <c r="Y15">
-        <v>2.471398438968214</v>
+        <v>2.471398438968216</v>
       </c>
       <c r="Z15">
-        <v>2.623936881755034</v>
+        <v>2.623936881755035</v>
       </c>
       <c r="AA15">
-        <v>2.779734994633989</v>
+        <v>2.779734994633991</v>
       </c>
       <c r="AB15">
-        <v>2.938843054919491</v>
+        <v>2.938843054919493</v>
       </c>
       <c r="AC15">
-        <v>3.093770764603823</v>
+        <v>3.093770764603824</v>
       </c>
       <c r="AD15">
-        <v>3.252034961628894</v>
+        <v>3.252034961628895</v>
       </c>
       <c r="AE15">
-        <v>3.413680058878752</v>
+        <v>3.413680058878754</v>
       </c>
       <c r="AF15">
-        <v>3.578783128985878</v>
+        <v>3.578783128985879</v>
       </c>
       <c r="AG15">
-        <v>3.747432366479974</v>
+        <v>3.747432366479975</v>
       </c>
       <c r="AH15">
-        <v>3.917381360497383</v>
+        <v>3.917381360497384</v>
       </c>
       <c r="AI15">
-        <v>4.091025559597734</v>
+        <v>4.091025559597735</v>
       </c>
       <c r="AJ15">
-        <v>4.268531536810567</v>
+        <v>4.268531536810569</v>
       </c>
       <c r="AK15">
-        <v>4.450120887589286</v>
+        <v>4.450120887589287</v>
       </c>
       <c r="AL15">
-        <v>4.635897243868743</v>
+        <v>4.635897243868745</v>
       </c>
       <c r="AM15">
-        <v>4.827118592136026</v>
+        <v>4.827118592136028</v>
       </c>
       <c r="AN15">
-        <v>5.022858720256203</v>
+        <v>5.022858720256205</v>
       </c>
       <c r="AO15">
-        <v>5.222628645423141</v>
+        <v>5.222628645423143</v>
       </c>
       <c r="AP15">
-        <v>5.426120647772436</v>
+        <v>5.426120647772438</v>
       </c>
       <c r="AQ15">
-        <v>5.633222314625815</v>
+        <v>5.633222314625817</v>
       </c>
       <c r="AR15">
-        <v>5.845382865177365</v>
+        <v>5.845382865177367</v>
       </c>
       <c r="AS15">
-        <v>6.060959177300858</v>
+        <v>6.06095917730086</v>
       </c>
       <c r="AT15">
-        <v>6.279882408738918</v>
+        <v>6.27988240873892</v>
       </c>
       <c r="AU15">
-        <v>6.501988339222876</v>
+        <v>6.501988339222878</v>
       </c>
       <c r="AV15">
-        <v>6.726947586040868</v>
+        <v>6.72694758604087</v>
       </c>
       <c r="AW15">
-        <v>6.954951366634719</v>
+        <v>6.954951366634721</v>
       </c>
       <c r="AX15">
-        <v>7.185485144217438</v>
+        <v>7.18548514421744</v>
       </c>
       <c r="AY15">
-        <v>7.419088600596224</v>
+        <v>7.419088600596226</v>
       </c>
       <c r="AZ15">
-        <v>7.656067564812737</v>
+        <v>7.656067564812739</v>
       </c>
       <c r="BA15">
-        <v>7.896433858508733</v>
+        <v>7.896433858508735</v>
       </c>
       <c r="BB15">
-        <v>8.140173809866734</v>
+        <v>8.140173809866736</v>
       </c>
       <c r="BC15">
-        <v>8.387671814559928</v>
+        <v>8.38767181455993</v>
       </c>
       <c r="BD15">
-        <v>8.639220843976297</v>
+        <v>8.639220843976299</v>
       </c>
       <c r="BE15">
-        <v>8.895118947316671</v>
+        <v>8.895118947316673</v>
       </c>
       <c r="BF15">
-        <v>9.155610390347425</v>
+        <v>9.155610390347427</v>
       </c>
       <c r="BG15">
-        <v>9.420977341438219</v>
+        <v>9.420977341438221</v>
       </c>
       <c r="BH15">
-        <v>9.691506888181458</v>
+        <v>9.691506888181459</v>
       </c>
       <c r="BI15">
-        <v>9.967043459198617</v>
+        <v>9.967043459198619</v>
       </c>
       <c r="BJ15">
         <v>10.24735747447808</v>
@@ -9236,13 +9236,13 @@
         <v>11.71955655185467</v>
       </c>
       <c r="BP15">
-        <v>12.02742182510316</v>
+        <v>12.02742182510317</v>
       </c>
       <c r="BQ15">
-        <v>12.33959370640587</v>
+        <v>12.33959370640588</v>
       </c>
       <c r="BR15">
-        <v>12.65596086546223</v>
+        <v>12.65596086546224</v>
       </c>
       <c r="BS15">
         <v>12.97658221559515</v>
@@ -9254,7 +9254,7 @@
         <v>13.63142926497439</v>
       </c>
       <c r="BV15">
-        <v>13.96597042549682</v>
+        <v>13.96597042549683</v>
       </c>
       <c r="BW15">
         <v>14.30538320447708</v>
@@ -9269,7 +9269,7 @@
         <v>15.35432196180392</v>
       </c>
       <c r="CA15">
-        <v>15.71506634872782</v>
+        <v>15.71506634872783</v>
       </c>
       <c r="CB15">
         <v>16.08170542837916</v>
@@ -9281,7 +9281,7 @@
         <v>16.83249815767833</v>
       </c>
       <c r="CE15">
-        <v>17.21641188319825</v>
+        <v>17.21641188319826</v>
       </c>
       <c r="CF15">
         <v>17.60611203778659</v>
@@ -9290,28 +9290,28 @@
         <v>18.00164451045612</v>
       </c>
       <c r="CH15">
-        <v>18.40292945435298</v>
+        <v>18.40292945435299</v>
       </c>
       <c r="CI15">
-        <v>18.80983126453198</v>
+        <v>18.80983126453199</v>
       </c>
       <c r="CJ15">
-        <v>19.22219894993469</v>
+        <v>19.2221989499347</v>
       </c>
       <c r="CK15">
-        <v>19.64005173395781</v>
+        <v>19.64005173395782</v>
       </c>
       <c r="CL15">
         <v>20.06344301619673</v>
       </c>
       <c r="CM15">
-        <v>20.49239164709734</v>
+        <v>20.49239164709735</v>
       </c>
       <c r="CN15">
         <v>20.92710918029428</v>
       </c>
       <c r="CO15">
-        <v>21.36765265633095</v>
+        <v>21.36765265633096</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -9324,7 +9324,7 @@
         <v>189635.4834094014</v>
       </c>
       <c r="E16">
-        <v>459534.5859275893</v>
+        <v>459534.5859275892</v>
       </c>
       <c r="F16">
         <v>577792.1400991147</v>
@@ -9348,10 +9348,10 @@
         <v>1772002.177337995</v>
       </c>
       <c r="M16">
-        <v>2038078.618871143</v>
+        <v>2038078.618871142</v>
       </c>
       <c r="N16">
-        <v>2316114.530909856</v>
+        <v>2316114.530909855</v>
       </c>
       <c r="O16">
         <v>2529679.754447213</v>
@@ -9366,7 +9366,7 @@
         <v>6623110.353212588</v>
       </c>
       <c r="S16">
-        <v>10911202.08926483</v>
+        <v>10911202.08926484</v>
       </c>
       <c r="T16">
         <v>15211371.39828362</v>
@@ -9375,136 +9375,136 @@
         <v>19525078.57993962</v>
       </c>
       <c r="V16">
-        <v>23849812.81568125</v>
+        <v>23849812.81568126</v>
       </c>
       <c r="W16">
-        <v>28179468.4913006</v>
+        <v>28179468.49130061</v>
       </c>
       <c r="X16">
         <v>32104539.6140181</v>
       </c>
       <c r="Y16">
-        <v>36039432.81195364</v>
+        <v>36039432.81195365</v>
       </c>
       <c r="Z16">
         <v>39981086.2257098</v>
       </c>
       <c r="AA16">
-        <v>43925064.84624137</v>
+        <v>43925064.84624138</v>
       </c>
       <c r="AB16">
-        <v>47892034.07558444</v>
+        <v>47892034.07558446</v>
       </c>
       <c r="AC16">
-        <v>48487498.27646311</v>
+        <v>48487498.27646313</v>
       </c>
       <c r="AD16">
-        <v>49112722.28564868</v>
+        <v>49112722.2856487</v>
       </c>
       <c r="AE16">
-        <v>49772996.77496137</v>
+        <v>49772996.77496139</v>
       </c>
       <c r="AF16">
-        <v>50485183.97162632</v>
+        <v>50485183.97162633</v>
       </c>
       <c r="AG16">
-        <v>51266163.55863614</v>
+        <v>51266163.55863615</v>
       </c>
       <c r="AH16">
-        <v>51061842.94625297</v>
+        <v>51061842.94625299</v>
       </c>
       <c r="AI16">
-        <v>50929536.61027264</v>
+        <v>50929536.61027265</v>
       </c>
       <c r="AJ16">
-        <v>50867445.75028543</v>
+        <v>50867445.75028545</v>
       </c>
       <c r="AK16">
-        <v>50947107.06710589</v>
+        <v>50947107.0671059</v>
       </c>
       <c r="AL16">
-        <v>51226993.44981432</v>
+        <v>51226993.44981433</v>
       </c>
       <c r="AM16">
-        <v>52313802.87548766</v>
+        <v>52313802.87548767</v>
       </c>
       <c r="AN16">
-        <v>53688931.70227069</v>
+        <v>53688931.70227072</v>
       </c>
       <c r="AO16">
-        <v>55229169.06374183</v>
+        <v>55229169.06374186</v>
       </c>
       <c r="AP16">
-        <v>56854330.68944468</v>
+        <v>56854330.6894447</v>
       </c>
       <c r="AQ16">
-        <v>58531279.77460419</v>
+        <v>58531279.77460422</v>
       </c>
       <c r="AR16">
-        <v>61052355.65249281</v>
+        <v>61052355.65249284</v>
       </c>
       <c r="AS16">
-        <v>63553882.24199179</v>
+        <v>63553882.24199181</v>
       </c>
       <c r="AT16">
-        <v>66018885.41485833</v>
+        <v>66018885.41485835</v>
       </c>
       <c r="AU16">
-        <v>68410339.67410672</v>
+        <v>68410339.67410675</v>
       </c>
       <c r="AV16">
-        <v>70660440.67331143</v>
+        <v>70660440.67331146</v>
       </c>
       <c r="AW16">
-        <v>72804206.72719786</v>
+        <v>72804206.72719789</v>
       </c>
       <c r="AX16">
-        <v>74690279.01156266</v>
+        <v>74690279.01156269</v>
       </c>
       <c r="AY16">
-        <v>76427189.35480356</v>
+        <v>76427189.35480359</v>
       </c>
       <c r="AZ16">
-        <v>78076680.9980417</v>
+        <v>78076680.99804173</v>
       </c>
       <c r="BA16">
-        <v>79643859.87801498</v>
+        <v>79643859.87801501</v>
       </c>
       <c r="BB16">
-        <v>80950411.70369227</v>
+        <v>80950411.7036923</v>
       </c>
       <c r="BC16">
-        <v>82191680.46911807</v>
+        <v>82191680.4691181</v>
       </c>
       <c r="BD16">
-        <v>83425417.04792321</v>
+        <v>83425417.04792324</v>
       </c>
       <c r="BE16">
-        <v>84715694.37599766</v>
+        <v>84715694.37599769</v>
       </c>
       <c r="BF16">
-        <v>86130939.32003346</v>
+        <v>86130939.32003349</v>
       </c>
       <c r="BG16">
-        <v>87620361.09044072</v>
+        <v>87620361.09044075</v>
       </c>
       <c r="BH16">
-        <v>89332591.70922643</v>
+        <v>89332591.70922647</v>
       </c>
       <c r="BI16">
-        <v>91230280.20869701</v>
+        <v>91230280.20869705</v>
       </c>
       <c r="BJ16">
-        <v>93255250.95438331</v>
+        <v>93255250.95438336</v>
       </c>
       <c r="BK16">
-        <v>95377302.75030933</v>
+        <v>95377302.75030938</v>
       </c>
       <c r="BL16">
-        <v>97549357.41408776</v>
+        <v>97549357.4140878</v>
       </c>
       <c r="BM16">
-        <v>99802098.20842065</v>
+        <v>99802098.20842069</v>
       </c>
       <c r="BN16">
         <v>102087471.3176345</v>
@@ -9513,25 +9513,25 @@
         <v>104364267.7527281</v>
       </c>
       <c r="BP16">
-        <v>106592195.391585</v>
+        <v>106592195.3915851</v>
       </c>
       <c r="BQ16">
-        <v>108709503.7317909</v>
+        <v>108709503.731791</v>
       </c>
       <c r="BR16">
-        <v>110704174.8257205</v>
+        <v>110704174.8257206</v>
       </c>
       <c r="BS16">
-        <v>112586834.4646556</v>
+        <v>112586834.4646557</v>
       </c>
       <c r="BT16">
-        <v>114396089.2897414</v>
+        <v>114396089.2897415</v>
       </c>
       <c r="BU16">
         <v>116153429.5170141</v>
       </c>
       <c r="BV16">
-        <v>117831762.675282</v>
+        <v>117831762.6752821</v>
       </c>
       <c r="BW16">
         <v>119459513.5523441</v>
@@ -9543,13 +9543,13 @@
         <v>122692652.4381507</v>
       </c>
       <c r="BZ16">
-        <v>124387949.153339</v>
+        <v>124387949.1533391</v>
       </c>
       <c r="CA16">
-        <v>126167474.1742323</v>
+        <v>126167474.1742324</v>
       </c>
       <c r="CB16">
-        <v>128079537.0461382</v>
+        <v>128079537.0461383</v>
       </c>
       <c r="CC16">
         <v>130122829.3042856</v>
@@ -9558,37 +9558,37 @@
         <v>132269378.2054724</v>
       </c>
       <c r="CE16">
-        <v>134487513.6114809</v>
+        <v>134487513.611481</v>
       </c>
       <c r="CF16">
         <v>136733319.1681796</v>
       </c>
       <c r="CG16">
-        <v>139020282.535295</v>
+        <v>139020282.5352951</v>
       </c>
       <c r="CH16">
-        <v>141330156.6382725</v>
+        <v>141330156.6382726</v>
       </c>
       <c r="CI16">
-        <v>143634013.3689694</v>
+        <v>143634013.3689695</v>
       </c>
       <c r="CJ16">
-        <v>145901120.2925835</v>
+        <v>145901120.2925836</v>
       </c>
       <c r="CK16">
-        <v>148072270.8707871</v>
+        <v>148072270.8707872</v>
       </c>
       <c r="CL16">
-        <v>150162119.0899273</v>
+        <v>150162119.0899274</v>
       </c>
       <c r="CM16">
-        <v>152171569.7388552</v>
+        <v>152171569.7388553</v>
       </c>
       <c r="CN16">
-        <v>154118753.2635404</v>
+        <v>154118753.2635405</v>
       </c>
       <c r="CO16">
-        <v>156025339.8235806</v>
+        <v>156025339.8235807</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -9601,13 +9601,13 @@
         <v>114598.2147953502</v>
       </c>
       <c r="E17">
-        <v>187752.9574708574</v>
+        <v>187752.9574708573</v>
       </c>
       <c r="F17">
-        <v>243500.217753525</v>
+        <v>243500.2177535249</v>
       </c>
       <c r="G17">
-        <v>299061.178932295</v>
+        <v>299061.1789322949</v>
       </c>
       <c r="H17">
         <v>350351.7149626648</v>
@@ -9634,154 +9634,154 @@
         <v>747007.1180279723</v>
       </c>
       <c r="P17">
-        <v>1434509.353129985</v>
+        <v>1434509.353129986</v>
       </c>
       <c r="Q17">
-        <v>2124244.485187907</v>
+        <v>2124244.485187908</v>
       </c>
       <c r="R17">
-        <v>2816633.266952667</v>
+        <v>2816633.266952668</v>
       </c>
       <c r="S17">
-        <v>5051126.491175098</v>
+        <v>5051126.491175102</v>
       </c>
       <c r="T17">
-        <v>7289175.081626222</v>
+        <v>7289175.081626226</v>
       </c>
       <c r="U17">
-        <v>9531281.916576881</v>
+        <v>9531281.916576885</v>
       </c>
       <c r="V17">
         <v>11778053.23786117</v>
       </c>
       <c r="W17">
-        <v>14030306.25128684</v>
+        <v>14030306.25128685</v>
       </c>
       <c r="X17">
-        <v>16461427.4271027</v>
+        <v>16461427.42710271</v>
       </c>
       <c r="Y17">
-        <v>18900973.60991608</v>
+        <v>18900973.60991609</v>
       </c>
       <c r="Z17">
-        <v>21351534.51653077</v>
+        <v>21351534.51653078</v>
       </c>
       <c r="AA17">
-        <v>23816834.32657855</v>
+        <v>23816834.32657856</v>
       </c>
       <c r="AB17">
-        <v>26302064.19988887</v>
+        <v>26302064.19988888</v>
       </c>
       <c r="AC17">
-        <v>27136740.19240499</v>
+        <v>27136740.192405</v>
       </c>
       <c r="AD17">
-        <v>28007412.80963239</v>
+        <v>28007412.8096324</v>
       </c>
       <c r="AE17">
-        <v>28925425.19967096</v>
+        <v>28925425.19967097</v>
       </c>
       <c r="AF17">
-        <v>29904379.31766075</v>
+        <v>29904379.31766076</v>
       </c>
       <c r="AG17">
-        <v>30959879.31460527</v>
+        <v>30959879.31460528</v>
       </c>
       <c r="AH17">
-        <v>31518342.72227339</v>
+        <v>31518342.72227341</v>
       </c>
       <c r="AI17">
-        <v>32188061.75356076</v>
+        <v>32188061.75356077</v>
       </c>
       <c r="AJ17">
-        <v>32986110.62156054</v>
+        <v>32986110.62156055</v>
       </c>
       <c r="AK17">
-        <v>33927547.97310141</v>
+        <v>33927547.97310142</v>
       </c>
       <c r="AL17">
-        <v>35023810.52977109</v>
+        <v>35023810.5297711</v>
       </c>
       <c r="AM17">
-        <v>36599195.50725149</v>
+        <v>36599195.5072515</v>
       </c>
       <c r="AN17">
-        <v>38335142.30385291</v>
+        <v>38335142.30385292</v>
       </c>
       <c r="AO17">
-        <v>40223541.93763431</v>
+        <v>40223541.93763432</v>
       </c>
       <c r="AP17">
-        <v>42248317.89710177</v>
+        <v>42248317.89710178</v>
       </c>
       <c r="AQ17">
-        <v>44385919.52206283</v>
+        <v>44385919.52206284</v>
       </c>
       <c r="AR17">
-        <v>46985885.99443142</v>
+        <v>46985885.99443144</v>
       </c>
       <c r="AS17">
-        <v>49635300.78725757</v>
+        <v>49635300.78725758</v>
       </c>
       <c r="AT17">
-        <v>52299051.85721163</v>
+        <v>52299051.85721164</v>
       </c>
       <c r="AU17">
-        <v>54943424.59856519</v>
+        <v>54943424.59856521</v>
       </c>
       <c r="AV17">
-        <v>57538767.21052765</v>
+        <v>57538767.21052767</v>
       </c>
       <c r="AW17">
-        <v>60186393.5097775</v>
+        <v>60186393.50977752</v>
       </c>
       <c r="AX17">
-        <v>62746269.17177477</v>
+        <v>62746269.17177479</v>
       </c>
       <c r="AY17">
-        <v>65211963.28999244</v>
+        <v>65211963.28999245</v>
       </c>
       <c r="AZ17">
-        <v>67586289.60994639</v>
+        <v>67586289.6099464</v>
       </c>
       <c r="BA17">
-        <v>69880917.91749756</v>
+        <v>69880917.91749758</v>
       </c>
       <c r="BB17">
-        <v>72052877.49991657</v>
+        <v>72052877.49991658</v>
       </c>
       <c r="BC17">
-        <v>74190087.50427054</v>
+        <v>74190087.50427055</v>
       </c>
       <c r="BD17">
-        <v>76321834.15835817</v>
+        <v>76321834.15835819</v>
       </c>
       <c r="BE17">
-        <v>78478645.92933792</v>
+        <v>78478645.92933793</v>
       </c>
       <c r="BF17">
-        <v>80689777.612523</v>
+        <v>80689777.61252302</v>
       </c>
       <c r="BG17">
-        <v>82949983.93227005</v>
+        <v>82949983.93227006</v>
       </c>
       <c r="BH17">
-        <v>85311027.60317448</v>
+        <v>85311027.60317449</v>
       </c>
       <c r="BI17">
-        <v>87787501.03386934</v>
+        <v>87787501.03386936</v>
       </c>
       <c r="BJ17">
-        <v>90387408.95165262</v>
+        <v>90387408.95165263</v>
       </c>
       <c r="BK17">
-        <v>93112179.98391606</v>
+        <v>93112179.98391609</v>
       </c>
       <c r="BL17">
-        <v>95960996.73945293</v>
+        <v>95960996.73945296</v>
       </c>
       <c r="BM17">
-        <v>98919858.55002278</v>
+        <v>98919858.55002281</v>
       </c>
       <c r="BN17">
         <v>101974413.8290044</v>
@@ -9793,13 +9793,13 @@
         <v>108300102.2219797</v>
       </c>
       <c r="BQ17">
-        <v>111539900.0847735</v>
+        <v>111539900.0847736</v>
       </c>
       <c r="BR17">
-        <v>114803378.0298492</v>
+        <v>114803378.0298493</v>
       </c>
       <c r="BS17">
-        <v>118075700.2240699</v>
+        <v>118075700.22407</v>
       </c>
       <c r="BT17">
         <v>121345437.2023219</v>
@@ -9808,13 +9808,13 @@
         <v>124605171.8383069</v>
       </c>
       <c r="BV17">
-        <v>127845117.2599659</v>
+        <v>127845117.259966</v>
       </c>
       <c r="BW17">
         <v>131073051.7004379</v>
       </c>
       <c r="BX17">
-        <v>134293947.6945973</v>
+        <v>134293947.6945974</v>
       </c>
       <c r="BY17">
         <v>137515986.9797219</v>
@@ -9823,16 +9823,16 @@
         <v>140749710.7936585</v>
       </c>
       <c r="CA17">
-        <v>143987550.8006583</v>
+        <v>143987550.8006584</v>
       </c>
       <c r="CB17">
-        <v>147261308.9560044</v>
+        <v>147261308.9560045</v>
       </c>
       <c r="CC17">
         <v>150582687.636414</v>
       </c>
       <c r="CD17">
-        <v>153961921.7810034</v>
+        <v>153961921.7810035</v>
       </c>
       <c r="CE17">
         <v>157407089.3472087</v>
@@ -9844,7 +9844,7 @@
         <v>164440773.5359396</v>
       </c>
       <c r="CH17">
-        <v>168068425.8184598</v>
+        <v>168068425.8184599</v>
       </c>
       <c r="CI17">
         <v>171767108.7251095</v>
@@ -9853,19 +9853,19 @@
         <v>175531883.9813555</v>
       </c>
       <c r="CK17">
-        <v>179297534.5244567</v>
+        <v>179297534.5244568</v>
       </c>
       <c r="CL17">
-        <v>183115148.1377463</v>
+        <v>183115148.1377464</v>
       </c>
       <c r="CM17">
         <v>186976782.6293803</v>
       </c>
       <c r="CN17">
-        <v>190874734.7364761</v>
+        <v>190874734.7364762</v>
       </c>
       <c r="CO17">
-        <v>194802078.8354236</v>
+        <v>194802078.8354237</v>
       </c>
     </row>
   </sheetData>
